--- a/2021年_テトリス/02_基本設計書/【基本設計】画面設計書(処理設計)_会員登録画面.xlsx
+++ b/2021年_テトリス/02_基本設計書/【基本設計】画面設計書(処理設計)_会員登録画面.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itoitomohiro/document/flutter_document/2021年_テトリス/02_基本設計書/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2184C616-25A2-E648-AF9E-BBE25A734FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF495F9-53C2-6C48-8053-B34E839F4486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" activeTab="1" xr2:uid="{3C8D862C-6145-E842-B259-880AA5F992AF}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" activeTab="2" xr2:uid="{3C8D862C-6145-E842-B259-880AA5F992AF}"/>
   </bookViews>
   <sheets>
     <sheet name="ヘッダー" sheetId="2" r:id="rId1"/>
@@ -793,25 +793,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ダイアログを表示し、画面を遷移する(OK =&gt; 編集内容を破棄してメニュー画面へ/Cancel =&gt; 会員登録ページにページに留まる)</t>
-    <rPh sb="6" eb="8">
-      <t>ヒョウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ガメn</t>
-    </rPh>
-    <rPh sb="24" eb="28">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="51" eb="55">
-      <t>カイイn</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>トドマル</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -917,6 +898,25 @@
     </rPh>
     <rPh sb="27" eb="29">
       <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダイアログを表示し、画面を遷移する(OK =&gt; 編集内容を破棄してメニュー画面へ/Cancel =&gt; 会員登録にページに留まる)</t>
+    <rPh sb="6" eb="8">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメn</t>
+    </rPh>
+    <rPh sb="24" eb="28">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="51" eb="55">
+      <t>カイイn</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>トドマル</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1399,33 +1399,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1471,6 +1444,42 @@
     <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1487,15 +1496,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1563,7 +1563,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s3756"/>
+                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s3758"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1622,7 +1622,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s2727"/>
+                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s2729"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2782,191 +2782,191 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:54" ht="15" customHeight="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="68" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="68" t="s">
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
-      <c r="W1" s="69"/>
-      <c r="X1" s="69"/>
-      <c r="Y1" s="69"/>
-      <c r="Z1" s="69"/>
-      <c r="AA1" s="69"/>
-      <c r="AB1" s="69"/>
-      <c r="AC1" s="69"/>
-      <c r="AD1" s="69"/>
-      <c r="AE1" s="70"/>
-      <c r="AF1" s="68" t="s">
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
+      <c r="W1" s="60"/>
+      <c r="X1" s="60"/>
+      <c r="Y1" s="60"/>
+      <c r="Z1" s="60"/>
+      <c r="AA1" s="60"/>
+      <c r="AB1" s="60"/>
+      <c r="AC1" s="60"/>
+      <c r="AD1" s="60"/>
+      <c r="AE1" s="61"/>
+      <c r="AF1" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="AG1" s="69"/>
-      <c r="AH1" s="69"/>
-      <c r="AI1" s="69"/>
-      <c r="AJ1" s="70"/>
-      <c r="AK1" s="68" t="s">
+      <c r="AG1" s="60"/>
+      <c r="AH1" s="60"/>
+      <c r="AI1" s="60"/>
+      <c r="AJ1" s="61"/>
+      <c r="AK1" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="AL1" s="69"/>
-      <c r="AM1" s="69"/>
-      <c r="AN1" s="69"/>
-      <c r="AO1" s="70"/>
-      <c r="AP1" s="68" t="s">
+      <c r="AL1" s="60"/>
+      <c r="AM1" s="60"/>
+      <c r="AN1" s="60"/>
+      <c r="AO1" s="61"/>
+      <c r="AP1" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="AQ1" s="69"/>
-      <c r="AR1" s="69"/>
-      <c r="AS1" s="69"/>
-      <c r="AT1" s="70"/>
-      <c r="AU1" s="68" t="s">
+      <c r="AQ1" s="60"/>
+      <c r="AR1" s="60"/>
+      <c r="AS1" s="60"/>
+      <c r="AT1" s="61"/>
+      <c r="AU1" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="AV1" s="69"/>
-      <c r="AW1" s="69"/>
-      <c r="AX1" s="69"/>
-      <c r="AY1" s="70"/>
+      <c r="AV1" s="60"/>
+      <c r="AW1" s="60"/>
+      <c r="AX1" s="60"/>
+      <c r="AY1" s="61"/>
       <c r="BB1" s="3"/>
     </row>
     <row r="2" spans="1:54" ht="15" customHeight="1">
-      <c r="A2" s="62"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="71" t="s">
+      <c r="A2" s="77"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="71" t="s">
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
-      <c r="T2" s="72"/>
-      <c r="U2" s="72"/>
-      <c r="V2" s="72"/>
-      <c r="W2" s="72"/>
-      <c r="X2" s="72"/>
-      <c r="Y2" s="72"/>
-      <c r="Z2" s="72"/>
-      <c r="AA2" s="72"/>
-      <c r="AB2" s="72"/>
-      <c r="AC2" s="72"/>
-      <c r="AD2" s="72"/>
-      <c r="AE2" s="73"/>
-      <c r="AF2" s="77">
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="63"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="63"/>
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="64"/>
+      <c r="AF2" s="68">
         <v>44555</v>
       </c>
-      <c r="AG2" s="78"/>
-      <c r="AH2" s="78"/>
-      <c r="AI2" s="78"/>
-      <c r="AJ2" s="79"/>
-      <c r="AK2" s="71" t="s">
+      <c r="AG2" s="69"/>
+      <c r="AH2" s="69"/>
+      <c r="AI2" s="69"/>
+      <c r="AJ2" s="70"/>
+      <c r="AK2" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="AL2" s="72"/>
-      <c r="AM2" s="72"/>
-      <c r="AN2" s="72"/>
-      <c r="AO2" s="73"/>
-      <c r="AP2" s="77">
+      <c r="AL2" s="63"/>
+      <c r="AM2" s="63"/>
+      <c r="AN2" s="63"/>
+      <c r="AO2" s="64"/>
+      <c r="AP2" s="68">
         <v>44584</v>
       </c>
-      <c r="AQ2" s="78"/>
-      <c r="AR2" s="78"/>
-      <c r="AS2" s="78"/>
-      <c r="AT2" s="79"/>
-      <c r="AU2" s="71" t="s">
+      <c r="AQ2" s="69"/>
+      <c r="AR2" s="69"/>
+      <c r="AS2" s="69"/>
+      <c r="AT2" s="70"/>
+      <c r="AU2" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="AV2" s="72"/>
-      <c r="AW2" s="72"/>
-      <c r="AX2" s="72"/>
-      <c r="AY2" s="73"/>
+      <c r="AV2" s="63"/>
+      <c r="AW2" s="63"/>
+      <c r="AX2" s="63"/>
+      <c r="AY2" s="64"/>
       <c r="BB2" s="3"/>
     </row>
     <row r="3" spans="1:54" ht="15" customHeight="1">
-      <c r="A3" s="65"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="75"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="75"/>
-      <c r="R3" s="75"/>
-      <c r="S3" s="75"/>
-      <c r="T3" s="75"/>
-      <c r="U3" s="75"/>
-      <c r="V3" s="75"/>
-      <c r="W3" s="75"/>
-      <c r="X3" s="75"/>
-      <c r="Y3" s="75"/>
-      <c r="Z3" s="75"/>
-      <c r="AA3" s="75"/>
-      <c r="AB3" s="75"/>
-      <c r="AC3" s="75"/>
-      <c r="AD3" s="75"/>
-      <c r="AE3" s="76"/>
-      <c r="AF3" s="80"/>
-      <c r="AG3" s="81"/>
-      <c r="AH3" s="81"/>
-      <c r="AI3" s="81"/>
-      <c r="AJ3" s="82"/>
-      <c r="AK3" s="74"/>
-      <c r="AL3" s="75"/>
-      <c r="AM3" s="75"/>
-      <c r="AN3" s="75"/>
-      <c r="AO3" s="76"/>
-      <c r="AP3" s="80"/>
-      <c r="AQ3" s="81"/>
-      <c r="AR3" s="81"/>
-      <c r="AS3" s="81"/>
-      <c r="AT3" s="82"/>
-      <c r="AU3" s="74"/>
-      <c r="AV3" s="75"/>
-      <c r="AW3" s="75"/>
-      <c r="AX3" s="75"/>
-      <c r="AY3" s="76"/>
+      <c r="A3" s="80"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="66"/>
+      <c r="T3" s="66"/>
+      <c r="U3" s="66"/>
+      <c r="V3" s="66"/>
+      <c r="W3" s="66"/>
+      <c r="X3" s="66"/>
+      <c r="Y3" s="66"/>
+      <c r="Z3" s="66"/>
+      <c r="AA3" s="66"/>
+      <c r="AB3" s="66"/>
+      <c r="AC3" s="66"/>
+      <c r="AD3" s="66"/>
+      <c r="AE3" s="67"/>
+      <c r="AF3" s="71"/>
+      <c r="AG3" s="72"/>
+      <c r="AH3" s="72"/>
+      <c r="AI3" s="72"/>
+      <c r="AJ3" s="73"/>
+      <c r="AK3" s="65"/>
+      <c r="AL3" s="66"/>
+      <c r="AM3" s="66"/>
+      <c r="AN3" s="66"/>
+      <c r="AO3" s="67"/>
+      <c r="AP3" s="71"/>
+      <c r="AQ3" s="72"/>
+      <c r="AR3" s="72"/>
+      <c r="AS3" s="72"/>
+      <c r="AT3" s="73"/>
+      <c r="AU3" s="65"/>
+      <c r="AV3" s="66"/>
+      <c r="AW3" s="66"/>
+      <c r="AX3" s="66"/>
+      <c r="AY3" s="67"/>
       <c r="BB3" s="3"/>
     </row>
     <row r="4" spans="1:54" ht="15" customHeight="1">
@@ -2983,6 +2983,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:E3"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="K1:AE1"/>
+    <mergeCell ref="K2:AE3"/>
+    <mergeCell ref="F2:J3"/>
     <mergeCell ref="AF1:AJ1"/>
     <mergeCell ref="AK1:AO1"/>
     <mergeCell ref="AP1:AT1"/>
@@ -2991,11 +2996,6 @@
     <mergeCell ref="AP2:AT3"/>
     <mergeCell ref="AK2:AO3"/>
     <mergeCell ref="AF2:AJ3"/>
-    <mergeCell ref="A1:E3"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="K1:AE1"/>
-    <mergeCell ref="K2:AE3"/>
-    <mergeCell ref="F2:J3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3007,8 +3007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2B6673E-2360-A946-8C72-565FE4FC3012}">
   <dimension ref="A1:AZ35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10:AL10"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="16"/>
@@ -3097,64 +3097,64 @@
         <v>1</v>
       </c>
       <c r="B8" s="10"/>
-      <c r="C8" s="89" t="s">
+      <c r="C8" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="83">
+      <c r="D8" s="84"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="86">
         <v>44555</v>
       </c>
-      <c r="H8" s="84"/>
-      <c r="I8" s="84"/>
-      <c r="J8" s="84"/>
-      <c r="K8" s="85"/>
-      <c r="L8" s="86" t="s">
+      <c r="H8" s="87"/>
+      <c r="I8" s="87"/>
+      <c r="J8" s="87"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="M8" s="87"/>
-      <c r="N8" s="87"/>
-      <c r="O8" s="87"/>
-      <c r="P8" s="88"/>
-      <c r="Q8" s="86" t="s">
+      <c r="M8" s="90"/>
+      <c r="N8" s="90"/>
+      <c r="O8" s="90"/>
+      <c r="P8" s="91"/>
+      <c r="Q8" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="R8" s="87"/>
-      <c r="S8" s="87"/>
-      <c r="T8" s="87"/>
-      <c r="U8" s="87"/>
-      <c r="V8" s="87"/>
-      <c r="W8" s="87"/>
-      <c r="X8" s="87"/>
-      <c r="Y8" s="87"/>
-      <c r="Z8" s="87"/>
-      <c r="AA8" s="87"/>
-      <c r="AB8" s="87"/>
-      <c r="AC8" s="87"/>
-      <c r="AD8" s="87"/>
-      <c r="AE8" s="87"/>
-      <c r="AF8" s="87"/>
-      <c r="AG8" s="87"/>
-      <c r="AH8" s="87"/>
-      <c r="AI8" s="87"/>
-      <c r="AJ8" s="87"/>
-      <c r="AK8" s="87"/>
-      <c r="AL8" s="88"/>
-      <c r="AM8" s="86"/>
-      <c r="AN8" s="87"/>
-      <c r="AO8" s="87"/>
-      <c r="AP8" s="87"/>
-      <c r="AQ8" s="87"/>
-      <c r="AR8" s="87"/>
-      <c r="AS8" s="87"/>
-      <c r="AT8" s="87"/>
-      <c r="AU8" s="87"/>
-      <c r="AV8" s="87"/>
-      <c r="AW8" s="87"/>
-      <c r="AX8" s="87"/>
-      <c r="AY8" s="87"/>
-      <c r="AZ8" s="88"/>
+      <c r="R8" s="90"/>
+      <c r="S8" s="90"/>
+      <c r="T8" s="90"/>
+      <c r="U8" s="90"/>
+      <c r="V8" s="90"/>
+      <c r="W8" s="90"/>
+      <c r="X8" s="90"/>
+      <c r="Y8" s="90"/>
+      <c r="Z8" s="90"/>
+      <c r="AA8" s="90"/>
+      <c r="AB8" s="90"/>
+      <c r="AC8" s="90"/>
+      <c r="AD8" s="90"/>
+      <c r="AE8" s="90"/>
+      <c r="AF8" s="90"/>
+      <c r="AG8" s="90"/>
+      <c r="AH8" s="90"/>
+      <c r="AI8" s="90"/>
+      <c r="AJ8" s="90"/>
+      <c r="AK8" s="90"/>
+      <c r="AL8" s="91"/>
+      <c r="AM8" s="89"/>
+      <c r="AN8" s="90"/>
+      <c r="AO8" s="90"/>
+      <c r="AP8" s="90"/>
+      <c r="AQ8" s="90"/>
+      <c r="AR8" s="90"/>
+      <c r="AS8" s="90"/>
+      <c r="AT8" s="90"/>
+      <c r="AU8" s="90"/>
+      <c r="AV8" s="90"/>
+      <c r="AW8" s="90"/>
+      <c r="AX8" s="90"/>
+      <c r="AY8" s="90"/>
+      <c r="AZ8" s="91"/>
     </row>
     <row r="9" spans="1:52">
       <c r="A9" s="9">
@@ -3162,124 +3162,124 @@
         <v>2</v>
       </c>
       <c r="B9" s="10"/>
-      <c r="C9" s="89"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="83">
+      <c r="C9" s="83"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="86">
         <v>44570</v>
       </c>
-      <c r="H9" s="84"/>
-      <c r="I9" s="84"/>
-      <c r="J9" s="84"/>
-      <c r="K9" s="85"/>
-      <c r="L9" s="86" t="s">
+      <c r="H9" s="87"/>
+      <c r="I9" s="87"/>
+      <c r="J9" s="87"/>
+      <c r="K9" s="88"/>
+      <c r="L9" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="M9" s="87"/>
-      <c r="N9" s="87"/>
-      <c r="O9" s="87"/>
-      <c r="P9" s="88"/>
-      <c r="Q9" s="86" t="s">
+      <c r="M9" s="90"/>
+      <c r="N9" s="90"/>
+      <c r="O9" s="90"/>
+      <c r="P9" s="91"/>
+      <c r="Q9" s="89" t="s">
         <v>40</v>
       </c>
-      <c r="R9" s="87"/>
-      <c r="S9" s="87"/>
-      <c r="T9" s="87"/>
-      <c r="U9" s="87"/>
-      <c r="V9" s="87"/>
-      <c r="W9" s="87"/>
-      <c r="X9" s="87"/>
-      <c r="Y9" s="87"/>
-      <c r="Z9" s="87"/>
-      <c r="AA9" s="87"/>
-      <c r="AB9" s="87"/>
-      <c r="AC9" s="87"/>
-      <c r="AD9" s="87"/>
-      <c r="AE9" s="87"/>
-      <c r="AF9" s="87"/>
-      <c r="AG9" s="87"/>
-      <c r="AH9" s="87"/>
-      <c r="AI9" s="87"/>
-      <c r="AJ9" s="87"/>
-      <c r="AK9" s="87"/>
-      <c r="AL9" s="88"/>
-      <c r="AM9" s="86"/>
-      <c r="AN9" s="87"/>
-      <c r="AO9" s="87"/>
-      <c r="AP9" s="87"/>
-      <c r="AQ9" s="87"/>
-      <c r="AR9" s="87"/>
-      <c r="AS9" s="87"/>
-      <c r="AT9" s="87"/>
-      <c r="AU9" s="87"/>
-      <c r="AV9" s="87"/>
-      <c r="AW9" s="87"/>
-      <c r="AX9" s="87"/>
-      <c r="AY9" s="87"/>
-      <c r="AZ9" s="88"/>
+      <c r="R9" s="90"/>
+      <c r="S9" s="90"/>
+      <c r="T9" s="90"/>
+      <c r="U9" s="90"/>
+      <c r="V9" s="90"/>
+      <c r="W9" s="90"/>
+      <c r="X9" s="90"/>
+      <c r="Y9" s="90"/>
+      <c r="Z9" s="90"/>
+      <c r="AA9" s="90"/>
+      <c r="AB9" s="90"/>
+      <c r="AC9" s="90"/>
+      <c r="AD9" s="90"/>
+      <c r="AE9" s="90"/>
+      <c r="AF9" s="90"/>
+      <c r="AG9" s="90"/>
+      <c r="AH9" s="90"/>
+      <c r="AI9" s="90"/>
+      <c r="AJ9" s="90"/>
+      <c r="AK9" s="90"/>
+      <c r="AL9" s="91"/>
+      <c r="AM9" s="89"/>
+      <c r="AN9" s="90"/>
+      <c r="AO9" s="90"/>
+      <c r="AP9" s="90"/>
+      <c r="AQ9" s="90"/>
+      <c r="AR9" s="90"/>
+      <c r="AS9" s="90"/>
+      <c r="AT9" s="90"/>
+      <c r="AU9" s="90"/>
+      <c r="AV9" s="90"/>
+      <c r="AW9" s="90"/>
+      <c r="AX9" s="90"/>
+      <c r="AY9" s="90"/>
+      <c r="AZ9" s="91"/>
     </row>
     <row r="10" spans="1:52">
       <c r="A10" s="9">
         <v>3</v>
       </c>
       <c r="B10" s="10"/>
-      <c r="C10" s="89"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="91"/>
-      <c r="G10" s="83">
+      <c r="C10" s="83"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="86">
         <v>44584</v>
       </c>
-      <c r="H10" s="84"/>
-      <c r="I10" s="84"/>
-      <c r="J10" s="84"/>
-      <c r="K10" s="85"/>
-      <c r="L10" s="86" t="s">
+      <c r="H10" s="87"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="87"/>
+      <c r="K10" s="88"/>
+      <c r="L10" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="M10" s="87"/>
-      <c r="N10" s="87"/>
-      <c r="O10" s="87"/>
-      <c r="P10" s="88"/>
-      <c r="Q10" s="86" t="s">
-        <v>141</v>
-      </c>
-      <c r="R10" s="87"/>
-      <c r="S10" s="87"/>
-      <c r="T10" s="87"/>
-      <c r="U10" s="87"/>
-      <c r="V10" s="87"/>
-      <c r="W10" s="87"/>
-      <c r="X10" s="87"/>
-      <c r="Y10" s="87"/>
-      <c r="Z10" s="87"/>
-      <c r="AA10" s="87"/>
-      <c r="AB10" s="87"/>
-      <c r="AC10" s="87"/>
-      <c r="AD10" s="87"/>
-      <c r="AE10" s="87"/>
-      <c r="AF10" s="87"/>
-      <c r="AG10" s="87"/>
-      <c r="AH10" s="87"/>
-      <c r="AI10" s="87"/>
-      <c r="AJ10" s="87"/>
-      <c r="AK10" s="87"/>
-      <c r="AL10" s="88"/>
-      <c r="AM10" s="86"/>
-      <c r="AN10" s="87"/>
-      <c r="AO10" s="87"/>
-      <c r="AP10" s="87"/>
-      <c r="AQ10" s="87"/>
-      <c r="AR10" s="87"/>
-      <c r="AS10" s="87"/>
-      <c r="AT10" s="87"/>
-      <c r="AU10" s="87"/>
-      <c r="AV10" s="87"/>
-      <c r="AW10" s="87"/>
-      <c r="AX10" s="87"/>
-      <c r="AY10" s="87"/>
-      <c r="AZ10" s="88"/>
+      <c r="M10" s="90"/>
+      <c r="N10" s="90"/>
+      <c r="O10" s="90"/>
+      <c r="P10" s="91"/>
+      <c r="Q10" s="89" t="s">
+        <v>140</v>
+      </c>
+      <c r="R10" s="90"/>
+      <c r="S10" s="90"/>
+      <c r="T10" s="90"/>
+      <c r="U10" s="90"/>
+      <c r="V10" s="90"/>
+      <c r="W10" s="90"/>
+      <c r="X10" s="90"/>
+      <c r="Y10" s="90"/>
+      <c r="Z10" s="90"/>
+      <c r="AA10" s="90"/>
+      <c r="AB10" s="90"/>
+      <c r="AC10" s="90"/>
+      <c r="AD10" s="90"/>
+      <c r="AE10" s="90"/>
+      <c r="AF10" s="90"/>
+      <c r="AG10" s="90"/>
+      <c r="AH10" s="90"/>
+      <c r="AI10" s="90"/>
+      <c r="AJ10" s="90"/>
+      <c r="AK10" s="90"/>
+      <c r="AL10" s="91"/>
+      <c r="AM10" s="89"/>
+      <c r="AN10" s="90"/>
+      <c r="AO10" s="90"/>
+      <c r="AP10" s="90"/>
+      <c r="AQ10" s="90"/>
+      <c r="AR10" s="90"/>
+      <c r="AS10" s="90"/>
+      <c r="AT10" s="90"/>
+      <c r="AU10" s="90"/>
+      <c r="AV10" s="90"/>
+      <c r="AW10" s="90"/>
+      <c r="AX10" s="90"/>
+      <c r="AY10" s="90"/>
+      <c r="AZ10" s="91"/>
     </row>
     <row r="11" spans="1:52">
       <c r="A11" s="9" t="str">
@@ -3287,56 +3287,56 @@
         <v/>
       </c>
       <c r="B11" s="10"/>
-      <c r="C11" s="89"/>
-      <c r="D11" s="90"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="91"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="84"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="84"/>
-      <c r="K11" s="85"/>
-      <c r="L11" s="86"/>
-      <c r="M11" s="87"/>
-      <c r="N11" s="87"/>
-      <c r="O11" s="87"/>
-      <c r="P11" s="88"/>
-      <c r="Q11" s="86"/>
-      <c r="R11" s="87"/>
-      <c r="S11" s="87"/>
-      <c r="T11" s="87"/>
-      <c r="U11" s="87"/>
-      <c r="V11" s="87"/>
-      <c r="W11" s="87"/>
-      <c r="X11" s="87"/>
-      <c r="Y11" s="87"/>
-      <c r="Z11" s="87"/>
-      <c r="AA11" s="87"/>
-      <c r="AB11" s="87"/>
-      <c r="AC11" s="87"/>
-      <c r="AD11" s="87"/>
-      <c r="AE11" s="87"/>
-      <c r="AF11" s="87"/>
-      <c r="AG11" s="87"/>
-      <c r="AH11" s="87"/>
-      <c r="AI11" s="87"/>
-      <c r="AJ11" s="87"/>
-      <c r="AK11" s="87"/>
-      <c r="AL11" s="88"/>
-      <c r="AM11" s="86"/>
-      <c r="AN11" s="87"/>
-      <c r="AO11" s="87"/>
-      <c r="AP11" s="87"/>
-      <c r="AQ11" s="87"/>
-      <c r="AR11" s="87"/>
-      <c r="AS11" s="87"/>
-      <c r="AT11" s="87"/>
-      <c r="AU11" s="87"/>
-      <c r="AV11" s="87"/>
-      <c r="AW11" s="87"/>
-      <c r="AX11" s="87"/>
-      <c r="AY11" s="87"/>
-      <c r="AZ11" s="88"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="88"/>
+      <c r="L11" s="89"/>
+      <c r="M11" s="90"/>
+      <c r="N11" s="90"/>
+      <c r="O11" s="90"/>
+      <c r="P11" s="91"/>
+      <c r="Q11" s="89"/>
+      <c r="R11" s="90"/>
+      <c r="S11" s="90"/>
+      <c r="T11" s="90"/>
+      <c r="U11" s="90"/>
+      <c r="V11" s="90"/>
+      <c r="W11" s="90"/>
+      <c r="X11" s="90"/>
+      <c r="Y11" s="90"/>
+      <c r="Z11" s="90"/>
+      <c r="AA11" s="90"/>
+      <c r="AB11" s="90"/>
+      <c r="AC11" s="90"/>
+      <c r="AD11" s="90"/>
+      <c r="AE11" s="90"/>
+      <c r="AF11" s="90"/>
+      <c r="AG11" s="90"/>
+      <c r="AH11" s="90"/>
+      <c r="AI11" s="90"/>
+      <c r="AJ11" s="90"/>
+      <c r="AK11" s="90"/>
+      <c r="AL11" s="91"/>
+      <c r="AM11" s="89"/>
+      <c r="AN11" s="90"/>
+      <c r="AO11" s="90"/>
+      <c r="AP11" s="90"/>
+      <c r="AQ11" s="90"/>
+      <c r="AR11" s="90"/>
+      <c r="AS11" s="90"/>
+      <c r="AT11" s="90"/>
+      <c r="AU11" s="90"/>
+      <c r="AV11" s="90"/>
+      <c r="AW11" s="90"/>
+      <c r="AX11" s="90"/>
+      <c r="AY11" s="90"/>
+      <c r="AZ11" s="91"/>
     </row>
     <row r="12" spans="1:52">
       <c r="A12" s="9" t="str">
@@ -3344,56 +3344,56 @@
         <v/>
       </c>
       <c r="B12" s="10"/>
-      <c r="C12" s="89"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="91"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="84"/>
-      <c r="I12" s="84"/>
-      <c r="J12" s="84"/>
-      <c r="K12" s="85"/>
-      <c r="L12" s="86"/>
-      <c r="M12" s="87"/>
-      <c r="N12" s="87"/>
-      <c r="O12" s="87"/>
-      <c r="P12" s="88"/>
-      <c r="Q12" s="86"/>
-      <c r="R12" s="87"/>
-      <c r="S12" s="87"/>
-      <c r="T12" s="87"/>
-      <c r="U12" s="87"/>
-      <c r="V12" s="87"/>
-      <c r="W12" s="87"/>
-      <c r="X12" s="87"/>
-      <c r="Y12" s="87"/>
-      <c r="Z12" s="87"/>
-      <c r="AA12" s="87"/>
-      <c r="AB12" s="87"/>
-      <c r="AC12" s="87"/>
-      <c r="AD12" s="87"/>
-      <c r="AE12" s="87"/>
-      <c r="AF12" s="87"/>
-      <c r="AG12" s="87"/>
-      <c r="AH12" s="87"/>
-      <c r="AI12" s="87"/>
-      <c r="AJ12" s="87"/>
-      <c r="AK12" s="87"/>
-      <c r="AL12" s="88"/>
-      <c r="AM12" s="86"/>
-      <c r="AN12" s="87"/>
-      <c r="AO12" s="87"/>
-      <c r="AP12" s="87"/>
-      <c r="AQ12" s="87"/>
-      <c r="AR12" s="87"/>
-      <c r="AS12" s="87"/>
-      <c r="AT12" s="87"/>
-      <c r="AU12" s="87"/>
-      <c r="AV12" s="87"/>
-      <c r="AW12" s="87"/>
-      <c r="AX12" s="87"/>
-      <c r="AY12" s="87"/>
-      <c r="AZ12" s="88"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="88"/>
+      <c r="L12" s="89"/>
+      <c r="M12" s="90"/>
+      <c r="N12" s="90"/>
+      <c r="O12" s="90"/>
+      <c r="P12" s="91"/>
+      <c r="Q12" s="89"/>
+      <c r="R12" s="90"/>
+      <c r="S12" s="90"/>
+      <c r="T12" s="90"/>
+      <c r="U12" s="90"/>
+      <c r="V12" s="90"/>
+      <c r="W12" s="90"/>
+      <c r="X12" s="90"/>
+      <c r="Y12" s="90"/>
+      <c r="Z12" s="90"/>
+      <c r="AA12" s="90"/>
+      <c r="AB12" s="90"/>
+      <c r="AC12" s="90"/>
+      <c r="AD12" s="90"/>
+      <c r="AE12" s="90"/>
+      <c r="AF12" s="90"/>
+      <c r="AG12" s="90"/>
+      <c r="AH12" s="90"/>
+      <c r="AI12" s="90"/>
+      <c r="AJ12" s="90"/>
+      <c r="AK12" s="90"/>
+      <c r="AL12" s="91"/>
+      <c r="AM12" s="89"/>
+      <c r="AN12" s="90"/>
+      <c r="AO12" s="90"/>
+      <c r="AP12" s="90"/>
+      <c r="AQ12" s="90"/>
+      <c r="AR12" s="90"/>
+      <c r="AS12" s="90"/>
+      <c r="AT12" s="90"/>
+      <c r="AU12" s="90"/>
+      <c r="AV12" s="90"/>
+      <c r="AW12" s="90"/>
+      <c r="AX12" s="90"/>
+      <c r="AY12" s="90"/>
+      <c r="AZ12" s="91"/>
     </row>
     <row r="13" spans="1:52">
       <c r="A13" s="9" t="str">
@@ -3401,56 +3401,56 @@
         <v/>
       </c>
       <c r="B13" s="10"/>
-      <c r="C13" s="89"/>
-      <c r="D13" s="90"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="91"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="84"/>
-      <c r="K13" s="85"/>
-      <c r="L13" s="86"/>
-      <c r="M13" s="87"/>
-      <c r="N13" s="87"/>
-      <c r="O13" s="87"/>
-      <c r="P13" s="88"/>
-      <c r="Q13" s="86"/>
-      <c r="R13" s="87"/>
-      <c r="S13" s="87"/>
-      <c r="T13" s="87"/>
-      <c r="U13" s="87"/>
-      <c r="V13" s="87"/>
-      <c r="W13" s="87"/>
-      <c r="X13" s="87"/>
-      <c r="Y13" s="87"/>
-      <c r="Z13" s="87"/>
-      <c r="AA13" s="87"/>
-      <c r="AB13" s="87"/>
-      <c r="AC13" s="87"/>
-      <c r="AD13" s="87"/>
-      <c r="AE13" s="87"/>
-      <c r="AF13" s="87"/>
-      <c r="AG13" s="87"/>
-      <c r="AH13" s="87"/>
-      <c r="AI13" s="87"/>
-      <c r="AJ13" s="87"/>
-      <c r="AK13" s="87"/>
-      <c r="AL13" s="88"/>
-      <c r="AM13" s="86"/>
-      <c r="AN13" s="87"/>
-      <c r="AO13" s="87"/>
-      <c r="AP13" s="87"/>
-      <c r="AQ13" s="87"/>
-      <c r="AR13" s="87"/>
-      <c r="AS13" s="87"/>
-      <c r="AT13" s="87"/>
-      <c r="AU13" s="87"/>
-      <c r="AV13" s="87"/>
-      <c r="AW13" s="87"/>
-      <c r="AX13" s="87"/>
-      <c r="AY13" s="87"/>
-      <c r="AZ13" s="88"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="88"/>
+      <c r="L13" s="89"/>
+      <c r="M13" s="90"/>
+      <c r="N13" s="90"/>
+      <c r="O13" s="90"/>
+      <c r="P13" s="91"/>
+      <c r="Q13" s="89"/>
+      <c r="R13" s="90"/>
+      <c r="S13" s="90"/>
+      <c r="T13" s="90"/>
+      <c r="U13" s="90"/>
+      <c r="V13" s="90"/>
+      <c r="W13" s="90"/>
+      <c r="X13" s="90"/>
+      <c r="Y13" s="90"/>
+      <c r="Z13" s="90"/>
+      <c r="AA13" s="90"/>
+      <c r="AB13" s="90"/>
+      <c r="AC13" s="90"/>
+      <c r="AD13" s="90"/>
+      <c r="AE13" s="90"/>
+      <c r="AF13" s="90"/>
+      <c r="AG13" s="90"/>
+      <c r="AH13" s="90"/>
+      <c r="AI13" s="90"/>
+      <c r="AJ13" s="90"/>
+      <c r="AK13" s="90"/>
+      <c r="AL13" s="91"/>
+      <c r="AM13" s="89"/>
+      <c r="AN13" s="90"/>
+      <c r="AO13" s="90"/>
+      <c r="AP13" s="90"/>
+      <c r="AQ13" s="90"/>
+      <c r="AR13" s="90"/>
+      <c r="AS13" s="90"/>
+      <c r="AT13" s="90"/>
+      <c r="AU13" s="90"/>
+      <c r="AV13" s="90"/>
+      <c r="AW13" s="90"/>
+      <c r="AX13" s="90"/>
+      <c r="AY13" s="90"/>
+      <c r="AZ13" s="91"/>
     </row>
     <row r="14" spans="1:52">
       <c r="A14" s="9" t="str">
@@ -3458,56 +3458,56 @@
         <v/>
       </c>
       <c r="B14" s="10"/>
-      <c r="C14" s="89"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="91"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="84"/>
-      <c r="I14" s="84"/>
-      <c r="J14" s="84"/>
-      <c r="K14" s="85"/>
-      <c r="L14" s="86"/>
-      <c r="M14" s="87"/>
-      <c r="N14" s="87"/>
-      <c r="O14" s="87"/>
-      <c r="P14" s="88"/>
-      <c r="Q14" s="86"/>
-      <c r="R14" s="87"/>
-      <c r="S14" s="87"/>
-      <c r="T14" s="87"/>
-      <c r="U14" s="87"/>
-      <c r="V14" s="87"/>
-      <c r="W14" s="87"/>
-      <c r="X14" s="87"/>
-      <c r="Y14" s="87"/>
-      <c r="Z14" s="87"/>
-      <c r="AA14" s="87"/>
-      <c r="AB14" s="87"/>
-      <c r="AC14" s="87"/>
-      <c r="AD14" s="87"/>
-      <c r="AE14" s="87"/>
-      <c r="AF14" s="87"/>
-      <c r="AG14" s="87"/>
-      <c r="AH14" s="87"/>
-      <c r="AI14" s="87"/>
-      <c r="AJ14" s="87"/>
-      <c r="AK14" s="87"/>
-      <c r="AL14" s="88"/>
-      <c r="AM14" s="86"/>
-      <c r="AN14" s="87"/>
-      <c r="AO14" s="87"/>
-      <c r="AP14" s="87"/>
-      <c r="AQ14" s="87"/>
-      <c r="AR14" s="87"/>
-      <c r="AS14" s="87"/>
-      <c r="AT14" s="87"/>
-      <c r="AU14" s="87"/>
-      <c r="AV14" s="87"/>
-      <c r="AW14" s="87"/>
-      <c r="AX14" s="87"/>
-      <c r="AY14" s="87"/>
-      <c r="AZ14" s="88"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="87"/>
+      <c r="I14" s="87"/>
+      <c r="J14" s="87"/>
+      <c r="K14" s="88"/>
+      <c r="L14" s="89"/>
+      <c r="M14" s="90"/>
+      <c r="N14" s="90"/>
+      <c r="O14" s="90"/>
+      <c r="P14" s="91"/>
+      <c r="Q14" s="89"/>
+      <c r="R14" s="90"/>
+      <c r="S14" s="90"/>
+      <c r="T14" s="90"/>
+      <c r="U14" s="90"/>
+      <c r="V14" s="90"/>
+      <c r="W14" s="90"/>
+      <c r="X14" s="90"/>
+      <c r="Y14" s="90"/>
+      <c r="Z14" s="90"/>
+      <c r="AA14" s="90"/>
+      <c r="AB14" s="90"/>
+      <c r="AC14" s="90"/>
+      <c r="AD14" s="90"/>
+      <c r="AE14" s="90"/>
+      <c r="AF14" s="90"/>
+      <c r="AG14" s="90"/>
+      <c r="AH14" s="90"/>
+      <c r="AI14" s="90"/>
+      <c r="AJ14" s="90"/>
+      <c r="AK14" s="90"/>
+      <c r="AL14" s="91"/>
+      <c r="AM14" s="89"/>
+      <c r="AN14" s="90"/>
+      <c r="AO14" s="90"/>
+      <c r="AP14" s="90"/>
+      <c r="AQ14" s="90"/>
+      <c r="AR14" s="90"/>
+      <c r="AS14" s="90"/>
+      <c r="AT14" s="90"/>
+      <c r="AU14" s="90"/>
+      <c r="AV14" s="90"/>
+      <c r="AW14" s="90"/>
+      <c r="AX14" s="90"/>
+      <c r="AY14" s="90"/>
+      <c r="AZ14" s="91"/>
     </row>
     <row r="15" spans="1:52">
       <c r="A15" s="9" t="str">
@@ -3515,56 +3515,56 @@
         <v/>
       </c>
       <c r="B15" s="10"/>
-      <c r="C15" s="89"/>
-      <c r="D15" s="90"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="91"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="84"/>
-      <c r="I15" s="84"/>
-      <c r="J15" s="84"/>
-      <c r="K15" s="85"/>
-      <c r="L15" s="86"/>
-      <c r="M15" s="87"/>
-      <c r="N15" s="87"/>
-      <c r="O15" s="87"/>
-      <c r="P15" s="88"/>
-      <c r="Q15" s="86"/>
-      <c r="R15" s="87"/>
-      <c r="S15" s="87"/>
-      <c r="T15" s="87"/>
-      <c r="U15" s="87"/>
-      <c r="V15" s="87"/>
-      <c r="W15" s="87"/>
-      <c r="X15" s="87"/>
-      <c r="Y15" s="87"/>
-      <c r="Z15" s="87"/>
-      <c r="AA15" s="87"/>
-      <c r="AB15" s="87"/>
-      <c r="AC15" s="87"/>
-      <c r="AD15" s="87"/>
-      <c r="AE15" s="87"/>
-      <c r="AF15" s="87"/>
-      <c r="AG15" s="87"/>
-      <c r="AH15" s="87"/>
-      <c r="AI15" s="87"/>
-      <c r="AJ15" s="87"/>
-      <c r="AK15" s="87"/>
-      <c r="AL15" s="88"/>
-      <c r="AM15" s="86"/>
-      <c r="AN15" s="87"/>
-      <c r="AO15" s="87"/>
-      <c r="AP15" s="87"/>
-      <c r="AQ15" s="87"/>
-      <c r="AR15" s="87"/>
-      <c r="AS15" s="87"/>
-      <c r="AT15" s="87"/>
-      <c r="AU15" s="87"/>
-      <c r="AV15" s="87"/>
-      <c r="AW15" s="87"/>
-      <c r="AX15" s="87"/>
-      <c r="AY15" s="87"/>
-      <c r="AZ15" s="88"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="87"/>
+      <c r="J15" s="87"/>
+      <c r="K15" s="88"/>
+      <c r="L15" s="89"/>
+      <c r="M15" s="90"/>
+      <c r="N15" s="90"/>
+      <c r="O15" s="90"/>
+      <c r="P15" s="91"/>
+      <c r="Q15" s="89"/>
+      <c r="R15" s="90"/>
+      <c r="S15" s="90"/>
+      <c r="T15" s="90"/>
+      <c r="U15" s="90"/>
+      <c r="V15" s="90"/>
+      <c r="W15" s="90"/>
+      <c r="X15" s="90"/>
+      <c r="Y15" s="90"/>
+      <c r="Z15" s="90"/>
+      <c r="AA15" s="90"/>
+      <c r="AB15" s="90"/>
+      <c r="AC15" s="90"/>
+      <c r="AD15" s="90"/>
+      <c r="AE15" s="90"/>
+      <c r="AF15" s="90"/>
+      <c r="AG15" s="90"/>
+      <c r="AH15" s="90"/>
+      <c r="AI15" s="90"/>
+      <c r="AJ15" s="90"/>
+      <c r="AK15" s="90"/>
+      <c r="AL15" s="91"/>
+      <c r="AM15" s="89"/>
+      <c r="AN15" s="90"/>
+      <c r="AO15" s="90"/>
+      <c r="AP15" s="90"/>
+      <c r="AQ15" s="90"/>
+      <c r="AR15" s="90"/>
+      <c r="AS15" s="90"/>
+      <c r="AT15" s="90"/>
+      <c r="AU15" s="90"/>
+      <c r="AV15" s="90"/>
+      <c r="AW15" s="90"/>
+      <c r="AX15" s="90"/>
+      <c r="AY15" s="90"/>
+      <c r="AZ15" s="91"/>
     </row>
     <row r="16" spans="1:52">
       <c r="A16" s="9" t="str">
@@ -3572,56 +3572,56 @@
         <v/>
       </c>
       <c r="B16" s="10"/>
-      <c r="C16" s="89"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="91"/>
-      <c r="G16" s="83"/>
-      <c r="H16" s="84"/>
-      <c r="I16" s="84"/>
-      <c r="J16" s="84"/>
-      <c r="K16" s="85"/>
-      <c r="L16" s="86"/>
-      <c r="M16" s="87"/>
-      <c r="N16" s="87"/>
-      <c r="O16" s="87"/>
-      <c r="P16" s="88"/>
-      <c r="Q16" s="86"/>
-      <c r="R16" s="87"/>
-      <c r="S16" s="87"/>
-      <c r="T16" s="87"/>
-      <c r="U16" s="87"/>
-      <c r="V16" s="87"/>
-      <c r="W16" s="87"/>
-      <c r="X16" s="87"/>
-      <c r="Y16" s="87"/>
-      <c r="Z16" s="87"/>
-      <c r="AA16" s="87"/>
-      <c r="AB16" s="87"/>
-      <c r="AC16" s="87"/>
-      <c r="AD16" s="87"/>
-      <c r="AE16" s="87"/>
-      <c r="AF16" s="87"/>
-      <c r="AG16" s="87"/>
-      <c r="AH16" s="87"/>
-      <c r="AI16" s="87"/>
-      <c r="AJ16" s="87"/>
-      <c r="AK16" s="87"/>
-      <c r="AL16" s="88"/>
-      <c r="AM16" s="86"/>
-      <c r="AN16" s="87"/>
-      <c r="AO16" s="87"/>
-      <c r="AP16" s="87"/>
-      <c r="AQ16" s="87"/>
-      <c r="AR16" s="87"/>
-      <c r="AS16" s="87"/>
-      <c r="AT16" s="87"/>
-      <c r="AU16" s="87"/>
-      <c r="AV16" s="87"/>
-      <c r="AW16" s="87"/>
-      <c r="AX16" s="87"/>
-      <c r="AY16" s="87"/>
-      <c r="AZ16" s="88"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="87"/>
+      <c r="I16" s="87"/>
+      <c r="J16" s="87"/>
+      <c r="K16" s="88"/>
+      <c r="L16" s="89"/>
+      <c r="M16" s="90"/>
+      <c r="N16" s="90"/>
+      <c r="O16" s="90"/>
+      <c r="P16" s="91"/>
+      <c r="Q16" s="89"/>
+      <c r="R16" s="90"/>
+      <c r="S16" s="90"/>
+      <c r="T16" s="90"/>
+      <c r="U16" s="90"/>
+      <c r="V16" s="90"/>
+      <c r="W16" s="90"/>
+      <c r="X16" s="90"/>
+      <c r="Y16" s="90"/>
+      <c r="Z16" s="90"/>
+      <c r="AA16" s="90"/>
+      <c r="AB16" s="90"/>
+      <c r="AC16" s="90"/>
+      <c r="AD16" s="90"/>
+      <c r="AE16" s="90"/>
+      <c r="AF16" s="90"/>
+      <c r="AG16" s="90"/>
+      <c r="AH16" s="90"/>
+      <c r="AI16" s="90"/>
+      <c r="AJ16" s="90"/>
+      <c r="AK16" s="90"/>
+      <c r="AL16" s="91"/>
+      <c r="AM16" s="89"/>
+      <c r="AN16" s="90"/>
+      <c r="AO16" s="90"/>
+      <c r="AP16" s="90"/>
+      <c r="AQ16" s="90"/>
+      <c r="AR16" s="90"/>
+      <c r="AS16" s="90"/>
+      <c r="AT16" s="90"/>
+      <c r="AU16" s="90"/>
+      <c r="AV16" s="90"/>
+      <c r="AW16" s="90"/>
+      <c r="AX16" s="90"/>
+      <c r="AY16" s="90"/>
+      <c r="AZ16" s="91"/>
     </row>
     <row r="17" spans="1:52">
       <c r="A17" s="9" t="str">
@@ -3629,56 +3629,56 @@
         <v/>
       </c>
       <c r="B17" s="10"/>
-      <c r="C17" s="89"/>
-      <c r="D17" s="90"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="91"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="84"/>
-      <c r="I17" s="84"/>
-      <c r="J17" s="84"/>
-      <c r="K17" s="85"/>
-      <c r="L17" s="86"/>
-      <c r="M17" s="87"/>
-      <c r="N17" s="87"/>
-      <c r="O17" s="87"/>
-      <c r="P17" s="88"/>
-      <c r="Q17" s="86"/>
-      <c r="R17" s="87"/>
-      <c r="S17" s="87"/>
-      <c r="T17" s="87"/>
-      <c r="U17" s="87"/>
-      <c r="V17" s="87"/>
-      <c r="W17" s="87"/>
-      <c r="X17" s="87"/>
-      <c r="Y17" s="87"/>
-      <c r="Z17" s="87"/>
-      <c r="AA17" s="87"/>
-      <c r="AB17" s="87"/>
-      <c r="AC17" s="87"/>
-      <c r="AD17" s="87"/>
-      <c r="AE17" s="87"/>
-      <c r="AF17" s="87"/>
-      <c r="AG17" s="87"/>
-      <c r="AH17" s="87"/>
-      <c r="AI17" s="87"/>
-      <c r="AJ17" s="87"/>
-      <c r="AK17" s="87"/>
-      <c r="AL17" s="88"/>
-      <c r="AM17" s="86"/>
-      <c r="AN17" s="87"/>
-      <c r="AO17" s="87"/>
-      <c r="AP17" s="87"/>
-      <c r="AQ17" s="87"/>
-      <c r="AR17" s="87"/>
-      <c r="AS17" s="87"/>
-      <c r="AT17" s="87"/>
-      <c r="AU17" s="87"/>
-      <c r="AV17" s="87"/>
-      <c r="AW17" s="87"/>
-      <c r="AX17" s="87"/>
-      <c r="AY17" s="87"/>
-      <c r="AZ17" s="88"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="88"/>
+      <c r="L17" s="89"/>
+      <c r="M17" s="90"/>
+      <c r="N17" s="90"/>
+      <c r="O17" s="90"/>
+      <c r="P17" s="91"/>
+      <c r="Q17" s="89"/>
+      <c r="R17" s="90"/>
+      <c r="S17" s="90"/>
+      <c r="T17" s="90"/>
+      <c r="U17" s="90"/>
+      <c r="V17" s="90"/>
+      <c r="W17" s="90"/>
+      <c r="X17" s="90"/>
+      <c r="Y17" s="90"/>
+      <c r="Z17" s="90"/>
+      <c r="AA17" s="90"/>
+      <c r="AB17" s="90"/>
+      <c r="AC17" s="90"/>
+      <c r="AD17" s="90"/>
+      <c r="AE17" s="90"/>
+      <c r="AF17" s="90"/>
+      <c r="AG17" s="90"/>
+      <c r="AH17" s="90"/>
+      <c r="AI17" s="90"/>
+      <c r="AJ17" s="90"/>
+      <c r="AK17" s="90"/>
+      <c r="AL17" s="91"/>
+      <c r="AM17" s="89"/>
+      <c r="AN17" s="90"/>
+      <c r="AO17" s="90"/>
+      <c r="AP17" s="90"/>
+      <c r="AQ17" s="90"/>
+      <c r="AR17" s="90"/>
+      <c r="AS17" s="90"/>
+      <c r="AT17" s="90"/>
+      <c r="AU17" s="90"/>
+      <c r="AV17" s="90"/>
+      <c r="AW17" s="90"/>
+      <c r="AX17" s="90"/>
+      <c r="AY17" s="90"/>
+      <c r="AZ17" s="91"/>
     </row>
     <row r="18" spans="1:52">
       <c r="A18" s="9" t="str">
@@ -3686,56 +3686,56 @@
         <v/>
       </c>
       <c r="B18" s="10"/>
-      <c r="C18" s="89"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="91"/>
-      <c r="G18" s="83"/>
-      <c r="H18" s="84"/>
-      <c r="I18" s="84"/>
-      <c r="J18" s="84"/>
-      <c r="K18" s="85"/>
-      <c r="L18" s="86"/>
-      <c r="M18" s="87"/>
-      <c r="N18" s="87"/>
-      <c r="O18" s="87"/>
-      <c r="P18" s="88"/>
-      <c r="Q18" s="86"/>
-      <c r="R18" s="87"/>
-      <c r="S18" s="87"/>
-      <c r="T18" s="87"/>
-      <c r="U18" s="87"/>
-      <c r="V18" s="87"/>
-      <c r="W18" s="87"/>
-      <c r="X18" s="87"/>
-      <c r="Y18" s="87"/>
-      <c r="Z18" s="87"/>
-      <c r="AA18" s="87"/>
-      <c r="AB18" s="87"/>
-      <c r="AC18" s="87"/>
-      <c r="AD18" s="87"/>
-      <c r="AE18" s="87"/>
-      <c r="AF18" s="87"/>
-      <c r="AG18" s="87"/>
-      <c r="AH18" s="87"/>
-      <c r="AI18" s="87"/>
-      <c r="AJ18" s="87"/>
-      <c r="AK18" s="87"/>
-      <c r="AL18" s="88"/>
-      <c r="AM18" s="86"/>
-      <c r="AN18" s="87"/>
-      <c r="AO18" s="87"/>
-      <c r="AP18" s="87"/>
-      <c r="AQ18" s="87"/>
-      <c r="AR18" s="87"/>
-      <c r="AS18" s="87"/>
-      <c r="AT18" s="87"/>
-      <c r="AU18" s="87"/>
-      <c r="AV18" s="87"/>
-      <c r="AW18" s="87"/>
-      <c r="AX18" s="87"/>
-      <c r="AY18" s="87"/>
-      <c r="AZ18" s="88"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="84"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="87"/>
+      <c r="K18" s="88"/>
+      <c r="L18" s="89"/>
+      <c r="M18" s="90"/>
+      <c r="N18" s="90"/>
+      <c r="O18" s="90"/>
+      <c r="P18" s="91"/>
+      <c r="Q18" s="89"/>
+      <c r="R18" s="90"/>
+      <c r="S18" s="90"/>
+      <c r="T18" s="90"/>
+      <c r="U18" s="90"/>
+      <c r="V18" s="90"/>
+      <c r="W18" s="90"/>
+      <c r="X18" s="90"/>
+      <c r="Y18" s="90"/>
+      <c r="Z18" s="90"/>
+      <c r="AA18" s="90"/>
+      <c r="AB18" s="90"/>
+      <c r="AC18" s="90"/>
+      <c r="AD18" s="90"/>
+      <c r="AE18" s="90"/>
+      <c r="AF18" s="90"/>
+      <c r="AG18" s="90"/>
+      <c r="AH18" s="90"/>
+      <c r="AI18" s="90"/>
+      <c r="AJ18" s="90"/>
+      <c r="AK18" s="90"/>
+      <c r="AL18" s="91"/>
+      <c r="AM18" s="89"/>
+      <c r="AN18" s="90"/>
+      <c r="AO18" s="90"/>
+      <c r="AP18" s="90"/>
+      <c r="AQ18" s="90"/>
+      <c r="AR18" s="90"/>
+      <c r="AS18" s="90"/>
+      <c r="AT18" s="90"/>
+      <c r="AU18" s="90"/>
+      <c r="AV18" s="90"/>
+      <c r="AW18" s="90"/>
+      <c r="AX18" s="90"/>
+      <c r="AY18" s="90"/>
+      <c r="AZ18" s="91"/>
     </row>
     <row r="19" spans="1:52">
       <c r="A19" s="9" t="str">
@@ -3743,56 +3743,56 @@
         <v/>
       </c>
       <c r="B19" s="10"/>
-      <c r="C19" s="89"/>
-      <c r="D19" s="90"/>
-      <c r="E19" s="90"/>
-      <c r="F19" s="91"/>
-      <c r="G19" s="83"/>
-      <c r="H19" s="84"/>
-      <c r="I19" s="84"/>
-      <c r="J19" s="84"/>
-      <c r="K19" s="85"/>
-      <c r="L19" s="86"/>
-      <c r="M19" s="87"/>
-      <c r="N19" s="87"/>
-      <c r="O19" s="87"/>
-      <c r="P19" s="88"/>
-      <c r="Q19" s="86"/>
-      <c r="R19" s="87"/>
-      <c r="S19" s="87"/>
-      <c r="T19" s="87"/>
-      <c r="U19" s="87"/>
-      <c r="V19" s="87"/>
-      <c r="W19" s="87"/>
-      <c r="X19" s="87"/>
-      <c r="Y19" s="87"/>
-      <c r="Z19" s="87"/>
-      <c r="AA19" s="87"/>
-      <c r="AB19" s="87"/>
-      <c r="AC19" s="87"/>
-      <c r="AD19" s="87"/>
-      <c r="AE19" s="87"/>
-      <c r="AF19" s="87"/>
-      <c r="AG19" s="87"/>
-      <c r="AH19" s="87"/>
-      <c r="AI19" s="87"/>
-      <c r="AJ19" s="87"/>
-      <c r="AK19" s="87"/>
-      <c r="AL19" s="88"/>
-      <c r="AM19" s="86"/>
-      <c r="AN19" s="87"/>
-      <c r="AO19" s="87"/>
-      <c r="AP19" s="87"/>
-      <c r="AQ19" s="87"/>
-      <c r="AR19" s="87"/>
-      <c r="AS19" s="87"/>
-      <c r="AT19" s="87"/>
-      <c r="AU19" s="87"/>
-      <c r="AV19" s="87"/>
-      <c r="AW19" s="87"/>
-      <c r="AX19" s="87"/>
-      <c r="AY19" s="87"/>
-      <c r="AZ19" s="88"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="86"/>
+      <c r="H19" s="87"/>
+      <c r="I19" s="87"/>
+      <c r="J19" s="87"/>
+      <c r="K19" s="88"/>
+      <c r="L19" s="89"/>
+      <c r="M19" s="90"/>
+      <c r="N19" s="90"/>
+      <c r="O19" s="90"/>
+      <c r="P19" s="91"/>
+      <c r="Q19" s="89"/>
+      <c r="R19" s="90"/>
+      <c r="S19" s="90"/>
+      <c r="T19" s="90"/>
+      <c r="U19" s="90"/>
+      <c r="V19" s="90"/>
+      <c r="W19" s="90"/>
+      <c r="X19" s="90"/>
+      <c r="Y19" s="90"/>
+      <c r="Z19" s="90"/>
+      <c r="AA19" s="90"/>
+      <c r="AB19" s="90"/>
+      <c r="AC19" s="90"/>
+      <c r="AD19" s="90"/>
+      <c r="AE19" s="90"/>
+      <c r="AF19" s="90"/>
+      <c r="AG19" s="90"/>
+      <c r="AH19" s="90"/>
+      <c r="AI19" s="90"/>
+      <c r="AJ19" s="90"/>
+      <c r="AK19" s="90"/>
+      <c r="AL19" s="91"/>
+      <c r="AM19" s="89"/>
+      <c r="AN19" s="90"/>
+      <c r="AO19" s="90"/>
+      <c r="AP19" s="90"/>
+      <c r="AQ19" s="90"/>
+      <c r="AR19" s="90"/>
+      <c r="AS19" s="90"/>
+      <c r="AT19" s="90"/>
+      <c r="AU19" s="90"/>
+      <c r="AV19" s="90"/>
+      <c r="AW19" s="90"/>
+      <c r="AX19" s="90"/>
+      <c r="AY19" s="90"/>
+      <c r="AZ19" s="91"/>
     </row>
     <row r="20" spans="1:52">
       <c r="A20" s="9" t="str">
@@ -3800,56 +3800,56 @@
         <v/>
       </c>
       <c r="B20" s="10"/>
-      <c r="C20" s="89"/>
-      <c r="D20" s="90"/>
-      <c r="E20" s="90"/>
-      <c r="F20" s="91"/>
-      <c r="G20" s="83"/>
-      <c r="H20" s="84"/>
-      <c r="I20" s="84"/>
-      <c r="J20" s="84"/>
-      <c r="K20" s="85"/>
-      <c r="L20" s="86"/>
-      <c r="M20" s="87"/>
-      <c r="N20" s="87"/>
-      <c r="O20" s="87"/>
-      <c r="P20" s="88"/>
-      <c r="Q20" s="86"/>
-      <c r="R20" s="87"/>
-      <c r="S20" s="87"/>
-      <c r="T20" s="87"/>
-      <c r="U20" s="87"/>
-      <c r="V20" s="87"/>
-      <c r="W20" s="87"/>
-      <c r="X20" s="87"/>
-      <c r="Y20" s="87"/>
-      <c r="Z20" s="87"/>
-      <c r="AA20" s="87"/>
-      <c r="AB20" s="87"/>
-      <c r="AC20" s="87"/>
-      <c r="AD20" s="87"/>
-      <c r="AE20" s="87"/>
-      <c r="AF20" s="87"/>
-      <c r="AG20" s="87"/>
-      <c r="AH20" s="87"/>
-      <c r="AI20" s="87"/>
-      <c r="AJ20" s="87"/>
-      <c r="AK20" s="87"/>
-      <c r="AL20" s="88"/>
-      <c r="AM20" s="86"/>
-      <c r="AN20" s="87"/>
-      <c r="AO20" s="87"/>
-      <c r="AP20" s="87"/>
-      <c r="AQ20" s="87"/>
-      <c r="AR20" s="87"/>
-      <c r="AS20" s="87"/>
-      <c r="AT20" s="87"/>
-      <c r="AU20" s="87"/>
-      <c r="AV20" s="87"/>
-      <c r="AW20" s="87"/>
-      <c r="AX20" s="87"/>
-      <c r="AY20" s="87"/>
-      <c r="AZ20" s="88"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="84"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="86"/>
+      <c r="H20" s="87"/>
+      <c r="I20" s="87"/>
+      <c r="J20" s="87"/>
+      <c r="K20" s="88"/>
+      <c r="L20" s="89"/>
+      <c r="M20" s="90"/>
+      <c r="N20" s="90"/>
+      <c r="O20" s="90"/>
+      <c r="P20" s="91"/>
+      <c r="Q20" s="89"/>
+      <c r="R20" s="90"/>
+      <c r="S20" s="90"/>
+      <c r="T20" s="90"/>
+      <c r="U20" s="90"/>
+      <c r="V20" s="90"/>
+      <c r="W20" s="90"/>
+      <c r="X20" s="90"/>
+      <c r="Y20" s="90"/>
+      <c r="Z20" s="90"/>
+      <c r="AA20" s="90"/>
+      <c r="AB20" s="90"/>
+      <c r="AC20" s="90"/>
+      <c r="AD20" s="90"/>
+      <c r="AE20" s="90"/>
+      <c r="AF20" s="90"/>
+      <c r="AG20" s="90"/>
+      <c r="AH20" s="90"/>
+      <c r="AI20" s="90"/>
+      <c r="AJ20" s="90"/>
+      <c r="AK20" s="90"/>
+      <c r="AL20" s="91"/>
+      <c r="AM20" s="89"/>
+      <c r="AN20" s="90"/>
+      <c r="AO20" s="90"/>
+      <c r="AP20" s="90"/>
+      <c r="AQ20" s="90"/>
+      <c r="AR20" s="90"/>
+      <c r="AS20" s="90"/>
+      <c r="AT20" s="90"/>
+      <c r="AU20" s="90"/>
+      <c r="AV20" s="90"/>
+      <c r="AW20" s="90"/>
+      <c r="AX20" s="90"/>
+      <c r="AY20" s="90"/>
+      <c r="AZ20" s="91"/>
     </row>
     <row r="21" spans="1:52">
       <c r="A21" s="9" t="str">
@@ -3857,56 +3857,56 @@
         <v/>
       </c>
       <c r="B21" s="10"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="83"/>
-      <c r="H21" s="84"/>
-      <c r="I21" s="84"/>
-      <c r="J21" s="84"/>
-      <c r="K21" s="85"/>
-      <c r="L21" s="86"/>
-      <c r="M21" s="87"/>
-      <c r="N21" s="87"/>
-      <c r="O21" s="87"/>
-      <c r="P21" s="88"/>
-      <c r="Q21" s="86"/>
-      <c r="R21" s="87"/>
-      <c r="S21" s="87"/>
-      <c r="T21" s="87"/>
-      <c r="U21" s="87"/>
-      <c r="V21" s="87"/>
-      <c r="W21" s="87"/>
-      <c r="X21" s="87"/>
-      <c r="Y21" s="87"/>
-      <c r="Z21" s="87"/>
-      <c r="AA21" s="87"/>
-      <c r="AB21" s="87"/>
-      <c r="AC21" s="87"/>
-      <c r="AD21" s="87"/>
-      <c r="AE21" s="87"/>
-      <c r="AF21" s="87"/>
-      <c r="AG21" s="87"/>
-      <c r="AH21" s="87"/>
-      <c r="AI21" s="87"/>
-      <c r="AJ21" s="87"/>
-      <c r="AK21" s="87"/>
-      <c r="AL21" s="88"/>
-      <c r="AM21" s="86"/>
-      <c r="AN21" s="87"/>
-      <c r="AO21" s="87"/>
-      <c r="AP21" s="87"/>
-      <c r="AQ21" s="87"/>
-      <c r="AR21" s="87"/>
-      <c r="AS21" s="87"/>
-      <c r="AT21" s="87"/>
-      <c r="AU21" s="87"/>
-      <c r="AV21" s="87"/>
-      <c r="AW21" s="87"/>
-      <c r="AX21" s="87"/>
-      <c r="AY21" s="87"/>
-      <c r="AZ21" s="88"/>
+      <c r="C21" s="83"/>
+      <c r="D21" s="84"/>
+      <c r="E21" s="84"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="86"/>
+      <c r="H21" s="87"/>
+      <c r="I21" s="87"/>
+      <c r="J21" s="87"/>
+      <c r="K21" s="88"/>
+      <c r="L21" s="89"/>
+      <c r="M21" s="90"/>
+      <c r="N21" s="90"/>
+      <c r="O21" s="90"/>
+      <c r="P21" s="91"/>
+      <c r="Q21" s="89"/>
+      <c r="R21" s="90"/>
+      <c r="S21" s="90"/>
+      <c r="T21" s="90"/>
+      <c r="U21" s="90"/>
+      <c r="V21" s="90"/>
+      <c r="W21" s="90"/>
+      <c r="X21" s="90"/>
+      <c r="Y21" s="90"/>
+      <c r="Z21" s="90"/>
+      <c r="AA21" s="90"/>
+      <c r="AB21" s="90"/>
+      <c r="AC21" s="90"/>
+      <c r="AD21" s="90"/>
+      <c r="AE21" s="90"/>
+      <c r="AF21" s="90"/>
+      <c r="AG21" s="90"/>
+      <c r="AH21" s="90"/>
+      <c r="AI21" s="90"/>
+      <c r="AJ21" s="90"/>
+      <c r="AK21" s="90"/>
+      <c r="AL21" s="91"/>
+      <c r="AM21" s="89"/>
+      <c r="AN21" s="90"/>
+      <c r="AO21" s="90"/>
+      <c r="AP21" s="90"/>
+      <c r="AQ21" s="90"/>
+      <c r="AR21" s="90"/>
+      <c r="AS21" s="90"/>
+      <c r="AT21" s="90"/>
+      <c r="AU21" s="90"/>
+      <c r="AV21" s="90"/>
+      <c r="AW21" s="90"/>
+      <c r="AX21" s="90"/>
+      <c r="AY21" s="90"/>
+      <c r="AZ21" s="91"/>
     </row>
     <row r="22" spans="1:52">
       <c r="A22" s="9" t="str">
@@ -3914,56 +3914,56 @@
         <v/>
       </c>
       <c r="B22" s="10"/>
-      <c r="C22" s="89"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="91"/>
-      <c r="G22" s="83"/>
-      <c r="H22" s="84"/>
-      <c r="I22" s="84"/>
-      <c r="J22" s="84"/>
-      <c r="K22" s="85"/>
-      <c r="L22" s="86"/>
-      <c r="M22" s="87"/>
-      <c r="N22" s="87"/>
-      <c r="O22" s="87"/>
-      <c r="P22" s="88"/>
-      <c r="Q22" s="86"/>
-      <c r="R22" s="87"/>
-      <c r="S22" s="87"/>
-      <c r="T22" s="87"/>
-      <c r="U22" s="87"/>
-      <c r="V22" s="87"/>
-      <c r="W22" s="87"/>
-      <c r="X22" s="87"/>
-      <c r="Y22" s="87"/>
-      <c r="Z22" s="87"/>
-      <c r="AA22" s="87"/>
-      <c r="AB22" s="87"/>
-      <c r="AC22" s="87"/>
-      <c r="AD22" s="87"/>
-      <c r="AE22" s="87"/>
-      <c r="AF22" s="87"/>
-      <c r="AG22" s="87"/>
-      <c r="AH22" s="87"/>
-      <c r="AI22" s="87"/>
-      <c r="AJ22" s="87"/>
-      <c r="AK22" s="87"/>
-      <c r="AL22" s="88"/>
-      <c r="AM22" s="86"/>
-      <c r="AN22" s="87"/>
-      <c r="AO22" s="87"/>
-      <c r="AP22" s="87"/>
-      <c r="AQ22" s="87"/>
-      <c r="AR22" s="87"/>
-      <c r="AS22" s="87"/>
-      <c r="AT22" s="87"/>
-      <c r="AU22" s="87"/>
-      <c r="AV22" s="87"/>
-      <c r="AW22" s="87"/>
-      <c r="AX22" s="87"/>
-      <c r="AY22" s="87"/>
-      <c r="AZ22" s="88"/>
+      <c r="C22" s="83"/>
+      <c r="D22" s="84"/>
+      <c r="E22" s="84"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="86"/>
+      <c r="H22" s="87"/>
+      <c r="I22" s="87"/>
+      <c r="J22" s="87"/>
+      <c r="K22" s="88"/>
+      <c r="L22" s="89"/>
+      <c r="M22" s="90"/>
+      <c r="N22" s="90"/>
+      <c r="O22" s="90"/>
+      <c r="P22" s="91"/>
+      <c r="Q22" s="89"/>
+      <c r="R22" s="90"/>
+      <c r="S22" s="90"/>
+      <c r="T22" s="90"/>
+      <c r="U22" s="90"/>
+      <c r="V22" s="90"/>
+      <c r="W22" s="90"/>
+      <c r="X22" s="90"/>
+      <c r="Y22" s="90"/>
+      <c r="Z22" s="90"/>
+      <c r="AA22" s="90"/>
+      <c r="AB22" s="90"/>
+      <c r="AC22" s="90"/>
+      <c r="AD22" s="90"/>
+      <c r="AE22" s="90"/>
+      <c r="AF22" s="90"/>
+      <c r="AG22" s="90"/>
+      <c r="AH22" s="90"/>
+      <c r="AI22" s="90"/>
+      <c r="AJ22" s="90"/>
+      <c r="AK22" s="90"/>
+      <c r="AL22" s="91"/>
+      <c r="AM22" s="89"/>
+      <c r="AN22" s="90"/>
+      <c r="AO22" s="90"/>
+      <c r="AP22" s="90"/>
+      <c r="AQ22" s="90"/>
+      <c r="AR22" s="90"/>
+      <c r="AS22" s="90"/>
+      <c r="AT22" s="90"/>
+      <c r="AU22" s="90"/>
+      <c r="AV22" s="90"/>
+      <c r="AW22" s="90"/>
+      <c r="AX22" s="90"/>
+      <c r="AY22" s="90"/>
+      <c r="AZ22" s="91"/>
     </row>
     <row r="23" spans="1:52">
       <c r="A23" s="9" t="str">
@@ -3971,56 +3971,56 @@
         <v/>
       </c>
       <c r="B23" s="10"/>
-      <c r="C23" s="89"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="91"/>
-      <c r="G23" s="83"/>
-      <c r="H23" s="84"/>
-      <c r="I23" s="84"/>
-      <c r="J23" s="84"/>
-      <c r="K23" s="85"/>
-      <c r="L23" s="86"/>
-      <c r="M23" s="87"/>
-      <c r="N23" s="87"/>
-      <c r="O23" s="87"/>
-      <c r="P23" s="88"/>
-      <c r="Q23" s="86"/>
-      <c r="R23" s="87"/>
-      <c r="S23" s="87"/>
-      <c r="T23" s="87"/>
-      <c r="U23" s="87"/>
-      <c r="V23" s="87"/>
-      <c r="W23" s="87"/>
-      <c r="X23" s="87"/>
-      <c r="Y23" s="87"/>
-      <c r="Z23" s="87"/>
-      <c r="AA23" s="87"/>
-      <c r="AB23" s="87"/>
-      <c r="AC23" s="87"/>
-      <c r="AD23" s="87"/>
-      <c r="AE23" s="87"/>
-      <c r="AF23" s="87"/>
-      <c r="AG23" s="87"/>
-      <c r="AH23" s="87"/>
-      <c r="AI23" s="87"/>
-      <c r="AJ23" s="87"/>
-      <c r="AK23" s="87"/>
-      <c r="AL23" s="88"/>
-      <c r="AM23" s="86"/>
-      <c r="AN23" s="87"/>
-      <c r="AO23" s="87"/>
-      <c r="AP23" s="87"/>
-      <c r="AQ23" s="87"/>
-      <c r="AR23" s="87"/>
-      <c r="AS23" s="87"/>
-      <c r="AT23" s="87"/>
-      <c r="AU23" s="87"/>
-      <c r="AV23" s="87"/>
-      <c r="AW23" s="87"/>
-      <c r="AX23" s="87"/>
-      <c r="AY23" s="87"/>
-      <c r="AZ23" s="88"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="85"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="87"/>
+      <c r="I23" s="87"/>
+      <c r="J23" s="87"/>
+      <c r="K23" s="88"/>
+      <c r="L23" s="89"/>
+      <c r="M23" s="90"/>
+      <c r="N23" s="90"/>
+      <c r="O23" s="90"/>
+      <c r="P23" s="91"/>
+      <c r="Q23" s="89"/>
+      <c r="R23" s="90"/>
+      <c r="S23" s="90"/>
+      <c r="T23" s="90"/>
+      <c r="U23" s="90"/>
+      <c r="V23" s="90"/>
+      <c r="W23" s="90"/>
+      <c r="X23" s="90"/>
+      <c r="Y23" s="90"/>
+      <c r="Z23" s="90"/>
+      <c r="AA23" s="90"/>
+      <c r="AB23" s="90"/>
+      <c r="AC23" s="90"/>
+      <c r="AD23" s="90"/>
+      <c r="AE23" s="90"/>
+      <c r="AF23" s="90"/>
+      <c r="AG23" s="90"/>
+      <c r="AH23" s="90"/>
+      <c r="AI23" s="90"/>
+      <c r="AJ23" s="90"/>
+      <c r="AK23" s="90"/>
+      <c r="AL23" s="91"/>
+      <c r="AM23" s="89"/>
+      <c r="AN23" s="90"/>
+      <c r="AO23" s="90"/>
+      <c r="AP23" s="90"/>
+      <c r="AQ23" s="90"/>
+      <c r="AR23" s="90"/>
+      <c r="AS23" s="90"/>
+      <c r="AT23" s="90"/>
+      <c r="AU23" s="90"/>
+      <c r="AV23" s="90"/>
+      <c r="AW23" s="90"/>
+      <c r="AX23" s="90"/>
+      <c r="AY23" s="90"/>
+      <c r="AZ23" s="91"/>
     </row>
     <row r="24" spans="1:52">
       <c r="A24" s="9" t="str">
@@ -4028,56 +4028,56 @@
         <v/>
       </c>
       <c r="B24" s="10"/>
-      <c r="C24" s="89"/>
-      <c r="D24" s="90"/>
-      <c r="E24" s="90"/>
-      <c r="F24" s="91"/>
-      <c r="G24" s="83"/>
-      <c r="H24" s="84"/>
-      <c r="I24" s="84"/>
-      <c r="J24" s="84"/>
-      <c r="K24" s="85"/>
-      <c r="L24" s="86"/>
-      <c r="M24" s="87"/>
-      <c r="N24" s="87"/>
-      <c r="O24" s="87"/>
-      <c r="P24" s="88"/>
-      <c r="Q24" s="86"/>
-      <c r="R24" s="87"/>
-      <c r="S24" s="87"/>
-      <c r="T24" s="87"/>
-      <c r="U24" s="87"/>
-      <c r="V24" s="87"/>
-      <c r="W24" s="87"/>
-      <c r="X24" s="87"/>
-      <c r="Y24" s="87"/>
-      <c r="Z24" s="87"/>
-      <c r="AA24" s="87"/>
-      <c r="AB24" s="87"/>
-      <c r="AC24" s="87"/>
-      <c r="AD24" s="87"/>
-      <c r="AE24" s="87"/>
-      <c r="AF24" s="87"/>
-      <c r="AG24" s="87"/>
-      <c r="AH24" s="87"/>
-      <c r="AI24" s="87"/>
-      <c r="AJ24" s="87"/>
-      <c r="AK24" s="87"/>
-      <c r="AL24" s="88"/>
-      <c r="AM24" s="86"/>
-      <c r="AN24" s="87"/>
-      <c r="AO24" s="87"/>
-      <c r="AP24" s="87"/>
-      <c r="AQ24" s="87"/>
-      <c r="AR24" s="87"/>
-      <c r="AS24" s="87"/>
-      <c r="AT24" s="87"/>
-      <c r="AU24" s="87"/>
-      <c r="AV24" s="87"/>
-      <c r="AW24" s="87"/>
-      <c r="AX24" s="87"/>
-      <c r="AY24" s="87"/>
-      <c r="AZ24" s="88"/>
+      <c r="C24" s="83"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="84"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="86"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="87"/>
+      <c r="K24" s="88"/>
+      <c r="L24" s="89"/>
+      <c r="M24" s="90"/>
+      <c r="N24" s="90"/>
+      <c r="O24" s="90"/>
+      <c r="P24" s="91"/>
+      <c r="Q24" s="89"/>
+      <c r="R24" s="90"/>
+      <c r="S24" s="90"/>
+      <c r="T24" s="90"/>
+      <c r="U24" s="90"/>
+      <c r="V24" s="90"/>
+      <c r="W24" s="90"/>
+      <c r="X24" s="90"/>
+      <c r="Y24" s="90"/>
+      <c r="Z24" s="90"/>
+      <c r="AA24" s="90"/>
+      <c r="AB24" s="90"/>
+      <c r="AC24" s="90"/>
+      <c r="AD24" s="90"/>
+      <c r="AE24" s="90"/>
+      <c r="AF24" s="90"/>
+      <c r="AG24" s="90"/>
+      <c r="AH24" s="90"/>
+      <c r="AI24" s="90"/>
+      <c r="AJ24" s="90"/>
+      <c r="AK24" s="90"/>
+      <c r="AL24" s="91"/>
+      <c r="AM24" s="89"/>
+      <c r="AN24" s="90"/>
+      <c r="AO24" s="90"/>
+      <c r="AP24" s="90"/>
+      <c r="AQ24" s="90"/>
+      <c r="AR24" s="90"/>
+      <c r="AS24" s="90"/>
+      <c r="AT24" s="90"/>
+      <c r="AU24" s="90"/>
+      <c r="AV24" s="90"/>
+      <c r="AW24" s="90"/>
+      <c r="AX24" s="90"/>
+      <c r="AY24" s="90"/>
+      <c r="AZ24" s="91"/>
     </row>
     <row r="25" spans="1:52">
       <c r="A25" s="9" t="str">
@@ -4085,56 +4085,56 @@
         <v/>
       </c>
       <c r="B25" s="10"/>
-      <c r="C25" s="89"/>
-      <c r="D25" s="90"/>
-      <c r="E25" s="90"/>
-      <c r="F25" s="91"/>
-      <c r="G25" s="83"/>
-      <c r="H25" s="84"/>
-      <c r="I25" s="84"/>
-      <c r="J25" s="84"/>
-      <c r="K25" s="85"/>
-      <c r="L25" s="86"/>
-      <c r="M25" s="87"/>
-      <c r="N25" s="87"/>
-      <c r="O25" s="87"/>
-      <c r="P25" s="88"/>
-      <c r="Q25" s="86"/>
-      <c r="R25" s="87"/>
-      <c r="S25" s="87"/>
-      <c r="T25" s="87"/>
-      <c r="U25" s="87"/>
-      <c r="V25" s="87"/>
-      <c r="W25" s="87"/>
-      <c r="X25" s="87"/>
-      <c r="Y25" s="87"/>
-      <c r="Z25" s="87"/>
-      <c r="AA25" s="87"/>
-      <c r="AB25" s="87"/>
-      <c r="AC25" s="87"/>
-      <c r="AD25" s="87"/>
-      <c r="AE25" s="87"/>
-      <c r="AF25" s="87"/>
-      <c r="AG25" s="87"/>
-      <c r="AH25" s="87"/>
-      <c r="AI25" s="87"/>
-      <c r="AJ25" s="87"/>
-      <c r="AK25" s="87"/>
-      <c r="AL25" s="88"/>
-      <c r="AM25" s="86"/>
-      <c r="AN25" s="87"/>
-      <c r="AO25" s="87"/>
-      <c r="AP25" s="87"/>
-      <c r="AQ25" s="87"/>
-      <c r="AR25" s="87"/>
-      <c r="AS25" s="87"/>
-      <c r="AT25" s="87"/>
-      <c r="AU25" s="87"/>
-      <c r="AV25" s="87"/>
-      <c r="AW25" s="87"/>
-      <c r="AX25" s="87"/>
-      <c r="AY25" s="87"/>
-      <c r="AZ25" s="88"/>
+      <c r="C25" s="83"/>
+      <c r="D25" s="84"/>
+      <c r="E25" s="84"/>
+      <c r="F25" s="85"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="87"/>
+      <c r="I25" s="87"/>
+      <c r="J25" s="87"/>
+      <c r="K25" s="88"/>
+      <c r="L25" s="89"/>
+      <c r="M25" s="90"/>
+      <c r="N25" s="90"/>
+      <c r="O25" s="90"/>
+      <c r="P25" s="91"/>
+      <c r="Q25" s="89"/>
+      <c r="R25" s="90"/>
+      <c r="S25" s="90"/>
+      <c r="T25" s="90"/>
+      <c r="U25" s="90"/>
+      <c r="V25" s="90"/>
+      <c r="W25" s="90"/>
+      <c r="X25" s="90"/>
+      <c r="Y25" s="90"/>
+      <c r="Z25" s="90"/>
+      <c r="AA25" s="90"/>
+      <c r="AB25" s="90"/>
+      <c r="AC25" s="90"/>
+      <c r="AD25" s="90"/>
+      <c r="AE25" s="90"/>
+      <c r="AF25" s="90"/>
+      <c r="AG25" s="90"/>
+      <c r="AH25" s="90"/>
+      <c r="AI25" s="90"/>
+      <c r="AJ25" s="90"/>
+      <c r="AK25" s="90"/>
+      <c r="AL25" s="91"/>
+      <c r="AM25" s="89"/>
+      <c r="AN25" s="90"/>
+      <c r="AO25" s="90"/>
+      <c r="AP25" s="90"/>
+      <c r="AQ25" s="90"/>
+      <c r="AR25" s="90"/>
+      <c r="AS25" s="90"/>
+      <c r="AT25" s="90"/>
+      <c r="AU25" s="90"/>
+      <c r="AV25" s="90"/>
+      <c r="AW25" s="90"/>
+      <c r="AX25" s="90"/>
+      <c r="AY25" s="90"/>
+      <c r="AZ25" s="91"/>
     </row>
     <row r="26" spans="1:52">
       <c r="A26" s="9" t="str">
@@ -4142,56 +4142,56 @@
         <v/>
       </c>
       <c r="B26" s="10"/>
-      <c r="C26" s="89"/>
-      <c r="D26" s="90"/>
-      <c r="E26" s="90"/>
-      <c r="F26" s="91"/>
-      <c r="G26" s="83"/>
-      <c r="H26" s="84"/>
-      <c r="I26" s="84"/>
-      <c r="J26" s="84"/>
-      <c r="K26" s="85"/>
-      <c r="L26" s="86"/>
-      <c r="M26" s="87"/>
-      <c r="N26" s="87"/>
-      <c r="O26" s="87"/>
-      <c r="P26" s="88"/>
-      <c r="Q26" s="86"/>
-      <c r="R26" s="87"/>
-      <c r="S26" s="87"/>
-      <c r="T26" s="87"/>
-      <c r="U26" s="87"/>
-      <c r="V26" s="87"/>
-      <c r="W26" s="87"/>
-      <c r="X26" s="87"/>
-      <c r="Y26" s="87"/>
-      <c r="Z26" s="87"/>
-      <c r="AA26" s="87"/>
-      <c r="AB26" s="87"/>
-      <c r="AC26" s="87"/>
-      <c r="AD26" s="87"/>
-      <c r="AE26" s="87"/>
-      <c r="AF26" s="87"/>
-      <c r="AG26" s="87"/>
-      <c r="AH26" s="87"/>
-      <c r="AI26" s="87"/>
-      <c r="AJ26" s="87"/>
-      <c r="AK26" s="87"/>
-      <c r="AL26" s="88"/>
-      <c r="AM26" s="86"/>
-      <c r="AN26" s="87"/>
-      <c r="AO26" s="87"/>
-      <c r="AP26" s="87"/>
-      <c r="AQ26" s="87"/>
-      <c r="AR26" s="87"/>
-      <c r="AS26" s="87"/>
-      <c r="AT26" s="87"/>
-      <c r="AU26" s="87"/>
-      <c r="AV26" s="87"/>
-      <c r="AW26" s="87"/>
-      <c r="AX26" s="87"/>
-      <c r="AY26" s="87"/>
-      <c r="AZ26" s="88"/>
+      <c r="C26" s="83"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="84"/>
+      <c r="F26" s="85"/>
+      <c r="G26" s="86"/>
+      <c r="H26" s="87"/>
+      <c r="I26" s="87"/>
+      <c r="J26" s="87"/>
+      <c r="K26" s="88"/>
+      <c r="L26" s="89"/>
+      <c r="M26" s="90"/>
+      <c r="N26" s="90"/>
+      <c r="O26" s="90"/>
+      <c r="P26" s="91"/>
+      <c r="Q26" s="89"/>
+      <c r="R26" s="90"/>
+      <c r="S26" s="90"/>
+      <c r="T26" s="90"/>
+      <c r="U26" s="90"/>
+      <c r="V26" s="90"/>
+      <c r="W26" s="90"/>
+      <c r="X26" s="90"/>
+      <c r="Y26" s="90"/>
+      <c r="Z26" s="90"/>
+      <c r="AA26" s="90"/>
+      <c r="AB26" s="90"/>
+      <c r="AC26" s="90"/>
+      <c r="AD26" s="90"/>
+      <c r="AE26" s="90"/>
+      <c r="AF26" s="90"/>
+      <c r="AG26" s="90"/>
+      <c r="AH26" s="90"/>
+      <c r="AI26" s="90"/>
+      <c r="AJ26" s="90"/>
+      <c r="AK26" s="90"/>
+      <c r="AL26" s="91"/>
+      <c r="AM26" s="89"/>
+      <c r="AN26" s="90"/>
+      <c r="AO26" s="90"/>
+      <c r="AP26" s="90"/>
+      <c r="AQ26" s="90"/>
+      <c r="AR26" s="90"/>
+      <c r="AS26" s="90"/>
+      <c r="AT26" s="90"/>
+      <c r="AU26" s="90"/>
+      <c r="AV26" s="90"/>
+      <c r="AW26" s="90"/>
+      <c r="AX26" s="90"/>
+      <c r="AY26" s="90"/>
+      <c r="AZ26" s="91"/>
     </row>
     <row r="27" spans="1:52">
       <c r="A27" s="9" t="str">
@@ -4199,56 +4199,56 @@
         <v/>
       </c>
       <c r="B27" s="10"/>
-      <c r="C27" s="89"/>
-      <c r="D27" s="90"/>
-      <c r="E27" s="90"/>
-      <c r="F27" s="91"/>
-      <c r="G27" s="83"/>
-      <c r="H27" s="84"/>
-      <c r="I27" s="84"/>
-      <c r="J27" s="84"/>
-      <c r="K27" s="85"/>
-      <c r="L27" s="86"/>
-      <c r="M27" s="87"/>
-      <c r="N27" s="87"/>
-      <c r="O27" s="87"/>
-      <c r="P27" s="88"/>
-      <c r="Q27" s="86"/>
-      <c r="R27" s="87"/>
-      <c r="S27" s="87"/>
-      <c r="T27" s="87"/>
-      <c r="U27" s="87"/>
-      <c r="V27" s="87"/>
-      <c r="W27" s="87"/>
-      <c r="X27" s="87"/>
-      <c r="Y27" s="87"/>
-      <c r="Z27" s="87"/>
-      <c r="AA27" s="87"/>
-      <c r="AB27" s="87"/>
-      <c r="AC27" s="87"/>
-      <c r="AD27" s="87"/>
-      <c r="AE27" s="87"/>
-      <c r="AF27" s="87"/>
-      <c r="AG27" s="87"/>
-      <c r="AH27" s="87"/>
-      <c r="AI27" s="87"/>
-      <c r="AJ27" s="87"/>
-      <c r="AK27" s="87"/>
-      <c r="AL27" s="88"/>
-      <c r="AM27" s="86"/>
-      <c r="AN27" s="87"/>
-      <c r="AO27" s="87"/>
-      <c r="AP27" s="87"/>
-      <c r="AQ27" s="87"/>
-      <c r="AR27" s="87"/>
-      <c r="AS27" s="87"/>
-      <c r="AT27" s="87"/>
-      <c r="AU27" s="87"/>
-      <c r="AV27" s="87"/>
-      <c r="AW27" s="87"/>
-      <c r="AX27" s="87"/>
-      <c r="AY27" s="87"/>
-      <c r="AZ27" s="88"/>
+      <c r="C27" s="83"/>
+      <c r="D27" s="84"/>
+      <c r="E27" s="84"/>
+      <c r="F27" s="85"/>
+      <c r="G27" s="86"/>
+      <c r="H27" s="87"/>
+      <c r="I27" s="87"/>
+      <c r="J27" s="87"/>
+      <c r="K27" s="88"/>
+      <c r="L27" s="89"/>
+      <c r="M27" s="90"/>
+      <c r="N27" s="90"/>
+      <c r="O27" s="90"/>
+      <c r="P27" s="91"/>
+      <c r="Q27" s="89"/>
+      <c r="R27" s="90"/>
+      <c r="S27" s="90"/>
+      <c r="T27" s="90"/>
+      <c r="U27" s="90"/>
+      <c r="V27" s="90"/>
+      <c r="W27" s="90"/>
+      <c r="X27" s="90"/>
+      <c r="Y27" s="90"/>
+      <c r="Z27" s="90"/>
+      <c r="AA27" s="90"/>
+      <c r="AB27" s="90"/>
+      <c r="AC27" s="90"/>
+      <c r="AD27" s="90"/>
+      <c r="AE27" s="90"/>
+      <c r="AF27" s="90"/>
+      <c r="AG27" s="90"/>
+      <c r="AH27" s="90"/>
+      <c r="AI27" s="90"/>
+      <c r="AJ27" s="90"/>
+      <c r="AK27" s="90"/>
+      <c r="AL27" s="91"/>
+      <c r="AM27" s="89"/>
+      <c r="AN27" s="90"/>
+      <c r="AO27" s="90"/>
+      <c r="AP27" s="90"/>
+      <c r="AQ27" s="90"/>
+      <c r="AR27" s="90"/>
+      <c r="AS27" s="90"/>
+      <c r="AT27" s="90"/>
+      <c r="AU27" s="90"/>
+      <c r="AV27" s="90"/>
+      <c r="AW27" s="90"/>
+      <c r="AX27" s="90"/>
+      <c r="AY27" s="90"/>
+      <c r="AZ27" s="91"/>
     </row>
     <row r="28" spans="1:52">
       <c r="A28" s="9" t="str">
@@ -4256,56 +4256,56 @@
         <v/>
       </c>
       <c r="B28" s="10"/>
-      <c r="C28" s="89"/>
-      <c r="D28" s="90"/>
-      <c r="E28" s="90"/>
-      <c r="F28" s="91"/>
-      <c r="G28" s="83"/>
-      <c r="H28" s="84"/>
-      <c r="I28" s="84"/>
-      <c r="J28" s="84"/>
-      <c r="K28" s="85"/>
-      <c r="L28" s="86"/>
-      <c r="M28" s="87"/>
-      <c r="N28" s="87"/>
-      <c r="O28" s="87"/>
-      <c r="P28" s="88"/>
-      <c r="Q28" s="86"/>
-      <c r="R28" s="87"/>
-      <c r="S28" s="87"/>
-      <c r="T28" s="87"/>
-      <c r="U28" s="87"/>
-      <c r="V28" s="87"/>
-      <c r="W28" s="87"/>
-      <c r="X28" s="87"/>
-      <c r="Y28" s="87"/>
-      <c r="Z28" s="87"/>
-      <c r="AA28" s="87"/>
-      <c r="AB28" s="87"/>
-      <c r="AC28" s="87"/>
-      <c r="AD28" s="87"/>
-      <c r="AE28" s="87"/>
-      <c r="AF28" s="87"/>
-      <c r="AG28" s="87"/>
-      <c r="AH28" s="87"/>
-      <c r="AI28" s="87"/>
-      <c r="AJ28" s="87"/>
-      <c r="AK28" s="87"/>
-      <c r="AL28" s="88"/>
-      <c r="AM28" s="86"/>
-      <c r="AN28" s="87"/>
-      <c r="AO28" s="87"/>
-      <c r="AP28" s="87"/>
-      <c r="AQ28" s="87"/>
-      <c r="AR28" s="87"/>
-      <c r="AS28" s="87"/>
-      <c r="AT28" s="87"/>
-      <c r="AU28" s="87"/>
-      <c r="AV28" s="87"/>
-      <c r="AW28" s="87"/>
-      <c r="AX28" s="87"/>
-      <c r="AY28" s="87"/>
-      <c r="AZ28" s="88"/>
+      <c r="C28" s="83"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="85"/>
+      <c r="G28" s="86"/>
+      <c r="H28" s="87"/>
+      <c r="I28" s="87"/>
+      <c r="J28" s="87"/>
+      <c r="K28" s="88"/>
+      <c r="L28" s="89"/>
+      <c r="M28" s="90"/>
+      <c r="N28" s="90"/>
+      <c r="O28" s="90"/>
+      <c r="P28" s="91"/>
+      <c r="Q28" s="89"/>
+      <c r="R28" s="90"/>
+      <c r="S28" s="90"/>
+      <c r="T28" s="90"/>
+      <c r="U28" s="90"/>
+      <c r="V28" s="90"/>
+      <c r="W28" s="90"/>
+      <c r="X28" s="90"/>
+      <c r="Y28" s="90"/>
+      <c r="Z28" s="90"/>
+      <c r="AA28" s="90"/>
+      <c r="AB28" s="90"/>
+      <c r="AC28" s="90"/>
+      <c r="AD28" s="90"/>
+      <c r="AE28" s="90"/>
+      <c r="AF28" s="90"/>
+      <c r="AG28" s="90"/>
+      <c r="AH28" s="90"/>
+      <c r="AI28" s="90"/>
+      <c r="AJ28" s="90"/>
+      <c r="AK28" s="90"/>
+      <c r="AL28" s="91"/>
+      <c r="AM28" s="89"/>
+      <c r="AN28" s="90"/>
+      <c r="AO28" s="90"/>
+      <c r="AP28" s="90"/>
+      <c r="AQ28" s="90"/>
+      <c r="AR28" s="90"/>
+      <c r="AS28" s="90"/>
+      <c r="AT28" s="90"/>
+      <c r="AU28" s="90"/>
+      <c r="AV28" s="90"/>
+      <c r="AW28" s="90"/>
+      <c r="AX28" s="90"/>
+      <c r="AY28" s="90"/>
+      <c r="AZ28" s="91"/>
     </row>
     <row r="29" spans="1:52">
       <c r="A29" s="9" t="str">
@@ -4313,56 +4313,56 @@
         <v/>
       </c>
       <c r="B29" s="10"/>
-      <c r="C29" s="89"/>
-      <c r="D29" s="90"/>
-      <c r="E29" s="90"/>
-      <c r="F29" s="91"/>
-      <c r="G29" s="83"/>
-      <c r="H29" s="84"/>
-      <c r="I29" s="84"/>
-      <c r="J29" s="84"/>
-      <c r="K29" s="85"/>
-      <c r="L29" s="86"/>
-      <c r="M29" s="87"/>
-      <c r="N29" s="87"/>
-      <c r="O29" s="87"/>
-      <c r="P29" s="88"/>
-      <c r="Q29" s="86"/>
-      <c r="R29" s="87"/>
-      <c r="S29" s="87"/>
-      <c r="T29" s="87"/>
-      <c r="U29" s="87"/>
-      <c r="V29" s="87"/>
-      <c r="W29" s="87"/>
-      <c r="X29" s="87"/>
-      <c r="Y29" s="87"/>
-      <c r="Z29" s="87"/>
-      <c r="AA29" s="87"/>
-      <c r="AB29" s="87"/>
-      <c r="AC29" s="87"/>
-      <c r="AD29" s="87"/>
-      <c r="AE29" s="87"/>
-      <c r="AF29" s="87"/>
-      <c r="AG29" s="87"/>
-      <c r="AH29" s="87"/>
-      <c r="AI29" s="87"/>
-      <c r="AJ29" s="87"/>
-      <c r="AK29" s="87"/>
-      <c r="AL29" s="88"/>
-      <c r="AM29" s="86"/>
-      <c r="AN29" s="87"/>
-      <c r="AO29" s="87"/>
-      <c r="AP29" s="87"/>
-      <c r="AQ29" s="87"/>
-      <c r="AR29" s="87"/>
-      <c r="AS29" s="87"/>
-      <c r="AT29" s="87"/>
-      <c r="AU29" s="87"/>
-      <c r="AV29" s="87"/>
-      <c r="AW29" s="87"/>
-      <c r="AX29" s="87"/>
-      <c r="AY29" s="87"/>
-      <c r="AZ29" s="88"/>
+      <c r="C29" s="83"/>
+      <c r="D29" s="84"/>
+      <c r="E29" s="84"/>
+      <c r="F29" s="85"/>
+      <c r="G29" s="86"/>
+      <c r="H29" s="87"/>
+      <c r="I29" s="87"/>
+      <c r="J29" s="87"/>
+      <c r="K29" s="88"/>
+      <c r="L29" s="89"/>
+      <c r="M29" s="90"/>
+      <c r="N29" s="90"/>
+      <c r="O29" s="90"/>
+      <c r="P29" s="91"/>
+      <c r="Q29" s="89"/>
+      <c r="R29" s="90"/>
+      <c r="S29" s="90"/>
+      <c r="T29" s="90"/>
+      <c r="U29" s="90"/>
+      <c r="V29" s="90"/>
+      <c r="W29" s="90"/>
+      <c r="X29" s="90"/>
+      <c r="Y29" s="90"/>
+      <c r="Z29" s="90"/>
+      <c r="AA29" s="90"/>
+      <c r="AB29" s="90"/>
+      <c r="AC29" s="90"/>
+      <c r="AD29" s="90"/>
+      <c r="AE29" s="90"/>
+      <c r="AF29" s="90"/>
+      <c r="AG29" s="90"/>
+      <c r="AH29" s="90"/>
+      <c r="AI29" s="90"/>
+      <c r="AJ29" s="90"/>
+      <c r="AK29" s="90"/>
+      <c r="AL29" s="91"/>
+      <c r="AM29" s="89"/>
+      <c r="AN29" s="90"/>
+      <c r="AO29" s="90"/>
+      <c r="AP29" s="90"/>
+      <c r="AQ29" s="90"/>
+      <c r="AR29" s="90"/>
+      <c r="AS29" s="90"/>
+      <c r="AT29" s="90"/>
+      <c r="AU29" s="90"/>
+      <c r="AV29" s="90"/>
+      <c r="AW29" s="90"/>
+      <c r="AX29" s="90"/>
+      <c r="AY29" s="90"/>
+      <c r="AZ29" s="91"/>
     </row>
     <row r="30" spans="1:52">
       <c r="A30" s="9" t="str">
@@ -4370,56 +4370,56 @@
         <v/>
       </c>
       <c r="B30" s="10"/>
-      <c r="C30" s="89"/>
-      <c r="D30" s="90"/>
-      <c r="E30" s="90"/>
-      <c r="F30" s="91"/>
-      <c r="G30" s="83"/>
-      <c r="H30" s="84"/>
-      <c r="I30" s="84"/>
-      <c r="J30" s="84"/>
-      <c r="K30" s="85"/>
-      <c r="L30" s="86"/>
-      <c r="M30" s="87"/>
-      <c r="N30" s="87"/>
-      <c r="O30" s="87"/>
-      <c r="P30" s="88"/>
-      <c r="Q30" s="86"/>
-      <c r="R30" s="87"/>
-      <c r="S30" s="87"/>
-      <c r="T30" s="87"/>
-      <c r="U30" s="87"/>
-      <c r="V30" s="87"/>
-      <c r="W30" s="87"/>
-      <c r="X30" s="87"/>
-      <c r="Y30" s="87"/>
-      <c r="Z30" s="87"/>
-      <c r="AA30" s="87"/>
-      <c r="AB30" s="87"/>
-      <c r="AC30" s="87"/>
-      <c r="AD30" s="87"/>
-      <c r="AE30" s="87"/>
-      <c r="AF30" s="87"/>
-      <c r="AG30" s="87"/>
-      <c r="AH30" s="87"/>
-      <c r="AI30" s="87"/>
-      <c r="AJ30" s="87"/>
-      <c r="AK30" s="87"/>
-      <c r="AL30" s="88"/>
-      <c r="AM30" s="86"/>
-      <c r="AN30" s="87"/>
-      <c r="AO30" s="87"/>
-      <c r="AP30" s="87"/>
-      <c r="AQ30" s="87"/>
-      <c r="AR30" s="87"/>
-      <c r="AS30" s="87"/>
-      <c r="AT30" s="87"/>
-      <c r="AU30" s="87"/>
-      <c r="AV30" s="87"/>
-      <c r="AW30" s="87"/>
-      <c r="AX30" s="87"/>
-      <c r="AY30" s="87"/>
-      <c r="AZ30" s="88"/>
+      <c r="C30" s="83"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="84"/>
+      <c r="F30" s="85"/>
+      <c r="G30" s="86"/>
+      <c r="H30" s="87"/>
+      <c r="I30" s="87"/>
+      <c r="J30" s="87"/>
+      <c r="K30" s="88"/>
+      <c r="L30" s="89"/>
+      <c r="M30" s="90"/>
+      <c r="N30" s="90"/>
+      <c r="O30" s="90"/>
+      <c r="P30" s="91"/>
+      <c r="Q30" s="89"/>
+      <c r="R30" s="90"/>
+      <c r="S30" s="90"/>
+      <c r="T30" s="90"/>
+      <c r="U30" s="90"/>
+      <c r="V30" s="90"/>
+      <c r="W30" s="90"/>
+      <c r="X30" s="90"/>
+      <c r="Y30" s="90"/>
+      <c r="Z30" s="90"/>
+      <c r="AA30" s="90"/>
+      <c r="AB30" s="90"/>
+      <c r="AC30" s="90"/>
+      <c r="AD30" s="90"/>
+      <c r="AE30" s="90"/>
+      <c r="AF30" s="90"/>
+      <c r="AG30" s="90"/>
+      <c r="AH30" s="90"/>
+      <c r="AI30" s="90"/>
+      <c r="AJ30" s="90"/>
+      <c r="AK30" s="90"/>
+      <c r="AL30" s="91"/>
+      <c r="AM30" s="89"/>
+      <c r="AN30" s="90"/>
+      <c r="AO30" s="90"/>
+      <c r="AP30" s="90"/>
+      <c r="AQ30" s="90"/>
+      <c r="AR30" s="90"/>
+      <c r="AS30" s="90"/>
+      <c r="AT30" s="90"/>
+      <c r="AU30" s="90"/>
+      <c r="AV30" s="90"/>
+      <c r="AW30" s="90"/>
+      <c r="AX30" s="90"/>
+      <c r="AY30" s="90"/>
+      <c r="AZ30" s="91"/>
     </row>
     <row r="31" spans="1:52">
       <c r="A31" s="9" t="str">
@@ -4427,56 +4427,56 @@
         <v/>
       </c>
       <c r="B31" s="10"/>
-      <c r="C31" s="89"/>
-      <c r="D31" s="90"/>
-      <c r="E31" s="90"/>
-      <c r="F31" s="91"/>
-      <c r="G31" s="83"/>
-      <c r="H31" s="84"/>
-      <c r="I31" s="84"/>
-      <c r="J31" s="84"/>
-      <c r="K31" s="85"/>
-      <c r="L31" s="86"/>
-      <c r="M31" s="87"/>
-      <c r="N31" s="87"/>
-      <c r="O31" s="87"/>
-      <c r="P31" s="88"/>
-      <c r="Q31" s="86"/>
-      <c r="R31" s="87"/>
-      <c r="S31" s="87"/>
-      <c r="T31" s="87"/>
-      <c r="U31" s="87"/>
-      <c r="V31" s="87"/>
-      <c r="W31" s="87"/>
-      <c r="X31" s="87"/>
-      <c r="Y31" s="87"/>
-      <c r="Z31" s="87"/>
-      <c r="AA31" s="87"/>
-      <c r="AB31" s="87"/>
-      <c r="AC31" s="87"/>
-      <c r="AD31" s="87"/>
-      <c r="AE31" s="87"/>
-      <c r="AF31" s="87"/>
-      <c r="AG31" s="87"/>
-      <c r="AH31" s="87"/>
-      <c r="AI31" s="87"/>
-      <c r="AJ31" s="87"/>
-      <c r="AK31" s="87"/>
-      <c r="AL31" s="88"/>
-      <c r="AM31" s="86"/>
-      <c r="AN31" s="87"/>
-      <c r="AO31" s="87"/>
-      <c r="AP31" s="87"/>
-      <c r="AQ31" s="87"/>
-      <c r="AR31" s="87"/>
-      <c r="AS31" s="87"/>
-      <c r="AT31" s="87"/>
-      <c r="AU31" s="87"/>
-      <c r="AV31" s="87"/>
-      <c r="AW31" s="87"/>
-      <c r="AX31" s="87"/>
-      <c r="AY31" s="87"/>
-      <c r="AZ31" s="88"/>
+      <c r="C31" s="83"/>
+      <c r="D31" s="84"/>
+      <c r="E31" s="84"/>
+      <c r="F31" s="85"/>
+      <c r="G31" s="86"/>
+      <c r="H31" s="87"/>
+      <c r="I31" s="87"/>
+      <c r="J31" s="87"/>
+      <c r="K31" s="88"/>
+      <c r="L31" s="89"/>
+      <c r="M31" s="90"/>
+      <c r="N31" s="90"/>
+      <c r="O31" s="90"/>
+      <c r="P31" s="91"/>
+      <c r="Q31" s="89"/>
+      <c r="R31" s="90"/>
+      <c r="S31" s="90"/>
+      <c r="T31" s="90"/>
+      <c r="U31" s="90"/>
+      <c r="V31" s="90"/>
+      <c r="W31" s="90"/>
+      <c r="X31" s="90"/>
+      <c r="Y31" s="90"/>
+      <c r="Z31" s="90"/>
+      <c r="AA31" s="90"/>
+      <c r="AB31" s="90"/>
+      <c r="AC31" s="90"/>
+      <c r="AD31" s="90"/>
+      <c r="AE31" s="90"/>
+      <c r="AF31" s="90"/>
+      <c r="AG31" s="90"/>
+      <c r="AH31" s="90"/>
+      <c r="AI31" s="90"/>
+      <c r="AJ31" s="90"/>
+      <c r="AK31" s="90"/>
+      <c r="AL31" s="91"/>
+      <c r="AM31" s="89"/>
+      <c r="AN31" s="90"/>
+      <c r="AO31" s="90"/>
+      <c r="AP31" s="90"/>
+      <c r="AQ31" s="90"/>
+      <c r="AR31" s="90"/>
+      <c r="AS31" s="90"/>
+      <c r="AT31" s="90"/>
+      <c r="AU31" s="90"/>
+      <c r="AV31" s="90"/>
+      <c r="AW31" s="90"/>
+      <c r="AX31" s="90"/>
+      <c r="AY31" s="90"/>
+      <c r="AZ31" s="91"/>
     </row>
     <row r="32" spans="1:52">
       <c r="A32" s="9" t="str">
@@ -4484,56 +4484,56 @@
         <v/>
       </c>
       <c r="B32" s="10"/>
-      <c r="C32" s="89"/>
-      <c r="D32" s="90"/>
-      <c r="E32" s="90"/>
-      <c r="F32" s="91"/>
-      <c r="G32" s="83"/>
-      <c r="H32" s="84"/>
-      <c r="I32" s="84"/>
-      <c r="J32" s="84"/>
-      <c r="K32" s="85"/>
-      <c r="L32" s="86"/>
-      <c r="M32" s="87"/>
-      <c r="N32" s="87"/>
-      <c r="O32" s="87"/>
-      <c r="P32" s="88"/>
-      <c r="Q32" s="86"/>
-      <c r="R32" s="87"/>
-      <c r="S32" s="87"/>
-      <c r="T32" s="87"/>
-      <c r="U32" s="87"/>
-      <c r="V32" s="87"/>
-      <c r="W32" s="87"/>
-      <c r="X32" s="87"/>
-      <c r="Y32" s="87"/>
-      <c r="Z32" s="87"/>
-      <c r="AA32" s="87"/>
-      <c r="AB32" s="87"/>
-      <c r="AC32" s="87"/>
-      <c r="AD32" s="87"/>
-      <c r="AE32" s="87"/>
-      <c r="AF32" s="87"/>
-      <c r="AG32" s="87"/>
-      <c r="AH32" s="87"/>
-      <c r="AI32" s="87"/>
-      <c r="AJ32" s="87"/>
-      <c r="AK32" s="87"/>
-      <c r="AL32" s="88"/>
-      <c r="AM32" s="86"/>
-      <c r="AN32" s="87"/>
-      <c r="AO32" s="87"/>
-      <c r="AP32" s="87"/>
-      <c r="AQ32" s="87"/>
-      <c r="AR32" s="87"/>
-      <c r="AS32" s="87"/>
-      <c r="AT32" s="87"/>
-      <c r="AU32" s="87"/>
-      <c r="AV32" s="87"/>
-      <c r="AW32" s="87"/>
-      <c r="AX32" s="87"/>
-      <c r="AY32" s="87"/>
-      <c r="AZ32" s="88"/>
+      <c r="C32" s="83"/>
+      <c r="D32" s="84"/>
+      <c r="E32" s="84"/>
+      <c r="F32" s="85"/>
+      <c r="G32" s="86"/>
+      <c r="H32" s="87"/>
+      <c r="I32" s="87"/>
+      <c r="J32" s="87"/>
+      <c r="K32" s="88"/>
+      <c r="L32" s="89"/>
+      <c r="M32" s="90"/>
+      <c r="N32" s="90"/>
+      <c r="O32" s="90"/>
+      <c r="P32" s="91"/>
+      <c r="Q32" s="89"/>
+      <c r="R32" s="90"/>
+      <c r="S32" s="90"/>
+      <c r="T32" s="90"/>
+      <c r="U32" s="90"/>
+      <c r="V32" s="90"/>
+      <c r="W32" s="90"/>
+      <c r="X32" s="90"/>
+      <c r="Y32" s="90"/>
+      <c r="Z32" s="90"/>
+      <c r="AA32" s="90"/>
+      <c r="AB32" s="90"/>
+      <c r="AC32" s="90"/>
+      <c r="AD32" s="90"/>
+      <c r="AE32" s="90"/>
+      <c r="AF32" s="90"/>
+      <c r="AG32" s="90"/>
+      <c r="AH32" s="90"/>
+      <c r="AI32" s="90"/>
+      <c r="AJ32" s="90"/>
+      <c r="AK32" s="90"/>
+      <c r="AL32" s="91"/>
+      <c r="AM32" s="89"/>
+      <c r="AN32" s="90"/>
+      <c r="AO32" s="90"/>
+      <c r="AP32" s="90"/>
+      <c r="AQ32" s="90"/>
+      <c r="AR32" s="90"/>
+      <c r="AS32" s="90"/>
+      <c r="AT32" s="90"/>
+      <c r="AU32" s="90"/>
+      <c r="AV32" s="90"/>
+      <c r="AW32" s="90"/>
+      <c r="AX32" s="90"/>
+      <c r="AY32" s="90"/>
+      <c r="AZ32" s="91"/>
     </row>
     <row r="33" spans="1:52">
       <c r="A33" s="9" t="str">
@@ -4541,56 +4541,56 @@
         <v/>
       </c>
       <c r="B33" s="10"/>
-      <c r="C33" s="89"/>
-      <c r="D33" s="90"/>
-      <c r="E33" s="90"/>
-      <c r="F33" s="91"/>
-      <c r="G33" s="83"/>
-      <c r="H33" s="84"/>
-      <c r="I33" s="84"/>
-      <c r="J33" s="84"/>
-      <c r="K33" s="85"/>
-      <c r="L33" s="86"/>
-      <c r="M33" s="87"/>
-      <c r="N33" s="87"/>
-      <c r="O33" s="87"/>
-      <c r="P33" s="88"/>
-      <c r="Q33" s="86"/>
-      <c r="R33" s="87"/>
-      <c r="S33" s="87"/>
-      <c r="T33" s="87"/>
-      <c r="U33" s="87"/>
-      <c r="V33" s="87"/>
-      <c r="W33" s="87"/>
-      <c r="X33" s="87"/>
-      <c r="Y33" s="87"/>
-      <c r="Z33" s="87"/>
-      <c r="AA33" s="87"/>
-      <c r="AB33" s="87"/>
-      <c r="AC33" s="87"/>
-      <c r="AD33" s="87"/>
-      <c r="AE33" s="87"/>
-      <c r="AF33" s="87"/>
-      <c r="AG33" s="87"/>
-      <c r="AH33" s="87"/>
-      <c r="AI33" s="87"/>
-      <c r="AJ33" s="87"/>
-      <c r="AK33" s="87"/>
-      <c r="AL33" s="88"/>
-      <c r="AM33" s="86"/>
-      <c r="AN33" s="87"/>
-      <c r="AO33" s="87"/>
-      <c r="AP33" s="87"/>
-      <c r="AQ33" s="87"/>
-      <c r="AR33" s="87"/>
-      <c r="AS33" s="87"/>
-      <c r="AT33" s="87"/>
-      <c r="AU33" s="87"/>
-      <c r="AV33" s="87"/>
-      <c r="AW33" s="87"/>
-      <c r="AX33" s="87"/>
-      <c r="AY33" s="87"/>
-      <c r="AZ33" s="88"/>
+      <c r="C33" s="83"/>
+      <c r="D33" s="84"/>
+      <c r="E33" s="84"/>
+      <c r="F33" s="85"/>
+      <c r="G33" s="86"/>
+      <c r="H33" s="87"/>
+      <c r="I33" s="87"/>
+      <c r="J33" s="87"/>
+      <c r="K33" s="88"/>
+      <c r="L33" s="89"/>
+      <c r="M33" s="90"/>
+      <c r="N33" s="90"/>
+      <c r="O33" s="90"/>
+      <c r="P33" s="91"/>
+      <c r="Q33" s="89"/>
+      <c r="R33" s="90"/>
+      <c r="S33" s="90"/>
+      <c r="T33" s="90"/>
+      <c r="U33" s="90"/>
+      <c r="V33" s="90"/>
+      <c r="W33" s="90"/>
+      <c r="X33" s="90"/>
+      <c r="Y33" s="90"/>
+      <c r="Z33" s="90"/>
+      <c r="AA33" s="90"/>
+      <c r="AB33" s="90"/>
+      <c r="AC33" s="90"/>
+      <c r="AD33" s="90"/>
+      <c r="AE33" s="90"/>
+      <c r="AF33" s="90"/>
+      <c r="AG33" s="90"/>
+      <c r="AH33" s="90"/>
+      <c r="AI33" s="90"/>
+      <c r="AJ33" s="90"/>
+      <c r="AK33" s="90"/>
+      <c r="AL33" s="91"/>
+      <c r="AM33" s="89"/>
+      <c r="AN33" s="90"/>
+      <c r="AO33" s="90"/>
+      <c r="AP33" s="90"/>
+      <c r="AQ33" s="90"/>
+      <c r="AR33" s="90"/>
+      <c r="AS33" s="90"/>
+      <c r="AT33" s="90"/>
+      <c r="AU33" s="90"/>
+      <c r="AV33" s="90"/>
+      <c r="AW33" s="90"/>
+      <c r="AX33" s="90"/>
+      <c r="AY33" s="90"/>
+      <c r="AZ33" s="91"/>
     </row>
     <row r="34" spans="1:52">
       <c r="A34" s="9" t="str">
@@ -4598,56 +4598,56 @@
         <v/>
       </c>
       <c r="B34" s="10"/>
-      <c r="C34" s="89"/>
-      <c r="D34" s="90"/>
-      <c r="E34" s="90"/>
-      <c r="F34" s="91"/>
-      <c r="G34" s="83"/>
-      <c r="H34" s="84"/>
-      <c r="I34" s="84"/>
-      <c r="J34" s="84"/>
-      <c r="K34" s="85"/>
-      <c r="L34" s="86"/>
-      <c r="M34" s="87"/>
-      <c r="N34" s="87"/>
-      <c r="O34" s="87"/>
-      <c r="P34" s="88"/>
-      <c r="Q34" s="86"/>
-      <c r="R34" s="87"/>
-      <c r="S34" s="87"/>
-      <c r="T34" s="87"/>
-      <c r="U34" s="87"/>
-      <c r="V34" s="87"/>
-      <c r="W34" s="87"/>
-      <c r="X34" s="87"/>
-      <c r="Y34" s="87"/>
-      <c r="Z34" s="87"/>
-      <c r="AA34" s="87"/>
-      <c r="AB34" s="87"/>
-      <c r="AC34" s="87"/>
-      <c r="AD34" s="87"/>
-      <c r="AE34" s="87"/>
-      <c r="AF34" s="87"/>
-      <c r="AG34" s="87"/>
-      <c r="AH34" s="87"/>
-      <c r="AI34" s="87"/>
-      <c r="AJ34" s="87"/>
-      <c r="AK34" s="87"/>
-      <c r="AL34" s="88"/>
-      <c r="AM34" s="86"/>
-      <c r="AN34" s="87"/>
-      <c r="AO34" s="87"/>
-      <c r="AP34" s="87"/>
-      <c r="AQ34" s="87"/>
-      <c r="AR34" s="87"/>
-      <c r="AS34" s="87"/>
-      <c r="AT34" s="87"/>
-      <c r="AU34" s="87"/>
-      <c r="AV34" s="87"/>
-      <c r="AW34" s="87"/>
-      <c r="AX34" s="87"/>
-      <c r="AY34" s="87"/>
-      <c r="AZ34" s="88"/>
+      <c r="C34" s="83"/>
+      <c r="D34" s="84"/>
+      <c r="E34" s="84"/>
+      <c r="F34" s="85"/>
+      <c r="G34" s="86"/>
+      <c r="H34" s="87"/>
+      <c r="I34" s="87"/>
+      <c r="J34" s="87"/>
+      <c r="K34" s="88"/>
+      <c r="L34" s="89"/>
+      <c r="M34" s="90"/>
+      <c r="N34" s="90"/>
+      <c r="O34" s="90"/>
+      <c r="P34" s="91"/>
+      <c r="Q34" s="89"/>
+      <c r="R34" s="90"/>
+      <c r="S34" s="90"/>
+      <c r="T34" s="90"/>
+      <c r="U34" s="90"/>
+      <c r="V34" s="90"/>
+      <c r="W34" s="90"/>
+      <c r="X34" s="90"/>
+      <c r="Y34" s="90"/>
+      <c r="Z34" s="90"/>
+      <c r="AA34" s="90"/>
+      <c r="AB34" s="90"/>
+      <c r="AC34" s="90"/>
+      <c r="AD34" s="90"/>
+      <c r="AE34" s="90"/>
+      <c r="AF34" s="90"/>
+      <c r="AG34" s="90"/>
+      <c r="AH34" s="90"/>
+      <c r="AI34" s="90"/>
+      <c r="AJ34" s="90"/>
+      <c r="AK34" s="90"/>
+      <c r="AL34" s="91"/>
+      <c r="AM34" s="89"/>
+      <c r="AN34" s="90"/>
+      <c r="AO34" s="90"/>
+      <c r="AP34" s="90"/>
+      <c r="AQ34" s="90"/>
+      <c r="AR34" s="90"/>
+      <c r="AS34" s="90"/>
+      <c r="AT34" s="90"/>
+      <c r="AU34" s="90"/>
+      <c r="AV34" s="90"/>
+      <c r="AW34" s="90"/>
+      <c r="AX34" s="90"/>
+      <c r="AY34" s="90"/>
+      <c r="AZ34" s="91"/>
     </row>
     <row r="35" spans="1:52">
       <c r="A35" s="9" t="str">
@@ -4655,59 +4655,189 @@
         <v/>
       </c>
       <c r="B35" s="10"/>
-      <c r="C35" s="89"/>
-      <c r="D35" s="90"/>
-      <c r="E35" s="90"/>
-      <c r="F35" s="91"/>
-      <c r="G35" s="83"/>
-      <c r="H35" s="84"/>
-      <c r="I35" s="84"/>
-      <c r="J35" s="84"/>
-      <c r="K35" s="85"/>
-      <c r="L35" s="86"/>
-      <c r="M35" s="87"/>
-      <c r="N35" s="87"/>
-      <c r="O35" s="87"/>
-      <c r="P35" s="88"/>
-      <c r="Q35" s="86"/>
-      <c r="R35" s="87"/>
-      <c r="S35" s="87"/>
-      <c r="T35" s="87"/>
-      <c r="U35" s="87"/>
-      <c r="V35" s="87"/>
-      <c r="W35" s="87"/>
-      <c r="X35" s="87"/>
-      <c r="Y35" s="87"/>
-      <c r="Z35" s="87"/>
-      <c r="AA35" s="87"/>
-      <c r="AB35" s="87"/>
-      <c r="AC35" s="87"/>
-      <c r="AD35" s="87"/>
-      <c r="AE35" s="87"/>
-      <c r="AF35" s="87"/>
-      <c r="AG35" s="87"/>
-      <c r="AH35" s="87"/>
-      <c r="AI35" s="87"/>
-      <c r="AJ35" s="87"/>
-      <c r="AK35" s="87"/>
-      <c r="AL35" s="88"/>
-      <c r="AM35" s="86"/>
-      <c r="AN35" s="87"/>
-      <c r="AO35" s="87"/>
-      <c r="AP35" s="87"/>
-      <c r="AQ35" s="87"/>
-      <c r="AR35" s="87"/>
-      <c r="AS35" s="87"/>
-      <c r="AT35" s="87"/>
-      <c r="AU35" s="87"/>
-      <c r="AV35" s="87"/>
-      <c r="AW35" s="87"/>
-      <c r="AX35" s="87"/>
-      <c r="AY35" s="87"/>
-      <c r="AZ35" s="88"/>
+      <c r="C35" s="83"/>
+      <c r="D35" s="84"/>
+      <c r="E35" s="84"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="86"/>
+      <c r="H35" s="87"/>
+      <c r="I35" s="87"/>
+      <c r="J35" s="87"/>
+      <c r="K35" s="88"/>
+      <c r="L35" s="89"/>
+      <c r="M35" s="90"/>
+      <c r="N35" s="90"/>
+      <c r="O35" s="90"/>
+      <c r="P35" s="91"/>
+      <c r="Q35" s="89"/>
+      <c r="R35" s="90"/>
+      <c r="S35" s="90"/>
+      <c r="T35" s="90"/>
+      <c r="U35" s="90"/>
+      <c r="V35" s="90"/>
+      <c r="W35" s="90"/>
+      <c r="X35" s="90"/>
+      <c r="Y35" s="90"/>
+      <c r="Z35" s="90"/>
+      <c r="AA35" s="90"/>
+      <c r="AB35" s="90"/>
+      <c r="AC35" s="90"/>
+      <c r="AD35" s="90"/>
+      <c r="AE35" s="90"/>
+      <c r="AF35" s="90"/>
+      <c r="AG35" s="90"/>
+      <c r="AH35" s="90"/>
+      <c r="AI35" s="90"/>
+      <c r="AJ35" s="90"/>
+      <c r="AK35" s="90"/>
+      <c r="AL35" s="91"/>
+      <c r="AM35" s="89"/>
+      <c r="AN35" s="90"/>
+      <c r="AO35" s="90"/>
+      <c r="AP35" s="90"/>
+      <c r="AQ35" s="90"/>
+      <c r="AR35" s="90"/>
+      <c r="AS35" s="90"/>
+      <c r="AT35" s="90"/>
+      <c r="AU35" s="90"/>
+      <c r="AV35" s="90"/>
+      <c r="AW35" s="90"/>
+      <c r="AX35" s="90"/>
+      <c r="AY35" s="90"/>
+      <c r="AZ35" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="140">
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="L8:P8"/>
+    <mergeCell ref="Q8:AL8"/>
+    <mergeCell ref="AM8:AZ8"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="L9:P9"/>
+    <mergeCell ref="Q9:AL9"/>
+    <mergeCell ref="AM9:AZ9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="Q10:AL10"/>
+    <mergeCell ref="AM10:AZ10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="L11:P11"/>
+    <mergeCell ref="Q11:AL11"/>
+    <mergeCell ref="AM11:AZ11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="L12:P12"/>
+    <mergeCell ref="Q12:AL12"/>
+    <mergeCell ref="AM12:AZ12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="L13:P13"/>
+    <mergeCell ref="Q13:AL13"/>
+    <mergeCell ref="AM13:AZ13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="L14:P14"/>
+    <mergeCell ref="Q14:AL14"/>
+    <mergeCell ref="AM14:AZ14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="L15:P15"/>
+    <mergeCell ref="Q15:AL15"/>
+    <mergeCell ref="AM15:AZ15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="L16:P16"/>
+    <mergeCell ref="Q16:AL16"/>
+    <mergeCell ref="AM16:AZ16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="L17:P17"/>
+    <mergeCell ref="Q17:AL17"/>
+    <mergeCell ref="AM17:AZ17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="L18:P18"/>
+    <mergeCell ref="Q18:AL18"/>
+    <mergeCell ref="AM18:AZ18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="L19:P19"/>
+    <mergeCell ref="Q19:AL19"/>
+    <mergeCell ref="AM19:AZ19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:K20"/>
+    <mergeCell ref="L20:P20"/>
+    <mergeCell ref="Q20:AL20"/>
+    <mergeCell ref="AM20:AZ20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G21:K21"/>
+    <mergeCell ref="L21:P21"/>
+    <mergeCell ref="Q21:AL21"/>
+    <mergeCell ref="AM21:AZ21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G22:K22"/>
+    <mergeCell ref="L22:P22"/>
+    <mergeCell ref="Q22:AL22"/>
+    <mergeCell ref="AM22:AZ22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="G23:K23"/>
+    <mergeCell ref="L23:P23"/>
+    <mergeCell ref="Q23:AL23"/>
+    <mergeCell ref="AM23:AZ23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:K24"/>
+    <mergeCell ref="L24:P24"/>
+    <mergeCell ref="Q24:AL24"/>
+    <mergeCell ref="AM24:AZ24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:K25"/>
+    <mergeCell ref="L25:P25"/>
+    <mergeCell ref="Q25:AL25"/>
+    <mergeCell ref="AM25:AZ25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="G26:K26"/>
+    <mergeCell ref="L26:P26"/>
+    <mergeCell ref="Q26:AL26"/>
+    <mergeCell ref="AM26:AZ26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="G27:K27"/>
+    <mergeCell ref="L27:P27"/>
+    <mergeCell ref="Q27:AL27"/>
+    <mergeCell ref="AM27:AZ27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="G28:K28"/>
+    <mergeCell ref="L28:P28"/>
+    <mergeCell ref="Q28:AL28"/>
+    <mergeCell ref="AM28:AZ28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="G29:K29"/>
+    <mergeCell ref="L29:P29"/>
+    <mergeCell ref="Q29:AL29"/>
+    <mergeCell ref="AM29:AZ29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="G30:K30"/>
+    <mergeCell ref="L30:P30"/>
+    <mergeCell ref="Q30:AL30"/>
+    <mergeCell ref="AM30:AZ30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="G31:K31"/>
+    <mergeCell ref="L31:P31"/>
+    <mergeCell ref="Q31:AL31"/>
+    <mergeCell ref="AM31:AZ31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="G32:K32"/>
+    <mergeCell ref="L32:P32"/>
+    <mergeCell ref="Q32:AL32"/>
+    <mergeCell ref="AM32:AZ32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="G33:K33"/>
+    <mergeCell ref="L33:P33"/>
+    <mergeCell ref="Q33:AL33"/>
+    <mergeCell ref="AM33:AZ33"/>
     <mergeCell ref="C34:F34"/>
     <mergeCell ref="G34:K34"/>
     <mergeCell ref="L34:P34"/>
@@ -4718,136 +4848,6 @@
     <mergeCell ref="L35:P35"/>
     <mergeCell ref="Q35:AL35"/>
     <mergeCell ref="AM35:AZ35"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="G32:K32"/>
-    <mergeCell ref="L32:P32"/>
-    <mergeCell ref="Q32:AL32"/>
-    <mergeCell ref="AM32:AZ32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="G33:K33"/>
-    <mergeCell ref="L33:P33"/>
-    <mergeCell ref="Q33:AL33"/>
-    <mergeCell ref="AM33:AZ33"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="G30:K30"/>
-    <mergeCell ref="L30:P30"/>
-    <mergeCell ref="Q30:AL30"/>
-    <mergeCell ref="AM30:AZ30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="G31:K31"/>
-    <mergeCell ref="L31:P31"/>
-    <mergeCell ref="Q31:AL31"/>
-    <mergeCell ref="AM31:AZ31"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="G28:K28"/>
-    <mergeCell ref="L28:P28"/>
-    <mergeCell ref="Q28:AL28"/>
-    <mergeCell ref="AM28:AZ28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="G29:K29"/>
-    <mergeCell ref="L29:P29"/>
-    <mergeCell ref="Q29:AL29"/>
-    <mergeCell ref="AM29:AZ29"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="G26:K26"/>
-    <mergeCell ref="L26:P26"/>
-    <mergeCell ref="Q26:AL26"/>
-    <mergeCell ref="AM26:AZ26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="G27:K27"/>
-    <mergeCell ref="L27:P27"/>
-    <mergeCell ref="Q27:AL27"/>
-    <mergeCell ref="AM27:AZ27"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="G24:K24"/>
-    <mergeCell ref="L24:P24"/>
-    <mergeCell ref="Q24:AL24"/>
-    <mergeCell ref="AM24:AZ24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G25:K25"/>
-    <mergeCell ref="L25:P25"/>
-    <mergeCell ref="Q25:AL25"/>
-    <mergeCell ref="AM25:AZ25"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="L22:P22"/>
-    <mergeCell ref="Q22:AL22"/>
-    <mergeCell ref="AM22:AZ22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="G23:K23"/>
-    <mergeCell ref="L23:P23"/>
-    <mergeCell ref="Q23:AL23"/>
-    <mergeCell ref="AM23:AZ23"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G20:K20"/>
-    <mergeCell ref="L20:P20"/>
-    <mergeCell ref="Q20:AL20"/>
-    <mergeCell ref="AM20:AZ20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G21:K21"/>
-    <mergeCell ref="L21:P21"/>
-    <mergeCell ref="Q21:AL21"/>
-    <mergeCell ref="AM21:AZ21"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="L18:P18"/>
-    <mergeCell ref="Q18:AL18"/>
-    <mergeCell ref="AM18:AZ18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G19:K19"/>
-    <mergeCell ref="L19:P19"/>
-    <mergeCell ref="Q19:AL19"/>
-    <mergeCell ref="AM19:AZ19"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="L16:P16"/>
-    <mergeCell ref="Q16:AL16"/>
-    <mergeCell ref="AM16:AZ16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="L17:P17"/>
-    <mergeCell ref="Q17:AL17"/>
-    <mergeCell ref="AM17:AZ17"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="L14:P14"/>
-    <mergeCell ref="Q14:AL14"/>
-    <mergeCell ref="AM14:AZ14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="L15:P15"/>
-    <mergeCell ref="Q15:AL15"/>
-    <mergeCell ref="AM15:AZ15"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="L12:P12"/>
-    <mergeCell ref="Q12:AL12"/>
-    <mergeCell ref="AM12:AZ12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="L13:P13"/>
-    <mergeCell ref="Q13:AL13"/>
-    <mergeCell ref="AM13:AZ13"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="Q10:AL10"/>
-    <mergeCell ref="AM10:AZ10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="L11:P11"/>
-    <mergeCell ref="Q11:AL11"/>
-    <mergeCell ref="AM11:AZ11"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="L8:P8"/>
-    <mergeCell ref="Q8:AL8"/>
-    <mergeCell ref="AM8:AZ8"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="L9:P9"/>
-    <mergeCell ref="Q9:AL9"/>
-    <mergeCell ref="AM9:AZ9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4861,8 +4861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9307939-537D-9F44-B482-1E22BD0105F1}">
   <dimension ref="A1:BL91"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A47" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="AE66" sqref="AE66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="16"/>
@@ -9321,7 +9321,7 @@
       <c r="Q71" s="42"/>
       <c r="R71" s="43"/>
       <c r="S71" s="41" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="T71" s="42"/>
       <c r="U71" s="42"/>
@@ -10693,13 +10693,13 @@
   <sheetData>
     <row r="2" spans="2:4" ht="18">
       <c r="B2" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="D2" s="57" t="s">
         <v>110</v>
-      </c>
-      <c r="D2" s="57" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="18">
@@ -10707,10 +10707,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="58" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="58" t="s">
         <v>112</v>
-      </c>
-      <c r="D3" s="58" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="18">
@@ -10718,10 +10718,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="58" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="58" t="s">
         <v>114</v>
-      </c>
-      <c r="D4" s="58" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="18">
@@ -10729,10 +10729,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" s="58" t="s">
         <v>116</v>
-      </c>
-      <c r="D5" s="58" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="18">
@@ -10740,10 +10740,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="58" t="s">
         <v>118</v>
-      </c>
-      <c r="D6" s="58" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="18">
@@ -10751,10 +10751,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" s="58" t="s">
         <v>120</v>
-      </c>
-      <c r="D7" s="58" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="18">
@@ -10762,10 +10762,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="D8" s="58" t="s">
         <v>122</v>
-      </c>
-      <c r="D8" s="58" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="18">
@@ -10773,10 +10773,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="58" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9" s="58" t="s">
         <v>124</v>
-      </c>
-      <c r="D9" s="58" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="18">
@@ -10784,10 +10784,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="58" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="58" t="s">
         <v>126</v>
-      </c>
-      <c r="D10" s="58" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="18">
@@ -10795,10 +10795,10 @@
         <v>9</v>
       </c>
       <c r="C11" s="58" t="s">
+        <v>127</v>
+      </c>
+      <c r="D11" s="58" t="s">
         <v>128</v>
-      </c>
-      <c r="D11" s="58" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="18">
@@ -10806,10 +10806,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="58" t="s">
+        <v>129</v>
+      </c>
+      <c r="D12" s="58" t="s">
         <v>130</v>
-      </c>
-      <c r="D12" s="58" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="18">
@@ -10817,10 +10817,10 @@
         <v>11</v>
       </c>
       <c r="C13" s="58" t="s">
+        <v>131</v>
+      </c>
+      <c r="D13" s="58" t="s">
         <v>132</v>
-      </c>
-      <c r="D13" s="58" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="18">
@@ -10828,10 +10828,10 @@
         <v>12</v>
       </c>
       <c r="C14" s="58" t="s">
+        <v>133</v>
+      </c>
+      <c r="D14" s="58" t="s">
         <v>134</v>
-      </c>
-      <c r="D14" s="58" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="18">
@@ -10839,10 +10839,10 @@
         <v>13</v>
       </c>
       <c r="C15" s="58" t="s">
+        <v>135</v>
+      </c>
+      <c r="D15" s="58" t="s">
         <v>136</v>
-      </c>
-      <c r="D15" s="58" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="18">
@@ -10850,10 +10850,10 @@
         <v>14</v>
       </c>
       <c r="C16" s="58" t="s">
+        <v>137</v>
+      </c>
+      <c r="D16" s="58" t="s">
         <v>138</v>
-      </c>
-      <c r="D16" s="58" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="18">
@@ -10864,7 +10864,7 @@
         <v>65</v>
       </c>
       <c r="D17" s="58" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/2021年_テトリス/02_基本設計書/【基本設計】画面設計書(処理設計)_会員登録画面.xlsx
+++ b/2021年_テトリス/02_基本設計書/【基本設計】画面設計書(処理設計)_会員登録画面.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itoitomohiro/document/flutter_document/2021年_テトリス/02_基本設計書/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF495F9-53C2-6C48-8053-B34E839F4486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311B3CCC-8A32-7F45-9755-CF78EFCFBD1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" activeTab="2" xr2:uid="{3C8D862C-6145-E842-B259-880AA5F992AF}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">会員登録画面!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">ヘッダー!$A$1:$AZ$6</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">会員登録画面!$A$1:$BH$93</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">会員登録画面!$A$1:$BH$96</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">改訂履歴!$A$1:$BA$68</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="148">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -369,22 +369,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・新規会員登録機能(ニックネーム・ユーザID・パスワードの登録)</t>
-    <rPh sb="1" eb="3">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="3" eb="7">
-      <t>カイイn</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>k</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ニンショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>エラーメッセージ表示時</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -506,10 +490,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>ホームアイコン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アイコン(ボタン)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -789,10 +769,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>4、6</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -918,6 +894,81 @@
     <rPh sb="60" eb="61">
       <t>トドマル</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重複チェック</t>
+    <rPh sb="0" eb="2">
+      <t>チョウフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このIDは既に使用されています</t>
+    <rPh sb="5" eb="6">
+      <t>スデニシイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホームに戻る</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>活性化</t>
+    <rPh sb="0" eb="1">
+      <t>カッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランダムアイコン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランダムなIDが自動でテキストフォームに入力される</t>
+    <rPh sb="8" eb="10">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホームに戻るボタンの追加・ID自動生成用のランダムアイコン追加・項目定義Noのラベル配置</t>
+    <rPh sb="15" eb="20">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・新規会員登録機能(ユーザID・ニックネーム・パスワードの登録)</t>
+    <rPh sb="1" eb="3">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>カイイn</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>k</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ニンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5、７</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1399,6 +1450,33 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1444,42 +1522,6 @@
     <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1496,6 +1538,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1563,7 +1614,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s3758"/>
+                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s3943"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1622,7 +1673,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s2729"/>
+                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s2914"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1650,138 +1701,6 @@
   </mc:AlternateContent>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3423022F-11A7-CA4B-A403-5CC58391DC5C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1143000" y="3086100"/>
-          <a:ext cx="2832100" cy="5613400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEB7BD56-A160-5344-BEE0-5B0A78251B1D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4826000" y="3086100"/>
-          <a:ext cx="2844800" cy="5626100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="図 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC51761C-FECA-4C41-81A7-90F2FC121070}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8382000" y="3086100"/>
-          <a:ext cx="2730500" cy="5651500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>40</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
@@ -1807,7 +1726,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2024,7 +1943,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2068,7 +1987,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2077,50 +1996,6 @@
         <a:xfrm>
           <a:off x="11861800" y="5384800"/>
           <a:ext cx="2409931" cy="3162300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="図 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05AAB9C7-616A-C543-87F7-11C8BE6F11D8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13843000" y="8039100"/>
-          <a:ext cx="355600" cy="330200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2156,7 +2031,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2200,7 +2075,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2219,60 +2094,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="図 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05B065B5-C0DF-8944-B25A-FFC00A9C9A0F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6921500" y="6680200"/>
-          <a:ext cx="254000" cy="152400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>48</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2288,14 +2119,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13779500" y="7670800"/>
+          <a:off x="13766800" y="7023100"/>
           <a:ext cx="254000" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2303,61 +2134,6 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="直線コネクタ 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94D68946-854A-6F46-AEBE-0A44CAD97AB6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12217400" y="6007100"/>
-          <a:ext cx="1790700" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="47625">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -2468,6 +2244,1160 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5546BEC0-7490-BC4A-869D-2079E5E8B5DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1092200" y="3035300"/>
+          <a:ext cx="2921000" cy="5702300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1041400</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>37523</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="図 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3128BE7D-3A94-5840-B1D0-AA74F4596D80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3327400" y="5016500"/>
+          <a:ext cx="202623" cy="165100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="図 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9219EB43-38F7-A749-9E19-1888F31C1A93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4851400" y="3035300"/>
+          <a:ext cx="2870200" cy="5702300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="図 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95B99669-9EF1-A144-AEE2-A556D862FF88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6959600" y="6337300"/>
+          <a:ext cx="254000" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>24823</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="図 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB7FF8F5-9A9A-5748-B7CB-C4611177978A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6997700" y="5016500"/>
+          <a:ext cx="202623" cy="165100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="図 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0E4F9F4-A807-5F4F-8584-95A66A8A0819}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8356600" y="3073400"/>
+          <a:ext cx="2857500" cy="5676900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>177223</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="図 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE20E54A-C06B-9E4D-8011-D94F89201B4F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10452100" y="5054600"/>
+          <a:ext cx="202623" cy="165100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>28276</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="図 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5997A86F-FEBA-0944-9983-E9757B6FF41B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12179300" y="5384800"/>
+          <a:ext cx="1854200" cy="1285576"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="直線コネクタ 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5430BCC1-879A-C746-955B-3570C699CA13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12192000" y="6654800"/>
+          <a:ext cx="1828800" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="47625">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="図 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16CCB111-0720-9646-8412-EF6976141A35}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12141200" y="8001000"/>
+          <a:ext cx="1968500" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>228601</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="正方形/長方形 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{332150B0-48DA-6C48-8D51-7C58FE045734}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1765300" y="3835400"/>
+          <a:ext cx="241301" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>241301</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="正方形/長方形 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A81914D-4B96-6D4B-94C4-A3D6E396643C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1270000" y="4965700"/>
+          <a:ext cx="241301" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="正方形/長方形 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20CC7472-04E4-254C-8682-F5BF2CEC9040}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1282700" y="5638800"/>
+          <a:ext cx="241301" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>279401</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="正方形/長方形 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ADD892D-3F74-C942-8723-4DABDBBC4BD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3530600" y="4775200"/>
+          <a:ext cx="241301" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1155700</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="正方形/長方形 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7532DB4-55E8-6A4D-861B-3652DF7BB088}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3441700" y="7886700"/>
+          <a:ext cx="330200" cy="241300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>10</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>241301</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="正方形/長方形 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EAC949C-357C-B04F-A791-A0576C7697B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1270000" y="6299200"/>
+          <a:ext cx="241301" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1168400</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>203201</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="正方形/長方形 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{229C23A8-EE56-8440-9178-1CD0A11A2E9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3454400" y="6159500"/>
+          <a:ext cx="241301" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>6</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="正方形/長方形 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{682D2038-4E2D-A34A-A72D-A67B42FBC04D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1282700" y="6972300"/>
+          <a:ext cx="241301" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1181100</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>215901</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="正方形/長方形 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CFA9D91-156A-0142-A2D7-FC92B229EE55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3467100" y="6819900"/>
+          <a:ext cx="241301" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>8</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>50801</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="正方形/長方形 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98B39305-63BB-434A-B73C-B0F1293E8B66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1333500" y="7823200"/>
+          <a:ext cx="241301" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>9</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2776,197 +3706,197 @@
   <dimension ref="A1:BB4"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AP8" sqref="AP8"/>
+      <selection activeCell="AP4" sqref="AP4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:54" ht="15" customHeight="1">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="59" t="s">
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="59" t="s">
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="60"/>
-      <c r="V1" s="60"/>
-      <c r="W1" s="60"/>
-      <c r="X1" s="60"/>
-      <c r="Y1" s="60"/>
-      <c r="Z1" s="60"/>
-      <c r="AA1" s="60"/>
-      <c r="AB1" s="60"/>
-      <c r="AC1" s="60"/>
-      <c r="AD1" s="60"/>
-      <c r="AE1" s="61"/>
-      <c r="AF1" s="59" t="s">
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
+      <c r="W1" s="69"/>
+      <c r="X1" s="69"/>
+      <c r="Y1" s="69"/>
+      <c r="Z1" s="69"/>
+      <c r="AA1" s="69"/>
+      <c r="AB1" s="69"/>
+      <c r="AC1" s="69"/>
+      <c r="AD1" s="69"/>
+      <c r="AE1" s="70"/>
+      <c r="AF1" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="AG1" s="60"/>
-      <c r="AH1" s="60"/>
-      <c r="AI1" s="60"/>
-      <c r="AJ1" s="61"/>
-      <c r="AK1" s="59" t="s">
+      <c r="AG1" s="69"/>
+      <c r="AH1" s="69"/>
+      <c r="AI1" s="69"/>
+      <c r="AJ1" s="70"/>
+      <c r="AK1" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="AL1" s="60"/>
-      <c r="AM1" s="60"/>
-      <c r="AN1" s="60"/>
-      <c r="AO1" s="61"/>
-      <c r="AP1" s="59" t="s">
+      <c r="AL1" s="69"/>
+      <c r="AM1" s="69"/>
+      <c r="AN1" s="69"/>
+      <c r="AO1" s="70"/>
+      <c r="AP1" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="AQ1" s="60"/>
-      <c r="AR1" s="60"/>
-      <c r="AS1" s="60"/>
-      <c r="AT1" s="61"/>
-      <c r="AU1" s="59" t="s">
+      <c r="AQ1" s="69"/>
+      <c r="AR1" s="69"/>
+      <c r="AS1" s="69"/>
+      <c r="AT1" s="70"/>
+      <c r="AU1" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="AV1" s="60"/>
-      <c r="AW1" s="60"/>
-      <c r="AX1" s="60"/>
-      <c r="AY1" s="61"/>
+      <c r="AV1" s="69"/>
+      <c r="AW1" s="69"/>
+      <c r="AX1" s="69"/>
+      <c r="AY1" s="70"/>
       <c r="BB1" s="3"/>
     </row>
     <row r="2" spans="1:54" ht="15" customHeight="1">
-      <c r="A2" s="77"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="62" t="s">
+      <c r="A2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="62" t="s">
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
-      <c r="U2" s="63"/>
-      <c r="V2" s="63"/>
-      <c r="W2" s="63"/>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="64"/>
-      <c r="AF2" s="68">
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="72"/>
+      <c r="S2" s="72"/>
+      <c r="T2" s="72"/>
+      <c r="U2" s="72"/>
+      <c r="V2" s="72"/>
+      <c r="W2" s="72"/>
+      <c r="X2" s="72"/>
+      <c r="Y2" s="72"/>
+      <c r="Z2" s="72"/>
+      <c r="AA2" s="72"/>
+      <c r="AB2" s="72"/>
+      <c r="AC2" s="72"/>
+      <c r="AD2" s="72"/>
+      <c r="AE2" s="73"/>
+      <c r="AF2" s="77">
         <v>44555</v>
       </c>
-      <c r="AG2" s="69"/>
-      <c r="AH2" s="69"/>
-      <c r="AI2" s="69"/>
-      <c r="AJ2" s="70"/>
-      <c r="AK2" s="62" t="s">
+      <c r="AG2" s="78"/>
+      <c r="AH2" s="78"/>
+      <c r="AI2" s="78"/>
+      <c r="AJ2" s="79"/>
+      <c r="AK2" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="63"/>
-      <c r="AO2" s="64"/>
-      <c r="AP2" s="68">
-        <v>44584</v>
-      </c>
-      <c r="AQ2" s="69"/>
-      <c r="AR2" s="69"/>
-      <c r="AS2" s="69"/>
-      <c r="AT2" s="70"/>
-      <c r="AU2" s="62" t="s">
+      <c r="AL2" s="72"/>
+      <c r="AM2" s="72"/>
+      <c r="AN2" s="72"/>
+      <c r="AO2" s="73"/>
+      <c r="AP2" s="77">
+        <v>44598</v>
+      </c>
+      <c r="AQ2" s="78"/>
+      <c r="AR2" s="78"/>
+      <c r="AS2" s="78"/>
+      <c r="AT2" s="79"/>
+      <c r="AU2" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="AV2" s="63"/>
-      <c r="AW2" s="63"/>
-      <c r="AX2" s="63"/>
-      <c r="AY2" s="64"/>
+      <c r="AV2" s="72"/>
+      <c r="AW2" s="72"/>
+      <c r="AX2" s="72"/>
+      <c r="AY2" s="73"/>
       <c r="BB2" s="3"/>
     </row>
     <row r="3" spans="1:54" ht="15" customHeight="1">
-      <c r="A3" s="80"/>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
-      <c r="U3" s="66"/>
-      <c r="V3" s="66"/>
-      <c r="W3" s="66"/>
-      <c r="X3" s="66"/>
-      <c r="Y3" s="66"/>
-      <c r="Z3" s="66"/>
-      <c r="AA3" s="66"/>
-      <c r="AB3" s="66"/>
-      <c r="AC3" s="66"/>
-      <c r="AD3" s="66"/>
-      <c r="AE3" s="67"/>
-      <c r="AF3" s="71"/>
-      <c r="AG3" s="72"/>
-      <c r="AH3" s="72"/>
-      <c r="AI3" s="72"/>
-      <c r="AJ3" s="73"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="66"/>
-      <c r="AM3" s="66"/>
-      <c r="AN3" s="66"/>
-      <c r="AO3" s="67"/>
-      <c r="AP3" s="71"/>
-      <c r="AQ3" s="72"/>
-      <c r="AR3" s="72"/>
-      <c r="AS3" s="72"/>
-      <c r="AT3" s="73"/>
-      <c r="AU3" s="65"/>
-      <c r="AV3" s="66"/>
-      <c r="AW3" s="66"/>
-      <c r="AX3" s="66"/>
-      <c r="AY3" s="67"/>
+      <c r="A3" s="65"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="75"/>
+      <c r="O3" s="75"/>
+      <c r="P3" s="75"/>
+      <c r="Q3" s="75"/>
+      <c r="R3" s="75"/>
+      <c r="S3" s="75"/>
+      <c r="T3" s="75"/>
+      <c r="U3" s="75"/>
+      <c r="V3" s="75"/>
+      <c r="W3" s="75"/>
+      <c r="X3" s="75"/>
+      <c r="Y3" s="75"/>
+      <c r="Z3" s="75"/>
+      <c r="AA3" s="75"/>
+      <c r="AB3" s="75"/>
+      <c r="AC3" s="75"/>
+      <c r="AD3" s="75"/>
+      <c r="AE3" s="76"/>
+      <c r="AF3" s="80"/>
+      <c r="AG3" s="81"/>
+      <c r="AH3" s="81"/>
+      <c r="AI3" s="81"/>
+      <c r="AJ3" s="82"/>
+      <c r="AK3" s="74"/>
+      <c r="AL3" s="75"/>
+      <c r="AM3" s="75"/>
+      <c r="AN3" s="75"/>
+      <c r="AO3" s="76"/>
+      <c r="AP3" s="80"/>
+      <c r="AQ3" s="81"/>
+      <c r="AR3" s="81"/>
+      <c r="AS3" s="81"/>
+      <c r="AT3" s="82"/>
+      <c r="AU3" s="74"/>
+      <c r="AV3" s="75"/>
+      <c r="AW3" s="75"/>
+      <c r="AX3" s="75"/>
+      <c r="AY3" s="76"/>
       <c r="BB3" s="3"/>
     </row>
     <row r="4" spans="1:54" ht="15" customHeight="1">
@@ -2983,11 +3913,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:E3"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="K1:AE1"/>
-    <mergeCell ref="K2:AE3"/>
-    <mergeCell ref="F2:J3"/>
     <mergeCell ref="AF1:AJ1"/>
     <mergeCell ref="AK1:AO1"/>
     <mergeCell ref="AP1:AT1"/>
@@ -2996,6 +3921,11 @@
     <mergeCell ref="AP2:AT3"/>
     <mergeCell ref="AK2:AO3"/>
     <mergeCell ref="AF2:AJ3"/>
+    <mergeCell ref="A1:E3"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="K1:AE1"/>
+    <mergeCell ref="K2:AE3"/>
+    <mergeCell ref="F2:J3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3008,7 +3938,7 @@
   <dimension ref="A1:AZ35"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:F9"/>
+      <selection activeCell="Q16" sqref="Q16:AL16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="16"/>
@@ -3097,64 +4027,64 @@
         <v>1</v>
       </c>
       <c r="B8" s="10"/>
-      <c r="C8" s="83" t="s">
+      <c r="C8" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="86">
+      <c r="D8" s="90"/>
+      <c r="E8" s="90"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="83">
         <v>44555</v>
       </c>
-      <c r="H8" s="87"/>
-      <c r="I8" s="87"/>
-      <c r="J8" s="87"/>
-      <c r="K8" s="88"/>
-      <c r="L8" s="89" t="s">
+      <c r="H8" s="84"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="84"/>
+      <c r="K8" s="85"/>
+      <c r="L8" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="M8" s="90"/>
-      <c r="N8" s="90"/>
-      <c r="O8" s="90"/>
-      <c r="P8" s="91"/>
-      <c r="Q8" s="89" t="s">
+      <c r="M8" s="87"/>
+      <c r="N8" s="87"/>
+      <c r="O8" s="87"/>
+      <c r="P8" s="88"/>
+      <c r="Q8" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="R8" s="90"/>
-      <c r="S8" s="90"/>
-      <c r="T8" s="90"/>
-      <c r="U8" s="90"/>
-      <c r="V8" s="90"/>
-      <c r="W8" s="90"/>
-      <c r="X8" s="90"/>
-      <c r="Y8" s="90"/>
-      <c r="Z8" s="90"/>
-      <c r="AA8" s="90"/>
-      <c r="AB8" s="90"/>
-      <c r="AC8" s="90"/>
-      <c r="AD8" s="90"/>
-      <c r="AE8" s="90"/>
-      <c r="AF8" s="90"/>
-      <c r="AG8" s="90"/>
-      <c r="AH8" s="90"/>
-      <c r="AI8" s="90"/>
-      <c r="AJ8" s="90"/>
-      <c r="AK8" s="90"/>
-      <c r="AL8" s="91"/>
-      <c r="AM8" s="89"/>
-      <c r="AN8" s="90"/>
-      <c r="AO8" s="90"/>
-      <c r="AP8" s="90"/>
-      <c r="AQ8" s="90"/>
-      <c r="AR8" s="90"/>
-      <c r="AS8" s="90"/>
-      <c r="AT8" s="90"/>
-      <c r="AU8" s="90"/>
-      <c r="AV8" s="90"/>
-      <c r="AW8" s="90"/>
-      <c r="AX8" s="90"/>
-      <c r="AY8" s="90"/>
-      <c r="AZ8" s="91"/>
+      <c r="R8" s="87"/>
+      <c r="S8" s="87"/>
+      <c r="T8" s="87"/>
+      <c r="U8" s="87"/>
+      <c r="V8" s="87"/>
+      <c r="W8" s="87"/>
+      <c r="X8" s="87"/>
+      <c r="Y8" s="87"/>
+      <c r="Z8" s="87"/>
+      <c r="AA8" s="87"/>
+      <c r="AB8" s="87"/>
+      <c r="AC8" s="87"/>
+      <c r="AD8" s="87"/>
+      <c r="AE8" s="87"/>
+      <c r="AF8" s="87"/>
+      <c r="AG8" s="87"/>
+      <c r="AH8" s="87"/>
+      <c r="AI8" s="87"/>
+      <c r="AJ8" s="87"/>
+      <c r="AK8" s="87"/>
+      <c r="AL8" s="88"/>
+      <c r="AM8" s="86"/>
+      <c r="AN8" s="87"/>
+      <c r="AO8" s="87"/>
+      <c r="AP8" s="87"/>
+      <c r="AQ8" s="87"/>
+      <c r="AR8" s="87"/>
+      <c r="AS8" s="87"/>
+      <c r="AT8" s="87"/>
+      <c r="AU8" s="87"/>
+      <c r="AV8" s="87"/>
+      <c r="AW8" s="87"/>
+      <c r="AX8" s="87"/>
+      <c r="AY8" s="87"/>
+      <c r="AZ8" s="88"/>
     </row>
     <row r="9" spans="1:52">
       <c r="A9" s="9">
@@ -3162,181 +4092,192 @@
         <v>2</v>
       </c>
       <c r="B9" s="10"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="86">
+      <c r="C9" s="89">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D9" s="90"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="83">
         <v>44570</v>
       </c>
-      <c r="H9" s="87"/>
-      <c r="I9" s="87"/>
-      <c r="J9" s="87"/>
-      <c r="K9" s="88"/>
-      <c r="L9" s="89" t="s">
+      <c r="H9" s="84"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="85"/>
+      <c r="L9" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="M9" s="90"/>
-      <c r="N9" s="90"/>
-      <c r="O9" s="90"/>
-      <c r="P9" s="91"/>
-      <c r="Q9" s="89" t="s">
+      <c r="M9" s="87"/>
+      <c r="N9" s="87"/>
+      <c r="O9" s="87"/>
+      <c r="P9" s="88"/>
+      <c r="Q9" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="R9" s="90"/>
-      <c r="S9" s="90"/>
-      <c r="T9" s="90"/>
-      <c r="U9" s="90"/>
-      <c r="V9" s="90"/>
-      <c r="W9" s="90"/>
-      <c r="X9" s="90"/>
-      <c r="Y9" s="90"/>
-      <c r="Z9" s="90"/>
-      <c r="AA9" s="90"/>
-      <c r="AB9" s="90"/>
-      <c r="AC9" s="90"/>
-      <c r="AD9" s="90"/>
-      <c r="AE9" s="90"/>
-      <c r="AF9" s="90"/>
-      <c r="AG9" s="90"/>
-      <c r="AH9" s="90"/>
-      <c r="AI9" s="90"/>
-      <c r="AJ9" s="90"/>
-      <c r="AK9" s="90"/>
-      <c r="AL9" s="91"/>
-      <c r="AM9" s="89"/>
-      <c r="AN9" s="90"/>
-      <c r="AO9" s="90"/>
-      <c r="AP9" s="90"/>
-      <c r="AQ9" s="90"/>
-      <c r="AR9" s="90"/>
-      <c r="AS9" s="90"/>
-      <c r="AT9" s="90"/>
-      <c r="AU9" s="90"/>
-      <c r="AV9" s="90"/>
-      <c r="AW9" s="90"/>
-      <c r="AX9" s="90"/>
-      <c r="AY9" s="90"/>
-      <c r="AZ9" s="91"/>
+      <c r="R9" s="87"/>
+      <c r="S9" s="87"/>
+      <c r="T9" s="87"/>
+      <c r="U9" s="87"/>
+      <c r="V9" s="87"/>
+      <c r="W9" s="87"/>
+      <c r="X9" s="87"/>
+      <c r="Y9" s="87"/>
+      <c r="Z9" s="87"/>
+      <c r="AA9" s="87"/>
+      <c r="AB9" s="87"/>
+      <c r="AC9" s="87"/>
+      <c r="AD9" s="87"/>
+      <c r="AE9" s="87"/>
+      <c r="AF9" s="87"/>
+      <c r="AG9" s="87"/>
+      <c r="AH9" s="87"/>
+      <c r="AI9" s="87"/>
+      <c r="AJ9" s="87"/>
+      <c r="AK9" s="87"/>
+      <c r="AL9" s="88"/>
+      <c r="AM9" s="86"/>
+      <c r="AN9" s="87"/>
+      <c r="AO9" s="87"/>
+      <c r="AP9" s="87"/>
+      <c r="AQ9" s="87"/>
+      <c r="AR9" s="87"/>
+      <c r="AS9" s="87"/>
+      <c r="AT9" s="87"/>
+      <c r="AU9" s="87"/>
+      <c r="AV9" s="87"/>
+      <c r="AW9" s="87"/>
+      <c r="AX9" s="87"/>
+      <c r="AY9" s="87"/>
+      <c r="AZ9" s="88"/>
     </row>
     <row r="10" spans="1:52">
       <c r="A10" s="9">
         <v>3</v>
       </c>
       <c r="B10" s="10"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="86">
+      <c r="C10" s="89">
+        <v>1.2</v>
+      </c>
+      <c r="D10" s="90"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="83">
         <v>44584</v>
       </c>
-      <c r="H10" s="87"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="87"/>
-      <c r="K10" s="88"/>
-      <c r="L10" s="89" t="s">
+      <c r="H10" s="84"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="84"/>
+      <c r="K10" s="85"/>
+      <c r="L10" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="M10" s="90"/>
-      <c r="N10" s="90"/>
-      <c r="O10" s="90"/>
-      <c r="P10" s="91"/>
-      <c r="Q10" s="89" t="s">
-        <v>140</v>
-      </c>
-      <c r="R10" s="90"/>
-      <c r="S10" s="90"/>
-      <c r="T10" s="90"/>
-      <c r="U10" s="90"/>
-      <c r="V10" s="90"/>
-      <c r="W10" s="90"/>
-      <c r="X10" s="90"/>
-      <c r="Y10" s="90"/>
-      <c r="Z10" s="90"/>
-      <c r="AA10" s="90"/>
-      <c r="AB10" s="90"/>
-      <c r="AC10" s="90"/>
-      <c r="AD10" s="90"/>
-      <c r="AE10" s="90"/>
-      <c r="AF10" s="90"/>
-      <c r="AG10" s="90"/>
-      <c r="AH10" s="90"/>
-      <c r="AI10" s="90"/>
-      <c r="AJ10" s="90"/>
-      <c r="AK10" s="90"/>
-      <c r="AL10" s="91"/>
-      <c r="AM10" s="89"/>
-      <c r="AN10" s="90"/>
-      <c r="AO10" s="90"/>
-      <c r="AP10" s="90"/>
-      <c r="AQ10" s="90"/>
-      <c r="AR10" s="90"/>
-      <c r="AS10" s="90"/>
-      <c r="AT10" s="90"/>
-      <c r="AU10" s="90"/>
-      <c r="AV10" s="90"/>
-      <c r="AW10" s="90"/>
-      <c r="AX10" s="90"/>
-      <c r="AY10" s="90"/>
-      <c r="AZ10" s="91"/>
+      <c r="M10" s="87"/>
+      <c r="N10" s="87"/>
+      <c r="O10" s="87"/>
+      <c r="P10" s="88"/>
+      <c r="Q10" s="86" t="s">
+        <v>137</v>
+      </c>
+      <c r="R10" s="87"/>
+      <c r="S10" s="87"/>
+      <c r="T10" s="87"/>
+      <c r="U10" s="87"/>
+      <c r="V10" s="87"/>
+      <c r="W10" s="87"/>
+      <c r="X10" s="87"/>
+      <c r="Y10" s="87"/>
+      <c r="Z10" s="87"/>
+      <c r="AA10" s="87"/>
+      <c r="AB10" s="87"/>
+      <c r="AC10" s="87"/>
+      <c r="AD10" s="87"/>
+      <c r="AE10" s="87"/>
+      <c r="AF10" s="87"/>
+      <c r="AG10" s="87"/>
+      <c r="AH10" s="87"/>
+      <c r="AI10" s="87"/>
+      <c r="AJ10" s="87"/>
+      <c r="AK10" s="87"/>
+      <c r="AL10" s="88"/>
+      <c r="AM10" s="86"/>
+      <c r="AN10" s="87"/>
+      <c r="AO10" s="87"/>
+      <c r="AP10" s="87"/>
+      <c r="AQ10" s="87"/>
+      <c r="AR10" s="87"/>
+      <c r="AS10" s="87"/>
+      <c r="AT10" s="87"/>
+      <c r="AU10" s="87"/>
+      <c r="AV10" s="87"/>
+      <c r="AW10" s="87"/>
+      <c r="AX10" s="87"/>
+      <c r="AY10" s="87"/>
+      <c r="AZ10" s="88"/>
     </row>
     <row r="11" spans="1:52">
-      <c r="A11" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="A11" s="9">
+        <v>4</v>
       </c>
       <c r="B11" s="10"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="87"/>
-      <c r="K11" s="88"/>
-      <c r="L11" s="89"/>
-      <c r="M11" s="90"/>
-      <c r="N11" s="90"/>
-      <c r="O11" s="90"/>
-      <c r="P11" s="91"/>
-      <c r="Q11" s="89"/>
-      <c r="R11" s="90"/>
-      <c r="S11" s="90"/>
-      <c r="T11" s="90"/>
-      <c r="U11" s="90"/>
-      <c r="V11" s="90"/>
-      <c r="W11" s="90"/>
-      <c r="X11" s="90"/>
-      <c r="Y11" s="90"/>
-      <c r="Z11" s="90"/>
-      <c r="AA11" s="90"/>
-      <c r="AB11" s="90"/>
-      <c r="AC11" s="90"/>
-      <c r="AD11" s="90"/>
-      <c r="AE11" s="90"/>
-      <c r="AF11" s="90"/>
-      <c r="AG11" s="90"/>
-      <c r="AH11" s="90"/>
-      <c r="AI11" s="90"/>
-      <c r="AJ11" s="90"/>
-      <c r="AK11" s="90"/>
-      <c r="AL11" s="91"/>
-      <c r="AM11" s="89"/>
-      <c r="AN11" s="90"/>
-      <c r="AO11" s="90"/>
-      <c r="AP11" s="90"/>
-      <c r="AQ11" s="90"/>
-      <c r="AR11" s="90"/>
-      <c r="AS11" s="90"/>
-      <c r="AT11" s="90"/>
-      <c r="AU11" s="90"/>
-      <c r="AV11" s="90"/>
-      <c r="AW11" s="90"/>
-      <c r="AX11" s="90"/>
-      <c r="AY11" s="90"/>
-      <c r="AZ11" s="91"/>
+      <c r="C11" s="89">
+        <v>1.3</v>
+      </c>
+      <c r="D11" s="90"/>
+      <c r="E11" s="90"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="83">
+        <v>44598</v>
+      </c>
+      <c r="H11" s="84"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="86" t="s">
+        <v>34</v>
+      </c>
+      <c r="M11" s="87"/>
+      <c r="N11" s="87"/>
+      <c r="O11" s="87"/>
+      <c r="P11" s="88"/>
+      <c r="Q11" s="86" t="s">
+        <v>145</v>
+      </c>
+      <c r="R11" s="87"/>
+      <c r="S11" s="87"/>
+      <c r="T11" s="87"/>
+      <c r="U11" s="87"/>
+      <c r="V11" s="87"/>
+      <c r="W11" s="87"/>
+      <c r="X11" s="87"/>
+      <c r="Y11" s="87"/>
+      <c r="Z11" s="87"/>
+      <c r="AA11" s="87"/>
+      <c r="AB11" s="87"/>
+      <c r="AC11" s="87"/>
+      <c r="AD11" s="87"/>
+      <c r="AE11" s="87"/>
+      <c r="AF11" s="87"/>
+      <c r="AG11" s="87"/>
+      <c r="AH11" s="87"/>
+      <c r="AI11" s="87"/>
+      <c r="AJ11" s="87"/>
+      <c r="AK11" s="87"/>
+      <c r="AL11" s="88"/>
+      <c r="AM11" s="86"/>
+      <c r="AN11" s="87"/>
+      <c r="AO11" s="87"/>
+      <c r="AP11" s="87"/>
+      <c r="AQ11" s="87"/>
+      <c r="AR11" s="87"/>
+      <c r="AS11" s="87"/>
+      <c r="AT11" s="87"/>
+      <c r="AU11" s="87"/>
+      <c r="AV11" s="87"/>
+      <c r="AW11" s="87"/>
+      <c r="AX11" s="87"/>
+      <c r="AY11" s="87"/>
+      <c r="AZ11" s="88"/>
     </row>
     <row r="12" spans="1:52">
       <c r="A12" s="9" t="str">
@@ -3344,56 +4285,56 @@
         <v/>
       </c>
       <c r="B12" s="10"/>
-      <c r="C12" s="83"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="84"/>
-      <c r="F12" s="85"/>
-      <c r="G12" s="86"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="87"/>
-      <c r="J12" s="87"/>
-      <c r="K12" s="88"/>
-      <c r="L12" s="89"/>
-      <c r="M12" s="90"/>
-      <c r="N12" s="90"/>
-      <c r="O12" s="90"/>
-      <c r="P12" s="91"/>
-      <c r="Q12" s="89"/>
-      <c r="R12" s="90"/>
-      <c r="S12" s="90"/>
-      <c r="T12" s="90"/>
-      <c r="U12" s="90"/>
-      <c r="V12" s="90"/>
-      <c r="W12" s="90"/>
-      <c r="X12" s="90"/>
-      <c r="Y12" s="90"/>
-      <c r="Z12" s="90"/>
-      <c r="AA12" s="90"/>
-      <c r="AB12" s="90"/>
-      <c r="AC12" s="90"/>
-      <c r="AD12" s="90"/>
-      <c r="AE12" s="90"/>
-      <c r="AF12" s="90"/>
-      <c r="AG12" s="90"/>
-      <c r="AH12" s="90"/>
-      <c r="AI12" s="90"/>
-      <c r="AJ12" s="90"/>
-      <c r="AK12" s="90"/>
-      <c r="AL12" s="91"/>
-      <c r="AM12" s="89"/>
-      <c r="AN12" s="90"/>
-      <c r="AO12" s="90"/>
-      <c r="AP12" s="90"/>
-      <c r="AQ12" s="90"/>
-      <c r="AR12" s="90"/>
-      <c r="AS12" s="90"/>
-      <c r="AT12" s="90"/>
-      <c r="AU12" s="90"/>
-      <c r="AV12" s="90"/>
-      <c r="AW12" s="90"/>
-      <c r="AX12" s="90"/>
-      <c r="AY12" s="90"/>
-      <c r="AZ12" s="91"/>
+      <c r="C12" s="89"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="91"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="84"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="84"/>
+      <c r="K12" s="85"/>
+      <c r="L12" s="86"/>
+      <c r="M12" s="87"/>
+      <c r="N12" s="87"/>
+      <c r="O12" s="87"/>
+      <c r="P12" s="88"/>
+      <c r="Q12" s="86"/>
+      <c r="R12" s="87"/>
+      <c r="S12" s="87"/>
+      <c r="T12" s="87"/>
+      <c r="U12" s="87"/>
+      <c r="V12" s="87"/>
+      <c r="W12" s="87"/>
+      <c r="X12" s="87"/>
+      <c r="Y12" s="87"/>
+      <c r="Z12" s="87"/>
+      <c r="AA12" s="87"/>
+      <c r="AB12" s="87"/>
+      <c r="AC12" s="87"/>
+      <c r="AD12" s="87"/>
+      <c r="AE12" s="87"/>
+      <c r="AF12" s="87"/>
+      <c r="AG12" s="87"/>
+      <c r="AH12" s="87"/>
+      <c r="AI12" s="87"/>
+      <c r="AJ12" s="87"/>
+      <c r="AK12" s="87"/>
+      <c r="AL12" s="88"/>
+      <c r="AM12" s="86"/>
+      <c r="AN12" s="87"/>
+      <c r="AO12" s="87"/>
+      <c r="AP12" s="87"/>
+      <c r="AQ12" s="87"/>
+      <c r="AR12" s="87"/>
+      <c r="AS12" s="87"/>
+      <c r="AT12" s="87"/>
+      <c r="AU12" s="87"/>
+      <c r="AV12" s="87"/>
+      <c r="AW12" s="87"/>
+      <c r="AX12" s="87"/>
+      <c r="AY12" s="87"/>
+      <c r="AZ12" s="88"/>
     </row>
     <row r="13" spans="1:52">
       <c r="A13" s="9" t="str">
@@ -3401,56 +4342,56 @@
         <v/>
       </c>
       <c r="B13" s="10"/>
-      <c r="C13" s="83"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="85"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="87"/>
-      <c r="I13" s="87"/>
-      <c r="J13" s="87"/>
-      <c r="K13" s="88"/>
-      <c r="L13" s="89"/>
-      <c r="M13" s="90"/>
-      <c r="N13" s="90"/>
-      <c r="O13" s="90"/>
-      <c r="P13" s="91"/>
-      <c r="Q13" s="89"/>
-      <c r="R13" s="90"/>
-      <c r="S13" s="90"/>
-      <c r="T13" s="90"/>
-      <c r="U13" s="90"/>
-      <c r="V13" s="90"/>
-      <c r="W13" s="90"/>
-      <c r="X13" s="90"/>
-      <c r="Y13" s="90"/>
-      <c r="Z13" s="90"/>
-      <c r="AA13" s="90"/>
-      <c r="AB13" s="90"/>
-      <c r="AC13" s="90"/>
-      <c r="AD13" s="90"/>
-      <c r="AE13" s="90"/>
-      <c r="AF13" s="90"/>
-      <c r="AG13" s="90"/>
-      <c r="AH13" s="90"/>
-      <c r="AI13" s="90"/>
-      <c r="AJ13" s="90"/>
-      <c r="AK13" s="90"/>
-      <c r="AL13" s="91"/>
-      <c r="AM13" s="89"/>
-      <c r="AN13" s="90"/>
-      <c r="AO13" s="90"/>
-      <c r="AP13" s="90"/>
-      <c r="AQ13" s="90"/>
-      <c r="AR13" s="90"/>
-      <c r="AS13" s="90"/>
-      <c r="AT13" s="90"/>
-      <c r="AU13" s="90"/>
-      <c r="AV13" s="90"/>
-      <c r="AW13" s="90"/>
-      <c r="AX13" s="90"/>
-      <c r="AY13" s="90"/>
-      <c r="AZ13" s="91"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="84"/>
+      <c r="K13" s="85"/>
+      <c r="L13" s="86"/>
+      <c r="M13" s="87"/>
+      <c r="N13" s="87"/>
+      <c r="O13" s="87"/>
+      <c r="P13" s="88"/>
+      <c r="Q13" s="86"/>
+      <c r="R13" s="87"/>
+      <c r="S13" s="87"/>
+      <c r="T13" s="87"/>
+      <c r="U13" s="87"/>
+      <c r="V13" s="87"/>
+      <c r="W13" s="87"/>
+      <c r="X13" s="87"/>
+      <c r="Y13" s="87"/>
+      <c r="Z13" s="87"/>
+      <c r="AA13" s="87"/>
+      <c r="AB13" s="87"/>
+      <c r="AC13" s="87"/>
+      <c r="AD13" s="87"/>
+      <c r="AE13" s="87"/>
+      <c r="AF13" s="87"/>
+      <c r="AG13" s="87"/>
+      <c r="AH13" s="87"/>
+      <c r="AI13" s="87"/>
+      <c r="AJ13" s="87"/>
+      <c r="AK13" s="87"/>
+      <c r="AL13" s="88"/>
+      <c r="AM13" s="86"/>
+      <c r="AN13" s="87"/>
+      <c r="AO13" s="87"/>
+      <c r="AP13" s="87"/>
+      <c r="AQ13" s="87"/>
+      <c r="AR13" s="87"/>
+      <c r="AS13" s="87"/>
+      <c r="AT13" s="87"/>
+      <c r="AU13" s="87"/>
+      <c r="AV13" s="87"/>
+      <c r="AW13" s="87"/>
+      <c r="AX13" s="87"/>
+      <c r="AY13" s="87"/>
+      <c r="AZ13" s="88"/>
     </row>
     <row r="14" spans="1:52">
       <c r="A14" s="9" t="str">
@@ -3458,56 +4399,56 @@
         <v/>
       </c>
       <c r="B14" s="10"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="87"/>
-      <c r="I14" s="87"/>
-      <c r="J14" s="87"/>
-      <c r="K14" s="88"/>
-      <c r="L14" s="89"/>
-      <c r="M14" s="90"/>
-      <c r="N14" s="90"/>
-      <c r="O14" s="90"/>
-      <c r="P14" s="91"/>
-      <c r="Q14" s="89"/>
-      <c r="R14" s="90"/>
-      <c r="S14" s="90"/>
-      <c r="T14" s="90"/>
-      <c r="U14" s="90"/>
-      <c r="V14" s="90"/>
-      <c r="W14" s="90"/>
-      <c r="X14" s="90"/>
-      <c r="Y14" s="90"/>
-      <c r="Z14" s="90"/>
-      <c r="AA14" s="90"/>
-      <c r="AB14" s="90"/>
-      <c r="AC14" s="90"/>
-      <c r="AD14" s="90"/>
-      <c r="AE14" s="90"/>
-      <c r="AF14" s="90"/>
-      <c r="AG14" s="90"/>
-      <c r="AH14" s="90"/>
-      <c r="AI14" s="90"/>
-      <c r="AJ14" s="90"/>
-      <c r="AK14" s="90"/>
-      <c r="AL14" s="91"/>
-      <c r="AM14" s="89"/>
-      <c r="AN14" s="90"/>
-      <c r="AO14" s="90"/>
-      <c r="AP14" s="90"/>
-      <c r="AQ14" s="90"/>
-      <c r="AR14" s="90"/>
-      <c r="AS14" s="90"/>
-      <c r="AT14" s="90"/>
-      <c r="AU14" s="90"/>
-      <c r="AV14" s="90"/>
-      <c r="AW14" s="90"/>
-      <c r="AX14" s="90"/>
-      <c r="AY14" s="90"/>
-      <c r="AZ14" s="91"/>
+      <c r="C14" s="89"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="85"/>
+      <c r="L14" s="86"/>
+      <c r="M14" s="87"/>
+      <c r="N14" s="87"/>
+      <c r="O14" s="87"/>
+      <c r="P14" s="88"/>
+      <c r="Q14" s="86"/>
+      <c r="R14" s="87"/>
+      <c r="S14" s="87"/>
+      <c r="T14" s="87"/>
+      <c r="U14" s="87"/>
+      <c r="V14" s="87"/>
+      <c r="W14" s="87"/>
+      <c r="X14" s="87"/>
+      <c r="Y14" s="87"/>
+      <c r="Z14" s="87"/>
+      <c r="AA14" s="87"/>
+      <c r="AB14" s="87"/>
+      <c r="AC14" s="87"/>
+      <c r="AD14" s="87"/>
+      <c r="AE14" s="87"/>
+      <c r="AF14" s="87"/>
+      <c r="AG14" s="87"/>
+      <c r="AH14" s="87"/>
+      <c r="AI14" s="87"/>
+      <c r="AJ14" s="87"/>
+      <c r="AK14" s="87"/>
+      <c r="AL14" s="88"/>
+      <c r="AM14" s="86"/>
+      <c r="AN14" s="87"/>
+      <c r="AO14" s="87"/>
+      <c r="AP14" s="87"/>
+      <c r="AQ14" s="87"/>
+      <c r="AR14" s="87"/>
+      <c r="AS14" s="87"/>
+      <c r="AT14" s="87"/>
+      <c r="AU14" s="87"/>
+      <c r="AV14" s="87"/>
+      <c r="AW14" s="87"/>
+      <c r="AX14" s="87"/>
+      <c r="AY14" s="87"/>
+      <c r="AZ14" s="88"/>
     </row>
     <row r="15" spans="1:52">
       <c r="A15" s="9" t="str">
@@ -3515,56 +4456,56 @@
         <v/>
       </c>
       <c r="B15" s="10"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="87"/>
-      <c r="I15" s="87"/>
-      <c r="J15" s="87"/>
-      <c r="K15" s="88"/>
-      <c r="L15" s="89"/>
-      <c r="M15" s="90"/>
-      <c r="N15" s="90"/>
-      <c r="O15" s="90"/>
-      <c r="P15" s="91"/>
-      <c r="Q15" s="89"/>
-      <c r="R15" s="90"/>
-      <c r="S15" s="90"/>
-      <c r="T15" s="90"/>
-      <c r="U15" s="90"/>
-      <c r="V15" s="90"/>
-      <c r="W15" s="90"/>
-      <c r="X15" s="90"/>
-      <c r="Y15" s="90"/>
-      <c r="Z15" s="90"/>
-      <c r="AA15" s="90"/>
-      <c r="AB15" s="90"/>
-      <c r="AC15" s="90"/>
-      <c r="AD15" s="90"/>
-      <c r="AE15" s="90"/>
-      <c r="AF15" s="90"/>
-      <c r="AG15" s="90"/>
-      <c r="AH15" s="90"/>
-      <c r="AI15" s="90"/>
-      <c r="AJ15" s="90"/>
-      <c r="AK15" s="90"/>
-      <c r="AL15" s="91"/>
-      <c r="AM15" s="89"/>
-      <c r="AN15" s="90"/>
-      <c r="AO15" s="90"/>
-      <c r="AP15" s="90"/>
-      <c r="AQ15" s="90"/>
-      <c r="AR15" s="90"/>
-      <c r="AS15" s="90"/>
-      <c r="AT15" s="90"/>
-      <c r="AU15" s="90"/>
-      <c r="AV15" s="90"/>
-      <c r="AW15" s="90"/>
-      <c r="AX15" s="90"/>
-      <c r="AY15" s="90"/>
-      <c r="AZ15" s="91"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="91"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="84"/>
+      <c r="K15" s="85"/>
+      <c r="L15" s="86"/>
+      <c r="M15" s="87"/>
+      <c r="N15" s="87"/>
+      <c r="O15" s="87"/>
+      <c r="P15" s="88"/>
+      <c r="Q15" s="86"/>
+      <c r="R15" s="87"/>
+      <c r="S15" s="87"/>
+      <c r="T15" s="87"/>
+      <c r="U15" s="87"/>
+      <c r="V15" s="87"/>
+      <c r="W15" s="87"/>
+      <c r="X15" s="87"/>
+      <c r="Y15" s="87"/>
+      <c r="Z15" s="87"/>
+      <c r="AA15" s="87"/>
+      <c r="AB15" s="87"/>
+      <c r="AC15" s="87"/>
+      <c r="AD15" s="87"/>
+      <c r="AE15" s="87"/>
+      <c r="AF15" s="87"/>
+      <c r="AG15" s="87"/>
+      <c r="AH15" s="87"/>
+      <c r="AI15" s="87"/>
+      <c r="AJ15" s="87"/>
+      <c r="AK15" s="87"/>
+      <c r="AL15" s="88"/>
+      <c r="AM15" s="86"/>
+      <c r="AN15" s="87"/>
+      <c r="AO15" s="87"/>
+      <c r="AP15" s="87"/>
+      <c r="AQ15" s="87"/>
+      <c r="AR15" s="87"/>
+      <c r="AS15" s="87"/>
+      <c r="AT15" s="87"/>
+      <c r="AU15" s="87"/>
+      <c r="AV15" s="87"/>
+      <c r="AW15" s="87"/>
+      <c r="AX15" s="87"/>
+      <c r="AY15" s="87"/>
+      <c r="AZ15" s="88"/>
     </row>
     <row r="16" spans="1:52">
       <c r="A16" s="9" t="str">
@@ -3572,56 +4513,56 @@
         <v/>
       </c>
       <c r="B16" s="10"/>
-      <c r="C16" s="83"/>
-      <c r="D16" s="84"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="85"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="87"/>
-      <c r="I16" s="87"/>
-      <c r="J16" s="87"/>
-      <c r="K16" s="88"/>
-      <c r="L16" s="89"/>
-      <c r="M16" s="90"/>
-      <c r="N16" s="90"/>
-      <c r="O16" s="90"/>
-      <c r="P16" s="91"/>
-      <c r="Q16" s="89"/>
-      <c r="R16" s="90"/>
-      <c r="S16" s="90"/>
-      <c r="T16" s="90"/>
-      <c r="U16" s="90"/>
-      <c r="V16" s="90"/>
-      <c r="W16" s="90"/>
-      <c r="X16" s="90"/>
-      <c r="Y16" s="90"/>
-      <c r="Z16" s="90"/>
-      <c r="AA16" s="90"/>
-      <c r="AB16" s="90"/>
-      <c r="AC16" s="90"/>
-      <c r="AD16" s="90"/>
-      <c r="AE16" s="90"/>
-      <c r="AF16" s="90"/>
-      <c r="AG16" s="90"/>
-      <c r="AH16" s="90"/>
-      <c r="AI16" s="90"/>
-      <c r="AJ16" s="90"/>
-      <c r="AK16" s="90"/>
-      <c r="AL16" s="91"/>
-      <c r="AM16" s="89"/>
-      <c r="AN16" s="90"/>
-      <c r="AO16" s="90"/>
-      <c r="AP16" s="90"/>
-      <c r="AQ16" s="90"/>
-      <c r="AR16" s="90"/>
-      <c r="AS16" s="90"/>
-      <c r="AT16" s="90"/>
-      <c r="AU16" s="90"/>
-      <c r="AV16" s="90"/>
-      <c r="AW16" s="90"/>
-      <c r="AX16" s="90"/>
-      <c r="AY16" s="90"/>
-      <c r="AZ16" s="91"/>
+      <c r="C16" s="89"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="84"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="84"/>
+      <c r="K16" s="85"/>
+      <c r="L16" s="86"/>
+      <c r="M16" s="87"/>
+      <c r="N16" s="87"/>
+      <c r="O16" s="87"/>
+      <c r="P16" s="88"/>
+      <c r="Q16" s="86"/>
+      <c r="R16" s="87"/>
+      <c r="S16" s="87"/>
+      <c r="T16" s="87"/>
+      <c r="U16" s="87"/>
+      <c r="V16" s="87"/>
+      <c r="W16" s="87"/>
+      <c r="X16" s="87"/>
+      <c r="Y16" s="87"/>
+      <c r="Z16" s="87"/>
+      <c r="AA16" s="87"/>
+      <c r="AB16" s="87"/>
+      <c r="AC16" s="87"/>
+      <c r="AD16" s="87"/>
+      <c r="AE16" s="87"/>
+      <c r="AF16" s="87"/>
+      <c r="AG16" s="87"/>
+      <c r="AH16" s="87"/>
+      <c r="AI16" s="87"/>
+      <c r="AJ16" s="87"/>
+      <c r="AK16" s="87"/>
+      <c r="AL16" s="88"/>
+      <c r="AM16" s="86"/>
+      <c r="AN16" s="87"/>
+      <c r="AO16" s="87"/>
+      <c r="AP16" s="87"/>
+      <c r="AQ16" s="87"/>
+      <c r="AR16" s="87"/>
+      <c r="AS16" s="87"/>
+      <c r="AT16" s="87"/>
+      <c r="AU16" s="87"/>
+      <c r="AV16" s="87"/>
+      <c r="AW16" s="87"/>
+      <c r="AX16" s="87"/>
+      <c r="AY16" s="87"/>
+      <c r="AZ16" s="88"/>
     </row>
     <row r="17" spans="1:52">
       <c r="A17" s="9" t="str">
@@ -3629,56 +4570,56 @@
         <v/>
       </c>
       <c r="B17" s="10"/>
-      <c r="C17" s="83"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="87"/>
-      <c r="K17" s="88"/>
-      <c r="L17" s="89"/>
-      <c r="M17" s="90"/>
-      <c r="N17" s="90"/>
-      <c r="O17" s="90"/>
-      <c r="P17" s="91"/>
-      <c r="Q17" s="89"/>
-      <c r="R17" s="90"/>
-      <c r="S17" s="90"/>
-      <c r="T17" s="90"/>
-      <c r="U17" s="90"/>
-      <c r="V17" s="90"/>
-      <c r="W17" s="90"/>
-      <c r="X17" s="90"/>
-      <c r="Y17" s="90"/>
-      <c r="Z17" s="90"/>
-      <c r="AA17" s="90"/>
-      <c r="AB17" s="90"/>
-      <c r="AC17" s="90"/>
-      <c r="AD17" s="90"/>
-      <c r="AE17" s="90"/>
-      <c r="AF17" s="90"/>
-      <c r="AG17" s="90"/>
-      <c r="AH17" s="90"/>
-      <c r="AI17" s="90"/>
-      <c r="AJ17" s="90"/>
-      <c r="AK17" s="90"/>
-      <c r="AL17" s="91"/>
-      <c r="AM17" s="89"/>
-      <c r="AN17" s="90"/>
-      <c r="AO17" s="90"/>
-      <c r="AP17" s="90"/>
-      <c r="AQ17" s="90"/>
-      <c r="AR17" s="90"/>
-      <c r="AS17" s="90"/>
-      <c r="AT17" s="90"/>
-      <c r="AU17" s="90"/>
-      <c r="AV17" s="90"/>
-      <c r="AW17" s="90"/>
-      <c r="AX17" s="90"/>
-      <c r="AY17" s="90"/>
-      <c r="AZ17" s="91"/>
+      <c r="C17" s="89"/>
+      <c r="D17" s="90"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="91"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="84"/>
+      <c r="K17" s="85"/>
+      <c r="L17" s="86"/>
+      <c r="M17" s="87"/>
+      <c r="N17" s="87"/>
+      <c r="O17" s="87"/>
+      <c r="P17" s="88"/>
+      <c r="Q17" s="86"/>
+      <c r="R17" s="87"/>
+      <c r="S17" s="87"/>
+      <c r="T17" s="87"/>
+      <c r="U17" s="87"/>
+      <c r="V17" s="87"/>
+      <c r="W17" s="87"/>
+      <c r="X17" s="87"/>
+      <c r="Y17" s="87"/>
+      <c r="Z17" s="87"/>
+      <c r="AA17" s="87"/>
+      <c r="AB17" s="87"/>
+      <c r="AC17" s="87"/>
+      <c r="AD17" s="87"/>
+      <c r="AE17" s="87"/>
+      <c r="AF17" s="87"/>
+      <c r="AG17" s="87"/>
+      <c r="AH17" s="87"/>
+      <c r="AI17" s="87"/>
+      <c r="AJ17" s="87"/>
+      <c r="AK17" s="87"/>
+      <c r="AL17" s="88"/>
+      <c r="AM17" s="86"/>
+      <c r="AN17" s="87"/>
+      <c r="AO17" s="87"/>
+      <c r="AP17" s="87"/>
+      <c r="AQ17" s="87"/>
+      <c r="AR17" s="87"/>
+      <c r="AS17" s="87"/>
+      <c r="AT17" s="87"/>
+      <c r="AU17" s="87"/>
+      <c r="AV17" s="87"/>
+      <c r="AW17" s="87"/>
+      <c r="AX17" s="87"/>
+      <c r="AY17" s="87"/>
+      <c r="AZ17" s="88"/>
     </row>
     <row r="18" spans="1:52">
       <c r="A18" s="9" t="str">
@@ -3686,56 +4627,56 @@
         <v/>
       </c>
       <c r="B18" s="10"/>
-      <c r="C18" s="83"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="86"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
-      <c r="J18" s="87"/>
-      <c r="K18" s="88"/>
-      <c r="L18" s="89"/>
-      <c r="M18" s="90"/>
-      <c r="N18" s="90"/>
-      <c r="O18" s="90"/>
-      <c r="P18" s="91"/>
-      <c r="Q18" s="89"/>
-      <c r="R18" s="90"/>
-      <c r="S18" s="90"/>
-      <c r="T18" s="90"/>
-      <c r="U18" s="90"/>
-      <c r="V18" s="90"/>
-      <c r="W18" s="90"/>
-      <c r="X18" s="90"/>
-      <c r="Y18" s="90"/>
-      <c r="Z18" s="90"/>
-      <c r="AA18" s="90"/>
-      <c r="AB18" s="90"/>
-      <c r="AC18" s="90"/>
-      <c r="AD18" s="90"/>
-      <c r="AE18" s="90"/>
-      <c r="AF18" s="90"/>
-      <c r="AG18" s="90"/>
-      <c r="AH18" s="90"/>
-      <c r="AI18" s="90"/>
-      <c r="AJ18" s="90"/>
-      <c r="AK18" s="90"/>
-      <c r="AL18" s="91"/>
-      <c r="AM18" s="89"/>
-      <c r="AN18" s="90"/>
-      <c r="AO18" s="90"/>
-      <c r="AP18" s="90"/>
-      <c r="AQ18" s="90"/>
-      <c r="AR18" s="90"/>
-      <c r="AS18" s="90"/>
-      <c r="AT18" s="90"/>
-      <c r="AU18" s="90"/>
-      <c r="AV18" s="90"/>
-      <c r="AW18" s="90"/>
-      <c r="AX18" s="90"/>
-      <c r="AY18" s="90"/>
-      <c r="AZ18" s="91"/>
+      <c r="C18" s="89"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="90"/>
+      <c r="F18" s="91"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="84"/>
+      <c r="I18" s="84"/>
+      <c r="J18" s="84"/>
+      <c r="K18" s="85"/>
+      <c r="L18" s="86"/>
+      <c r="M18" s="87"/>
+      <c r="N18" s="87"/>
+      <c r="O18" s="87"/>
+      <c r="P18" s="88"/>
+      <c r="Q18" s="86"/>
+      <c r="R18" s="87"/>
+      <c r="S18" s="87"/>
+      <c r="T18" s="87"/>
+      <c r="U18" s="87"/>
+      <c r="V18" s="87"/>
+      <c r="W18" s="87"/>
+      <c r="X18" s="87"/>
+      <c r="Y18" s="87"/>
+      <c r="Z18" s="87"/>
+      <c r="AA18" s="87"/>
+      <c r="AB18" s="87"/>
+      <c r="AC18" s="87"/>
+      <c r="AD18" s="87"/>
+      <c r="AE18" s="87"/>
+      <c r="AF18" s="87"/>
+      <c r="AG18" s="87"/>
+      <c r="AH18" s="87"/>
+      <c r="AI18" s="87"/>
+      <c r="AJ18" s="87"/>
+      <c r="AK18" s="87"/>
+      <c r="AL18" s="88"/>
+      <c r="AM18" s="86"/>
+      <c r="AN18" s="87"/>
+      <c r="AO18" s="87"/>
+      <c r="AP18" s="87"/>
+      <c r="AQ18" s="87"/>
+      <c r="AR18" s="87"/>
+      <c r="AS18" s="87"/>
+      <c r="AT18" s="87"/>
+      <c r="AU18" s="87"/>
+      <c r="AV18" s="87"/>
+      <c r="AW18" s="87"/>
+      <c r="AX18" s="87"/>
+      <c r="AY18" s="87"/>
+      <c r="AZ18" s="88"/>
     </row>
     <row r="19" spans="1:52">
       <c r="A19" s="9" t="str">
@@ -3743,56 +4684,56 @@
         <v/>
       </c>
       <c r="B19" s="10"/>
-      <c r="C19" s="83"/>
-      <c r="D19" s="84"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="85"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="87"/>
-      <c r="I19" s="87"/>
-      <c r="J19" s="87"/>
-      <c r="K19" s="88"/>
-      <c r="L19" s="89"/>
-      <c r="M19" s="90"/>
-      <c r="N19" s="90"/>
-      <c r="O19" s="90"/>
-      <c r="P19" s="91"/>
-      <c r="Q19" s="89"/>
-      <c r="R19" s="90"/>
-      <c r="S19" s="90"/>
-      <c r="T19" s="90"/>
-      <c r="U19" s="90"/>
-      <c r="V19" s="90"/>
-      <c r="W19" s="90"/>
-      <c r="X19" s="90"/>
-      <c r="Y19" s="90"/>
-      <c r="Z19" s="90"/>
-      <c r="AA19" s="90"/>
-      <c r="AB19" s="90"/>
-      <c r="AC19" s="90"/>
-      <c r="AD19" s="90"/>
-      <c r="AE19" s="90"/>
-      <c r="AF19" s="90"/>
-      <c r="AG19" s="90"/>
-      <c r="AH19" s="90"/>
-      <c r="AI19" s="90"/>
-      <c r="AJ19" s="90"/>
-      <c r="AK19" s="90"/>
-      <c r="AL19" s="91"/>
-      <c r="AM19" s="89"/>
-      <c r="AN19" s="90"/>
-      <c r="AO19" s="90"/>
-      <c r="AP19" s="90"/>
-      <c r="AQ19" s="90"/>
-      <c r="AR19" s="90"/>
-      <c r="AS19" s="90"/>
-      <c r="AT19" s="90"/>
-      <c r="AU19" s="90"/>
-      <c r="AV19" s="90"/>
-      <c r="AW19" s="90"/>
-      <c r="AX19" s="90"/>
-      <c r="AY19" s="90"/>
-      <c r="AZ19" s="91"/>
+      <c r="C19" s="89"/>
+      <c r="D19" s="90"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="91"/>
+      <c r="G19" s="83"/>
+      <c r="H19" s="84"/>
+      <c r="I19" s="84"/>
+      <c r="J19" s="84"/>
+      <c r="K19" s="85"/>
+      <c r="L19" s="86"/>
+      <c r="M19" s="87"/>
+      <c r="N19" s="87"/>
+      <c r="O19" s="87"/>
+      <c r="P19" s="88"/>
+      <c r="Q19" s="86"/>
+      <c r="R19" s="87"/>
+      <c r="S19" s="87"/>
+      <c r="T19" s="87"/>
+      <c r="U19" s="87"/>
+      <c r="V19" s="87"/>
+      <c r="W19" s="87"/>
+      <c r="X19" s="87"/>
+      <c r="Y19" s="87"/>
+      <c r="Z19" s="87"/>
+      <c r="AA19" s="87"/>
+      <c r="AB19" s="87"/>
+      <c r="AC19" s="87"/>
+      <c r="AD19" s="87"/>
+      <c r="AE19" s="87"/>
+      <c r="AF19" s="87"/>
+      <c r="AG19" s="87"/>
+      <c r="AH19" s="87"/>
+      <c r="AI19" s="87"/>
+      <c r="AJ19" s="87"/>
+      <c r="AK19" s="87"/>
+      <c r="AL19" s="88"/>
+      <c r="AM19" s="86"/>
+      <c r="AN19" s="87"/>
+      <c r="AO19" s="87"/>
+      <c r="AP19" s="87"/>
+      <c r="AQ19" s="87"/>
+      <c r="AR19" s="87"/>
+      <c r="AS19" s="87"/>
+      <c r="AT19" s="87"/>
+      <c r="AU19" s="87"/>
+      <c r="AV19" s="87"/>
+      <c r="AW19" s="87"/>
+      <c r="AX19" s="87"/>
+      <c r="AY19" s="87"/>
+      <c r="AZ19" s="88"/>
     </row>
     <row r="20" spans="1:52">
       <c r="A20" s="9" t="str">
@@ -3800,56 +4741,56 @@
         <v/>
       </c>
       <c r="B20" s="10"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="84"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="85"/>
-      <c r="G20" s="86"/>
-      <c r="H20" s="87"/>
-      <c r="I20" s="87"/>
-      <c r="J20" s="87"/>
-      <c r="K20" s="88"/>
-      <c r="L20" s="89"/>
-      <c r="M20" s="90"/>
-      <c r="N20" s="90"/>
-      <c r="O20" s="90"/>
-      <c r="P20" s="91"/>
-      <c r="Q20" s="89"/>
-      <c r="R20" s="90"/>
-      <c r="S20" s="90"/>
-      <c r="T20" s="90"/>
-      <c r="U20" s="90"/>
-      <c r="V20" s="90"/>
-      <c r="W20" s="90"/>
-      <c r="X20" s="90"/>
-      <c r="Y20" s="90"/>
-      <c r="Z20" s="90"/>
-      <c r="AA20" s="90"/>
-      <c r="AB20" s="90"/>
-      <c r="AC20" s="90"/>
-      <c r="AD20" s="90"/>
-      <c r="AE20" s="90"/>
-      <c r="AF20" s="90"/>
-      <c r="AG20" s="90"/>
-      <c r="AH20" s="90"/>
-      <c r="AI20" s="90"/>
-      <c r="AJ20" s="90"/>
-      <c r="AK20" s="90"/>
-      <c r="AL20" s="91"/>
-      <c r="AM20" s="89"/>
-      <c r="AN20" s="90"/>
-      <c r="AO20" s="90"/>
-      <c r="AP20" s="90"/>
-      <c r="AQ20" s="90"/>
-      <c r="AR20" s="90"/>
-      <c r="AS20" s="90"/>
-      <c r="AT20" s="90"/>
-      <c r="AU20" s="90"/>
-      <c r="AV20" s="90"/>
-      <c r="AW20" s="90"/>
-      <c r="AX20" s="90"/>
-      <c r="AY20" s="90"/>
-      <c r="AZ20" s="91"/>
+      <c r="C20" s="89"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="91"/>
+      <c r="G20" s="83"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="84"/>
+      <c r="J20" s="84"/>
+      <c r="K20" s="85"/>
+      <c r="L20" s="86"/>
+      <c r="M20" s="87"/>
+      <c r="N20" s="87"/>
+      <c r="O20" s="87"/>
+      <c r="P20" s="88"/>
+      <c r="Q20" s="86"/>
+      <c r="R20" s="87"/>
+      <c r="S20" s="87"/>
+      <c r="T20" s="87"/>
+      <c r="U20" s="87"/>
+      <c r="V20" s="87"/>
+      <c r="W20" s="87"/>
+      <c r="X20" s="87"/>
+      <c r="Y20" s="87"/>
+      <c r="Z20" s="87"/>
+      <c r="AA20" s="87"/>
+      <c r="AB20" s="87"/>
+      <c r="AC20" s="87"/>
+      <c r="AD20" s="87"/>
+      <c r="AE20" s="87"/>
+      <c r="AF20" s="87"/>
+      <c r="AG20" s="87"/>
+      <c r="AH20" s="87"/>
+      <c r="AI20" s="87"/>
+      <c r="AJ20" s="87"/>
+      <c r="AK20" s="87"/>
+      <c r="AL20" s="88"/>
+      <c r="AM20" s="86"/>
+      <c r="AN20" s="87"/>
+      <c r="AO20" s="87"/>
+      <c r="AP20" s="87"/>
+      <c r="AQ20" s="87"/>
+      <c r="AR20" s="87"/>
+      <c r="AS20" s="87"/>
+      <c r="AT20" s="87"/>
+      <c r="AU20" s="87"/>
+      <c r="AV20" s="87"/>
+      <c r="AW20" s="87"/>
+      <c r="AX20" s="87"/>
+      <c r="AY20" s="87"/>
+      <c r="AZ20" s="88"/>
     </row>
     <row r="21" spans="1:52">
       <c r="A21" s="9" t="str">
@@ -3857,56 +4798,56 @@
         <v/>
       </c>
       <c r="B21" s="10"/>
-      <c r="C21" s="83"/>
-      <c r="D21" s="84"/>
-      <c r="E21" s="84"/>
-      <c r="F21" s="85"/>
-      <c r="G21" s="86"/>
-      <c r="H21" s="87"/>
-      <c r="I21" s="87"/>
-      <c r="J21" s="87"/>
-      <c r="K21" s="88"/>
-      <c r="L21" s="89"/>
-      <c r="M21" s="90"/>
-      <c r="N21" s="90"/>
-      <c r="O21" s="90"/>
-      <c r="P21" s="91"/>
-      <c r="Q21" s="89"/>
-      <c r="R21" s="90"/>
-      <c r="S21" s="90"/>
-      <c r="T21" s="90"/>
-      <c r="U21" s="90"/>
-      <c r="V21" s="90"/>
-      <c r="W21" s="90"/>
-      <c r="X21" s="90"/>
-      <c r="Y21" s="90"/>
-      <c r="Z21" s="90"/>
-      <c r="AA21" s="90"/>
-      <c r="AB21" s="90"/>
-      <c r="AC21" s="90"/>
-      <c r="AD21" s="90"/>
-      <c r="AE21" s="90"/>
-      <c r="AF21" s="90"/>
-      <c r="AG21" s="90"/>
-      <c r="AH21" s="90"/>
-      <c r="AI21" s="90"/>
-      <c r="AJ21" s="90"/>
-      <c r="AK21" s="90"/>
-      <c r="AL21" s="91"/>
-      <c r="AM21" s="89"/>
-      <c r="AN21" s="90"/>
-      <c r="AO21" s="90"/>
-      <c r="AP21" s="90"/>
-      <c r="AQ21" s="90"/>
-      <c r="AR21" s="90"/>
-      <c r="AS21" s="90"/>
-      <c r="AT21" s="90"/>
-      <c r="AU21" s="90"/>
-      <c r="AV21" s="90"/>
-      <c r="AW21" s="90"/>
-      <c r="AX21" s="90"/>
-      <c r="AY21" s="90"/>
-      <c r="AZ21" s="91"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="84"/>
+      <c r="I21" s="84"/>
+      <c r="J21" s="84"/>
+      <c r="K21" s="85"/>
+      <c r="L21" s="86"/>
+      <c r="M21" s="87"/>
+      <c r="N21" s="87"/>
+      <c r="O21" s="87"/>
+      <c r="P21" s="88"/>
+      <c r="Q21" s="86"/>
+      <c r="R21" s="87"/>
+      <c r="S21" s="87"/>
+      <c r="T21" s="87"/>
+      <c r="U21" s="87"/>
+      <c r="V21" s="87"/>
+      <c r="W21" s="87"/>
+      <c r="X21" s="87"/>
+      <c r="Y21" s="87"/>
+      <c r="Z21" s="87"/>
+      <c r="AA21" s="87"/>
+      <c r="AB21" s="87"/>
+      <c r="AC21" s="87"/>
+      <c r="AD21" s="87"/>
+      <c r="AE21" s="87"/>
+      <c r="AF21" s="87"/>
+      <c r="AG21" s="87"/>
+      <c r="AH21" s="87"/>
+      <c r="AI21" s="87"/>
+      <c r="AJ21" s="87"/>
+      <c r="AK21" s="87"/>
+      <c r="AL21" s="88"/>
+      <c r="AM21" s="86"/>
+      <c r="AN21" s="87"/>
+      <c r="AO21" s="87"/>
+      <c r="AP21" s="87"/>
+      <c r="AQ21" s="87"/>
+      <c r="AR21" s="87"/>
+      <c r="AS21" s="87"/>
+      <c r="AT21" s="87"/>
+      <c r="AU21" s="87"/>
+      <c r="AV21" s="87"/>
+      <c r="AW21" s="87"/>
+      <c r="AX21" s="87"/>
+      <c r="AY21" s="87"/>
+      <c r="AZ21" s="88"/>
     </row>
     <row r="22" spans="1:52">
       <c r="A22" s="9" t="str">
@@ -3914,56 +4855,56 @@
         <v/>
       </c>
       <c r="B22" s="10"/>
-      <c r="C22" s="83"/>
-      <c r="D22" s="84"/>
-      <c r="E22" s="84"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="86"/>
-      <c r="H22" s="87"/>
-      <c r="I22" s="87"/>
-      <c r="J22" s="87"/>
-      <c r="K22" s="88"/>
-      <c r="L22" s="89"/>
-      <c r="M22" s="90"/>
-      <c r="N22" s="90"/>
-      <c r="O22" s="90"/>
-      <c r="P22" s="91"/>
-      <c r="Q22" s="89"/>
-      <c r="R22" s="90"/>
-      <c r="S22" s="90"/>
-      <c r="T22" s="90"/>
-      <c r="U22" s="90"/>
-      <c r="V22" s="90"/>
-      <c r="W22" s="90"/>
-      <c r="X22" s="90"/>
-      <c r="Y22" s="90"/>
-      <c r="Z22" s="90"/>
-      <c r="AA22" s="90"/>
-      <c r="AB22" s="90"/>
-      <c r="AC22" s="90"/>
-      <c r="AD22" s="90"/>
-      <c r="AE22" s="90"/>
-      <c r="AF22" s="90"/>
-      <c r="AG22" s="90"/>
-      <c r="AH22" s="90"/>
-      <c r="AI22" s="90"/>
-      <c r="AJ22" s="90"/>
-      <c r="AK22" s="90"/>
-      <c r="AL22" s="91"/>
-      <c r="AM22" s="89"/>
-      <c r="AN22" s="90"/>
-      <c r="AO22" s="90"/>
-      <c r="AP22" s="90"/>
-      <c r="AQ22" s="90"/>
-      <c r="AR22" s="90"/>
-      <c r="AS22" s="90"/>
-      <c r="AT22" s="90"/>
-      <c r="AU22" s="90"/>
-      <c r="AV22" s="90"/>
-      <c r="AW22" s="90"/>
-      <c r="AX22" s="90"/>
-      <c r="AY22" s="90"/>
-      <c r="AZ22" s="91"/>
+      <c r="C22" s="89"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="91"/>
+      <c r="G22" s="83"/>
+      <c r="H22" s="84"/>
+      <c r="I22" s="84"/>
+      <c r="J22" s="84"/>
+      <c r="K22" s="85"/>
+      <c r="L22" s="86"/>
+      <c r="M22" s="87"/>
+      <c r="N22" s="87"/>
+      <c r="O22" s="87"/>
+      <c r="P22" s="88"/>
+      <c r="Q22" s="86"/>
+      <c r="R22" s="87"/>
+      <c r="S22" s="87"/>
+      <c r="T22" s="87"/>
+      <c r="U22" s="87"/>
+      <c r="V22" s="87"/>
+      <c r="W22" s="87"/>
+      <c r="X22" s="87"/>
+      <c r="Y22" s="87"/>
+      <c r="Z22" s="87"/>
+      <c r="AA22" s="87"/>
+      <c r="AB22" s="87"/>
+      <c r="AC22" s="87"/>
+      <c r="AD22" s="87"/>
+      <c r="AE22" s="87"/>
+      <c r="AF22" s="87"/>
+      <c r="AG22" s="87"/>
+      <c r="AH22" s="87"/>
+      <c r="AI22" s="87"/>
+      <c r="AJ22" s="87"/>
+      <c r="AK22" s="87"/>
+      <c r="AL22" s="88"/>
+      <c r="AM22" s="86"/>
+      <c r="AN22" s="87"/>
+      <c r="AO22" s="87"/>
+      <c r="AP22" s="87"/>
+      <c r="AQ22" s="87"/>
+      <c r="AR22" s="87"/>
+      <c r="AS22" s="87"/>
+      <c r="AT22" s="87"/>
+      <c r="AU22" s="87"/>
+      <c r="AV22" s="87"/>
+      <c r="AW22" s="87"/>
+      <c r="AX22" s="87"/>
+      <c r="AY22" s="87"/>
+      <c r="AZ22" s="88"/>
     </row>
     <row r="23" spans="1:52">
       <c r="A23" s="9" t="str">
@@ -3971,56 +4912,56 @@
         <v/>
       </c>
       <c r="B23" s="10"/>
-      <c r="C23" s="83"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="85"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="87"/>
-      <c r="I23" s="87"/>
-      <c r="J23" s="87"/>
-      <c r="K23" s="88"/>
-      <c r="L23" s="89"/>
-      <c r="M23" s="90"/>
-      <c r="N23" s="90"/>
-      <c r="O23" s="90"/>
-      <c r="P23" s="91"/>
-      <c r="Q23" s="89"/>
-      <c r="R23" s="90"/>
-      <c r="S23" s="90"/>
-      <c r="T23" s="90"/>
-      <c r="U23" s="90"/>
-      <c r="V23" s="90"/>
-      <c r="W23" s="90"/>
-      <c r="X23" s="90"/>
-      <c r="Y23" s="90"/>
-      <c r="Z23" s="90"/>
-      <c r="AA23" s="90"/>
-      <c r="AB23" s="90"/>
-      <c r="AC23" s="90"/>
-      <c r="AD23" s="90"/>
-      <c r="AE23" s="90"/>
-      <c r="AF23" s="90"/>
-      <c r="AG23" s="90"/>
-      <c r="AH23" s="90"/>
-      <c r="AI23" s="90"/>
-      <c r="AJ23" s="90"/>
-      <c r="AK23" s="90"/>
-      <c r="AL23" s="91"/>
-      <c r="AM23" s="89"/>
-      <c r="AN23" s="90"/>
-      <c r="AO23" s="90"/>
-      <c r="AP23" s="90"/>
-      <c r="AQ23" s="90"/>
-      <c r="AR23" s="90"/>
-      <c r="AS23" s="90"/>
-      <c r="AT23" s="90"/>
-      <c r="AU23" s="90"/>
-      <c r="AV23" s="90"/>
-      <c r="AW23" s="90"/>
-      <c r="AX23" s="90"/>
-      <c r="AY23" s="90"/>
-      <c r="AZ23" s="91"/>
+      <c r="C23" s="89"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="91"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="84"/>
+      <c r="I23" s="84"/>
+      <c r="J23" s="84"/>
+      <c r="K23" s="85"/>
+      <c r="L23" s="86"/>
+      <c r="M23" s="87"/>
+      <c r="N23" s="87"/>
+      <c r="O23" s="87"/>
+      <c r="P23" s="88"/>
+      <c r="Q23" s="86"/>
+      <c r="R23" s="87"/>
+      <c r="S23" s="87"/>
+      <c r="T23" s="87"/>
+      <c r="U23" s="87"/>
+      <c r="V23" s="87"/>
+      <c r="W23" s="87"/>
+      <c r="X23" s="87"/>
+      <c r="Y23" s="87"/>
+      <c r="Z23" s="87"/>
+      <c r="AA23" s="87"/>
+      <c r="AB23" s="87"/>
+      <c r="AC23" s="87"/>
+      <c r="AD23" s="87"/>
+      <c r="AE23" s="87"/>
+      <c r="AF23" s="87"/>
+      <c r="AG23" s="87"/>
+      <c r="AH23" s="87"/>
+      <c r="AI23" s="87"/>
+      <c r="AJ23" s="87"/>
+      <c r="AK23" s="87"/>
+      <c r="AL23" s="88"/>
+      <c r="AM23" s="86"/>
+      <c r="AN23" s="87"/>
+      <c r="AO23" s="87"/>
+      <c r="AP23" s="87"/>
+      <c r="AQ23" s="87"/>
+      <c r="AR23" s="87"/>
+      <c r="AS23" s="87"/>
+      <c r="AT23" s="87"/>
+      <c r="AU23" s="87"/>
+      <c r="AV23" s="87"/>
+      <c r="AW23" s="87"/>
+      <c r="AX23" s="87"/>
+      <c r="AY23" s="87"/>
+      <c r="AZ23" s="88"/>
     </row>
     <row r="24" spans="1:52">
       <c r="A24" s="9" t="str">
@@ -4028,56 +4969,56 @@
         <v/>
       </c>
       <c r="B24" s="10"/>
-      <c r="C24" s="83"/>
-      <c r="D24" s="84"/>
-      <c r="E24" s="84"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="87"/>
-      <c r="K24" s="88"/>
-      <c r="L24" s="89"/>
-      <c r="M24" s="90"/>
-      <c r="N24" s="90"/>
-      <c r="O24" s="90"/>
-      <c r="P24" s="91"/>
-      <c r="Q24" s="89"/>
-      <c r="R24" s="90"/>
-      <c r="S24" s="90"/>
-      <c r="T24" s="90"/>
-      <c r="U24" s="90"/>
-      <c r="V24" s="90"/>
-      <c r="W24" s="90"/>
-      <c r="X24" s="90"/>
-      <c r="Y24" s="90"/>
-      <c r="Z24" s="90"/>
-      <c r="AA24" s="90"/>
-      <c r="AB24" s="90"/>
-      <c r="AC24" s="90"/>
-      <c r="AD24" s="90"/>
-      <c r="AE24" s="90"/>
-      <c r="AF24" s="90"/>
-      <c r="AG24" s="90"/>
-      <c r="AH24" s="90"/>
-      <c r="AI24" s="90"/>
-      <c r="AJ24" s="90"/>
-      <c r="AK24" s="90"/>
-      <c r="AL24" s="91"/>
-      <c r="AM24" s="89"/>
-      <c r="AN24" s="90"/>
-      <c r="AO24" s="90"/>
-      <c r="AP24" s="90"/>
-      <c r="AQ24" s="90"/>
-      <c r="AR24" s="90"/>
-      <c r="AS24" s="90"/>
-      <c r="AT24" s="90"/>
-      <c r="AU24" s="90"/>
-      <c r="AV24" s="90"/>
-      <c r="AW24" s="90"/>
-      <c r="AX24" s="90"/>
-      <c r="AY24" s="90"/>
-      <c r="AZ24" s="91"/>
+      <c r="C24" s="89"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="91"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="84"/>
+      <c r="I24" s="84"/>
+      <c r="J24" s="84"/>
+      <c r="K24" s="85"/>
+      <c r="L24" s="86"/>
+      <c r="M24" s="87"/>
+      <c r="N24" s="87"/>
+      <c r="O24" s="87"/>
+      <c r="P24" s="88"/>
+      <c r="Q24" s="86"/>
+      <c r="R24" s="87"/>
+      <c r="S24" s="87"/>
+      <c r="T24" s="87"/>
+      <c r="U24" s="87"/>
+      <c r="V24" s="87"/>
+      <c r="W24" s="87"/>
+      <c r="X24" s="87"/>
+      <c r="Y24" s="87"/>
+      <c r="Z24" s="87"/>
+      <c r="AA24" s="87"/>
+      <c r="AB24" s="87"/>
+      <c r="AC24" s="87"/>
+      <c r="AD24" s="87"/>
+      <c r="AE24" s="87"/>
+      <c r="AF24" s="87"/>
+      <c r="AG24" s="87"/>
+      <c r="AH24" s="87"/>
+      <c r="AI24" s="87"/>
+      <c r="AJ24" s="87"/>
+      <c r="AK24" s="87"/>
+      <c r="AL24" s="88"/>
+      <c r="AM24" s="86"/>
+      <c r="AN24" s="87"/>
+      <c r="AO24" s="87"/>
+      <c r="AP24" s="87"/>
+      <c r="AQ24" s="87"/>
+      <c r="AR24" s="87"/>
+      <c r="AS24" s="87"/>
+      <c r="AT24" s="87"/>
+      <c r="AU24" s="87"/>
+      <c r="AV24" s="87"/>
+      <c r="AW24" s="87"/>
+      <c r="AX24" s="87"/>
+      <c r="AY24" s="87"/>
+      <c r="AZ24" s="88"/>
     </row>
     <row r="25" spans="1:52">
       <c r="A25" s="9" t="str">
@@ -4085,56 +5026,56 @@
         <v/>
       </c>
       <c r="B25" s="10"/>
-      <c r="C25" s="83"/>
-      <c r="D25" s="84"/>
-      <c r="E25" s="84"/>
-      <c r="F25" s="85"/>
-      <c r="G25" s="86"/>
-      <c r="H25" s="87"/>
-      <c r="I25" s="87"/>
-      <c r="J25" s="87"/>
-      <c r="K25" s="88"/>
-      <c r="L25" s="89"/>
-      <c r="M25" s="90"/>
-      <c r="N25" s="90"/>
-      <c r="O25" s="90"/>
-      <c r="P25" s="91"/>
-      <c r="Q25" s="89"/>
-      <c r="R25" s="90"/>
-      <c r="S25" s="90"/>
-      <c r="T25" s="90"/>
-      <c r="U25" s="90"/>
-      <c r="V25" s="90"/>
-      <c r="W25" s="90"/>
-      <c r="X25" s="90"/>
-      <c r="Y25" s="90"/>
-      <c r="Z25" s="90"/>
-      <c r="AA25" s="90"/>
-      <c r="AB25" s="90"/>
-      <c r="AC25" s="90"/>
-      <c r="AD25" s="90"/>
-      <c r="AE25" s="90"/>
-      <c r="AF25" s="90"/>
-      <c r="AG25" s="90"/>
-      <c r="AH25" s="90"/>
-      <c r="AI25" s="90"/>
-      <c r="AJ25" s="90"/>
-      <c r="AK25" s="90"/>
-      <c r="AL25" s="91"/>
-      <c r="AM25" s="89"/>
-      <c r="AN25" s="90"/>
-      <c r="AO25" s="90"/>
-      <c r="AP25" s="90"/>
-      <c r="AQ25" s="90"/>
-      <c r="AR25" s="90"/>
-      <c r="AS25" s="90"/>
-      <c r="AT25" s="90"/>
-      <c r="AU25" s="90"/>
-      <c r="AV25" s="90"/>
-      <c r="AW25" s="90"/>
-      <c r="AX25" s="90"/>
-      <c r="AY25" s="90"/>
-      <c r="AZ25" s="91"/>
+      <c r="C25" s="89"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="91"/>
+      <c r="G25" s="83"/>
+      <c r="H25" s="84"/>
+      <c r="I25" s="84"/>
+      <c r="J25" s="84"/>
+      <c r="K25" s="85"/>
+      <c r="L25" s="86"/>
+      <c r="M25" s="87"/>
+      <c r="N25" s="87"/>
+      <c r="O25" s="87"/>
+      <c r="P25" s="88"/>
+      <c r="Q25" s="86"/>
+      <c r="R25" s="87"/>
+      <c r="S25" s="87"/>
+      <c r="T25" s="87"/>
+      <c r="U25" s="87"/>
+      <c r="V25" s="87"/>
+      <c r="W25" s="87"/>
+      <c r="X25" s="87"/>
+      <c r="Y25" s="87"/>
+      <c r="Z25" s="87"/>
+      <c r="AA25" s="87"/>
+      <c r="AB25" s="87"/>
+      <c r="AC25" s="87"/>
+      <c r="AD25" s="87"/>
+      <c r="AE25" s="87"/>
+      <c r="AF25" s="87"/>
+      <c r="AG25" s="87"/>
+      <c r="AH25" s="87"/>
+      <c r="AI25" s="87"/>
+      <c r="AJ25" s="87"/>
+      <c r="AK25" s="87"/>
+      <c r="AL25" s="88"/>
+      <c r="AM25" s="86"/>
+      <c r="AN25" s="87"/>
+      <c r="AO25" s="87"/>
+      <c r="AP25" s="87"/>
+      <c r="AQ25" s="87"/>
+      <c r="AR25" s="87"/>
+      <c r="AS25" s="87"/>
+      <c r="AT25" s="87"/>
+      <c r="AU25" s="87"/>
+      <c r="AV25" s="87"/>
+      <c r="AW25" s="87"/>
+      <c r="AX25" s="87"/>
+      <c r="AY25" s="87"/>
+      <c r="AZ25" s="88"/>
     </row>
     <row r="26" spans="1:52">
       <c r="A26" s="9" t="str">
@@ -4142,56 +5083,56 @@
         <v/>
       </c>
       <c r="B26" s="10"/>
-      <c r="C26" s="83"/>
-      <c r="D26" s="84"/>
-      <c r="E26" s="84"/>
-      <c r="F26" s="85"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="87"/>
-      <c r="I26" s="87"/>
-      <c r="J26" s="87"/>
-      <c r="K26" s="88"/>
-      <c r="L26" s="89"/>
-      <c r="M26" s="90"/>
-      <c r="N26" s="90"/>
-      <c r="O26" s="90"/>
-      <c r="P26" s="91"/>
-      <c r="Q26" s="89"/>
-      <c r="R26" s="90"/>
-      <c r="S26" s="90"/>
-      <c r="T26" s="90"/>
-      <c r="U26" s="90"/>
-      <c r="V26" s="90"/>
-      <c r="W26" s="90"/>
-      <c r="X26" s="90"/>
-      <c r="Y26" s="90"/>
-      <c r="Z26" s="90"/>
-      <c r="AA26" s="90"/>
-      <c r="AB26" s="90"/>
-      <c r="AC26" s="90"/>
-      <c r="AD26" s="90"/>
-      <c r="AE26" s="90"/>
-      <c r="AF26" s="90"/>
-      <c r="AG26" s="90"/>
-      <c r="AH26" s="90"/>
-      <c r="AI26" s="90"/>
-      <c r="AJ26" s="90"/>
-      <c r="AK26" s="90"/>
-      <c r="AL26" s="91"/>
-      <c r="AM26" s="89"/>
-      <c r="AN26" s="90"/>
-      <c r="AO26" s="90"/>
-      <c r="AP26" s="90"/>
-      <c r="AQ26" s="90"/>
-      <c r="AR26" s="90"/>
-      <c r="AS26" s="90"/>
-      <c r="AT26" s="90"/>
-      <c r="AU26" s="90"/>
-      <c r="AV26" s="90"/>
-      <c r="AW26" s="90"/>
-      <c r="AX26" s="90"/>
-      <c r="AY26" s="90"/>
-      <c r="AZ26" s="91"/>
+      <c r="C26" s="89"/>
+      <c r="D26" s="90"/>
+      <c r="E26" s="90"/>
+      <c r="F26" s="91"/>
+      <c r="G26" s="83"/>
+      <c r="H26" s="84"/>
+      <c r="I26" s="84"/>
+      <c r="J26" s="84"/>
+      <c r="K26" s="85"/>
+      <c r="L26" s="86"/>
+      <c r="M26" s="87"/>
+      <c r="N26" s="87"/>
+      <c r="O26" s="87"/>
+      <c r="P26" s="88"/>
+      <c r="Q26" s="86"/>
+      <c r="R26" s="87"/>
+      <c r="S26" s="87"/>
+      <c r="T26" s="87"/>
+      <c r="U26" s="87"/>
+      <c r="V26" s="87"/>
+      <c r="W26" s="87"/>
+      <c r="X26" s="87"/>
+      <c r="Y26" s="87"/>
+      <c r="Z26" s="87"/>
+      <c r="AA26" s="87"/>
+      <c r="AB26" s="87"/>
+      <c r="AC26" s="87"/>
+      <c r="AD26" s="87"/>
+      <c r="AE26" s="87"/>
+      <c r="AF26" s="87"/>
+      <c r="AG26" s="87"/>
+      <c r="AH26" s="87"/>
+      <c r="AI26" s="87"/>
+      <c r="AJ26" s="87"/>
+      <c r="AK26" s="87"/>
+      <c r="AL26" s="88"/>
+      <c r="AM26" s="86"/>
+      <c r="AN26" s="87"/>
+      <c r="AO26" s="87"/>
+      <c r="AP26" s="87"/>
+      <c r="AQ26" s="87"/>
+      <c r="AR26" s="87"/>
+      <c r="AS26" s="87"/>
+      <c r="AT26" s="87"/>
+      <c r="AU26" s="87"/>
+      <c r="AV26" s="87"/>
+      <c r="AW26" s="87"/>
+      <c r="AX26" s="87"/>
+      <c r="AY26" s="87"/>
+      <c r="AZ26" s="88"/>
     </row>
     <row r="27" spans="1:52">
       <c r="A27" s="9" t="str">
@@ -4199,56 +5140,56 @@
         <v/>
       </c>
       <c r="B27" s="10"/>
-      <c r="C27" s="83"/>
-      <c r="D27" s="84"/>
-      <c r="E27" s="84"/>
-      <c r="F27" s="85"/>
-      <c r="G27" s="86"/>
-      <c r="H27" s="87"/>
-      <c r="I27" s="87"/>
-      <c r="J27" s="87"/>
-      <c r="K27" s="88"/>
-      <c r="L27" s="89"/>
-      <c r="M27" s="90"/>
-      <c r="N27" s="90"/>
-      <c r="O27" s="90"/>
-      <c r="P27" s="91"/>
-      <c r="Q27" s="89"/>
-      <c r="R27" s="90"/>
-      <c r="S27" s="90"/>
-      <c r="T27" s="90"/>
-      <c r="U27" s="90"/>
-      <c r="V27" s="90"/>
-      <c r="W27" s="90"/>
-      <c r="X27" s="90"/>
-      <c r="Y27" s="90"/>
-      <c r="Z27" s="90"/>
-      <c r="AA27" s="90"/>
-      <c r="AB27" s="90"/>
-      <c r="AC27" s="90"/>
-      <c r="AD27" s="90"/>
-      <c r="AE27" s="90"/>
-      <c r="AF27" s="90"/>
-      <c r="AG27" s="90"/>
-      <c r="AH27" s="90"/>
-      <c r="AI27" s="90"/>
-      <c r="AJ27" s="90"/>
-      <c r="AK27" s="90"/>
-      <c r="AL27" s="91"/>
-      <c r="AM27" s="89"/>
-      <c r="AN27" s="90"/>
-      <c r="AO27" s="90"/>
-      <c r="AP27" s="90"/>
-      <c r="AQ27" s="90"/>
-      <c r="AR27" s="90"/>
-      <c r="AS27" s="90"/>
-      <c r="AT27" s="90"/>
-      <c r="AU27" s="90"/>
-      <c r="AV27" s="90"/>
-      <c r="AW27" s="90"/>
-      <c r="AX27" s="90"/>
-      <c r="AY27" s="90"/>
-      <c r="AZ27" s="91"/>
+      <c r="C27" s="89"/>
+      <c r="D27" s="90"/>
+      <c r="E27" s="90"/>
+      <c r="F27" s="91"/>
+      <c r="G27" s="83"/>
+      <c r="H27" s="84"/>
+      <c r="I27" s="84"/>
+      <c r="J27" s="84"/>
+      <c r="K27" s="85"/>
+      <c r="L27" s="86"/>
+      <c r="M27" s="87"/>
+      <c r="N27" s="87"/>
+      <c r="O27" s="87"/>
+      <c r="P27" s="88"/>
+      <c r="Q27" s="86"/>
+      <c r="R27" s="87"/>
+      <c r="S27" s="87"/>
+      <c r="T27" s="87"/>
+      <c r="U27" s="87"/>
+      <c r="V27" s="87"/>
+      <c r="W27" s="87"/>
+      <c r="X27" s="87"/>
+      <c r="Y27" s="87"/>
+      <c r="Z27" s="87"/>
+      <c r="AA27" s="87"/>
+      <c r="AB27" s="87"/>
+      <c r="AC27" s="87"/>
+      <c r="AD27" s="87"/>
+      <c r="AE27" s="87"/>
+      <c r="AF27" s="87"/>
+      <c r="AG27" s="87"/>
+      <c r="AH27" s="87"/>
+      <c r="AI27" s="87"/>
+      <c r="AJ27" s="87"/>
+      <c r="AK27" s="87"/>
+      <c r="AL27" s="88"/>
+      <c r="AM27" s="86"/>
+      <c r="AN27" s="87"/>
+      <c r="AO27" s="87"/>
+      <c r="AP27" s="87"/>
+      <c r="AQ27" s="87"/>
+      <c r="AR27" s="87"/>
+      <c r="AS27" s="87"/>
+      <c r="AT27" s="87"/>
+      <c r="AU27" s="87"/>
+      <c r="AV27" s="87"/>
+      <c r="AW27" s="87"/>
+      <c r="AX27" s="87"/>
+      <c r="AY27" s="87"/>
+      <c r="AZ27" s="88"/>
     </row>
     <row r="28" spans="1:52">
       <c r="A28" s="9" t="str">
@@ -4256,56 +5197,56 @@
         <v/>
       </c>
       <c r="B28" s="10"/>
-      <c r="C28" s="83"/>
-      <c r="D28" s="84"/>
-      <c r="E28" s="84"/>
-      <c r="F28" s="85"/>
-      <c r="G28" s="86"/>
-      <c r="H28" s="87"/>
-      <c r="I28" s="87"/>
-      <c r="J28" s="87"/>
-      <c r="K28" s="88"/>
-      <c r="L28" s="89"/>
-      <c r="M28" s="90"/>
-      <c r="N28" s="90"/>
-      <c r="O28" s="90"/>
-      <c r="P28" s="91"/>
-      <c r="Q28" s="89"/>
-      <c r="R28" s="90"/>
-      <c r="S28" s="90"/>
-      <c r="T28" s="90"/>
-      <c r="U28" s="90"/>
-      <c r="V28" s="90"/>
-      <c r="W28" s="90"/>
-      <c r="X28" s="90"/>
-      <c r="Y28" s="90"/>
-      <c r="Z28" s="90"/>
-      <c r="AA28" s="90"/>
-      <c r="AB28" s="90"/>
-      <c r="AC28" s="90"/>
-      <c r="AD28" s="90"/>
-      <c r="AE28" s="90"/>
-      <c r="AF28" s="90"/>
-      <c r="AG28" s="90"/>
-      <c r="AH28" s="90"/>
-      <c r="AI28" s="90"/>
-      <c r="AJ28" s="90"/>
-      <c r="AK28" s="90"/>
-      <c r="AL28" s="91"/>
-      <c r="AM28" s="89"/>
-      <c r="AN28" s="90"/>
-      <c r="AO28" s="90"/>
-      <c r="AP28" s="90"/>
-      <c r="AQ28" s="90"/>
-      <c r="AR28" s="90"/>
-      <c r="AS28" s="90"/>
-      <c r="AT28" s="90"/>
-      <c r="AU28" s="90"/>
-      <c r="AV28" s="90"/>
-      <c r="AW28" s="90"/>
-      <c r="AX28" s="90"/>
-      <c r="AY28" s="90"/>
-      <c r="AZ28" s="91"/>
+      <c r="C28" s="89"/>
+      <c r="D28" s="90"/>
+      <c r="E28" s="90"/>
+      <c r="F28" s="91"/>
+      <c r="G28" s="83"/>
+      <c r="H28" s="84"/>
+      <c r="I28" s="84"/>
+      <c r="J28" s="84"/>
+      <c r="K28" s="85"/>
+      <c r="L28" s="86"/>
+      <c r="M28" s="87"/>
+      <c r="N28" s="87"/>
+      <c r="O28" s="87"/>
+      <c r="P28" s="88"/>
+      <c r="Q28" s="86"/>
+      <c r="R28" s="87"/>
+      <c r="S28" s="87"/>
+      <c r="T28" s="87"/>
+      <c r="U28" s="87"/>
+      <c r="V28" s="87"/>
+      <c r="W28" s="87"/>
+      <c r="X28" s="87"/>
+      <c r="Y28" s="87"/>
+      <c r="Z28" s="87"/>
+      <c r="AA28" s="87"/>
+      <c r="AB28" s="87"/>
+      <c r="AC28" s="87"/>
+      <c r="AD28" s="87"/>
+      <c r="AE28" s="87"/>
+      <c r="AF28" s="87"/>
+      <c r="AG28" s="87"/>
+      <c r="AH28" s="87"/>
+      <c r="AI28" s="87"/>
+      <c r="AJ28" s="87"/>
+      <c r="AK28" s="87"/>
+      <c r="AL28" s="88"/>
+      <c r="AM28" s="86"/>
+      <c r="AN28" s="87"/>
+      <c r="AO28" s="87"/>
+      <c r="AP28" s="87"/>
+      <c r="AQ28" s="87"/>
+      <c r="AR28" s="87"/>
+      <c r="AS28" s="87"/>
+      <c r="AT28" s="87"/>
+      <c r="AU28" s="87"/>
+      <c r="AV28" s="87"/>
+      <c r="AW28" s="87"/>
+      <c r="AX28" s="87"/>
+      <c r="AY28" s="87"/>
+      <c r="AZ28" s="88"/>
     </row>
     <row r="29" spans="1:52">
       <c r="A29" s="9" t="str">
@@ -4313,56 +5254,56 @@
         <v/>
       </c>
       <c r="B29" s="10"/>
-      <c r="C29" s="83"/>
-      <c r="D29" s="84"/>
-      <c r="E29" s="84"/>
-      <c r="F29" s="85"/>
-      <c r="G29" s="86"/>
-      <c r="H29" s="87"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="87"/>
-      <c r="K29" s="88"/>
-      <c r="L29" s="89"/>
-      <c r="M29" s="90"/>
-      <c r="N29" s="90"/>
-      <c r="O29" s="90"/>
-      <c r="P29" s="91"/>
-      <c r="Q29" s="89"/>
-      <c r="R29" s="90"/>
-      <c r="S29" s="90"/>
-      <c r="T29" s="90"/>
-      <c r="U29" s="90"/>
-      <c r="V29" s="90"/>
-      <c r="W29" s="90"/>
-      <c r="X29" s="90"/>
-      <c r="Y29" s="90"/>
-      <c r="Z29" s="90"/>
-      <c r="AA29" s="90"/>
-      <c r="AB29" s="90"/>
-      <c r="AC29" s="90"/>
-      <c r="AD29" s="90"/>
-      <c r="AE29" s="90"/>
-      <c r="AF29" s="90"/>
-      <c r="AG29" s="90"/>
-      <c r="AH29" s="90"/>
-      <c r="AI29" s="90"/>
-      <c r="AJ29" s="90"/>
-      <c r="AK29" s="90"/>
-      <c r="AL29" s="91"/>
-      <c r="AM29" s="89"/>
-      <c r="AN29" s="90"/>
-      <c r="AO29" s="90"/>
-      <c r="AP29" s="90"/>
-      <c r="AQ29" s="90"/>
-      <c r="AR29" s="90"/>
-      <c r="AS29" s="90"/>
-      <c r="AT29" s="90"/>
-      <c r="AU29" s="90"/>
-      <c r="AV29" s="90"/>
-      <c r="AW29" s="90"/>
-      <c r="AX29" s="90"/>
-      <c r="AY29" s="90"/>
-      <c r="AZ29" s="91"/>
+      <c r="C29" s="89"/>
+      <c r="D29" s="90"/>
+      <c r="E29" s="90"/>
+      <c r="F29" s="91"/>
+      <c r="G29" s="83"/>
+      <c r="H29" s="84"/>
+      <c r="I29" s="84"/>
+      <c r="J29" s="84"/>
+      <c r="K29" s="85"/>
+      <c r="L29" s="86"/>
+      <c r="M29" s="87"/>
+      <c r="N29" s="87"/>
+      <c r="O29" s="87"/>
+      <c r="P29" s="88"/>
+      <c r="Q29" s="86"/>
+      <c r="R29" s="87"/>
+      <c r="S29" s="87"/>
+      <c r="T29" s="87"/>
+      <c r="U29" s="87"/>
+      <c r="V29" s="87"/>
+      <c r="W29" s="87"/>
+      <c r="X29" s="87"/>
+      <c r="Y29" s="87"/>
+      <c r="Z29" s="87"/>
+      <c r="AA29" s="87"/>
+      <c r="AB29" s="87"/>
+      <c r="AC29" s="87"/>
+      <c r="AD29" s="87"/>
+      <c r="AE29" s="87"/>
+      <c r="AF29" s="87"/>
+      <c r="AG29" s="87"/>
+      <c r="AH29" s="87"/>
+      <c r="AI29" s="87"/>
+      <c r="AJ29" s="87"/>
+      <c r="AK29" s="87"/>
+      <c r="AL29" s="88"/>
+      <c r="AM29" s="86"/>
+      <c r="AN29" s="87"/>
+      <c r="AO29" s="87"/>
+      <c r="AP29" s="87"/>
+      <c r="AQ29" s="87"/>
+      <c r="AR29" s="87"/>
+      <c r="AS29" s="87"/>
+      <c r="AT29" s="87"/>
+      <c r="AU29" s="87"/>
+      <c r="AV29" s="87"/>
+      <c r="AW29" s="87"/>
+      <c r="AX29" s="87"/>
+      <c r="AY29" s="87"/>
+      <c r="AZ29" s="88"/>
     </row>
     <row r="30" spans="1:52">
       <c r="A30" s="9" t="str">
@@ -4370,56 +5311,56 @@
         <v/>
       </c>
       <c r="B30" s="10"/>
-      <c r="C30" s="83"/>
-      <c r="D30" s="84"/>
-      <c r="E30" s="84"/>
-      <c r="F30" s="85"/>
-      <c r="G30" s="86"/>
-      <c r="H30" s="87"/>
-      <c r="I30" s="87"/>
-      <c r="J30" s="87"/>
-      <c r="K30" s="88"/>
-      <c r="L30" s="89"/>
-      <c r="M30" s="90"/>
-      <c r="N30" s="90"/>
-      <c r="O30" s="90"/>
-      <c r="P30" s="91"/>
-      <c r="Q30" s="89"/>
-      <c r="R30" s="90"/>
-      <c r="S30" s="90"/>
-      <c r="T30" s="90"/>
-      <c r="U30" s="90"/>
-      <c r="V30" s="90"/>
-      <c r="W30" s="90"/>
-      <c r="X30" s="90"/>
-      <c r="Y30" s="90"/>
-      <c r="Z30" s="90"/>
-      <c r="AA30" s="90"/>
-      <c r="AB30" s="90"/>
-      <c r="AC30" s="90"/>
-      <c r="AD30" s="90"/>
-      <c r="AE30" s="90"/>
-      <c r="AF30" s="90"/>
-      <c r="AG30" s="90"/>
-      <c r="AH30" s="90"/>
-      <c r="AI30" s="90"/>
-      <c r="AJ30" s="90"/>
-      <c r="AK30" s="90"/>
-      <c r="AL30" s="91"/>
-      <c r="AM30" s="89"/>
-      <c r="AN30" s="90"/>
-      <c r="AO30" s="90"/>
-      <c r="AP30" s="90"/>
-      <c r="AQ30" s="90"/>
-      <c r="AR30" s="90"/>
-      <c r="AS30" s="90"/>
-      <c r="AT30" s="90"/>
-      <c r="AU30" s="90"/>
-      <c r="AV30" s="90"/>
-      <c r="AW30" s="90"/>
-      <c r="AX30" s="90"/>
-      <c r="AY30" s="90"/>
-      <c r="AZ30" s="91"/>
+      <c r="C30" s="89"/>
+      <c r="D30" s="90"/>
+      <c r="E30" s="90"/>
+      <c r="F30" s="91"/>
+      <c r="G30" s="83"/>
+      <c r="H30" s="84"/>
+      <c r="I30" s="84"/>
+      <c r="J30" s="84"/>
+      <c r="K30" s="85"/>
+      <c r="L30" s="86"/>
+      <c r="M30" s="87"/>
+      <c r="N30" s="87"/>
+      <c r="O30" s="87"/>
+      <c r="P30" s="88"/>
+      <c r="Q30" s="86"/>
+      <c r="R30" s="87"/>
+      <c r="S30" s="87"/>
+      <c r="T30" s="87"/>
+      <c r="U30" s="87"/>
+      <c r="V30" s="87"/>
+      <c r="W30" s="87"/>
+      <c r="X30" s="87"/>
+      <c r="Y30" s="87"/>
+      <c r="Z30" s="87"/>
+      <c r="AA30" s="87"/>
+      <c r="AB30" s="87"/>
+      <c r="AC30" s="87"/>
+      <c r="AD30" s="87"/>
+      <c r="AE30" s="87"/>
+      <c r="AF30" s="87"/>
+      <c r="AG30" s="87"/>
+      <c r="AH30" s="87"/>
+      <c r="AI30" s="87"/>
+      <c r="AJ30" s="87"/>
+      <c r="AK30" s="87"/>
+      <c r="AL30" s="88"/>
+      <c r="AM30" s="86"/>
+      <c r="AN30" s="87"/>
+      <c r="AO30" s="87"/>
+      <c r="AP30" s="87"/>
+      <c r="AQ30" s="87"/>
+      <c r="AR30" s="87"/>
+      <c r="AS30" s="87"/>
+      <c r="AT30" s="87"/>
+      <c r="AU30" s="87"/>
+      <c r="AV30" s="87"/>
+      <c r="AW30" s="87"/>
+      <c r="AX30" s="87"/>
+      <c r="AY30" s="87"/>
+      <c r="AZ30" s="88"/>
     </row>
     <row r="31" spans="1:52">
       <c r="A31" s="9" t="str">
@@ -4427,56 +5368,56 @@
         <v/>
       </c>
       <c r="B31" s="10"/>
-      <c r="C31" s="83"/>
-      <c r="D31" s="84"/>
-      <c r="E31" s="84"/>
-      <c r="F31" s="85"/>
-      <c r="G31" s="86"/>
-      <c r="H31" s="87"/>
-      <c r="I31" s="87"/>
-      <c r="J31" s="87"/>
-      <c r="K31" s="88"/>
-      <c r="L31" s="89"/>
-      <c r="M31" s="90"/>
-      <c r="N31" s="90"/>
-      <c r="O31" s="90"/>
-      <c r="P31" s="91"/>
-      <c r="Q31" s="89"/>
-      <c r="R31" s="90"/>
-      <c r="S31" s="90"/>
-      <c r="T31" s="90"/>
-      <c r="U31" s="90"/>
-      <c r="V31" s="90"/>
-      <c r="W31" s="90"/>
-      <c r="X31" s="90"/>
-      <c r="Y31" s="90"/>
-      <c r="Z31" s="90"/>
-      <c r="AA31" s="90"/>
-      <c r="AB31" s="90"/>
-      <c r="AC31" s="90"/>
-      <c r="AD31" s="90"/>
-      <c r="AE31" s="90"/>
-      <c r="AF31" s="90"/>
-      <c r="AG31" s="90"/>
-      <c r="AH31" s="90"/>
-      <c r="AI31" s="90"/>
-      <c r="AJ31" s="90"/>
-      <c r="AK31" s="90"/>
-      <c r="AL31" s="91"/>
-      <c r="AM31" s="89"/>
-      <c r="AN31" s="90"/>
-      <c r="AO31" s="90"/>
-      <c r="AP31" s="90"/>
-      <c r="AQ31" s="90"/>
-      <c r="AR31" s="90"/>
-      <c r="AS31" s="90"/>
-      <c r="AT31" s="90"/>
-      <c r="AU31" s="90"/>
-      <c r="AV31" s="90"/>
-      <c r="AW31" s="90"/>
-      <c r="AX31" s="90"/>
-      <c r="AY31" s="90"/>
-      <c r="AZ31" s="91"/>
+      <c r="C31" s="89"/>
+      <c r="D31" s="90"/>
+      <c r="E31" s="90"/>
+      <c r="F31" s="91"/>
+      <c r="G31" s="83"/>
+      <c r="H31" s="84"/>
+      <c r="I31" s="84"/>
+      <c r="J31" s="84"/>
+      <c r="K31" s="85"/>
+      <c r="L31" s="86"/>
+      <c r="M31" s="87"/>
+      <c r="N31" s="87"/>
+      <c r="O31" s="87"/>
+      <c r="P31" s="88"/>
+      <c r="Q31" s="86"/>
+      <c r="R31" s="87"/>
+      <c r="S31" s="87"/>
+      <c r="T31" s="87"/>
+      <c r="U31" s="87"/>
+      <c r="V31" s="87"/>
+      <c r="W31" s="87"/>
+      <c r="X31" s="87"/>
+      <c r="Y31" s="87"/>
+      <c r="Z31" s="87"/>
+      <c r="AA31" s="87"/>
+      <c r="AB31" s="87"/>
+      <c r="AC31" s="87"/>
+      <c r="AD31" s="87"/>
+      <c r="AE31" s="87"/>
+      <c r="AF31" s="87"/>
+      <c r="AG31" s="87"/>
+      <c r="AH31" s="87"/>
+      <c r="AI31" s="87"/>
+      <c r="AJ31" s="87"/>
+      <c r="AK31" s="87"/>
+      <c r="AL31" s="88"/>
+      <c r="AM31" s="86"/>
+      <c r="AN31" s="87"/>
+      <c r="AO31" s="87"/>
+      <c r="AP31" s="87"/>
+      <c r="AQ31" s="87"/>
+      <c r="AR31" s="87"/>
+      <c r="AS31" s="87"/>
+      <c r="AT31" s="87"/>
+      <c r="AU31" s="87"/>
+      <c r="AV31" s="87"/>
+      <c r="AW31" s="87"/>
+      <c r="AX31" s="87"/>
+      <c r="AY31" s="87"/>
+      <c r="AZ31" s="88"/>
     </row>
     <row r="32" spans="1:52">
       <c r="A32" s="9" t="str">
@@ -4484,56 +5425,56 @@
         <v/>
       </c>
       <c r="B32" s="10"/>
-      <c r="C32" s="83"/>
-      <c r="D32" s="84"/>
-      <c r="E32" s="84"/>
-      <c r="F32" s="85"/>
-      <c r="G32" s="86"/>
-      <c r="H32" s="87"/>
-      <c r="I32" s="87"/>
-      <c r="J32" s="87"/>
-      <c r="K32" s="88"/>
-      <c r="L32" s="89"/>
-      <c r="M32" s="90"/>
-      <c r="N32" s="90"/>
-      <c r="O32" s="90"/>
-      <c r="P32" s="91"/>
-      <c r="Q32" s="89"/>
-      <c r="R32" s="90"/>
-      <c r="S32" s="90"/>
-      <c r="T32" s="90"/>
-      <c r="U32" s="90"/>
-      <c r="V32" s="90"/>
-      <c r="W32" s="90"/>
-      <c r="X32" s="90"/>
-      <c r="Y32" s="90"/>
-      <c r="Z32" s="90"/>
-      <c r="AA32" s="90"/>
-      <c r="AB32" s="90"/>
-      <c r="AC32" s="90"/>
-      <c r="AD32" s="90"/>
-      <c r="AE32" s="90"/>
-      <c r="AF32" s="90"/>
-      <c r="AG32" s="90"/>
-      <c r="AH32" s="90"/>
-      <c r="AI32" s="90"/>
-      <c r="AJ32" s="90"/>
-      <c r="AK32" s="90"/>
-      <c r="AL32" s="91"/>
-      <c r="AM32" s="89"/>
-      <c r="AN32" s="90"/>
-      <c r="AO32" s="90"/>
-      <c r="AP32" s="90"/>
-      <c r="AQ32" s="90"/>
-      <c r="AR32" s="90"/>
-      <c r="AS32" s="90"/>
-      <c r="AT32" s="90"/>
-      <c r="AU32" s="90"/>
-      <c r="AV32" s="90"/>
-      <c r="AW32" s="90"/>
-      <c r="AX32" s="90"/>
-      <c r="AY32" s="90"/>
-      <c r="AZ32" s="91"/>
+      <c r="C32" s="89"/>
+      <c r="D32" s="90"/>
+      <c r="E32" s="90"/>
+      <c r="F32" s="91"/>
+      <c r="G32" s="83"/>
+      <c r="H32" s="84"/>
+      <c r="I32" s="84"/>
+      <c r="J32" s="84"/>
+      <c r="K32" s="85"/>
+      <c r="L32" s="86"/>
+      <c r="M32" s="87"/>
+      <c r="N32" s="87"/>
+      <c r="O32" s="87"/>
+      <c r="P32" s="88"/>
+      <c r="Q32" s="86"/>
+      <c r="R32" s="87"/>
+      <c r="S32" s="87"/>
+      <c r="T32" s="87"/>
+      <c r="U32" s="87"/>
+      <c r="V32" s="87"/>
+      <c r="W32" s="87"/>
+      <c r="X32" s="87"/>
+      <c r="Y32" s="87"/>
+      <c r="Z32" s="87"/>
+      <c r="AA32" s="87"/>
+      <c r="AB32" s="87"/>
+      <c r="AC32" s="87"/>
+      <c r="AD32" s="87"/>
+      <c r="AE32" s="87"/>
+      <c r="AF32" s="87"/>
+      <c r="AG32" s="87"/>
+      <c r="AH32" s="87"/>
+      <c r="AI32" s="87"/>
+      <c r="AJ32" s="87"/>
+      <c r="AK32" s="87"/>
+      <c r="AL32" s="88"/>
+      <c r="AM32" s="86"/>
+      <c r="AN32" s="87"/>
+      <c r="AO32" s="87"/>
+      <c r="AP32" s="87"/>
+      <c r="AQ32" s="87"/>
+      <c r="AR32" s="87"/>
+      <c r="AS32" s="87"/>
+      <c r="AT32" s="87"/>
+      <c r="AU32" s="87"/>
+      <c r="AV32" s="87"/>
+      <c r="AW32" s="87"/>
+      <c r="AX32" s="87"/>
+      <c r="AY32" s="87"/>
+      <c r="AZ32" s="88"/>
     </row>
     <row r="33" spans="1:52">
       <c r="A33" s="9" t="str">
@@ -4541,56 +5482,56 @@
         <v/>
       </c>
       <c r="B33" s="10"/>
-      <c r="C33" s="83"/>
-      <c r="D33" s="84"/>
-      <c r="E33" s="84"/>
-      <c r="F33" s="85"/>
-      <c r="G33" s="86"/>
-      <c r="H33" s="87"/>
-      <c r="I33" s="87"/>
-      <c r="J33" s="87"/>
-      <c r="K33" s="88"/>
-      <c r="L33" s="89"/>
-      <c r="M33" s="90"/>
-      <c r="N33" s="90"/>
-      <c r="O33" s="90"/>
-      <c r="P33" s="91"/>
-      <c r="Q33" s="89"/>
-      <c r="R33" s="90"/>
-      <c r="S33" s="90"/>
-      <c r="T33" s="90"/>
-      <c r="U33" s="90"/>
-      <c r="V33" s="90"/>
-      <c r="W33" s="90"/>
-      <c r="X33" s="90"/>
-      <c r="Y33" s="90"/>
-      <c r="Z33" s="90"/>
-      <c r="AA33" s="90"/>
-      <c r="AB33" s="90"/>
-      <c r="AC33" s="90"/>
-      <c r="AD33" s="90"/>
-      <c r="AE33" s="90"/>
-      <c r="AF33" s="90"/>
-      <c r="AG33" s="90"/>
-      <c r="AH33" s="90"/>
-      <c r="AI33" s="90"/>
-      <c r="AJ33" s="90"/>
-      <c r="AK33" s="90"/>
-      <c r="AL33" s="91"/>
-      <c r="AM33" s="89"/>
-      <c r="AN33" s="90"/>
-      <c r="AO33" s="90"/>
-      <c r="AP33" s="90"/>
-      <c r="AQ33" s="90"/>
-      <c r="AR33" s="90"/>
-      <c r="AS33" s="90"/>
-      <c r="AT33" s="90"/>
-      <c r="AU33" s="90"/>
-      <c r="AV33" s="90"/>
-      <c r="AW33" s="90"/>
-      <c r="AX33" s="90"/>
-      <c r="AY33" s="90"/>
-      <c r="AZ33" s="91"/>
+      <c r="C33" s="89"/>
+      <c r="D33" s="90"/>
+      <c r="E33" s="90"/>
+      <c r="F33" s="91"/>
+      <c r="G33" s="83"/>
+      <c r="H33" s="84"/>
+      <c r="I33" s="84"/>
+      <c r="J33" s="84"/>
+      <c r="K33" s="85"/>
+      <c r="L33" s="86"/>
+      <c r="M33" s="87"/>
+      <c r="N33" s="87"/>
+      <c r="O33" s="87"/>
+      <c r="P33" s="88"/>
+      <c r="Q33" s="86"/>
+      <c r="R33" s="87"/>
+      <c r="S33" s="87"/>
+      <c r="T33" s="87"/>
+      <c r="U33" s="87"/>
+      <c r="V33" s="87"/>
+      <c r="W33" s="87"/>
+      <c r="X33" s="87"/>
+      <c r="Y33" s="87"/>
+      <c r="Z33" s="87"/>
+      <c r="AA33" s="87"/>
+      <c r="AB33" s="87"/>
+      <c r="AC33" s="87"/>
+      <c r="AD33" s="87"/>
+      <c r="AE33" s="87"/>
+      <c r="AF33" s="87"/>
+      <c r="AG33" s="87"/>
+      <c r="AH33" s="87"/>
+      <c r="AI33" s="87"/>
+      <c r="AJ33" s="87"/>
+      <c r="AK33" s="87"/>
+      <c r="AL33" s="88"/>
+      <c r="AM33" s="86"/>
+      <c r="AN33" s="87"/>
+      <c r="AO33" s="87"/>
+      <c r="AP33" s="87"/>
+      <c r="AQ33" s="87"/>
+      <c r="AR33" s="87"/>
+      <c r="AS33" s="87"/>
+      <c r="AT33" s="87"/>
+      <c r="AU33" s="87"/>
+      <c r="AV33" s="87"/>
+      <c r="AW33" s="87"/>
+      <c r="AX33" s="87"/>
+      <c r="AY33" s="87"/>
+      <c r="AZ33" s="88"/>
     </row>
     <row r="34" spans="1:52">
       <c r="A34" s="9" t="str">
@@ -4598,56 +5539,56 @@
         <v/>
       </c>
       <c r="B34" s="10"/>
-      <c r="C34" s="83"/>
-      <c r="D34" s="84"/>
-      <c r="E34" s="84"/>
-      <c r="F34" s="85"/>
-      <c r="G34" s="86"/>
-      <c r="H34" s="87"/>
-      <c r="I34" s="87"/>
-      <c r="J34" s="87"/>
-      <c r="K34" s="88"/>
-      <c r="L34" s="89"/>
-      <c r="M34" s="90"/>
-      <c r="N34" s="90"/>
-      <c r="O34" s="90"/>
-      <c r="P34" s="91"/>
-      <c r="Q34" s="89"/>
-      <c r="R34" s="90"/>
-      <c r="S34" s="90"/>
-      <c r="T34" s="90"/>
-      <c r="U34" s="90"/>
-      <c r="V34" s="90"/>
-      <c r="W34" s="90"/>
-      <c r="X34" s="90"/>
-      <c r="Y34" s="90"/>
-      <c r="Z34" s="90"/>
-      <c r="AA34" s="90"/>
-      <c r="AB34" s="90"/>
-      <c r="AC34" s="90"/>
-      <c r="AD34" s="90"/>
-      <c r="AE34" s="90"/>
-      <c r="AF34" s="90"/>
-      <c r="AG34" s="90"/>
-      <c r="AH34" s="90"/>
-      <c r="AI34" s="90"/>
-      <c r="AJ34" s="90"/>
-      <c r="AK34" s="90"/>
-      <c r="AL34" s="91"/>
-      <c r="AM34" s="89"/>
-      <c r="AN34" s="90"/>
-      <c r="AO34" s="90"/>
-      <c r="AP34" s="90"/>
-      <c r="AQ34" s="90"/>
-      <c r="AR34" s="90"/>
-      <c r="AS34" s="90"/>
-      <c r="AT34" s="90"/>
-      <c r="AU34" s="90"/>
-      <c r="AV34" s="90"/>
-      <c r="AW34" s="90"/>
-      <c r="AX34" s="90"/>
-      <c r="AY34" s="90"/>
-      <c r="AZ34" s="91"/>
+      <c r="C34" s="89"/>
+      <c r="D34" s="90"/>
+      <c r="E34" s="90"/>
+      <c r="F34" s="91"/>
+      <c r="G34" s="83"/>
+      <c r="H34" s="84"/>
+      <c r="I34" s="84"/>
+      <c r="J34" s="84"/>
+      <c r="K34" s="85"/>
+      <c r="L34" s="86"/>
+      <c r="M34" s="87"/>
+      <c r="N34" s="87"/>
+      <c r="O34" s="87"/>
+      <c r="P34" s="88"/>
+      <c r="Q34" s="86"/>
+      <c r="R34" s="87"/>
+      <c r="S34" s="87"/>
+      <c r="T34" s="87"/>
+      <c r="U34" s="87"/>
+      <c r="V34" s="87"/>
+      <c r="W34" s="87"/>
+      <c r="X34" s="87"/>
+      <c r="Y34" s="87"/>
+      <c r="Z34" s="87"/>
+      <c r="AA34" s="87"/>
+      <c r="AB34" s="87"/>
+      <c r="AC34" s="87"/>
+      <c r="AD34" s="87"/>
+      <c r="AE34" s="87"/>
+      <c r="AF34" s="87"/>
+      <c r="AG34" s="87"/>
+      <c r="AH34" s="87"/>
+      <c r="AI34" s="87"/>
+      <c r="AJ34" s="87"/>
+      <c r="AK34" s="87"/>
+      <c r="AL34" s="88"/>
+      <c r="AM34" s="86"/>
+      <c r="AN34" s="87"/>
+      <c r="AO34" s="87"/>
+      <c r="AP34" s="87"/>
+      <c r="AQ34" s="87"/>
+      <c r="AR34" s="87"/>
+      <c r="AS34" s="87"/>
+      <c r="AT34" s="87"/>
+      <c r="AU34" s="87"/>
+      <c r="AV34" s="87"/>
+      <c r="AW34" s="87"/>
+      <c r="AX34" s="87"/>
+      <c r="AY34" s="87"/>
+      <c r="AZ34" s="88"/>
     </row>
     <row r="35" spans="1:52">
       <c r="A35" s="9" t="str">
@@ -4655,59 +5596,189 @@
         <v/>
       </c>
       <c r="B35" s="10"/>
-      <c r="C35" s="83"/>
-      <c r="D35" s="84"/>
-      <c r="E35" s="84"/>
-      <c r="F35" s="85"/>
-      <c r="G35" s="86"/>
-      <c r="H35" s="87"/>
-      <c r="I35" s="87"/>
-      <c r="J35" s="87"/>
-      <c r="K35" s="88"/>
-      <c r="L35" s="89"/>
-      <c r="M35" s="90"/>
-      <c r="N35" s="90"/>
-      <c r="O35" s="90"/>
-      <c r="P35" s="91"/>
-      <c r="Q35" s="89"/>
-      <c r="R35" s="90"/>
-      <c r="S35" s="90"/>
-      <c r="T35" s="90"/>
-      <c r="U35" s="90"/>
-      <c r="V35" s="90"/>
-      <c r="W35" s="90"/>
-      <c r="X35" s="90"/>
-      <c r="Y35" s="90"/>
-      <c r="Z35" s="90"/>
-      <c r="AA35" s="90"/>
-      <c r="AB35" s="90"/>
-      <c r="AC35" s="90"/>
-      <c r="AD35" s="90"/>
-      <c r="AE35" s="90"/>
-      <c r="AF35" s="90"/>
-      <c r="AG35" s="90"/>
-      <c r="AH35" s="90"/>
-      <c r="AI35" s="90"/>
-      <c r="AJ35" s="90"/>
-      <c r="AK35" s="90"/>
-      <c r="AL35" s="91"/>
-      <c r="AM35" s="89"/>
-      <c r="AN35" s="90"/>
-      <c r="AO35" s="90"/>
-      <c r="AP35" s="90"/>
-      <c r="AQ35" s="90"/>
-      <c r="AR35" s="90"/>
-      <c r="AS35" s="90"/>
-      <c r="AT35" s="90"/>
-      <c r="AU35" s="90"/>
-      <c r="AV35" s="90"/>
-      <c r="AW35" s="90"/>
-      <c r="AX35" s="90"/>
-      <c r="AY35" s="90"/>
-      <c r="AZ35" s="91"/>
+      <c r="C35" s="89"/>
+      <c r="D35" s="90"/>
+      <c r="E35" s="90"/>
+      <c r="F35" s="91"/>
+      <c r="G35" s="83"/>
+      <c r="H35" s="84"/>
+      <c r="I35" s="84"/>
+      <c r="J35" s="84"/>
+      <c r="K35" s="85"/>
+      <c r="L35" s="86"/>
+      <c r="M35" s="87"/>
+      <c r="N35" s="87"/>
+      <c r="O35" s="87"/>
+      <c r="P35" s="88"/>
+      <c r="Q35" s="86"/>
+      <c r="R35" s="87"/>
+      <c r="S35" s="87"/>
+      <c r="T35" s="87"/>
+      <c r="U35" s="87"/>
+      <c r="V35" s="87"/>
+      <c r="W35" s="87"/>
+      <c r="X35" s="87"/>
+      <c r="Y35" s="87"/>
+      <c r="Z35" s="87"/>
+      <c r="AA35" s="87"/>
+      <c r="AB35" s="87"/>
+      <c r="AC35" s="87"/>
+      <c r="AD35" s="87"/>
+      <c r="AE35" s="87"/>
+      <c r="AF35" s="87"/>
+      <c r="AG35" s="87"/>
+      <c r="AH35" s="87"/>
+      <c r="AI35" s="87"/>
+      <c r="AJ35" s="87"/>
+      <c r="AK35" s="87"/>
+      <c r="AL35" s="88"/>
+      <c r="AM35" s="86"/>
+      <c r="AN35" s="87"/>
+      <c r="AO35" s="87"/>
+      <c r="AP35" s="87"/>
+      <c r="AQ35" s="87"/>
+      <c r="AR35" s="87"/>
+      <c r="AS35" s="87"/>
+      <c r="AT35" s="87"/>
+      <c r="AU35" s="87"/>
+      <c r="AV35" s="87"/>
+      <c r="AW35" s="87"/>
+      <c r="AX35" s="87"/>
+      <c r="AY35" s="87"/>
+      <c r="AZ35" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="140">
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="G34:K34"/>
+    <mergeCell ref="L34:P34"/>
+    <mergeCell ref="Q34:AL34"/>
+    <mergeCell ref="AM34:AZ34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="G35:K35"/>
+    <mergeCell ref="L35:P35"/>
+    <mergeCell ref="Q35:AL35"/>
+    <mergeCell ref="AM35:AZ35"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="G32:K32"/>
+    <mergeCell ref="L32:P32"/>
+    <mergeCell ref="Q32:AL32"/>
+    <mergeCell ref="AM32:AZ32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="G33:K33"/>
+    <mergeCell ref="L33:P33"/>
+    <mergeCell ref="Q33:AL33"/>
+    <mergeCell ref="AM33:AZ33"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="G30:K30"/>
+    <mergeCell ref="L30:P30"/>
+    <mergeCell ref="Q30:AL30"/>
+    <mergeCell ref="AM30:AZ30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="G31:K31"/>
+    <mergeCell ref="L31:P31"/>
+    <mergeCell ref="Q31:AL31"/>
+    <mergeCell ref="AM31:AZ31"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="G28:K28"/>
+    <mergeCell ref="L28:P28"/>
+    <mergeCell ref="Q28:AL28"/>
+    <mergeCell ref="AM28:AZ28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="G29:K29"/>
+    <mergeCell ref="L29:P29"/>
+    <mergeCell ref="Q29:AL29"/>
+    <mergeCell ref="AM29:AZ29"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="G26:K26"/>
+    <mergeCell ref="L26:P26"/>
+    <mergeCell ref="Q26:AL26"/>
+    <mergeCell ref="AM26:AZ26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="G27:K27"/>
+    <mergeCell ref="L27:P27"/>
+    <mergeCell ref="Q27:AL27"/>
+    <mergeCell ref="AM27:AZ27"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:K24"/>
+    <mergeCell ref="L24:P24"/>
+    <mergeCell ref="Q24:AL24"/>
+    <mergeCell ref="AM24:AZ24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:K25"/>
+    <mergeCell ref="L25:P25"/>
+    <mergeCell ref="Q25:AL25"/>
+    <mergeCell ref="AM25:AZ25"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G22:K22"/>
+    <mergeCell ref="L22:P22"/>
+    <mergeCell ref="Q22:AL22"/>
+    <mergeCell ref="AM22:AZ22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="G23:K23"/>
+    <mergeCell ref="L23:P23"/>
+    <mergeCell ref="Q23:AL23"/>
+    <mergeCell ref="AM23:AZ23"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:K20"/>
+    <mergeCell ref="L20:P20"/>
+    <mergeCell ref="Q20:AL20"/>
+    <mergeCell ref="AM20:AZ20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G21:K21"/>
+    <mergeCell ref="L21:P21"/>
+    <mergeCell ref="Q21:AL21"/>
+    <mergeCell ref="AM21:AZ21"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="L18:P18"/>
+    <mergeCell ref="Q18:AL18"/>
+    <mergeCell ref="AM18:AZ18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="L19:P19"/>
+    <mergeCell ref="Q19:AL19"/>
+    <mergeCell ref="AM19:AZ19"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="L16:P16"/>
+    <mergeCell ref="Q16:AL16"/>
+    <mergeCell ref="AM16:AZ16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="L17:P17"/>
+    <mergeCell ref="Q17:AL17"/>
+    <mergeCell ref="AM17:AZ17"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="L14:P14"/>
+    <mergeCell ref="Q14:AL14"/>
+    <mergeCell ref="AM14:AZ14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="L15:P15"/>
+    <mergeCell ref="Q15:AL15"/>
+    <mergeCell ref="AM15:AZ15"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="L12:P12"/>
+    <mergeCell ref="Q12:AL12"/>
+    <mergeCell ref="AM12:AZ12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="L13:P13"/>
+    <mergeCell ref="Q13:AL13"/>
+    <mergeCell ref="AM13:AZ13"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="Q10:AL10"/>
+    <mergeCell ref="AM10:AZ10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="L11:P11"/>
+    <mergeCell ref="Q11:AL11"/>
+    <mergeCell ref="AM11:AZ11"/>
     <mergeCell ref="G8:K8"/>
     <mergeCell ref="L8:P8"/>
     <mergeCell ref="Q8:AL8"/>
@@ -4718,136 +5789,6 @@
     <mergeCell ref="L9:P9"/>
     <mergeCell ref="Q9:AL9"/>
     <mergeCell ref="AM9:AZ9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="Q10:AL10"/>
-    <mergeCell ref="AM10:AZ10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="L11:P11"/>
-    <mergeCell ref="Q11:AL11"/>
-    <mergeCell ref="AM11:AZ11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="L12:P12"/>
-    <mergeCell ref="Q12:AL12"/>
-    <mergeCell ref="AM12:AZ12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="L13:P13"/>
-    <mergeCell ref="Q13:AL13"/>
-    <mergeCell ref="AM13:AZ13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="L14:P14"/>
-    <mergeCell ref="Q14:AL14"/>
-    <mergeCell ref="AM14:AZ14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="L15:P15"/>
-    <mergeCell ref="Q15:AL15"/>
-    <mergeCell ref="AM15:AZ15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="L16:P16"/>
-    <mergeCell ref="Q16:AL16"/>
-    <mergeCell ref="AM16:AZ16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="L17:P17"/>
-    <mergeCell ref="Q17:AL17"/>
-    <mergeCell ref="AM17:AZ17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="L18:P18"/>
-    <mergeCell ref="Q18:AL18"/>
-    <mergeCell ref="AM18:AZ18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G19:K19"/>
-    <mergeCell ref="L19:P19"/>
-    <mergeCell ref="Q19:AL19"/>
-    <mergeCell ref="AM19:AZ19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G20:K20"/>
-    <mergeCell ref="L20:P20"/>
-    <mergeCell ref="Q20:AL20"/>
-    <mergeCell ref="AM20:AZ20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G21:K21"/>
-    <mergeCell ref="L21:P21"/>
-    <mergeCell ref="Q21:AL21"/>
-    <mergeCell ref="AM21:AZ21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="L22:P22"/>
-    <mergeCell ref="Q22:AL22"/>
-    <mergeCell ref="AM22:AZ22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="G23:K23"/>
-    <mergeCell ref="L23:P23"/>
-    <mergeCell ref="Q23:AL23"/>
-    <mergeCell ref="AM23:AZ23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="G24:K24"/>
-    <mergeCell ref="L24:P24"/>
-    <mergeCell ref="Q24:AL24"/>
-    <mergeCell ref="AM24:AZ24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G25:K25"/>
-    <mergeCell ref="L25:P25"/>
-    <mergeCell ref="Q25:AL25"/>
-    <mergeCell ref="AM25:AZ25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="G26:K26"/>
-    <mergeCell ref="L26:P26"/>
-    <mergeCell ref="Q26:AL26"/>
-    <mergeCell ref="AM26:AZ26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="G27:K27"/>
-    <mergeCell ref="L27:P27"/>
-    <mergeCell ref="Q27:AL27"/>
-    <mergeCell ref="AM27:AZ27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="G28:K28"/>
-    <mergeCell ref="L28:P28"/>
-    <mergeCell ref="Q28:AL28"/>
-    <mergeCell ref="AM28:AZ28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="G29:K29"/>
-    <mergeCell ref="L29:P29"/>
-    <mergeCell ref="Q29:AL29"/>
-    <mergeCell ref="AM29:AZ29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="G30:K30"/>
-    <mergeCell ref="L30:P30"/>
-    <mergeCell ref="Q30:AL30"/>
-    <mergeCell ref="AM30:AZ30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="G31:K31"/>
-    <mergeCell ref="L31:P31"/>
-    <mergeCell ref="Q31:AL31"/>
-    <mergeCell ref="AM31:AZ31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="G32:K32"/>
-    <mergeCell ref="L32:P32"/>
-    <mergeCell ref="Q32:AL32"/>
-    <mergeCell ref="AM32:AZ32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="G33:K33"/>
-    <mergeCell ref="L33:P33"/>
-    <mergeCell ref="Q33:AL33"/>
-    <mergeCell ref="AM33:AZ33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="G34:K34"/>
-    <mergeCell ref="L34:P34"/>
-    <mergeCell ref="Q34:AL34"/>
-    <mergeCell ref="AM34:AZ34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="G35:K35"/>
-    <mergeCell ref="L35:P35"/>
-    <mergeCell ref="Q35:AL35"/>
-    <mergeCell ref="AM35:AZ35"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4859,10 +5800,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9307939-537D-9F44-B482-1E22BD0105F1}">
-  <dimension ref="A1:BL91"/>
+  <dimension ref="A1:BL94"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A47" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="AE66" sqref="AE66"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A11" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="16"/>
@@ -5253,7 +6194,7 @@
     </row>
     <row r="7" spans="1:60">
       <c r="A7" s="39" t="s">
-        <v>45</v>
+        <v>146</v>
       </c>
       <c r="B7" s="28"/>
       <c r="C7" s="28"/>
@@ -5741,7 +6682,7 @@
       <c r="AO14" s="48"/>
       <c r="AP14" s="48"/>
       <c r="AQ14" s="48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AR14" s="48"/>
       <c r="AS14" s="48"/>
@@ -8272,7 +9213,7 @@
       <c r="S55" s="49"/>
       <c r="T55" s="50"/>
       <c r="U55" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="V55" s="31"/>
       <c r="W55" s="31"/>
@@ -8291,7 +9232,7 @@
       <c r="AH55" s="33"/>
       <c r="AI55" s="30"/>
       <c r="AJ55" s="29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AK55" s="33"/>
       <c r="AL55" s="33"/>
@@ -8316,7 +9257,7 @@
       </c>
       <c r="C56" s="43"/>
       <c r="D56" s="41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E56" s="42"/>
       <c r="F56" s="42"/>
@@ -8330,7 +9271,7 @@
       <c r="N56" s="42"/>
       <c r="O56" s="43"/>
       <c r="P56" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q56" s="42"/>
       <c r="R56" s="42"/>
@@ -8379,7 +9320,7 @@
       </c>
       <c r="C57" s="43"/>
       <c r="D57" s="41" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E57" s="42"/>
       <c r="F57" s="42"/>
@@ -8419,7 +9360,7 @@
       <c r="AH57" s="42"/>
       <c r="AI57" s="43"/>
       <c r="AJ57" s="41" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="AK57" s="42"/>
       <c r="AL57" s="42"/>
@@ -8442,7 +9383,7 @@
       </c>
       <c r="C58" s="43"/>
       <c r="D58" s="41" t="s">
-        <v>52</v>
+        <v>143</v>
       </c>
       <c r="E58" s="42"/>
       <c r="F58" s="42"/>
@@ -8456,14 +9397,14 @@
       <c r="N58" s="42"/>
       <c r="O58" s="43"/>
       <c r="P58" s="41" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="Q58" s="42"/>
       <c r="R58" s="42"/>
       <c r="S58" s="42"/>
       <c r="T58" s="43"/>
       <c r="U58" s="41" t="s">
-        <v>64</v>
+        <v>142</v>
       </c>
       <c r="V58" s="42"/>
       <c r="W58" s="42"/>
@@ -8475,14 +9416,14 @@
       <c r="AC58" s="42"/>
       <c r="AD58" s="43"/>
       <c r="AE58" s="41" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="AF58" s="42"/>
       <c r="AG58" s="42"/>
       <c r="AH58" s="42"/>
       <c r="AI58" s="43"/>
       <c r="AJ58" s="41" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="AK58" s="42"/>
       <c r="AL58" s="42"/>
@@ -8505,7 +9446,7 @@
       </c>
       <c r="C59" s="43"/>
       <c r="D59" s="41" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E59" s="42"/>
       <c r="F59" s="42"/>
@@ -8526,7 +9467,7 @@
       <c r="S59" s="42"/>
       <c r="T59" s="43"/>
       <c r="U59" s="41" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="V59" s="42"/>
       <c r="W59" s="42"/>
@@ -8545,7 +9486,7 @@
       <c r="AH59" s="42"/>
       <c r="AI59" s="43"/>
       <c r="AJ59" s="41" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="AK59" s="42"/>
       <c r="AL59" s="42"/>
@@ -8568,7 +9509,7 @@
       </c>
       <c r="C60" s="43"/>
       <c r="D60" s="41" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E60" s="42"/>
       <c r="F60" s="42"/>
@@ -8582,14 +9523,14 @@
       <c r="N60" s="42"/>
       <c r="O60" s="43"/>
       <c r="P60" s="41" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="Q60" s="42"/>
       <c r="R60" s="42"/>
       <c r="S60" s="42"/>
       <c r="T60" s="43"/>
       <c r="U60" s="41" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="V60" s="42"/>
       <c r="W60" s="42"/>
@@ -8608,7 +9549,7 @@
       <c r="AH60" s="42"/>
       <c r="AI60" s="43"/>
       <c r="AJ60" s="41" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="AK60" s="42"/>
       <c r="AL60" s="42"/>
@@ -8631,7 +9572,7 @@
       </c>
       <c r="C61" s="43"/>
       <c r="D61" s="41" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E61" s="42"/>
       <c r="F61" s="42"/>
@@ -8645,14 +9586,14 @@
       <c r="N61" s="42"/>
       <c r="O61" s="43"/>
       <c r="P61" s="41" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="Q61" s="42"/>
       <c r="R61" s="42"/>
       <c r="S61" s="42"/>
       <c r="T61" s="43"/>
       <c r="U61" s="41" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V61" s="42"/>
       <c r="W61" s="42"/>
@@ -8671,7 +9612,7 @@
       <c r="AH61" s="42"/>
       <c r="AI61" s="43"/>
       <c r="AJ61" s="41" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="AK61" s="42"/>
       <c r="AL61" s="42"/>
@@ -8694,7 +9635,7 @@
       </c>
       <c r="C62" s="43"/>
       <c r="D62" s="41" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E62" s="42"/>
       <c r="F62" s="42"/>
@@ -8708,14 +9649,14 @@
       <c r="N62" s="42"/>
       <c r="O62" s="43"/>
       <c r="P62" s="41" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="Q62" s="42"/>
       <c r="R62" s="42"/>
       <c r="S62" s="42"/>
       <c r="T62" s="43"/>
       <c r="U62" s="41" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="V62" s="42"/>
       <c r="W62" s="42"/>
@@ -8734,7 +9675,7 @@
       <c r="AH62" s="42"/>
       <c r="AI62" s="43"/>
       <c r="AJ62" s="41" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="AK62" s="42"/>
       <c r="AL62" s="42"/>
@@ -8757,7 +9698,7 @@
       </c>
       <c r="C63" s="43"/>
       <c r="D63" s="41" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="E63" s="42"/>
       <c r="F63" s="42"/>
@@ -8771,14 +9712,14 @@
       <c r="N63" s="42"/>
       <c r="O63" s="43"/>
       <c r="P63" s="41" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="Q63" s="42"/>
       <c r="R63" s="42"/>
       <c r="S63" s="42"/>
       <c r="T63" s="43"/>
       <c r="U63" s="41" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="V63" s="42"/>
       <c r="W63" s="42"/>
@@ -8820,7 +9761,7 @@
       </c>
       <c r="C64" s="43"/>
       <c r="D64" s="41" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="E64" s="42"/>
       <c r="F64" s="42"/>
@@ -8834,14 +9775,14 @@
       <c r="N64" s="42"/>
       <c r="O64" s="43"/>
       <c r="P64" s="41" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="Q64" s="42"/>
       <c r="R64" s="42"/>
       <c r="S64" s="42"/>
       <c r="T64" s="43"/>
       <c r="U64" s="41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V64" s="42"/>
       <c r="W64" s="42"/>
@@ -8878,71 +9819,70 @@
     </row>
     <row r="65" spans="1:64">
       <c r="A65" s="39"/>
-      <c r="B65" s="38"/>
-      <c r="C65" s="28"/>
-      <c r="D65" s="28"/>
-      <c r="E65" s="28"/>
-      <c r="F65" s="28"/>
-      <c r="G65" s="28"/>
-      <c r="H65" s="28"/>
-      <c r="I65" s="28"/>
-      <c r="J65" s="28"/>
-      <c r="K65" s="28"/>
-      <c r="L65" s="28"/>
-      <c r="M65" s="28"/>
-      <c r="N65" s="28"/>
-      <c r="O65" s="28"/>
-      <c r="P65" s="28"/>
-      <c r="Q65" s="28"/>
-      <c r="R65" s="28"/>
-      <c r="S65" s="28"/>
-      <c r="T65" s="28"/>
-      <c r="U65" s="28"/>
-      <c r="V65" s="28"/>
-      <c r="W65" s="28"/>
-      <c r="X65" s="28"/>
-      <c r="Y65" s="28"/>
-      <c r="Z65" s="28"/>
-      <c r="AA65" s="28"/>
-      <c r="AB65" s="28"/>
-      <c r="AC65" s="28"/>
-      <c r="AD65" s="28"/>
-      <c r="AE65" s="28"/>
-      <c r="AF65" s="28"/>
-      <c r="AG65" s="28"/>
-      <c r="AH65" s="28"/>
-      <c r="AI65" s="28"/>
-      <c r="AJ65" s="28"/>
-      <c r="AK65" s="28"/>
-      <c r="AL65" s="28"/>
-      <c r="AM65" s="28"/>
-      <c r="AN65" s="28"/>
-      <c r="AO65" s="28"/>
-      <c r="AP65" s="28"/>
-      <c r="AQ65" s="28"/>
-      <c r="AR65" s="28"/>
-      <c r="AS65" s="28"/>
-      <c r="AT65" s="28"/>
-      <c r="AU65" s="28"/>
-      <c r="AV65" s="28"/>
-      <c r="AW65" s="28"/>
-      <c r="AX65" s="28"/>
-      <c r="AY65" s="28"/>
-      <c r="AZ65" s="28"/>
-      <c r="BA65" s="28"/>
-      <c r="BB65" s="17"/>
-      <c r="BC65" s="17"/>
-      <c r="BD65" s="17"/>
-      <c r="BE65" s="17"/>
-      <c r="BF65" s="17"/>
-      <c r="BG65" s="17"/>
-      <c r="BH65" s="18"/>
+      <c r="B65" s="44">
+        <v>10</v>
+      </c>
+      <c r="C65" s="43"/>
+      <c r="D65" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="E65" s="42"/>
+      <c r="F65" s="42"/>
+      <c r="G65" s="42"/>
+      <c r="H65" s="42"/>
+      <c r="I65" s="42"/>
+      <c r="J65" s="42"/>
+      <c r="K65" s="42"/>
+      <c r="L65" s="42"/>
+      <c r="M65" s="42"/>
+      <c r="N65" s="42"/>
+      <c r="O65" s="43"/>
+      <c r="P65" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q65" s="42"/>
+      <c r="R65" s="42"/>
+      <c r="S65" s="42"/>
+      <c r="T65" s="43"/>
+      <c r="U65" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="V65" s="42"/>
+      <c r="W65" s="42"/>
+      <c r="X65" s="42"/>
+      <c r="Y65" s="42"/>
+      <c r="Z65" s="42"/>
+      <c r="AA65" s="42"/>
+      <c r="AB65" s="42"/>
+      <c r="AC65" s="42"/>
+      <c r="AD65" s="43"/>
+      <c r="AE65" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF65" s="42"/>
+      <c r="AG65" s="42"/>
+      <c r="AH65" s="42"/>
+      <c r="AI65" s="43"/>
+      <c r="AJ65" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK65" s="42"/>
+      <c r="AL65" s="42"/>
+      <c r="AM65" s="42"/>
+      <c r="AN65" s="42"/>
+      <c r="AO65" s="42"/>
+      <c r="AP65" s="43"/>
+      <c r="AQ65" s="41"/>
+      <c r="AR65" s="42"/>
+      <c r="AS65" s="42"/>
+      <c r="AT65" s="42"/>
+      <c r="AU65" s="42"/>
+      <c r="AV65" s="42"/>
+      <c r="AW65" s="43"/>
     </row>
     <row r="66" spans="1:64">
       <c r="A66" s="39"/>
-      <c r="B66" s="38" t="s">
-        <v>32</v>
-      </c>
+      <c r="B66" s="38"/>
       <c r="C66" s="28"/>
       <c r="D66" s="28"/>
       <c r="E66" s="28"/>
@@ -9002,161 +9942,152 @@
       <c r="BG66" s="17"/>
       <c r="BH66" s="18"/>
     </row>
-    <row r="67" spans="1:64" s="34" customFormat="1">
+    <row r="67" spans="1:64">
       <c r="A67" s="39"/>
-      <c r="B67" s="29" t="s">
+      <c r="B67" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="C67" s="28"/>
+      <c r="D67" s="28"/>
+      <c r="E67" s="28"/>
+      <c r="F67" s="28"/>
+      <c r="G67" s="28"/>
+      <c r="H67" s="28"/>
+      <c r="I67" s="28"/>
+      <c r="J67" s="28"/>
+      <c r="K67" s="28"/>
+      <c r="L67" s="28"/>
+      <c r="M67" s="28"/>
+      <c r="N67" s="28"/>
+      <c r="O67" s="28"/>
+      <c r="P67" s="28"/>
+      <c r="Q67" s="28"/>
+      <c r="R67" s="28"/>
+      <c r="S67" s="28"/>
+      <c r="T67" s="28"/>
+      <c r="U67" s="28"/>
+      <c r="V67" s="28"/>
+      <c r="W67" s="28"/>
+      <c r="X67" s="28"/>
+      <c r="Y67" s="28"/>
+      <c r="Z67" s="28"/>
+      <c r="AA67" s="28"/>
+      <c r="AB67" s="28"/>
+      <c r="AC67" s="28"/>
+      <c r="AD67" s="28"/>
+      <c r="AE67" s="28"/>
+      <c r="AF67" s="28"/>
+      <c r="AG67" s="28"/>
+      <c r="AH67" s="28"/>
+      <c r="AI67" s="28"/>
+      <c r="AJ67" s="28"/>
+      <c r="AK67" s="28"/>
+      <c r="AL67" s="28"/>
+      <c r="AM67" s="28"/>
+      <c r="AN67" s="28"/>
+      <c r="AO67" s="28"/>
+      <c r="AP67" s="28"/>
+      <c r="AQ67" s="28"/>
+      <c r="AR67" s="28"/>
+      <c r="AS67" s="28"/>
+      <c r="AT67" s="28"/>
+      <c r="AU67" s="28"/>
+      <c r="AV67" s="28"/>
+      <c r="AW67" s="28"/>
+      <c r="AX67" s="28"/>
+      <c r="AY67" s="28"/>
+      <c r="AZ67" s="28"/>
+      <c r="BA67" s="28"/>
+      <c r="BB67" s="17"/>
+      <c r="BC67" s="17"/>
+      <c r="BD67" s="17"/>
+      <c r="BE67" s="17"/>
+      <c r="BF67" s="17"/>
+      <c r="BG67" s="17"/>
+      <c r="BH67" s="18"/>
+    </row>
+    <row r="68" spans="1:64" s="34" customFormat="1">
+      <c r="A68" s="39"/>
+      <c r="B68" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C67" s="30"/>
-      <c r="D67" s="14" t="s">
+      <c r="C68" s="30"/>
+      <c r="D68" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E67" s="15"/>
-      <c r="F67" s="15"/>
-      <c r="G67" s="15"/>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="16"/>
-      <c r="K67" s="92" t="s">
+      <c r="E68" s="15"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="16"/>
+      <c r="K68" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="L67" s="93"/>
-      <c r="M67" s="93"/>
-      <c r="N67" s="93"/>
-      <c r="O67" s="93"/>
-      <c r="P67" s="93"/>
-      <c r="Q67" s="93"/>
-      <c r="R67" s="94"/>
-      <c r="S67" s="29" t="s">
+      <c r="L68" s="93"/>
+      <c r="M68" s="93"/>
+      <c r="N68" s="93"/>
+      <c r="O68" s="93"/>
+      <c r="P68" s="93"/>
+      <c r="Q68" s="93"/>
+      <c r="R68" s="94"/>
+      <c r="S68" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="T67" s="31"/>
-      <c r="U67" s="31"/>
-      <c r="V67" s="31"/>
-      <c r="W67" s="31"/>
-      <c r="X67" s="31"/>
-      <c r="Y67" s="31"/>
-      <c r="Z67" s="31"/>
-      <c r="AA67" s="31"/>
-      <c r="AB67" s="33"/>
-      <c r="AC67" s="33"/>
-      <c r="AD67" s="33"/>
-      <c r="AE67" s="33"/>
-      <c r="AF67" s="33"/>
-      <c r="AG67" s="33"/>
-      <c r="AH67" s="33"/>
-      <c r="AI67" s="33"/>
-      <c r="AJ67" s="33"/>
-      <c r="AK67" s="33"/>
-      <c r="AL67" s="33"/>
-      <c r="AM67" s="33"/>
-      <c r="AN67" s="31"/>
-      <c r="AO67" s="31"/>
-      <c r="AP67" s="31"/>
-      <c r="AQ67" s="31"/>
-      <c r="AR67" s="31"/>
-      <c r="AS67" s="31"/>
-      <c r="AT67" s="31"/>
-      <c r="AU67" s="31"/>
-      <c r="AV67" s="31"/>
-      <c r="AW67" s="32"/>
-      <c r="AX67" s="46"/>
-      <c r="AY67" s="46"/>
-      <c r="AZ67" s="46"/>
-      <c r="BA67" s="46"/>
-      <c r="BB67" s="46"/>
-      <c r="BC67" s="46"/>
-      <c r="BD67" s="46"/>
-      <c r="BE67" s="28"/>
-      <c r="BF67" s="28"/>
-      <c r="BG67" s="28"/>
-      <c r="BH67" s="28"/>
-      <c r="BI67" s="28"/>
-      <c r="BJ67" s="28"/>
-      <c r="BK67" s="28"/>
-      <c r="BL67" s="13"/>
-    </row>
-    <row r="68" spans="1:64">
-      <c r="A68" s="39"/>
-      <c r="B68" s="44">
-        <v>1</v>
-      </c>
-      <c r="C68" s="43"/>
-      <c r="D68" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="E68" s="42"/>
-      <c r="F68" s="42"/>
-      <c r="G68" s="42"/>
-      <c r="H68" s="42"/>
-      <c r="I68" s="42"/>
-      <c r="J68" s="43"/>
-      <c r="K68" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="L68" s="42"/>
-      <c r="M68" s="42"/>
-      <c r="N68" s="42"/>
-      <c r="O68" s="42"/>
-      <c r="P68" s="42"/>
-      <c r="Q68" s="42"/>
-      <c r="R68" s="43"/>
-      <c r="S68" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="T68" s="42"/>
-      <c r="U68" s="42"/>
-      <c r="V68" s="42"/>
-      <c r="W68" s="42"/>
-      <c r="X68" s="42"/>
-      <c r="Y68" s="42"/>
-      <c r="Z68" s="42"/>
-      <c r="AA68" s="42"/>
-      <c r="AB68" s="42"/>
-      <c r="AC68" s="42"/>
-      <c r="AD68" s="42"/>
-      <c r="AE68" s="42"/>
-      <c r="AF68" s="42"/>
-      <c r="AG68" s="42"/>
-      <c r="AH68" s="42"/>
-      <c r="AI68" s="42"/>
-      <c r="AJ68" s="42"/>
-      <c r="AK68" s="42"/>
-      <c r="AL68" s="55"/>
-      <c r="AM68" s="55"/>
-      <c r="AN68" s="55"/>
-      <c r="AO68" s="55"/>
-      <c r="AP68" s="55"/>
-      <c r="AQ68" s="55"/>
-      <c r="AR68" s="55"/>
-      <c r="AS68" s="55"/>
-      <c r="AT68" s="55"/>
-      <c r="AU68" s="55"/>
-      <c r="AV68" s="55"/>
-      <c r="AW68" s="56"/>
-      <c r="AX68" s="40"/>
-      <c r="AY68" s="40"/>
-      <c r="AZ68" s="40"/>
-      <c r="BA68" s="40"/>
-      <c r="BB68" s="40"/>
-      <c r="BC68" s="40"/>
-      <c r="BD68" s="40"/>
+      <c r="T68" s="31"/>
+      <c r="U68" s="31"/>
+      <c r="V68" s="31"/>
+      <c r="W68" s="31"/>
+      <c r="X68" s="31"/>
+      <c r="Y68" s="31"/>
+      <c r="Z68" s="31"/>
+      <c r="AA68" s="31"/>
+      <c r="AB68" s="33"/>
+      <c r="AC68" s="33"/>
+      <c r="AD68" s="33"/>
+      <c r="AE68" s="33"/>
+      <c r="AF68" s="33"/>
+      <c r="AG68" s="33"/>
+      <c r="AH68" s="33"/>
+      <c r="AI68" s="33"/>
+      <c r="AJ68" s="33"/>
+      <c r="AK68" s="33"/>
+      <c r="AL68" s="33"/>
+      <c r="AM68" s="33"/>
+      <c r="AN68" s="31"/>
+      <c r="AO68" s="31"/>
+      <c r="AP68" s="31"/>
+      <c r="AQ68" s="31"/>
+      <c r="AR68" s="31"/>
+      <c r="AS68" s="31"/>
+      <c r="AT68" s="31"/>
+      <c r="AU68" s="31"/>
+      <c r="AV68" s="31"/>
+      <c r="AW68" s="32"/>
+      <c r="AX68" s="46"/>
+      <c r="AY68" s="46"/>
+      <c r="AZ68" s="46"/>
+      <c r="BA68" s="46"/>
+      <c r="BB68" s="46"/>
+      <c r="BC68" s="46"/>
+      <c r="BD68" s="46"/>
       <c r="BE68" s="28"/>
-      <c r="BF68" s="17"/>
-      <c r="BG68" s="17"/>
-      <c r="BH68" s="17"/>
-      <c r="BI68" s="17"/>
-      <c r="BJ68" s="17"/>
-      <c r="BK68" s="17"/>
+      <c r="BF68" s="28"/>
+      <c r="BG68" s="28"/>
+      <c r="BH68" s="28"/>
+      <c r="BI68" s="28"/>
+      <c r="BJ68" s="28"/>
+      <c r="BK68" s="28"/>
+      <c r="BL68" s="13"/>
     </row>
     <row r="69" spans="1:64">
       <c r="A69" s="39"/>
       <c r="B69" s="44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C69" s="43"/>
       <c r="D69" s="41" t="s">
-        <v>61</v>
+        <v>143</v>
       </c>
       <c r="E69" s="42"/>
       <c r="F69" s="42"/>
@@ -9175,7 +10106,7 @@
       <c r="Q69" s="42"/>
       <c r="R69" s="43"/>
       <c r="S69" s="41" t="s">
-        <v>68</v>
+        <v>144</v>
       </c>
       <c r="T69" s="42"/>
       <c r="U69" s="42"/>
@@ -9225,11 +10156,11 @@
     <row r="70" spans="1:64">
       <c r="A70" s="39"/>
       <c r="B70" s="44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C70" s="43"/>
       <c r="D70" s="41" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="E70" s="42"/>
       <c r="F70" s="42"/>
@@ -9248,7 +10179,7 @@
       <c r="Q70" s="42"/>
       <c r="R70" s="43"/>
       <c r="S70" s="41" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="T70" s="42"/>
       <c r="U70" s="42"/>
@@ -9298,11 +10229,11 @@
     <row r="71" spans="1:64">
       <c r="A71" s="39"/>
       <c r="B71" s="44">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C71" s="43"/>
       <c r="D71" s="41" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E71" s="42"/>
       <c r="F71" s="42"/>
@@ -9321,7 +10252,7 @@
       <c r="Q71" s="42"/>
       <c r="R71" s="43"/>
       <c r="S71" s="41" t="s">
-        <v>141</v>
+        <v>66</v>
       </c>
       <c r="T71" s="42"/>
       <c r="U71" s="42"/>
@@ -9341,18 +10272,18 @@
       <c r="AI71" s="42"/>
       <c r="AJ71" s="42"/>
       <c r="AK71" s="42"/>
-      <c r="AL71" s="53"/>
-      <c r="AM71" s="53"/>
-      <c r="AN71" s="53"/>
-      <c r="AO71" s="53"/>
-      <c r="AP71" s="53"/>
-      <c r="AQ71" s="53"/>
-      <c r="AR71" s="53"/>
-      <c r="AS71" s="53"/>
-      <c r="AT71" s="53"/>
-      <c r="AU71" s="53"/>
-      <c r="AV71" s="53"/>
-      <c r="AW71" s="54"/>
+      <c r="AL71" s="55"/>
+      <c r="AM71" s="55"/>
+      <c r="AN71" s="55"/>
+      <c r="AO71" s="55"/>
+      <c r="AP71" s="55"/>
+      <c r="AQ71" s="55"/>
+      <c r="AR71" s="55"/>
+      <c r="AS71" s="55"/>
+      <c r="AT71" s="55"/>
+      <c r="AU71" s="55"/>
+      <c r="AV71" s="55"/>
+      <c r="AW71" s="56"/>
       <c r="AX71" s="40"/>
       <c r="AY71" s="40"/>
       <c r="AZ71" s="40"/>
@@ -9370,54 +10301,62 @@
     </row>
     <row r="72" spans="1:64">
       <c r="A72" s="39"/>
-      <c r="B72" s="38"/>
-      <c r="C72" s="28"/>
-      <c r="D72" s="28"/>
-      <c r="E72" s="28"/>
-      <c r="F72" s="28"/>
-      <c r="G72" s="28"/>
-      <c r="H72" s="28"/>
-      <c r="I72" s="28"/>
-      <c r="J72" s="28"/>
-      <c r="K72" s="28"/>
-      <c r="L72" s="28"/>
-      <c r="M72" s="28"/>
-      <c r="N72" s="28"/>
-      <c r="O72" s="28"/>
-      <c r="P72" s="28"/>
-      <c r="Q72" s="28"/>
-      <c r="R72" s="28"/>
-      <c r="S72" s="28"/>
-      <c r="T72" s="28"/>
-      <c r="U72" s="28"/>
-      <c r="V72" s="28"/>
-      <c r="W72" s="28"/>
-      <c r="X72" s="28"/>
-      <c r="Y72" s="28"/>
-      <c r="Z72" s="28"/>
-      <c r="AA72" s="28"/>
-      <c r="AB72" s="28"/>
-      <c r="AC72" s="28"/>
-      <c r="AD72" s="28"/>
-      <c r="AE72" s="28"/>
-      <c r="AF72" s="28"/>
-      <c r="AG72" s="28"/>
-      <c r="AH72" s="28"/>
-      <c r="AI72" s="28"/>
-      <c r="AJ72" s="28"/>
-      <c r="AK72" s="28"/>
-      <c r="AL72" s="40"/>
-      <c r="AM72" s="40"/>
-      <c r="AN72" s="40"/>
-      <c r="AO72" s="40"/>
-      <c r="AP72" s="40"/>
-      <c r="AQ72" s="40"/>
-      <c r="AR72" s="40"/>
-      <c r="AS72" s="40"/>
-      <c r="AT72" s="40"/>
-      <c r="AU72" s="40"/>
-      <c r="AV72" s="40"/>
-      <c r="AW72" s="40"/>
+      <c r="B72" s="44">
+        <v>4</v>
+      </c>
+      <c r="C72" s="43"/>
+      <c r="D72" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="E72" s="42"/>
+      <c r="F72" s="42"/>
+      <c r="G72" s="42"/>
+      <c r="H72" s="42"/>
+      <c r="I72" s="42"/>
+      <c r="J72" s="43"/>
+      <c r="K72" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="L72" s="42"/>
+      <c r="M72" s="42"/>
+      <c r="N72" s="42"/>
+      <c r="O72" s="42"/>
+      <c r="P72" s="42"/>
+      <c r="Q72" s="42"/>
+      <c r="R72" s="43"/>
+      <c r="S72" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="T72" s="42"/>
+      <c r="U72" s="42"/>
+      <c r="V72" s="42"/>
+      <c r="W72" s="42"/>
+      <c r="X72" s="42"/>
+      <c r="Y72" s="42"/>
+      <c r="Z72" s="42"/>
+      <c r="AA72" s="42"/>
+      <c r="AB72" s="42"/>
+      <c r="AC72" s="42"/>
+      <c r="AD72" s="42"/>
+      <c r="AE72" s="42"/>
+      <c r="AF72" s="42"/>
+      <c r="AG72" s="42"/>
+      <c r="AH72" s="42"/>
+      <c r="AI72" s="42"/>
+      <c r="AJ72" s="42"/>
+      <c r="AK72" s="42"/>
+      <c r="AL72" s="55"/>
+      <c r="AM72" s="55"/>
+      <c r="AN72" s="55"/>
+      <c r="AO72" s="55"/>
+      <c r="AP72" s="55"/>
+      <c r="AQ72" s="55"/>
+      <c r="AR72" s="55"/>
+      <c r="AS72" s="55"/>
+      <c r="AT72" s="55"/>
+      <c r="AU72" s="55"/>
+      <c r="AV72" s="55"/>
+      <c r="AW72" s="56"/>
       <c r="AX72" s="40"/>
       <c r="AY72" s="40"/>
       <c r="AZ72" s="40"/>
@@ -9435,279 +10374,287 @@
     </row>
     <row r="73" spans="1:64">
       <c r="A73" s="39"/>
-      <c r="B73" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="C73" s="28"/>
-      <c r="D73" s="28"/>
-      <c r="E73" s="28"/>
-      <c r="F73" s="28"/>
-      <c r="G73" s="28"/>
-      <c r="H73" s="28"/>
-      <c r="I73" s="28"/>
-      <c r="J73" s="28"/>
-      <c r="K73" s="28"/>
-      <c r="L73" s="28"/>
-      <c r="M73" s="28"/>
-      <c r="N73" s="28"/>
-      <c r="O73" s="28"/>
-      <c r="P73" s="28"/>
-      <c r="Q73" s="28"/>
-      <c r="R73" s="28"/>
-      <c r="S73" s="28"/>
-      <c r="T73" s="28"/>
-      <c r="U73" s="28"/>
-      <c r="V73" s="28"/>
-      <c r="W73" s="28"/>
-      <c r="X73" s="28"/>
-      <c r="Y73" s="28"/>
-      <c r="Z73" s="28"/>
-      <c r="AA73" s="28"/>
-      <c r="AB73" s="28"/>
-      <c r="AC73" s="28"/>
-      <c r="AD73" s="28"/>
-      <c r="AE73" s="28"/>
-      <c r="AF73" s="28"/>
-      <c r="AG73" s="28"/>
-      <c r="AH73" s="28"/>
-      <c r="AI73" s="28"/>
-      <c r="AJ73" s="28"/>
-      <c r="AK73" s="28"/>
-      <c r="AL73" s="28"/>
-      <c r="AM73" s="28"/>
-      <c r="AN73" s="28"/>
-      <c r="AO73" s="28"/>
-      <c r="AP73" s="28"/>
-      <c r="AQ73" s="28"/>
-      <c r="AR73" s="28"/>
-      <c r="AS73" s="28"/>
-      <c r="AT73" s="28"/>
-      <c r="AU73" s="28"/>
-      <c r="AV73" s="28"/>
-      <c r="AW73" s="28"/>
-      <c r="AX73" s="28"/>
-      <c r="AY73" s="28"/>
-      <c r="AZ73" s="28"/>
-      <c r="BA73" s="28"/>
-      <c r="BB73" s="17"/>
-      <c r="BC73" s="17"/>
-      <c r="BD73" s="17"/>
-      <c r="BE73" s="17"/>
+      <c r="B73" s="44">
+        <v>5</v>
+      </c>
+      <c r="C73" s="43"/>
+      <c r="D73" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="E73" s="42"/>
+      <c r="F73" s="42"/>
+      <c r="G73" s="42"/>
+      <c r="H73" s="42"/>
+      <c r="I73" s="42"/>
+      <c r="J73" s="43"/>
+      <c r="K73" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="L73" s="42"/>
+      <c r="M73" s="42"/>
+      <c r="N73" s="42"/>
+      <c r="O73" s="42"/>
+      <c r="P73" s="42"/>
+      <c r="Q73" s="42"/>
+      <c r="R73" s="43"/>
+      <c r="S73" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="T73" s="42"/>
+      <c r="U73" s="42"/>
+      <c r="V73" s="42"/>
+      <c r="W73" s="42"/>
+      <c r="X73" s="42"/>
+      <c r="Y73" s="42"/>
+      <c r="Z73" s="42"/>
+      <c r="AA73" s="42"/>
+      <c r="AB73" s="42"/>
+      <c r="AC73" s="42"/>
+      <c r="AD73" s="42"/>
+      <c r="AE73" s="42"/>
+      <c r="AF73" s="42"/>
+      <c r="AG73" s="42"/>
+      <c r="AH73" s="42"/>
+      <c r="AI73" s="42"/>
+      <c r="AJ73" s="42"/>
+      <c r="AK73" s="42"/>
+      <c r="AL73" s="53"/>
+      <c r="AM73" s="53"/>
+      <c r="AN73" s="53"/>
+      <c r="AO73" s="53"/>
+      <c r="AP73" s="53"/>
+      <c r="AQ73" s="53"/>
+      <c r="AR73" s="53"/>
+      <c r="AS73" s="53"/>
+      <c r="AT73" s="53"/>
+      <c r="AU73" s="53"/>
+      <c r="AV73" s="53"/>
+      <c r="AW73" s="54"/>
+      <c r="AX73" s="40"/>
+      <c r="AY73" s="40"/>
+      <c r="AZ73" s="40"/>
+      <c r="BA73" s="40"/>
+      <c r="BB73" s="40"/>
+      <c r="BC73" s="40"/>
+      <c r="BD73" s="40"/>
+      <c r="BE73" s="28"/>
       <c r="BF73" s="17"/>
       <c r="BG73" s="17"/>
       <c r="BH73" s="17"/>
-    </row>
-    <row r="74" spans="1:64" s="34" customFormat="1" ht="32" customHeight="1">
+      <c r="BI73" s="17"/>
+      <c r="BJ73" s="17"/>
+      <c r="BK73" s="17"/>
+    </row>
+    <row r="74" spans="1:64">
       <c r="A74" s="39"/>
-      <c r="B74" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C74" s="30"/>
-      <c r="D74" s="95" t="s">
-        <v>70</v>
-      </c>
-      <c r="E74" s="96"/>
-      <c r="F74" s="97"/>
-      <c r="G74" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="H74" s="49"/>
-      <c r="I74" s="49"/>
-      <c r="J74" s="49"/>
-      <c r="K74" s="49"/>
-      <c r="L74" s="49"/>
-      <c r="M74" s="49"/>
-      <c r="N74" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="O74" s="49"/>
-      <c r="P74" s="49"/>
-      <c r="Q74" s="49"/>
-      <c r="R74" s="50"/>
-      <c r="S74" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="T74" s="49"/>
-      <c r="U74" s="49"/>
-      <c r="V74" s="49"/>
-      <c r="W74" s="49"/>
-      <c r="X74" s="49"/>
-      <c r="Y74" s="49"/>
-      <c r="Z74" s="45" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA74" s="49"/>
-      <c r="AB74" s="49"/>
-      <c r="AC74" s="49"/>
-      <c r="AD74" s="49"/>
-      <c r="AE74" s="31"/>
-      <c r="AF74" s="31"/>
-      <c r="AG74" s="31"/>
-      <c r="AH74" s="31"/>
-      <c r="AI74" s="31"/>
-      <c r="AJ74" s="31"/>
-      <c r="AK74" s="31"/>
-      <c r="AL74" s="31"/>
-      <c r="AM74" s="31"/>
-      <c r="AN74" s="31"/>
-      <c r="AO74" s="31"/>
-      <c r="AP74" s="31"/>
-      <c r="AQ74" s="31"/>
-      <c r="AR74" s="31"/>
-      <c r="AS74" s="31"/>
-      <c r="AT74" s="32"/>
-      <c r="AU74" s="51"/>
-      <c r="AV74" s="51"/>
-      <c r="AW74" s="51"/>
-      <c r="AX74" s="51"/>
-      <c r="AY74" s="51"/>
-      <c r="AZ74" s="51"/>
-      <c r="BA74" s="51"/>
-      <c r="BE74" s="13"/>
+      <c r="B74" s="38"/>
+      <c r="C74" s="28"/>
+      <c r="D74" s="28"/>
+      <c r="E74" s="28"/>
+      <c r="F74" s="28"/>
+      <c r="G74" s="28"/>
+      <c r="H74" s="28"/>
+      <c r="I74" s="28"/>
+      <c r="J74" s="28"/>
+      <c r="K74" s="28"/>
+      <c r="L74" s="28"/>
+      <c r="M74" s="28"/>
+      <c r="N74" s="28"/>
+      <c r="O74" s="28"/>
+      <c r="P74" s="28"/>
+      <c r="Q74" s="28"/>
+      <c r="R74" s="28"/>
+      <c r="S74" s="28"/>
+      <c r="T74" s="28"/>
+      <c r="U74" s="28"/>
+      <c r="V74" s="28"/>
+      <c r="W74" s="28"/>
+      <c r="X74" s="28"/>
+      <c r="Y74" s="28"/>
+      <c r="Z74" s="28"/>
+      <c r="AA74" s="28"/>
+      <c r="AB74" s="28"/>
+      <c r="AC74" s="28"/>
+      <c r="AD74" s="28"/>
+      <c r="AE74" s="28"/>
+      <c r="AF74" s="28"/>
+      <c r="AG74" s="28"/>
+      <c r="AH74" s="28"/>
+      <c r="AI74" s="28"/>
+      <c r="AJ74" s="28"/>
+      <c r="AK74" s="28"/>
+      <c r="AL74" s="40"/>
+      <c r="AM74" s="40"/>
+      <c r="AN74" s="40"/>
+      <c r="AO74" s="40"/>
+      <c r="AP74" s="40"/>
+      <c r="AQ74" s="40"/>
+      <c r="AR74" s="40"/>
+      <c r="AS74" s="40"/>
+      <c r="AT74" s="40"/>
+      <c r="AU74" s="40"/>
+      <c r="AV74" s="40"/>
+      <c r="AW74" s="40"/>
+      <c r="AX74" s="40"/>
+      <c r="AY74" s="40"/>
+      <c r="AZ74" s="40"/>
+      <c r="BA74" s="40"/>
+      <c r="BB74" s="40"/>
+      <c r="BC74" s="40"/>
+      <c r="BD74" s="40"/>
+      <c r="BE74" s="28"/>
+      <c r="BF74" s="17"/>
+      <c r="BG74" s="17"/>
+      <c r="BH74" s="17"/>
+      <c r="BI74" s="17"/>
+      <c r="BJ74" s="17"/>
+      <c r="BK74" s="17"/>
     </row>
     <row r="75" spans="1:64">
       <c r="A75" s="39"/>
-      <c r="B75" s="44">
-        <v>1</v>
-      </c>
-      <c r="C75" s="43"/>
-      <c r="D75" s="41">
-        <v>2</v>
-      </c>
-      <c r="E75" s="42"/>
-      <c r="F75" s="42"/>
-      <c r="G75" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="H75" s="42"/>
-      <c r="I75" s="42"/>
-      <c r="J75" s="42"/>
-      <c r="K75" s="42"/>
-      <c r="L75" s="42"/>
-      <c r="M75" s="42"/>
-      <c r="N75" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="O75" s="42"/>
-      <c r="P75" s="42"/>
-      <c r="Q75" s="42"/>
-      <c r="R75" s="43"/>
-      <c r="S75" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="T75" s="42"/>
-      <c r="U75" s="42"/>
-      <c r="V75" s="42"/>
-      <c r="W75" s="42"/>
-      <c r="X75" s="42"/>
-      <c r="Y75" s="42"/>
-      <c r="Z75" s="41" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA75" s="42"/>
-      <c r="AB75" s="42"/>
-      <c r="AC75" s="42"/>
-      <c r="AD75" s="42"/>
-      <c r="AE75" s="42"/>
-      <c r="AF75" s="42"/>
-      <c r="AG75" s="42"/>
-      <c r="AH75" s="42"/>
-      <c r="AI75" s="42"/>
-      <c r="AJ75" s="42"/>
-      <c r="AK75" s="42"/>
-      <c r="AL75" s="42"/>
-      <c r="AM75" s="42"/>
-      <c r="AN75" s="42"/>
-      <c r="AO75" s="42"/>
-      <c r="AP75" s="42"/>
-      <c r="AQ75" s="42"/>
-      <c r="AR75" s="42"/>
-      <c r="AS75" s="42"/>
-      <c r="AT75" s="43"/>
-      <c r="AU75" s="34"/>
-      <c r="AV75" s="34"/>
-      <c r="AW75" s="34"/>
-      <c r="AX75" s="34"/>
-      <c r="AY75" s="34"/>
-      <c r="AZ75" s="34"/>
-      <c r="BA75" s="34"/>
-    </row>
-    <row r="76" spans="1:64">
+      <c r="B75" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="C75" s="28"/>
+      <c r="D75" s="28"/>
+      <c r="E75" s="28"/>
+      <c r="F75" s="28"/>
+      <c r="G75" s="28"/>
+      <c r="H75" s="28"/>
+      <c r="I75" s="28"/>
+      <c r="J75" s="28"/>
+      <c r="K75" s="28"/>
+      <c r="L75" s="28"/>
+      <c r="M75" s="28"/>
+      <c r="N75" s="28"/>
+      <c r="O75" s="28"/>
+      <c r="P75" s="28"/>
+      <c r="Q75" s="28"/>
+      <c r="R75" s="28"/>
+      <c r="S75" s="28"/>
+      <c r="T75" s="28"/>
+      <c r="U75" s="28"/>
+      <c r="V75" s="28"/>
+      <c r="W75" s="28"/>
+      <c r="X75" s="28"/>
+      <c r="Y75" s="28"/>
+      <c r="Z75" s="28"/>
+      <c r="AA75" s="28"/>
+      <c r="AB75" s="28"/>
+      <c r="AC75" s="28"/>
+      <c r="AD75" s="28"/>
+      <c r="AE75" s="28"/>
+      <c r="AF75" s="28"/>
+      <c r="AG75" s="28"/>
+      <c r="AH75" s="28"/>
+      <c r="AI75" s="28"/>
+      <c r="AJ75" s="28"/>
+      <c r="AK75" s="28"/>
+      <c r="AL75" s="28"/>
+      <c r="AM75" s="28"/>
+      <c r="AN75" s="28"/>
+      <c r="AO75" s="28"/>
+      <c r="AP75" s="28"/>
+      <c r="AQ75" s="28"/>
+      <c r="AR75" s="28"/>
+      <c r="AS75" s="28"/>
+      <c r="AT75" s="28"/>
+      <c r="AU75" s="28"/>
+      <c r="AV75" s="28"/>
+      <c r="AW75" s="28"/>
+      <c r="AX75" s="28"/>
+      <c r="AY75" s="28"/>
+      <c r="AZ75" s="28"/>
+      <c r="BA75" s="28"/>
+      <c r="BB75" s="17"/>
+      <c r="BC75" s="17"/>
+      <c r="BD75" s="17"/>
+      <c r="BE75" s="17"/>
+      <c r="BF75" s="17"/>
+      <c r="BG75" s="17"/>
+      <c r="BH75" s="17"/>
+    </row>
+    <row r="76" spans="1:64" s="34" customFormat="1" ht="32" customHeight="1">
       <c r="A76" s="39"/>
-      <c r="B76" s="44">
-        <v>2</v>
-      </c>
-      <c r="C76" s="43"/>
-      <c r="D76" s="41"/>
-      <c r="E76" s="42"/>
-      <c r="F76" s="42"/>
-      <c r="G76" s="41"/>
-      <c r="H76" s="42"/>
-      <c r="I76" s="42"/>
-      <c r="J76" s="42"/>
-      <c r="K76" s="42"/>
-      <c r="L76" s="42"/>
-      <c r="M76" s="42"/>
-      <c r="N76" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="O76" s="42"/>
-      <c r="P76" s="42"/>
-      <c r="Q76" s="42"/>
-      <c r="R76" s="43"/>
-      <c r="S76" s="52" t="s">
-        <v>76</v>
-      </c>
-      <c r="T76" s="42"/>
-      <c r="U76" s="42"/>
-      <c r="V76" s="42"/>
-      <c r="W76" s="42"/>
-      <c r="X76" s="42"/>
-      <c r="Y76" s="42"/>
-      <c r="Z76" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA76" s="42"/>
-      <c r="AB76" s="42"/>
-      <c r="AC76" s="42"/>
-      <c r="AD76" s="42"/>
-      <c r="AE76" s="42"/>
-      <c r="AF76" s="42"/>
-      <c r="AG76" s="42"/>
-      <c r="AH76" s="42"/>
-      <c r="AI76" s="42"/>
-      <c r="AJ76" s="42"/>
-      <c r="AK76" s="42"/>
-      <c r="AL76" s="42"/>
-      <c r="AM76" s="42"/>
-      <c r="AN76" s="42"/>
-      <c r="AO76" s="42"/>
-      <c r="AP76" s="42"/>
-      <c r="AQ76" s="42"/>
-      <c r="AR76" s="42"/>
-      <c r="AS76" s="42"/>
-      <c r="AT76" s="43"/>
-      <c r="AU76" s="34"/>
-      <c r="AV76" s="34"/>
-      <c r="AW76" s="34"/>
-      <c r="AX76" s="34"/>
-      <c r="AY76" s="34"/>
-      <c r="AZ76" s="34"/>
-      <c r="BA76" s="34"/>
+      <c r="B76" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C76" s="30"/>
+      <c r="D76" s="95" t="s">
+        <v>68</v>
+      </c>
+      <c r="E76" s="96"/>
+      <c r="F76" s="97"/>
+      <c r="G76" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="H76" s="49"/>
+      <c r="I76" s="49"/>
+      <c r="J76" s="49"/>
+      <c r="K76" s="49"/>
+      <c r="L76" s="49"/>
+      <c r="M76" s="49"/>
+      <c r="N76" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="O76" s="49"/>
+      <c r="P76" s="49"/>
+      <c r="Q76" s="49"/>
+      <c r="R76" s="50"/>
+      <c r="S76" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="T76" s="49"/>
+      <c r="U76" s="49"/>
+      <c r="V76" s="49"/>
+      <c r="W76" s="49"/>
+      <c r="X76" s="49"/>
+      <c r="Y76" s="49"/>
+      <c r="Z76" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA76" s="49"/>
+      <c r="AB76" s="49"/>
+      <c r="AC76" s="49"/>
+      <c r="AD76" s="49"/>
+      <c r="AE76" s="31"/>
+      <c r="AF76" s="31"/>
+      <c r="AG76" s="31"/>
+      <c r="AH76" s="31"/>
+      <c r="AI76" s="31"/>
+      <c r="AJ76" s="31"/>
+      <c r="AK76" s="31"/>
+      <c r="AL76" s="31"/>
+      <c r="AM76" s="31"/>
+      <c r="AN76" s="31"/>
+      <c r="AO76" s="31"/>
+      <c r="AP76" s="31"/>
+      <c r="AQ76" s="31"/>
+      <c r="AR76" s="31"/>
+      <c r="AS76" s="31"/>
+      <c r="AT76" s="32"/>
+      <c r="AU76" s="51"/>
+      <c r="AV76" s="51"/>
+      <c r="AW76" s="51"/>
+      <c r="AX76" s="51"/>
+      <c r="AY76" s="51"/>
+      <c r="AZ76" s="51"/>
+      <c r="BA76" s="51"/>
+      <c r="BE76" s="13"/>
     </row>
     <row r="77" spans="1:64">
       <c r="A77" s="39"/>
       <c r="B77" s="44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C77" s="43"/>
       <c r="D77" s="41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E77" s="42"/>
       <c r="F77" s="42"/>
       <c r="G77" s="41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H77" s="42"/>
       <c r="I77" s="42"/>
@@ -9716,7 +10663,7 @@
       <c r="L77" s="42"/>
       <c r="M77" s="42"/>
       <c r="N77" s="41" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O77" s="42"/>
       <c r="P77" s="42"/>
@@ -9732,7 +10679,7 @@
       <c r="X77" s="42"/>
       <c r="Y77" s="42"/>
       <c r="Z77" s="41" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AA77" s="42"/>
       <c r="AB77" s="42"/>
@@ -9765,7 +10712,7 @@
     <row r="78" spans="1:64">
       <c r="A78" s="39"/>
       <c r="B78" s="44">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C78" s="43"/>
       <c r="D78" s="41"/>
@@ -9779,14 +10726,14 @@
       <c r="L78" s="42"/>
       <c r="M78" s="42"/>
       <c r="N78" s="41" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O78" s="42"/>
       <c r="P78" s="42"/>
       <c r="Q78" s="42"/>
       <c r="R78" s="43"/>
       <c r="S78" s="52" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="T78" s="42"/>
       <c r="U78" s="42"/>
@@ -9795,7 +10742,7 @@
       <c r="X78" s="42"/>
       <c r="Y78" s="42"/>
       <c r="Z78" s="41" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AA78" s="42"/>
       <c r="AB78" s="42"/>
@@ -9828,7 +10775,7 @@
     <row r="79" spans="1:64">
       <c r="A79" s="39"/>
       <c r="B79" s="44">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C79" s="43"/>
       <c r="D79" s="41"/>
@@ -9842,14 +10789,14 @@
       <c r="L79" s="42"/>
       <c r="M79" s="42"/>
       <c r="N79" s="41" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O79" s="42"/>
       <c r="P79" s="42"/>
       <c r="Q79" s="42"/>
       <c r="R79" s="43"/>
       <c r="S79" s="52" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="T79" s="42"/>
       <c r="U79" s="42"/>
@@ -9858,7 +10805,7 @@
       <c r="X79" s="42"/>
       <c r="Y79" s="42"/>
       <c r="Z79" s="41" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AA79" s="42"/>
       <c r="AB79" s="42"/>
@@ -9891,7 +10838,7 @@
     <row r="80" spans="1:64">
       <c r="A80" s="39"/>
       <c r="B80" s="44">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C80" s="43"/>
       <c r="D80" s="41"/>
@@ -9905,14 +10852,14 @@
       <c r="L80" s="42"/>
       <c r="M80" s="42"/>
       <c r="N80" s="41" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O80" s="42"/>
       <c r="P80" s="42"/>
       <c r="Q80" s="42"/>
       <c r="R80" s="43"/>
       <c r="S80" s="52" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="T80" s="42"/>
       <c r="U80" s="42"/>
@@ -9921,7 +10868,7 @@
       <c r="X80" s="42"/>
       <c r="Y80" s="42"/>
       <c r="Z80" s="41" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AA80" s="42"/>
       <c r="AB80" s="42"/>
@@ -9954,17 +10901,13 @@
     <row r="81" spans="1:53">
       <c r="A81" s="39"/>
       <c r="B81" s="44">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C81" s="43"/>
-      <c r="D81" s="41">
-        <v>4</v>
-      </c>
+      <c r="D81" s="41"/>
       <c r="E81" s="42"/>
       <c r="F81" s="42"/>
-      <c r="G81" s="41" t="s">
-        <v>78</v>
-      </c>
+      <c r="G81" s="41"/>
       <c r="H81" s="42"/>
       <c r="I81" s="42"/>
       <c r="J81" s="42"/>
@@ -9972,7 +10915,7 @@
       <c r="L81" s="42"/>
       <c r="M81" s="42"/>
       <c r="N81" s="41" t="s">
-        <v>73</v>
+        <v>139</v>
       </c>
       <c r="O81" s="42"/>
       <c r="P81" s="42"/>
@@ -9988,7 +10931,7 @@
       <c r="X81" s="42"/>
       <c r="Y81" s="42"/>
       <c r="Z81" s="41" t="s">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="AA81" s="42"/>
       <c r="AB81" s="42"/>
@@ -10021,13 +10964,17 @@
     <row r="82" spans="1:53">
       <c r="A82" s="39"/>
       <c r="B82" s="44">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C82" s="43"/>
-      <c r="D82" s="41"/>
+      <c r="D82" s="41">
+        <v>4</v>
+      </c>
       <c r="E82" s="42"/>
       <c r="F82" s="42"/>
-      <c r="G82" s="41"/>
+      <c r="G82" s="41" t="s">
+        <v>52</v>
+      </c>
       <c r="H82" s="42"/>
       <c r="I82" s="42"/>
       <c r="J82" s="42"/>
@@ -10035,14 +10982,14 @@
       <c r="L82" s="42"/>
       <c r="M82" s="42"/>
       <c r="N82" s="41" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="O82" s="42"/>
       <c r="P82" s="42"/>
       <c r="Q82" s="42"/>
       <c r="R82" s="43"/>
       <c r="S82" s="52" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="T82" s="42"/>
       <c r="U82" s="42"/>
@@ -10051,7 +10998,7 @@
       <c r="X82" s="42"/>
       <c r="Y82" s="42"/>
       <c r="Z82" s="41" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="AA82" s="42"/>
       <c r="AB82" s="42"/>
@@ -10084,7 +11031,7 @@
     <row r="83" spans="1:53">
       <c r="A83" s="39"/>
       <c r="B83" s="44">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C83" s="43"/>
       <c r="D83" s="41"/>
@@ -10098,14 +11045,14 @@
       <c r="L83" s="42"/>
       <c r="M83" s="42"/>
       <c r="N83" s="41" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="O83" s="42"/>
       <c r="P83" s="42"/>
       <c r="Q83" s="42"/>
       <c r="R83" s="43"/>
       <c r="S83" s="52" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="T83" s="42"/>
       <c r="U83" s="42"/>
@@ -10114,7 +11061,7 @@
       <c r="X83" s="42"/>
       <c r="Y83" s="42"/>
       <c r="Z83" s="41" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AA83" s="42"/>
       <c r="AB83" s="42"/>
@@ -10147,13 +11094,17 @@
     <row r="84" spans="1:53">
       <c r="A84" s="39"/>
       <c r="B84" s="44">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C84" s="43"/>
-      <c r="D84" s="41"/>
+      <c r="D84" s="41">
+        <v>5</v>
+      </c>
       <c r="E84" s="42"/>
       <c r="F84" s="42"/>
-      <c r="G84" s="41"/>
+      <c r="G84" s="41" t="s">
+        <v>76</v>
+      </c>
       <c r="H84" s="42"/>
       <c r="I84" s="42"/>
       <c r="J84" s="42"/>
@@ -10161,14 +11112,14 @@
       <c r="L84" s="42"/>
       <c r="M84" s="42"/>
       <c r="N84" s="41" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="O84" s="42"/>
       <c r="P84" s="42"/>
       <c r="Q84" s="42"/>
       <c r="R84" s="43"/>
       <c r="S84" s="52" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="T84" s="42"/>
       <c r="U84" s="42"/>
@@ -10177,7 +11128,7 @@
       <c r="X84" s="42"/>
       <c r="Y84" s="42"/>
       <c r="Z84" s="41" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AA84" s="42"/>
       <c r="AB84" s="42"/>
@@ -10210,7 +11161,7 @@
     <row r="85" spans="1:53">
       <c r="A85" s="39"/>
       <c r="B85" s="44">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C85" s="43"/>
       <c r="D85" s="41"/>
@@ -10224,14 +11175,14 @@
       <c r="L85" s="42"/>
       <c r="M85" s="42"/>
       <c r="N85" s="41" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="O85" s="42"/>
       <c r="P85" s="42"/>
       <c r="Q85" s="42"/>
       <c r="R85" s="43"/>
       <c r="S85" s="52" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="T85" s="42"/>
       <c r="U85" s="42"/>
@@ -10240,7 +11191,7 @@
       <c r="X85" s="42"/>
       <c r="Y85" s="42"/>
       <c r="Z85" s="41" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AA85" s="42"/>
       <c r="AB85" s="42"/>
@@ -10273,17 +11224,13 @@
     <row r="86" spans="1:53">
       <c r="A86" s="39"/>
       <c r="B86" s="44">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C86" s="43"/>
-      <c r="D86" s="41">
-        <v>6</v>
-      </c>
+      <c r="D86" s="41"/>
       <c r="E86" s="42"/>
       <c r="F86" s="42"/>
-      <c r="G86" s="41" t="s">
-        <v>98</v>
-      </c>
+      <c r="G86" s="41"/>
       <c r="H86" s="42"/>
       <c r="I86" s="42"/>
       <c r="J86" s="42"/>
@@ -10291,14 +11238,14 @@
       <c r="L86" s="42"/>
       <c r="M86" s="42"/>
       <c r="N86" s="41" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="O86" s="42"/>
       <c r="P86" s="42"/>
       <c r="Q86" s="42"/>
       <c r="R86" s="43"/>
       <c r="S86" s="52" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="T86" s="42"/>
       <c r="U86" s="42"/>
@@ -10307,7 +11254,7 @@
       <c r="X86" s="42"/>
       <c r="Y86" s="42"/>
       <c r="Z86" s="41" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="AA86" s="42"/>
       <c r="AB86" s="42"/>
@@ -10340,7 +11287,7 @@
     <row r="87" spans="1:53">
       <c r="A87" s="39"/>
       <c r="B87" s="44">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C87" s="43"/>
       <c r="D87" s="41"/>
@@ -10354,14 +11301,14 @@
       <c r="L87" s="42"/>
       <c r="M87" s="42"/>
       <c r="N87" s="41" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O87" s="42"/>
       <c r="P87" s="42"/>
       <c r="Q87" s="42"/>
       <c r="R87" s="43"/>
       <c r="S87" s="52" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="T87" s="42"/>
       <c r="U87" s="42"/>
@@ -10370,7 +11317,7 @@
       <c r="X87" s="42"/>
       <c r="Y87" s="42"/>
       <c r="Z87" s="41" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AA87" s="42"/>
       <c r="AB87" s="42"/>
@@ -10403,7 +11350,7 @@
     <row r="88" spans="1:53">
       <c r="A88" s="39"/>
       <c r="B88" s="44">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C88" s="43"/>
       <c r="D88" s="41"/>
@@ -10417,14 +11364,14 @@
       <c r="L88" s="42"/>
       <c r="M88" s="42"/>
       <c r="N88" s="41" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O88" s="42"/>
       <c r="P88" s="42"/>
       <c r="Q88" s="42"/>
       <c r="R88" s="43"/>
       <c r="S88" s="52" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T88" s="42"/>
       <c r="U88" s="42"/>
@@ -10433,7 +11380,7 @@
       <c r="X88" s="42"/>
       <c r="Y88" s="42"/>
       <c r="Z88" s="41" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="AA88" s="42"/>
       <c r="AB88" s="42"/>
@@ -10466,13 +11413,17 @@
     <row r="89" spans="1:53">
       <c r="A89" s="39"/>
       <c r="B89" s="44">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C89" s="43"/>
-      <c r="D89" s="41"/>
+      <c r="D89" s="41">
+        <v>7</v>
+      </c>
       <c r="E89" s="42"/>
       <c r="F89" s="42"/>
-      <c r="G89" s="41"/>
+      <c r="G89" s="41" t="s">
+        <v>96</v>
+      </c>
       <c r="H89" s="42"/>
       <c r="I89" s="42"/>
       <c r="J89" s="42"/>
@@ -10480,14 +11431,14 @@
       <c r="L89" s="42"/>
       <c r="M89" s="42"/>
       <c r="N89" s="41" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="O89" s="42"/>
       <c r="P89" s="42"/>
       <c r="Q89" s="42"/>
       <c r="R89" s="43"/>
       <c r="S89" s="52" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="T89" s="42"/>
       <c r="U89" s="42"/>
@@ -10496,7 +11447,7 @@
       <c r="X89" s="42"/>
       <c r="Y89" s="42"/>
       <c r="Z89" s="41" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="AA89" s="42"/>
       <c r="AB89" s="42"/>
@@ -10529,7 +11480,7 @@
     <row r="90" spans="1:53">
       <c r="A90" s="39"/>
       <c r="B90" s="44">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C90" s="43"/>
       <c r="D90" s="41"/>
@@ -10543,14 +11494,14 @@
       <c r="L90" s="42"/>
       <c r="M90" s="42"/>
       <c r="N90" s="41" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="O90" s="42"/>
       <c r="P90" s="42"/>
       <c r="Q90" s="42"/>
       <c r="R90" s="43"/>
       <c r="S90" s="52" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="T90" s="42"/>
       <c r="U90" s="42"/>
@@ -10559,7 +11510,7 @@
       <c r="X90" s="42"/>
       <c r="Y90" s="42"/>
       <c r="Z90" s="41" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="AA90" s="42"/>
       <c r="AB90" s="42"/>
@@ -10592,17 +11543,13 @@
     <row r="91" spans="1:53">
       <c r="A91" s="39"/>
       <c r="B91" s="44">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C91" s="43"/>
-      <c r="D91" s="41" t="s">
-        <v>107</v>
-      </c>
+      <c r="D91" s="41"/>
       <c r="E91" s="42"/>
       <c r="F91" s="42"/>
-      <c r="G91" s="41" t="s">
-        <v>104</v>
-      </c>
+      <c r="G91" s="41"/>
       <c r="H91" s="42"/>
       <c r="I91" s="42"/>
       <c r="J91" s="42"/>
@@ -10610,14 +11557,14 @@
       <c r="L91" s="42"/>
       <c r="M91" s="42"/>
       <c r="N91" s="41" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="O91" s="42"/>
       <c r="P91" s="42"/>
       <c r="Q91" s="42"/>
       <c r="R91" s="43"/>
       <c r="S91" s="52" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="T91" s="42"/>
       <c r="U91" s="42"/>
@@ -10626,7 +11573,7 @@
       <c r="X91" s="42"/>
       <c r="Y91" s="42"/>
       <c r="Z91" s="41" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="AA91" s="42"/>
       <c r="AB91" s="42"/>
@@ -10656,10 +11603,203 @@
       <c r="AZ91" s="34"/>
       <c r="BA91" s="34"/>
     </row>
+    <row r="92" spans="1:53">
+      <c r="A92" s="39"/>
+      <c r="B92" s="44">
+        <v>16</v>
+      </c>
+      <c r="C92" s="43"/>
+      <c r="D92" s="41"/>
+      <c r="E92" s="42"/>
+      <c r="F92" s="42"/>
+      <c r="G92" s="41"/>
+      <c r="H92" s="42"/>
+      <c r="I92" s="42"/>
+      <c r="J92" s="42"/>
+      <c r="K92" s="42"/>
+      <c r="L92" s="42"/>
+      <c r="M92" s="42"/>
+      <c r="N92" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="O92" s="42"/>
+      <c r="P92" s="42"/>
+      <c r="Q92" s="42"/>
+      <c r="R92" s="43"/>
+      <c r="S92" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="T92" s="42"/>
+      <c r="U92" s="42"/>
+      <c r="V92" s="42"/>
+      <c r="W92" s="42"/>
+      <c r="X92" s="42"/>
+      <c r="Y92" s="42"/>
+      <c r="Z92" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA92" s="42"/>
+      <c r="AB92" s="42"/>
+      <c r="AC92" s="42"/>
+      <c r="AD92" s="42"/>
+      <c r="AE92" s="42"/>
+      <c r="AF92" s="42"/>
+      <c r="AG92" s="42"/>
+      <c r="AH92" s="42"/>
+      <c r="AI92" s="42"/>
+      <c r="AJ92" s="42"/>
+      <c r="AK92" s="42"/>
+      <c r="AL92" s="42"/>
+      <c r="AM92" s="42"/>
+      <c r="AN92" s="42"/>
+      <c r="AO92" s="42"/>
+      <c r="AP92" s="42"/>
+      <c r="AQ92" s="42"/>
+      <c r="AR92" s="42"/>
+      <c r="AS92" s="42"/>
+      <c r="AT92" s="43"/>
+      <c r="AU92" s="34"/>
+      <c r="AV92" s="34"/>
+      <c r="AW92" s="34"/>
+      <c r="AX92" s="34"/>
+      <c r="AY92" s="34"/>
+      <c r="AZ92" s="34"/>
+      <c r="BA92" s="34"/>
+    </row>
+    <row r="93" spans="1:53">
+      <c r="A93" s="39"/>
+      <c r="B93" s="44">
+        <v>17</v>
+      </c>
+      <c r="C93" s="43"/>
+      <c r="D93" s="41"/>
+      <c r="E93" s="42"/>
+      <c r="F93" s="42"/>
+      <c r="G93" s="41"/>
+      <c r="H93" s="42"/>
+      <c r="I93" s="42"/>
+      <c r="J93" s="42"/>
+      <c r="K93" s="42"/>
+      <c r="L93" s="42"/>
+      <c r="M93" s="42"/>
+      <c r="N93" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="O93" s="42"/>
+      <c r="P93" s="42"/>
+      <c r="Q93" s="42"/>
+      <c r="R93" s="43"/>
+      <c r="S93" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="T93" s="42"/>
+      <c r="U93" s="42"/>
+      <c r="V93" s="42"/>
+      <c r="W93" s="42"/>
+      <c r="X93" s="42"/>
+      <c r="Y93" s="42"/>
+      <c r="Z93" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA93" s="42"/>
+      <c r="AB93" s="42"/>
+      <c r="AC93" s="42"/>
+      <c r="AD93" s="42"/>
+      <c r="AE93" s="42"/>
+      <c r="AF93" s="42"/>
+      <c r="AG93" s="42"/>
+      <c r="AH93" s="42"/>
+      <c r="AI93" s="42"/>
+      <c r="AJ93" s="42"/>
+      <c r="AK93" s="42"/>
+      <c r="AL93" s="42"/>
+      <c r="AM93" s="42"/>
+      <c r="AN93" s="42"/>
+      <c r="AO93" s="42"/>
+      <c r="AP93" s="42"/>
+      <c r="AQ93" s="42"/>
+      <c r="AR93" s="42"/>
+      <c r="AS93" s="42"/>
+      <c r="AT93" s="43"/>
+      <c r="AU93" s="34"/>
+      <c r="AV93" s="34"/>
+      <c r="AW93" s="34"/>
+      <c r="AX93" s="34"/>
+      <c r="AY93" s="34"/>
+      <c r="AZ93" s="34"/>
+      <c r="BA93" s="34"/>
+    </row>
+    <row r="94" spans="1:53">
+      <c r="A94" s="39"/>
+      <c r="B94" s="44">
+        <v>18</v>
+      </c>
+      <c r="C94" s="43"/>
+      <c r="D94" s="41" t="s">
+        <v>147</v>
+      </c>
+      <c r="E94" s="42"/>
+      <c r="F94" s="42"/>
+      <c r="G94" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="H94" s="42"/>
+      <c r="I94" s="42"/>
+      <c r="J94" s="42"/>
+      <c r="K94" s="42"/>
+      <c r="L94" s="42"/>
+      <c r="M94" s="42"/>
+      <c r="N94" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="O94" s="42"/>
+      <c r="P94" s="42"/>
+      <c r="Q94" s="42"/>
+      <c r="R94" s="43"/>
+      <c r="S94" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="T94" s="42"/>
+      <c r="U94" s="42"/>
+      <c r="V94" s="42"/>
+      <c r="W94" s="42"/>
+      <c r="X94" s="42"/>
+      <c r="Y94" s="42"/>
+      <c r="Z94" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA94" s="42"/>
+      <c r="AB94" s="42"/>
+      <c r="AC94" s="42"/>
+      <c r="AD94" s="42"/>
+      <c r="AE94" s="42"/>
+      <c r="AF94" s="42"/>
+      <c r="AG94" s="42"/>
+      <c r="AH94" s="42"/>
+      <c r="AI94" s="42"/>
+      <c r="AJ94" s="42"/>
+      <c r="AK94" s="42"/>
+      <c r="AL94" s="42"/>
+      <c r="AM94" s="42"/>
+      <c r="AN94" s="42"/>
+      <c r="AO94" s="42"/>
+      <c r="AP94" s="42"/>
+      <c r="AQ94" s="42"/>
+      <c r="AR94" s="42"/>
+      <c r="AS94" s="42"/>
+      <c r="AT94" s="43"/>
+      <c r="AU94" s="34"/>
+      <c r="AV94" s="34"/>
+      <c r="AW94" s="34"/>
+      <c r="AX94" s="34"/>
+      <c r="AY94" s="34"/>
+      <c r="AZ94" s="34"/>
+      <c r="BA94" s="34"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="K67:R67"/>
-    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="K68:R68"/>
+    <mergeCell ref="D76:F76"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10693,13 +11833,13 @@
   <sheetData>
     <row r="2" spans="2:4" ht="18">
       <c r="B2" s="57" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C2" s="57" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D2" s="57" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="18">
@@ -10707,10 +11847,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="58" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D3" s="58" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="18">
@@ -10718,10 +11858,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="58" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D4" s="58" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="18">
@@ -10729,10 +11869,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="58" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D5" s="58" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="18">
@@ -10740,10 +11880,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="58" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D6" s="58" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="18">
@@ -10751,10 +11891,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="58" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D7" s="58" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="18">
@@ -10762,10 +11902,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="58" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D8" s="58" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="18">
@@ -10773,10 +11913,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="58" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D9" s="58" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="18">
@@ -10784,10 +11924,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="58" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D10" s="58" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="18">
@@ -10795,10 +11935,10 @@
         <v>9</v>
       </c>
       <c r="C11" s="58" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D11" s="58" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="18">
@@ -10806,10 +11946,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="58" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D12" s="58" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="18">
@@ -10817,10 +11957,10 @@
         <v>11</v>
       </c>
       <c r="C13" s="58" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D13" s="58" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="18">
@@ -10828,10 +11968,10 @@
         <v>12</v>
       </c>
       <c r="C14" s="58" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D14" s="58" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="18">
@@ -10839,10 +11979,10 @@
         <v>13</v>
       </c>
       <c r="C15" s="58" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D15" s="58" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="18">
@@ -10850,10 +11990,10 @@
         <v>14</v>
       </c>
       <c r="C16" s="58" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D16" s="58" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="18">
@@ -10861,10 +12001,10 @@
         <v>15</v>
       </c>
       <c r="C17" s="58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D17" s="58" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/2021年_テトリス/02_基本設計書/【基本設計】画面設計書(処理設計)_会員登録画面.xlsx
+++ b/2021年_テトリス/02_基本設計書/【基本設計】画面設計書(処理設計)_会員登録画面.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itoitomohiro/document/flutter_document/2021年_テトリス/02_基本設計書/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iwasuji/document/2021年_テトリス/02_基本設計書/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311B3CCC-8A32-7F45-9755-CF78EFCFBD1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942E3C74-AAE2-0E46-9FA0-86940ED3F180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" activeTab="2" xr2:uid="{3C8D862C-6145-E842-B259-880AA5F992AF}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{3C8D862C-6145-E842-B259-880AA5F992AF}"/>
   </bookViews>
   <sheets>
     <sheet name="ヘッダー" sheetId="2" r:id="rId1"/>
@@ -32,9 +32,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -335,19 +333,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・トップ画面メニューの会員登録ボタン押下時に遷移する画面</t>
-    <rPh sb="11" eb="15">
-      <t>カイイn</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>画面遷移時</t>
     <rPh sb="0" eb="5">
       <t>ガメn</t>
@@ -911,10 +896,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ホームに戻る</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>活性化</t>
     <rPh sb="0" eb="1">
       <t>カッセイ</t>
@@ -969,6 +950,29 @@
   </si>
   <si>
     <t>5、７</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戻る</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">モドル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・トップメニュー画面（ログイン前）の会員登録ボタン押下時に遷移する画面</t>
+    <rPh sb="15" eb="16">
+      <t xml:space="preserve">マエ </t>
+    </rPh>
+    <rPh sb="18" eb="22">
+      <t>カイイn</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>センイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1450,33 +1454,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1522,6 +1499,42 @@
     <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1538,15 +1551,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1614,7 +1618,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s3943"/>
+                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s3965"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1673,7 +1677,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s2914"/>
+                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s2936"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3705,198 +3709,198 @@
   </sheetPr>
   <dimension ref="A1:BB4"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="AP4" sqref="AP4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:54" ht="15" customHeight="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="68" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="68" t="s">
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
-      <c r="W1" s="69"/>
-      <c r="X1" s="69"/>
-      <c r="Y1" s="69"/>
-      <c r="Z1" s="69"/>
-      <c r="AA1" s="69"/>
-      <c r="AB1" s="69"/>
-      <c r="AC1" s="69"/>
-      <c r="AD1" s="69"/>
-      <c r="AE1" s="70"/>
-      <c r="AF1" s="68" t="s">
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
+      <c r="W1" s="60"/>
+      <c r="X1" s="60"/>
+      <c r="Y1" s="60"/>
+      <c r="Z1" s="60"/>
+      <c r="AA1" s="60"/>
+      <c r="AB1" s="60"/>
+      <c r="AC1" s="60"/>
+      <c r="AD1" s="60"/>
+      <c r="AE1" s="61"/>
+      <c r="AF1" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="AG1" s="69"/>
-      <c r="AH1" s="69"/>
-      <c r="AI1" s="69"/>
-      <c r="AJ1" s="70"/>
-      <c r="AK1" s="68" t="s">
+      <c r="AG1" s="60"/>
+      <c r="AH1" s="60"/>
+      <c r="AI1" s="60"/>
+      <c r="AJ1" s="61"/>
+      <c r="AK1" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="AL1" s="69"/>
-      <c r="AM1" s="69"/>
-      <c r="AN1" s="69"/>
-      <c r="AO1" s="70"/>
-      <c r="AP1" s="68" t="s">
+      <c r="AL1" s="60"/>
+      <c r="AM1" s="60"/>
+      <c r="AN1" s="60"/>
+      <c r="AO1" s="61"/>
+      <c r="AP1" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="AQ1" s="69"/>
-      <c r="AR1" s="69"/>
-      <c r="AS1" s="69"/>
-      <c r="AT1" s="70"/>
-      <c r="AU1" s="68" t="s">
+      <c r="AQ1" s="60"/>
+      <c r="AR1" s="60"/>
+      <c r="AS1" s="60"/>
+      <c r="AT1" s="61"/>
+      <c r="AU1" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="AV1" s="69"/>
-      <c r="AW1" s="69"/>
-      <c r="AX1" s="69"/>
-      <c r="AY1" s="70"/>
+      <c r="AV1" s="60"/>
+      <c r="AW1" s="60"/>
+      <c r="AX1" s="60"/>
+      <c r="AY1" s="61"/>
       <c r="BB1" s="3"/>
     </row>
     <row r="2" spans="1:54" ht="15" customHeight="1">
-      <c r="A2" s="62"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="71" t="s">
+      <c r="A2" s="77"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="71" t="s">
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
-      <c r="T2" s="72"/>
-      <c r="U2" s="72"/>
-      <c r="V2" s="72"/>
-      <c r="W2" s="72"/>
-      <c r="X2" s="72"/>
-      <c r="Y2" s="72"/>
-      <c r="Z2" s="72"/>
-      <c r="AA2" s="72"/>
-      <c r="AB2" s="72"/>
-      <c r="AC2" s="72"/>
-      <c r="AD2" s="72"/>
-      <c r="AE2" s="73"/>
-      <c r="AF2" s="77">
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="63"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="63"/>
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="64"/>
+      <c r="AF2" s="68">
         <v>44555</v>
       </c>
-      <c r="AG2" s="78"/>
-      <c r="AH2" s="78"/>
-      <c r="AI2" s="78"/>
-      <c r="AJ2" s="79"/>
-      <c r="AK2" s="71" t="s">
+      <c r="AG2" s="69"/>
+      <c r="AH2" s="69"/>
+      <c r="AI2" s="69"/>
+      <c r="AJ2" s="70"/>
+      <c r="AK2" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="AL2" s="72"/>
-      <c r="AM2" s="72"/>
-      <c r="AN2" s="72"/>
-      <c r="AO2" s="73"/>
-      <c r="AP2" s="77">
+      <c r="AL2" s="63"/>
+      <c r="AM2" s="63"/>
+      <c r="AN2" s="63"/>
+      <c r="AO2" s="64"/>
+      <c r="AP2" s="68">
         <v>44598</v>
       </c>
-      <c r="AQ2" s="78"/>
-      <c r="AR2" s="78"/>
-      <c r="AS2" s="78"/>
-      <c r="AT2" s="79"/>
-      <c r="AU2" s="71" t="s">
+      <c r="AQ2" s="69"/>
+      <c r="AR2" s="69"/>
+      <c r="AS2" s="69"/>
+      <c r="AT2" s="70"/>
+      <c r="AU2" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="AV2" s="72"/>
-      <c r="AW2" s="72"/>
-      <c r="AX2" s="72"/>
-      <c r="AY2" s="73"/>
+      <c r="AV2" s="63"/>
+      <c r="AW2" s="63"/>
+      <c r="AX2" s="63"/>
+      <c r="AY2" s="64"/>
       <c r="BB2" s="3"/>
     </row>
     <row r="3" spans="1:54" ht="15" customHeight="1">
-      <c r="A3" s="65"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="75"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="75"/>
-      <c r="R3" s="75"/>
-      <c r="S3" s="75"/>
-      <c r="T3" s="75"/>
-      <c r="U3" s="75"/>
-      <c r="V3" s="75"/>
-      <c r="W3" s="75"/>
-      <c r="X3" s="75"/>
-      <c r="Y3" s="75"/>
-      <c r="Z3" s="75"/>
-      <c r="AA3" s="75"/>
-      <c r="AB3" s="75"/>
-      <c r="AC3" s="75"/>
-      <c r="AD3" s="75"/>
-      <c r="AE3" s="76"/>
-      <c r="AF3" s="80"/>
-      <c r="AG3" s="81"/>
-      <c r="AH3" s="81"/>
-      <c r="AI3" s="81"/>
-      <c r="AJ3" s="82"/>
-      <c r="AK3" s="74"/>
-      <c r="AL3" s="75"/>
-      <c r="AM3" s="75"/>
-      <c r="AN3" s="75"/>
-      <c r="AO3" s="76"/>
-      <c r="AP3" s="80"/>
-      <c r="AQ3" s="81"/>
-      <c r="AR3" s="81"/>
-      <c r="AS3" s="81"/>
-      <c r="AT3" s="82"/>
-      <c r="AU3" s="74"/>
-      <c r="AV3" s="75"/>
-      <c r="AW3" s="75"/>
-      <c r="AX3" s="75"/>
-      <c r="AY3" s="76"/>
+      <c r="A3" s="80"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="66"/>
+      <c r="T3" s="66"/>
+      <c r="U3" s="66"/>
+      <c r="V3" s="66"/>
+      <c r="W3" s="66"/>
+      <c r="X3" s="66"/>
+      <c r="Y3" s="66"/>
+      <c r="Z3" s="66"/>
+      <c r="AA3" s="66"/>
+      <c r="AB3" s="66"/>
+      <c r="AC3" s="66"/>
+      <c r="AD3" s="66"/>
+      <c r="AE3" s="67"/>
+      <c r="AF3" s="71"/>
+      <c r="AG3" s="72"/>
+      <c r="AH3" s="72"/>
+      <c r="AI3" s="72"/>
+      <c r="AJ3" s="73"/>
+      <c r="AK3" s="65"/>
+      <c r="AL3" s="66"/>
+      <c r="AM3" s="66"/>
+      <c r="AN3" s="66"/>
+      <c r="AO3" s="67"/>
+      <c r="AP3" s="71"/>
+      <c r="AQ3" s="72"/>
+      <c r="AR3" s="72"/>
+      <c r="AS3" s="72"/>
+      <c r="AT3" s="73"/>
+      <c r="AU3" s="65"/>
+      <c r="AV3" s="66"/>
+      <c r="AW3" s="66"/>
+      <c r="AX3" s="66"/>
+      <c r="AY3" s="67"/>
       <c r="BB3" s="3"/>
     </row>
     <row r="4" spans="1:54" ht="15" customHeight="1">
@@ -3913,6 +3917,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:E3"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="K1:AE1"/>
+    <mergeCell ref="K2:AE3"/>
+    <mergeCell ref="F2:J3"/>
     <mergeCell ref="AF1:AJ1"/>
     <mergeCell ref="AK1:AO1"/>
     <mergeCell ref="AP1:AT1"/>
@@ -3921,11 +3930,6 @@
     <mergeCell ref="AP2:AT3"/>
     <mergeCell ref="AK2:AO3"/>
     <mergeCell ref="AF2:AJ3"/>
-    <mergeCell ref="A1:E3"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="K1:AE1"/>
-    <mergeCell ref="K2:AE3"/>
-    <mergeCell ref="F2:J3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4027,64 +4031,64 @@
         <v>1</v>
       </c>
       <c r="B8" s="10"/>
-      <c r="C8" s="89" t="s">
+      <c r="C8" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="83">
+      <c r="D8" s="84"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="86">
         <v>44555</v>
       </c>
-      <c r="H8" s="84"/>
-      <c r="I8" s="84"/>
-      <c r="J8" s="84"/>
-      <c r="K8" s="85"/>
-      <c r="L8" s="86" t="s">
+      <c r="H8" s="87"/>
+      <c r="I8" s="87"/>
+      <c r="J8" s="87"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="M8" s="87"/>
-      <c r="N8" s="87"/>
-      <c r="O8" s="87"/>
-      <c r="P8" s="88"/>
-      <c r="Q8" s="86" t="s">
+      <c r="M8" s="90"/>
+      <c r="N8" s="90"/>
+      <c r="O8" s="90"/>
+      <c r="P8" s="91"/>
+      <c r="Q8" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="R8" s="87"/>
-      <c r="S8" s="87"/>
-      <c r="T8" s="87"/>
-      <c r="U8" s="87"/>
-      <c r="V8" s="87"/>
-      <c r="W8" s="87"/>
-      <c r="X8" s="87"/>
-      <c r="Y8" s="87"/>
-      <c r="Z8" s="87"/>
-      <c r="AA8" s="87"/>
-      <c r="AB8" s="87"/>
-      <c r="AC8" s="87"/>
-      <c r="AD8" s="87"/>
-      <c r="AE8" s="87"/>
-      <c r="AF8" s="87"/>
-      <c r="AG8" s="87"/>
-      <c r="AH8" s="87"/>
-      <c r="AI8" s="87"/>
-      <c r="AJ8" s="87"/>
-      <c r="AK8" s="87"/>
-      <c r="AL8" s="88"/>
-      <c r="AM8" s="86"/>
-      <c r="AN8" s="87"/>
-      <c r="AO8" s="87"/>
-      <c r="AP8" s="87"/>
-      <c r="AQ8" s="87"/>
-      <c r="AR8" s="87"/>
-      <c r="AS8" s="87"/>
-      <c r="AT8" s="87"/>
-      <c r="AU8" s="87"/>
-      <c r="AV8" s="87"/>
-      <c r="AW8" s="87"/>
-      <c r="AX8" s="87"/>
-      <c r="AY8" s="87"/>
-      <c r="AZ8" s="88"/>
+      <c r="R8" s="90"/>
+      <c r="S8" s="90"/>
+      <c r="T8" s="90"/>
+      <c r="U8" s="90"/>
+      <c r="V8" s="90"/>
+      <c r="W8" s="90"/>
+      <c r="X8" s="90"/>
+      <c r="Y8" s="90"/>
+      <c r="Z8" s="90"/>
+      <c r="AA8" s="90"/>
+      <c r="AB8" s="90"/>
+      <c r="AC8" s="90"/>
+      <c r="AD8" s="90"/>
+      <c r="AE8" s="90"/>
+      <c r="AF8" s="90"/>
+      <c r="AG8" s="90"/>
+      <c r="AH8" s="90"/>
+      <c r="AI8" s="90"/>
+      <c r="AJ8" s="90"/>
+      <c r="AK8" s="90"/>
+      <c r="AL8" s="91"/>
+      <c r="AM8" s="89"/>
+      <c r="AN8" s="90"/>
+      <c r="AO8" s="90"/>
+      <c r="AP8" s="90"/>
+      <c r="AQ8" s="90"/>
+      <c r="AR8" s="90"/>
+      <c r="AS8" s="90"/>
+      <c r="AT8" s="90"/>
+      <c r="AU8" s="90"/>
+      <c r="AV8" s="90"/>
+      <c r="AW8" s="90"/>
+      <c r="AX8" s="90"/>
+      <c r="AY8" s="90"/>
+      <c r="AZ8" s="91"/>
     </row>
     <row r="9" spans="1:52">
       <c r="A9" s="9">
@@ -4092,192 +4096,192 @@
         <v>2</v>
       </c>
       <c r="B9" s="10"/>
-      <c r="C9" s="89">
+      <c r="C9" s="83">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D9" s="90"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="83">
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="86">
         <v>44570</v>
       </c>
-      <c r="H9" s="84"/>
-      <c r="I9" s="84"/>
-      <c r="J9" s="84"/>
-      <c r="K9" s="85"/>
-      <c r="L9" s="86" t="s">
+      <c r="H9" s="87"/>
+      <c r="I9" s="87"/>
+      <c r="J9" s="87"/>
+      <c r="K9" s="88"/>
+      <c r="L9" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="M9" s="87"/>
-      <c r="N9" s="87"/>
-      <c r="O9" s="87"/>
-      <c r="P9" s="88"/>
-      <c r="Q9" s="86" t="s">
+      <c r="M9" s="90"/>
+      <c r="N9" s="90"/>
+      <c r="O9" s="90"/>
+      <c r="P9" s="91"/>
+      <c r="Q9" s="89" t="s">
         <v>40</v>
       </c>
-      <c r="R9" s="87"/>
-      <c r="S9" s="87"/>
-      <c r="T9" s="87"/>
-      <c r="U9" s="87"/>
-      <c r="V9" s="87"/>
-      <c r="W9" s="87"/>
-      <c r="X9" s="87"/>
-      <c r="Y9" s="87"/>
-      <c r="Z9" s="87"/>
-      <c r="AA9" s="87"/>
-      <c r="AB9" s="87"/>
-      <c r="AC9" s="87"/>
-      <c r="AD9" s="87"/>
-      <c r="AE9" s="87"/>
-      <c r="AF9" s="87"/>
-      <c r="AG9" s="87"/>
-      <c r="AH9" s="87"/>
-      <c r="AI9" s="87"/>
-      <c r="AJ9" s="87"/>
-      <c r="AK9" s="87"/>
-      <c r="AL9" s="88"/>
-      <c r="AM9" s="86"/>
-      <c r="AN9" s="87"/>
-      <c r="AO9" s="87"/>
-      <c r="AP9" s="87"/>
-      <c r="AQ9" s="87"/>
-      <c r="AR9" s="87"/>
-      <c r="AS9" s="87"/>
-      <c r="AT9" s="87"/>
-      <c r="AU9" s="87"/>
-      <c r="AV9" s="87"/>
-      <c r="AW9" s="87"/>
-      <c r="AX9" s="87"/>
-      <c r="AY9" s="87"/>
-      <c r="AZ9" s="88"/>
+      <c r="R9" s="90"/>
+      <c r="S9" s="90"/>
+      <c r="T9" s="90"/>
+      <c r="U9" s="90"/>
+      <c r="V9" s="90"/>
+      <c r="W9" s="90"/>
+      <c r="X9" s="90"/>
+      <c r="Y9" s="90"/>
+      <c r="Z9" s="90"/>
+      <c r="AA9" s="90"/>
+      <c r="AB9" s="90"/>
+      <c r="AC9" s="90"/>
+      <c r="AD9" s="90"/>
+      <c r="AE9" s="90"/>
+      <c r="AF9" s="90"/>
+      <c r="AG9" s="90"/>
+      <c r="AH9" s="90"/>
+      <c r="AI9" s="90"/>
+      <c r="AJ9" s="90"/>
+      <c r="AK9" s="90"/>
+      <c r="AL9" s="91"/>
+      <c r="AM9" s="89"/>
+      <c r="AN9" s="90"/>
+      <c r="AO9" s="90"/>
+      <c r="AP9" s="90"/>
+      <c r="AQ9" s="90"/>
+      <c r="AR9" s="90"/>
+      <c r="AS9" s="90"/>
+      <c r="AT9" s="90"/>
+      <c r="AU9" s="90"/>
+      <c r="AV9" s="90"/>
+      <c r="AW9" s="90"/>
+      <c r="AX9" s="90"/>
+      <c r="AY9" s="90"/>
+      <c r="AZ9" s="91"/>
     </row>
     <row r="10" spans="1:52">
       <c r="A10" s="9">
         <v>3</v>
       </c>
       <c r="B10" s="10"/>
-      <c r="C10" s="89">
+      <c r="C10" s="83">
         <v>1.2</v>
       </c>
-      <c r="D10" s="90"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="91"/>
-      <c r="G10" s="83">
+      <c r="D10" s="84"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="86">
         <v>44584</v>
       </c>
-      <c r="H10" s="84"/>
-      <c r="I10" s="84"/>
-      <c r="J10" s="84"/>
-      <c r="K10" s="85"/>
-      <c r="L10" s="86" t="s">
+      <c r="H10" s="87"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="87"/>
+      <c r="K10" s="88"/>
+      <c r="L10" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="M10" s="87"/>
-      <c r="N10" s="87"/>
-      <c r="O10" s="87"/>
-      <c r="P10" s="88"/>
-      <c r="Q10" s="86" t="s">
-        <v>137</v>
-      </c>
-      <c r="R10" s="87"/>
-      <c r="S10" s="87"/>
-      <c r="T10" s="87"/>
-      <c r="U10" s="87"/>
-      <c r="V10" s="87"/>
-      <c r="W10" s="87"/>
-      <c r="X10" s="87"/>
-      <c r="Y10" s="87"/>
-      <c r="Z10" s="87"/>
-      <c r="AA10" s="87"/>
-      <c r="AB10" s="87"/>
-      <c r="AC10" s="87"/>
-      <c r="AD10" s="87"/>
-      <c r="AE10" s="87"/>
-      <c r="AF10" s="87"/>
-      <c r="AG10" s="87"/>
-      <c r="AH10" s="87"/>
-      <c r="AI10" s="87"/>
-      <c r="AJ10" s="87"/>
-      <c r="AK10" s="87"/>
-      <c r="AL10" s="88"/>
-      <c r="AM10" s="86"/>
-      <c r="AN10" s="87"/>
-      <c r="AO10" s="87"/>
-      <c r="AP10" s="87"/>
-      <c r="AQ10" s="87"/>
-      <c r="AR10" s="87"/>
-      <c r="AS10" s="87"/>
-      <c r="AT10" s="87"/>
-      <c r="AU10" s="87"/>
-      <c r="AV10" s="87"/>
-      <c r="AW10" s="87"/>
-      <c r="AX10" s="87"/>
-      <c r="AY10" s="87"/>
-      <c r="AZ10" s="88"/>
+      <c r="M10" s="90"/>
+      <c r="N10" s="90"/>
+      <c r="O10" s="90"/>
+      <c r="P10" s="91"/>
+      <c r="Q10" s="89" t="s">
+        <v>136</v>
+      </c>
+      <c r="R10" s="90"/>
+      <c r="S10" s="90"/>
+      <c r="T10" s="90"/>
+      <c r="U10" s="90"/>
+      <c r="V10" s="90"/>
+      <c r="W10" s="90"/>
+      <c r="X10" s="90"/>
+      <c r="Y10" s="90"/>
+      <c r="Z10" s="90"/>
+      <c r="AA10" s="90"/>
+      <c r="AB10" s="90"/>
+      <c r="AC10" s="90"/>
+      <c r="AD10" s="90"/>
+      <c r="AE10" s="90"/>
+      <c r="AF10" s="90"/>
+      <c r="AG10" s="90"/>
+      <c r="AH10" s="90"/>
+      <c r="AI10" s="90"/>
+      <c r="AJ10" s="90"/>
+      <c r="AK10" s="90"/>
+      <c r="AL10" s="91"/>
+      <c r="AM10" s="89"/>
+      <c r="AN10" s="90"/>
+      <c r="AO10" s="90"/>
+      <c r="AP10" s="90"/>
+      <c r="AQ10" s="90"/>
+      <c r="AR10" s="90"/>
+      <c r="AS10" s="90"/>
+      <c r="AT10" s="90"/>
+      <c r="AU10" s="90"/>
+      <c r="AV10" s="90"/>
+      <c r="AW10" s="90"/>
+      <c r="AX10" s="90"/>
+      <c r="AY10" s="90"/>
+      <c r="AZ10" s="91"/>
     </row>
     <row r="11" spans="1:52">
       <c r="A11" s="9">
         <v>4</v>
       </c>
       <c r="B11" s="10"/>
-      <c r="C11" s="89">
+      <c r="C11" s="83">
         <v>1.3</v>
       </c>
-      <c r="D11" s="90"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="91"/>
-      <c r="G11" s="83">
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="86">
         <v>44598</v>
       </c>
-      <c r="H11" s="84"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="84"/>
-      <c r="K11" s="85"/>
-      <c r="L11" s="86" t="s">
+      <c r="H11" s="87"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="88"/>
+      <c r="L11" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="M11" s="87"/>
-      <c r="N11" s="87"/>
-      <c r="O11" s="87"/>
-      <c r="P11" s="88"/>
-      <c r="Q11" s="86" t="s">
-        <v>145</v>
-      </c>
-      <c r="R11" s="87"/>
-      <c r="S11" s="87"/>
-      <c r="T11" s="87"/>
-      <c r="U11" s="87"/>
-      <c r="V11" s="87"/>
-      <c r="W11" s="87"/>
-      <c r="X11" s="87"/>
-      <c r="Y11" s="87"/>
-      <c r="Z11" s="87"/>
-      <c r="AA11" s="87"/>
-      <c r="AB11" s="87"/>
-      <c r="AC11" s="87"/>
-      <c r="AD11" s="87"/>
-      <c r="AE11" s="87"/>
-      <c r="AF11" s="87"/>
-      <c r="AG11" s="87"/>
-      <c r="AH11" s="87"/>
-      <c r="AI11" s="87"/>
-      <c r="AJ11" s="87"/>
-      <c r="AK11" s="87"/>
-      <c r="AL11" s="88"/>
-      <c r="AM11" s="86"/>
-      <c r="AN11" s="87"/>
-      <c r="AO11" s="87"/>
-      <c r="AP11" s="87"/>
-      <c r="AQ11" s="87"/>
-      <c r="AR11" s="87"/>
-      <c r="AS11" s="87"/>
-      <c r="AT11" s="87"/>
-      <c r="AU11" s="87"/>
-      <c r="AV11" s="87"/>
-      <c r="AW11" s="87"/>
-      <c r="AX11" s="87"/>
-      <c r="AY11" s="87"/>
-      <c r="AZ11" s="88"/>
+      <c r="M11" s="90"/>
+      <c r="N11" s="90"/>
+      <c r="O11" s="90"/>
+      <c r="P11" s="91"/>
+      <c r="Q11" s="89" t="s">
+        <v>143</v>
+      </c>
+      <c r="R11" s="90"/>
+      <c r="S11" s="90"/>
+      <c r="T11" s="90"/>
+      <c r="U11" s="90"/>
+      <c r="V11" s="90"/>
+      <c r="W11" s="90"/>
+      <c r="X11" s="90"/>
+      <c r="Y11" s="90"/>
+      <c r="Z11" s="90"/>
+      <c r="AA11" s="90"/>
+      <c r="AB11" s="90"/>
+      <c r="AC11" s="90"/>
+      <c r="AD11" s="90"/>
+      <c r="AE11" s="90"/>
+      <c r="AF11" s="90"/>
+      <c r="AG11" s="90"/>
+      <c r="AH11" s="90"/>
+      <c r="AI11" s="90"/>
+      <c r="AJ11" s="90"/>
+      <c r="AK11" s="90"/>
+      <c r="AL11" s="91"/>
+      <c r="AM11" s="89"/>
+      <c r="AN11" s="90"/>
+      <c r="AO11" s="90"/>
+      <c r="AP11" s="90"/>
+      <c r="AQ11" s="90"/>
+      <c r="AR11" s="90"/>
+      <c r="AS11" s="90"/>
+      <c r="AT11" s="90"/>
+      <c r="AU11" s="90"/>
+      <c r="AV11" s="90"/>
+      <c r="AW11" s="90"/>
+      <c r="AX11" s="90"/>
+      <c r="AY11" s="90"/>
+      <c r="AZ11" s="91"/>
     </row>
     <row r="12" spans="1:52">
       <c r="A12" s="9" t="str">
@@ -4285,56 +4289,56 @@
         <v/>
       </c>
       <c r="B12" s="10"/>
-      <c r="C12" s="89"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="91"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="84"/>
-      <c r="I12" s="84"/>
-      <c r="J12" s="84"/>
-      <c r="K12" s="85"/>
-      <c r="L12" s="86"/>
-      <c r="M12" s="87"/>
-      <c r="N12" s="87"/>
-      <c r="O12" s="87"/>
-      <c r="P12" s="88"/>
-      <c r="Q12" s="86"/>
-      <c r="R12" s="87"/>
-      <c r="S12" s="87"/>
-      <c r="T12" s="87"/>
-      <c r="U12" s="87"/>
-      <c r="V12" s="87"/>
-      <c r="W12" s="87"/>
-      <c r="X12" s="87"/>
-      <c r="Y12" s="87"/>
-      <c r="Z12" s="87"/>
-      <c r="AA12" s="87"/>
-      <c r="AB12" s="87"/>
-      <c r="AC12" s="87"/>
-      <c r="AD12" s="87"/>
-      <c r="AE12" s="87"/>
-      <c r="AF12" s="87"/>
-      <c r="AG12" s="87"/>
-      <c r="AH12" s="87"/>
-      <c r="AI12" s="87"/>
-      <c r="AJ12" s="87"/>
-      <c r="AK12" s="87"/>
-      <c r="AL12" s="88"/>
-      <c r="AM12" s="86"/>
-      <c r="AN12" s="87"/>
-      <c r="AO12" s="87"/>
-      <c r="AP12" s="87"/>
-      <c r="AQ12" s="87"/>
-      <c r="AR12" s="87"/>
-      <c r="AS12" s="87"/>
-      <c r="AT12" s="87"/>
-      <c r="AU12" s="87"/>
-      <c r="AV12" s="87"/>
-      <c r="AW12" s="87"/>
-      <c r="AX12" s="87"/>
-      <c r="AY12" s="87"/>
-      <c r="AZ12" s="88"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="88"/>
+      <c r="L12" s="89"/>
+      <c r="M12" s="90"/>
+      <c r="N12" s="90"/>
+      <c r="O12" s="90"/>
+      <c r="P12" s="91"/>
+      <c r="Q12" s="89"/>
+      <c r="R12" s="90"/>
+      <c r="S12" s="90"/>
+      <c r="T12" s="90"/>
+      <c r="U12" s="90"/>
+      <c r="V12" s="90"/>
+      <c r="W12" s="90"/>
+      <c r="X12" s="90"/>
+      <c r="Y12" s="90"/>
+      <c r="Z12" s="90"/>
+      <c r="AA12" s="90"/>
+      <c r="AB12" s="90"/>
+      <c r="AC12" s="90"/>
+      <c r="AD12" s="90"/>
+      <c r="AE12" s="90"/>
+      <c r="AF12" s="90"/>
+      <c r="AG12" s="90"/>
+      <c r="AH12" s="90"/>
+      <c r="AI12" s="90"/>
+      <c r="AJ12" s="90"/>
+      <c r="AK12" s="90"/>
+      <c r="AL12" s="91"/>
+      <c r="AM12" s="89"/>
+      <c r="AN12" s="90"/>
+      <c r="AO12" s="90"/>
+      <c r="AP12" s="90"/>
+      <c r="AQ12" s="90"/>
+      <c r="AR12" s="90"/>
+      <c r="AS12" s="90"/>
+      <c r="AT12" s="90"/>
+      <c r="AU12" s="90"/>
+      <c r="AV12" s="90"/>
+      <c r="AW12" s="90"/>
+      <c r="AX12" s="90"/>
+      <c r="AY12" s="90"/>
+      <c r="AZ12" s="91"/>
     </row>
     <row r="13" spans="1:52">
       <c r="A13" s="9" t="str">
@@ -4342,56 +4346,56 @@
         <v/>
       </c>
       <c r="B13" s="10"/>
-      <c r="C13" s="89"/>
-      <c r="D13" s="90"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="91"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="84"/>
-      <c r="K13" s="85"/>
-      <c r="L13" s="86"/>
-      <c r="M13" s="87"/>
-      <c r="N13" s="87"/>
-      <c r="O13" s="87"/>
-      <c r="P13" s="88"/>
-      <c r="Q13" s="86"/>
-      <c r="R13" s="87"/>
-      <c r="S13" s="87"/>
-      <c r="T13" s="87"/>
-      <c r="U13" s="87"/>
-      <c r="V13" s="87"/>
-      <c r="W13" s="87"/>
-      <c r="X13" s="87"/>
-      <c r="Y13" s="87"/>
-      <c r="Z13" s="87"/>
-      <c r="AA13" s="87"/>
-      <c r="AB13" s="87"/>
-      <c r="AC13" s="87"/>
-      <c r="AD13" s="87"/>
-      <c r="AE13" s="87"/>
-      <c r="AF13" s="87"/>
-      <c r="AG13" s="87"/>
-      <c r="AH13" s="87"/>
-      <c r="AI13" s="87"/>
-      <c r="AJ13" s="87"/>
-      <c r="AK13" s="87"/>
-      <c r="AL13" s="88"/>
-      <c r="AM13" s="86"/>
-      <c r="AN13" s="87"/>
-      <c r="AO13" s="87"/>
-      <c r="AP13" s="87"/>
-      <c r="AQ13" s="87"/>
-      <c r="AR13" s="87"/>
-      <c r="AS13" s="87"/>
-      <c r="AT13" s="87"/>
-      <c r="AU13" s="87"/>
-      <c r="AV13" s="87"/>
-      <c r="AW13" s="87"/>
-      <c r="AX13" s="87"/>
-      <c r="AY13" s="87"/>
-      <c r="AZ13" s="88"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="88"/>
+      <c r="L13" s="89"/>
+      <c r="M13" s="90"/>
+      <c r="N13" s="90"/>
+      <c r="O13" s="90"/>
+      <c r="P13" s="91"/>
+      <c r="Q13" s="89"/>
+      <c r="R13" s="90"/>
+      <c r="S13" s="90"/>
+      <c r="T13" s="90"/>
+      <c r="U13" s="90"/>
+      <c r="V13" s="90"/>
+      <c r="W13" s="90"/>
+      <c r="X13" s="90"/>
+      <c r="Y13" s="90"/>
+      <c r="Z13" s="90"/>
+      <c r="AA13" s="90"/>
+      <c r="AB13" s="90"/>
+      <c r="AC13" s="90"/>
+      <c r="AD13" s="90"/>
+      <c r="AE13" s="90"/>
+      <c r="AF13" s="90"/>
+      <c r="AG13" s="90"/>
+      <c r="AH13" s="90"/>
+      <c r="AI13" s="90"/>
+      <c r="AJ13" s="90"/>
+      <c r="AK13" s="90"/>
+      <c r="AL13" s="91"/>
+      <c r="AM13" s="89"/>
+      <c r="AN13" s="90"/>
+      <c r="AO13" s="90"/>
+      <c r="AP13" s="90"/>
+      <c r="AQ13" s="90"/>
+      <c r="AR13" s="90"/>
+      <c r="AS13" s="90"/>
+      <c r="AT13" s="90"/>
+      <c r="AU13" s="90"/>
+      <c r="AV13" s="90"/>
+      <c r="AW13" s="90"/>
+      <c r="AX13" s="90"/>
+      <c r="AY13" s="90"/>
+      <c r="AZ13" s="91"/>
     </row>
     <row r="14" spans="1:52">
       <c r="A14" s="9" t="str">
@@ -4399,56 +4403,56 @@
         <v/>
       </c>
       <c r="B14" s="10"/>
-      <c r="C14" s="89"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="91"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="84"/>
-      <c r="I14" s="84"/>
-      <c r="J14" s="84"/>
-      <c r="K14" s="85"/>
-      <c r="L14" s="86"/>
-      <c r="M14" s="87"/>
-      <c r="N14" s="87"/>
-      <c r="O14" s="87"/>
-      <c r="P14" s="88"/>
-      <c r="Q14" s="86"/>
-      <c r="R14" s="87"/>
-      <c r="S14" s="87"/>
-      <c r="T14" s="87"/>
-      <c r="U14" s="87"/>
-      <c r="V14" s="87"/>
-      <c r="W14" s="87"/>
-      <c r="X14" s="87"/>
-      <c r="Y14" s="87"/>
-      <c r="Z14" s="87"/>
-      <c r="AA14" s="87"/>
-      <c r="AB14" s="87"/>
-      <c r="AC14" s="87"/>
-      <c r="AD14" s="87"/>
-      <c r="AE14" s="87"/>
-      <c r="AF14" s="87"/>
-      <c r="AG14" s="87"/>
-      <c r="AH14" s="87"/>
-      <c r="AI14" s="87"/>
-      <c r="AJ14" s="87"/>
-      <c r="AK14" s="87"/>
-      <c r="AL14" s="88"/>
-      <c r="AM14" s="86"/>
-      <c r="AN14" s="87"/>
-      <c r="AO14" s="87"/>
-      <c r="AP14" s="87"/>
-      <c r="AQ14" s="87"/>
-      <c r="AR14" s="87"/>
-      <c r="AS14" s="87"/>
-      <c r="AT14" s="87"/>
-      <c r="AU14" s="87"/>
-      <c r="AV14" s="87"/>
-      <c r="AW14" s="87"/>
-      <c r="AX14" s="87"/>
-      <c r="AY14" s="87"/>
-      <c r="AZ14" s="88"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="87"/>
+      <c r="I14" s="87"/>
+      <c r="J14" s="87"/>
+      <c r="K14" s="88"/>
+      <c r="L14" s="89"/>
+      <c r="M14" s="90"/>
+      <c r="N14" s="90"/>
+      <c r="O14" s="90"/>
+      <c r="P14" s="91"/>
+      <c r="Q14" s="89"/>
+      <c r="R14" s="90"/>
+      <c r="S14" s="90"/>
+      <c r="T14" s="90"/>
+      <c r="U14" s="90"/>
+      <c r="V14" s="90"/>
+      <c r="W14" s="90"/>
+      <c r="X14" s="90"/>
+      <c r="Y14" s="90"/>
+      <c r="Z14" s="90"/>
+      <c r="AA14" s="90"/>
+      <c r="AB14" s="90"/>
+      <c r="AC14" s="90"/>
+      <c r="AD14" s="90"/>
+      <c r="AE14" s="90"/>
+      <c r="AF14" s="90"/>
+      <c r="AG14" s="90"/>
+      <c r="AH14" s="90"/>
+      <c r="AI14" s="90"/>
+      <c r="AJ14" s="90"/>
+      <c r="AK14" s="90"/>
+      <c r="AL14" s="91"/>
+      <c r="AM14" s="89"/>
+      <c r="AN14" s="90"/>
+      <c r="AO14" s="90"/>
+      <c r="AP14" s="90"/>
+      <c r="AQ14" s="90"/>
+      <c r="AR14" s="90"/>
+      <c r="AS14" s="90"/>
+      <c r="AT14" s="90"/>
+      <c r="AU14" s="90"/>
+      <c r="AV14" s="90"/>
+      <c r="AW14" s="90"/>
+      <c r="AX14" s="90"/>
+      <c r="AY14" s="90"/>
+      <c r="AZ14" s="91"/>
     </row>
     <row r="15" spans="1:52">
       <c r="A15" s="9" t="str">
@@ -4456,56 +4460,56 @@
         <v/>
       </c>
       <c r="B15" s="10"/>
-      <c r="C15" s="89"/>
-      <c r="D15" s="90"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="91"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="84"/>
-      <c r="I15" s="84"/>
-      <c r="J15" s="84"/>
-      <c r="K15" s="85"/>
-      <c r="L15" s="86"/>
-      <c r="M15" s="87"/>
-      <c r="N15" s="87"/>
-      <c r="O15" s="87"/>
-      <c r="P15" s="88"/>
-      <c r="Q15" s="86"/>
-      <c r="R15" s="87"/>
-      <c r="S15" s="87"/>
-      <c r="T15" s="87"/>
-      <c r="U15" s="87"/>
-      <c r="V15" s="87"/>
-      <c r="W15" s="87"/>
-      <c r="X15" s="87"/>
-      <c r="Y15" s="87"/>
-      <c r="Z15" s="87"/>
-      <c r="AA15" s="87"/>
-      <c r="AB15" s="87"/>
-      <c r="AC15" s="87"/>
-      <c r="AD15" s="87"/>
-      <c r="AE15" s="87"/>
-      <c r="AF15" s="87"/>
-      <c r="AG15" s="87"/>
-      <c r="AH15" s="87"/>
-      <c r="AI15" s="87"/>
-      <c r="AJ15" s="87"/>
-      <c r="AK15" s="87"/>
-      <c r="AL15" s="88"/>
-      <c r="AM15" s="86"/>
-      <c r="AN15" s="87"/>
-      <c r="AO15" s="87"/>
-      <c r="AP15" s="87"/>
-      <c r="AQ15" s="87"/>
-      <c r="AR15" s="87"/>
-      <c r="AS15" s="87"/>
-      <c r="AT15" s="87"/>
-      <c r="AU15" s="87"/>
-      <c r="AV15" s="87"/>
-      <c r="AW15" s="87"/>
-      <c r="AX15" s="87"/>
-      <c r="AY15" s="87"/>
-      <c r="AZ15" s="88"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="87"/>
+      <c r="J15" s="87"/>
+      <c r="K15" s="88"/>
+      <c r="L15" s="89"/>
+      <c r="M15" s="90"/>
+      <c r="N15" s="90"/>
+      <c r="O15" s="90"/>
+      <c r="P15" s="91"/>
+      <c r="Q15" s="89"/>
+      <c r="R15" s="90"/>
+      <c r="S15" s="90"/>
+      <c r="T15" s="90"/>
+      <c r="U15" s="90"/>
+      <c r="V15" s="90"/>
+      <c r="W15" s="90"/>
+      <c r="X15" s="90"/>
+      <c r="Y15" s="90"/>
+      <c r="Z15" s="90"/>
+      <c r="AA15" s="90"/>
+      <c r="AB15" s="90"/>
+      <c r="AC15" s="90"/>
+      <c r="AD15" s="90"/>
+      <c r="AE15" s="90"/>
+      <c r="AF15" s="90"/>
+      <c r="AG15" s="90"/>
+      <c r="AH15" s="90"/>
+      <c r="AI15" s="90"/>
+      <c r="AJ15" s="90"/>
+      <c r="AK15" s="90"/>
+      <c r="AL15" s="91"/>
+      <c r="AM15" s="89"/>
+      <c r="AN15" s="90"/>
+      <c r="AO15" s="90"/>
+      <c r="AP15" s="90"/>
+      <c r="AQ15" s="90"/>
+      <c r="AR15" s="90"/>
+      <c r="AS15" s="90"/>
+      <c r="AT15" s="90"/>
+      <c r="AU15" s="90"/>
+      <c r="AV15" s="90"/>
+      <c r="AW15" s="90"/>
+      <c r="AX15" s="90"/>
+      <c r="AY15" s="90"/>
+      <c r="AZ15" s="91"/>
     </row>
     <row r="16" spans="1:52">
       <c r="A16" s="9" t="str">
@@ -4513,56 +4517,56 @@
         <v/>
       </c>
       <c r="B16" s="10"/>
-      <c r="C16" s="89"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="91"/>
-      <c r="G16" s="83"/>
-      <c r="H16" s="84"/>
-      <c r="I16" s="84"/>
-      <c r="J16" s="84"/>
-      <c r="K16" s="85"/>
-      <c r="L16" s="86"/>
-      <c r="M16" s="87"/>
-      <c r="N16" s="87"/>
-      <c r="O16" s="87"/>
-      <c r="P16" s="88"/>
-      <c r="Q16" s="86"/>
-      <c r="R16" s="87"/>
-      <c r="S16" s="87"/>
-      <c r="T16" s="87"/>
-      <c r="U16" s="87"/>
-      <c r="V16" s="87"/>
-      <c r="W16" s="87"/>
-      <c r="X16" s="87"/>
-      <c r="Y16" s="87"/>
-      <c r="Z16" s="87"/>
-      <c r="AA16" s="87"/>
-      <c r="AB16" s="87"/>
-      <c r="AC16" s="87"/>
-      <c r="AD16" s="87"/>
-      <c r="AE16" s="87"/>
-      <c r="AF16" s="87"/>
-      <c r="AG16" s="87"/>
-      <c r="AH16" s="87"/>
-      <c r="AI16" s="87"/>
-      <c r="AJ16" s="87"/>
-      <c r="AK16" s="87"/>
-      <c r="AL16" s="88"/>
-      <c r="AM16" s="86"/>
-      <c r="AN16" s="87"/>
-      <c r="AO16" s="87"/>
-      <c r="AP16" s="87"/>
-      <c r="AQ16" s="87"/>
-      <c r="AR16" s="87"/>
-      <c r="AS16" s="87"/>
-      <c r="AT16" s="87"/>
-      <c r="AU16" s="87"/>
-      <c r="AV16" s="87"/>
-      <c r="AW16" s="87"/>
-      <c r="AX16" s="87"/>
-      <c r="AY16" s="87"/>
-      <c r="AZ16" s="88"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="87"/>
+      <c r="I16" s="87"/>
+      <c r="J16" s="87"/>
+      <c r="K16" s="88"/>
+      <c r="L16" s="89"/>
+      <c r="M16" s="90"/>
+      <c r="N16" s="90"/>
+      <c r="O16" s="90"/>
+      <c r="P16" s="91"/>
+      <c r="Q16" s="89"/>
+      <c r="R16" s="90"/>
+      <c r="S16" s="90"/>
+      <c r="T16" s="90"/>
+      <c r="U16" s="90"/>
+      <c r="V16" s="90"/>
+      <c r="W16" s="90"/>
+      <c r="X16" s="90"/>
+      <c r="Y16" s="90"/>
+      <c r="Z16" s="90"/>
+      <c r="AA16" s="90"/>
+      <c r="AB16" s="90"/>
+      <c r="AC16" s="90"/>
+      <c r="AD16" s="90"/>
+      <c r="AE16" s="90"/>
+      <c r="AF16" s="90"/>
+      <c r="AG16" s="90"/>
+      <c r="AH16" s="90"/>
+      <c r="AI16" s="90"/>
+      <c r="AJ16" s="90"/>
+      <c r="AK16" s="90"/>
+      <c r="AL16" s="91"/>
+      <c r="AM16" s="89"/>
+      <c r="AN16" s="90"/>
+      <c r="AO16" s="90"/>
+      <c r="AP16" s="90"/>
+      <c r="AQ16" s="90"/>
+      <c r="AR16" s="90"/>
+      <c r="AS16" s="90"/>
+      <c r="AT16" s="90"/>
+      <c r="AU16" s="90"/>
+      <c r="AV16" s="90"/>
+      <c r="AW16" s="90"/>
+      <c r="AX16" s="90"/>
+      <c r="AY16" s="90"/>
+      <c r="AZ16" s="91"/>
     </row>
     <row r="17" spans="1:52">
       <c r="A17" s="9" t="str">
@@ -4570,56 +4574,56 @@
         <v/>
       </c>
       <c r="B17" s="10"/>
-      <c r="C17" s="89"/>
-      <c r="D17" s="90"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="91"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="84"/>
-      <c r="I17" s="84"/>
-      <c r="J17" s="84"/>
-      <c r="K17" s="85"/>
-      <c r="L17" s="86"/>
-      <c r="M17" s="87"/>
-      <c r="N17" s="87"/>
-      <c r="O17" s="87"/>
-      <c r="P17" s="88"/>
-      <c r="Q17" s="86"/>
-      <c r="R17" s="87"/>
-      <c r="S17" s="87"/>
-      <c r="T17" s="87"/>
-      <c r="U17" s="87"/>
-      <c r="V17" s="87"/>
-      <c r="W17" s="87"/>
-      <c r="X17" s="87"/>
-      <c r="Y17" s="87"/>
-      <c r="Z17" s="87"/>
-      <c r="AA17" s="87"/>
-      <c r="AB17" s="87"/>
-      <c r="AC17" s="87"/>
-      <c r="AD17" s="87"/>
-      <c r="AE17" s="87"/>
-      <c r="AF17" s="87"/>
-      <c r="AG17" s="87"/>
-      <c r="AH17" s="87"/>
-      <c r="AI17" s="87"/>
-      <c r="AJ17" s="87"/>
-      <c r="AK17" s="87"/>
-      <c r="AL17" s="88"/>
-      <c r="AM17" s="86"/>
-      <c r="AN17" s="87"/>
-      <c r="AO17" s="87"/>
-      <c r="AP17" s="87"/>
-      <c r="AQ17" s="87"/>
-      <c r="AR17" s="87"/>
-      <c r="AS17" s="87"/>
-      <c r="AT17" s="87"/>
-      <c r="AU17" s="87"/>
-      <c r="AV17" s="87"/>
-      <c r="AW17" s="87"/>
-      <c r="AX17" s="87"/>
-      <c r="AY17" s="87"/>
-      <c r="AZ17" s="88"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="88"/>
+      <c r="L17" s="89"/>
+      <c r="M17" s="90"/>
+      <c r="N17" s="90"/>
+      <c r="O17" s="90"/>
+      <c r="P17" s="91"/>
+      <c r="Q17" s="89"/>
+      <c r="R17" s="90"/>
+      <c r="S17" s="90"/>
+      <c r="T17" s="90"/>
+      <c r="U17" s="90"/>
+      <c r="V17" s="90"/>
+      <c r="W17" s="90"/>
+      <c r="X17" s="90"/>
+      <c r="Y17" s="90"/>
+      <c r="Z17" s="90"/>
+      <c r="AA17" s="90"/>
+      <c r="AB17" s="90"/>
+      <c r="AC17" s="90"/>
+      <c r="AD17" s="90"/>
+      <c r="AE17" s="90"/>
+      <c r="AF17" s="90"/>
+      <c r="AG17" s="90"/>
+      <c r="AH17" s="90"/>
+      <c r="AI17" s="90"/>
+      <c r="AJ17" s="90"/>
+      <c r="AK17" s="90"/>
+      <c r="AL17" s="91"/>
+      <c r="AM17" s="89"/>
+      <c r="AN17" s="90"/>
+      <c r="AO17" s="90"/>
+      <c r="AP17" s="90"/>
+      <c r="AQ17" s="90"/>
+      <c r="AR17" s="90"/>
+      <c r="AS17" s="90"/>
+      <c r="AT17" s="90"/>
+      <c r="AU17" s="90"/>
+      <c r="AV17" s="90"/>
+      <c r="AW17" s="90"/>
+      <c r="AX17" s="90"/>
+      <c r="AY17" s="90"/>
+      <c r="AZ17" s="91"/>
     </row>
     <row r="18" spans="1:52">
       <c r="A18" s="9" t="str">
@@ -4627,56 +4631,56 @@
         <v/>
       </c>
       <c r="B18" s="10"/>
-      <c r="C18" s="89"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="91"/>
-      <c r="G18" s="83"/>
-      <c r="H18" s="84"/>
-      <c r="I18" s="84"/>
-      <c r="J18" s="84"/>
-      <c r="K18" s="85"/>
-      <c r="L18" s="86"/>
-      <c r="M18" s="87"/>
-      <c r="N18" s="87"/>
-      <c r="O18" s="87"/>
-      <c r="P18" s="88"/>
-      <c r="Q18" s="86"/>
-      <c r="R18" s="87"/>
-      <c r="S18" s="87"/>
-      <c r="T18" s="87"/>
-      <c r="U18" s="87"/>
-      <c r="V18" s="87"/>
-      <c r="W18" s="87"/>
-      <c r="X18" s="87"/>
-      <c r="Y18" s="87"/>
-      <c r="Z18" s="87"/>
-      <c r="AA18" s="87"/>
-      <c r="AB18" s="87"/>
-      <c r="AC18" s="87"/>
-      <c r="AD18" s="87"/>
-      <c r="AE18" s="87"/>
-      <c r="AF18" s="87"/>
-      <c r="AG18" s="87"/>
-      <c r="AH18" s="87"/>
-      <c r="AI18" s="87"/>
-      <c r="AJ18" s="87"/>
-      <c r="AK18" s="87"/>
-      <c r="AL18" s="88"/>
-      <c r="AM18" s="86"/>
-      <c r="AN18" s="87"/>
-      <c r="AO18" s="87"/>
-      <c r="AP18" s="87"/>
-      <c r="AQ18" s="87"/>
-      <c r="AR18" s="87"/>
-      <c r="AS18" s="87"/>
-      <c r="AT18" s="87"/>
-      <c r="AU18" s="87"/>
-      <c r="AV18" s="87"/>
-      <c r="AW18" s="87"/>
-      <c r="AX18" s="87"/>
-      <c r="AY18" s="87"/>
-      <c r="AZ18" s="88"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="84"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="87"/>
+      <c r="K18" s="88"/>
+      <c r="L18" s="89"/>
+      <c r="M18" s="90"/>
+      <c r="N18" s="90"/>
+      <c r="O18" s="90"/>
+      <c r="P18" s="91"/>
+      <c r="Q18" s="89"/>
+      <c r="R18" s="90"/>
+      <c r="S18" s="90"/>
+      <c r="T18" s="90"/>
+      <c r="U18" s="90"/>
+      <c r="V18" s="90"/>
+      <c r="W18" s="90"/>
+      <c r="X18" s="90"/>
+      <c r="Y18" s="90"/>
+      <c r="Z18" s="90"/>
+      <c r="AA18" s="90"/>
+      <c r="AB18" s="90"/>
+      <c r="AC18" s="90"/>
+      <c r="AD18" s="90"/>
+      <c r="AE18" s="90"/>
+      <c r="AF18" s="90"/>
+      <c r="AG18" s="90"/>
+      <c r="AH18" s="90"/>
+      <c r="AI18" s="90"/>
+      <c r="AJ18" s="90"/>
+      <c r="AK18" s="90"/>
+      <c r="AL18" s="91"/>
+      <c r="AM18" s="89"/>
+      <c r="AN18" s="90"/>
+      <c r="AO18" s="90"/>
+      <c r="AP18" s="90"/>
+      <c r="AQ18" s="90"/>
+      <c r="AR18" s="90"/>
+      <c r="AS18" s="90"/>
+      <c r="AT18" s="90"/>
+      <c r="AU18" s="90"/>
+      <c r="AV18" s="90"/>
+      <c r="AW18" s="90"/>
+      <c r="AX18" s="90"/>
+      <c r="AY18" s="90"/>
+      <c r="AZ18" s="91"/>
     </row>
     <row r="19" spans="1:52">
       <c r="A19" s="9" t="str">
@@ -4684,56 +4688,56 @@
         <v/>
       </c>
       <c r="B19" s="10"/>
-      <c r="C19" s="89"/>
-      <c r="D19" s="90"/>
-      <c r="E19" s="90"/>
-      <c r="F19" s="91"/>
-      <c r="G19" s="83"/>
-      <c r="H19" s="84"/>
-      <c r="I19" s="84"/>
-      <c r="J19" s="84"/>
-      <c r="K19" s="85"/>
-      <c r="L19" s="86"/>
-      <c r="M19" s="87"/>
-      <c r="N19" s="87"/>
-      <c r="O19" s="87"/>
-      <c r="P19" s="88"/>
-      <c r="Q19" s="86"/>
-      <c r="R19" s="87"/>
-      <c r="S19" s="87"/>
-      <c r="T19" s="87"/>
-      <c r="U19" s="87"/>
-      <c r="V19" s="87"/>
-      <c r="W19" s="87"/>
-      <c r="X19" s="87"/>
-      <c r="Y19" s="87"/>
-      <c r="Z19" s="87"/>
-      <c r="AA19" s="87"/>
-      <c r="AB19" s="87"/>
-      <c r="AC19" s="87"/>
-      <c r="AD19" s="87"/>
-      <c r="AE19" s="87"/>
-      <c r="AF19" s="87"/>
-      <c r="AG19" s="87"/>
-      <c r="AH19" s="87"/>
-      <c r="AI19" s="87"/>
-      <c r="AJ19" s="87"/>
-      <c r="AK19" s="87"/>
-      <c r="AL19" s="88"/>
-      <c r="AM19" s="86"/>
-      <c r="AN19" s="87"/>
-      <c r="AO19" s="87"/>
-      <c r="AP19" s="87"/>
-      <c r="AQ19" s="87"/>
-      <c r="AR19" s="87"/>
-      <c r="AS19" s="87"/>
-      <c r="AT19" s="87"/>
-      <c r="AU19" s="87"/>
-      <c r="AV19" s="87"/>
-      <c r="AW19" s="87"/>
-      <c r="AX19" s="87"/>
-      <c r="AY19" s="87"/>
-      <c r="AZ19" s="88"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="86"/>
+      <c r="H19" s="87"/>
+      <c r="I19" s="87"/>
+      <c r="J19" s="87"/>
+      <c r="K19" s="88"/>
+      <c r="L19" s="89"/>
+      <c r="M19" s="90"/>
+      <c r="N19" s="90"/>
+      <c r="O19" s="90"/>
+      <c r="P19" s="91"/>
+      <c r="Q19" s="89"/>
+      <c r="R19" s="90"/>
+      <c r="S19" s="90"/>
+      <c r="T19" s="90"/>
+      <c r="U19" s="90"/>
+      <c r="V19" s="90"/>
+      <c r="W19" s="90"/>
+      <c r="X19" s="90"/>
+      <c r="Y19" s="90"/>
+      <c r="Z19" s="90"/>
+      <c r="AA19" s="90"/>
+      <c r="AB19" s="90"/>
+      <c r="AC19" s="90"/>
+      <c r="AD19" s="90"/>
+      <c r="AE19" s="90"/>
+      <c r="AF19" s="90"/>
+      <c r="AG19" s="90"/>
+      <c r="AH19" s="90"/>
+      <c r="AI19" s="90"/>
+      <c r="AJ19" s="90"/>
+      <c r="AK19" s="90"/>
+      <c r="AL19" s="91"/>
+      <c r="AM19" s="89"/>
+      <c r="AN19" s="90"/>
+      <c r="AO19" s="90"/>
+      <c r="AP19" s="90"/>
+      <c r="AQ19" s="90"/>
+      <c r="AR19" s="90"/>
+      <c r="AS19" s="90"/>
+      <c r="AT19" s="90"/>
+      <c r="AU19" s="90"/>
+      <c r="AV19" s="90"/>
+      <c r="AW19" s="90"/>
+      <c r="AX19" s="90"/>
+      <c r="AY19" s="90"/>
+      <c r="AZ19" s="91"/>
     </row>
     <row r="20" spans="1:52">
       <c r="A20" s="9" t="str">
@@ -4741,56 +4745,56 @@
         <v/>
       </c>
       <c r="B20" s="10"/>
-      <c r="C20" s="89"/>
-      <c r="D20" s="90"/>
-      <c r="E20" s="90"/>
-      <c r="F20" s="91"/>
-      <c r="G20" s="83"/>
-      <c r="H20" s="84"/>
-      <c r="I20" s="84"/>
-      <c r="J20" s="84"/>
-      <c r="K20" s="85"/>
-      <c r="L20" s="86"/>
-      <c r="M20" s="87"/>
-      <c r="N20" s="87"/>
-      <c r="O20" s="87"/>
-      <c r="P20" s="88"/>
-      <c r="Q20" s="86"/>
-      <c r="R20" s="87"/>
-      <c r="S20" s="87"/>
-      <c r="T20" s="87"/>
-      <c r="U20" s="87"/>
-      <c r="V20" s="87"/>
-      <c r="W20" s="87"/>
-      <c r="X20" s="87"/>
-      <c r="Y20" s="87"/>
-      <c r="Z20" s="87"/>
-      <c r="AA20" s="87"/>
-      <c r="AB20" s="87"/>
-      <c r="AC20" s="87"/>
-      <c r="AD20" s="87"/>
-      <c r="AE20" s="87"/>
-      <c r="AF20" s="87"/>
-      <c r="AG20" s="87"/>
-      <c r="AH20" s="87"/>
-      <c r="AI20" s="87"/>
-      <c r="AJ20" s="87"/>
-      <c r="AK20" s="87"/>
-      <c r="AL20" s="88"/>
-      <c r="AM20" s="86"/>
-      <c r="AN20" s="87"/>
-      <c r="AO20" s="87"/>
-      <c r="AP20" s="87"/>
-      <c r="AQ20" s="87"/>
-      <c r="AR20" s="87"/>
-      <c r="AS20" s="87"/>
-      <c r="AT20" s="87"/>
-      <c r="AU20" s="87"/>
-      <c r="AV20" s="87"/>
-      <c r="AW20" s="87"/>
-      <c r="AX20" s="87"/>
-      <c r="AY20" s="87"/>
-      <c r="AZ20" s="88"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="84"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="86"/>
+      <c r="H20" s="87"/>
+      <c r="I20" s="87"/>
+      <c r="J20" s="87"/>
+      <c r="K20" s="88"/>
+      <c r="L20" s="89"/>
+      <c r="M20" s="90"/>
+      <c r="N20" s="90"/>
+      <c r="O20" s="90"/>
+      <c r="P20" s="91"/>
+      <c r="Q20" s="89"/>
+      <c r="R20" s="90"/>
+      <c r="S20" s="90"/>
+      <c r="T20" s="90"/>
+      <c r="U20" s="90"/>
+      <c r="V20" s="90"/>
+      <c r="W20" s="90"/>
+      <c r="X20" s="90"/>
+      <c r="Y20" s="90"/>
+      <c r="Z20" s="90"/>
+      <c r="AA20" s="90"/>
+      <c r="AB20" s="90"/>
+      <c r="AC20" s="90"/>
+      <c r="AD20" s="90"/>
+      <c r="AE20" s="90"/>
+      <c r="AF20" s="90"/>
+      <c r="AG20" s="90"/>
+      <c r="AH20" s="90"/>
+      <c r="AI20" s="90"/>
+      <c r="AJ20" s="90"/>
+      <c r="AK20" s="90"/>
+      <c r="AL20" s="91"/>
+      <c r="AM20" s="89"/>
+      <c r="AN20" s="90"/>
+      <c r="AO20" s="90"/>
+      <c r="AP20" s="90"/>
+      <c r="AQ20" s="90"/>
+      <c r="AR20" s="90"/>
+      <c r="AS20" s="90"/>
+      <c r="AT20" s="90"/>
+      <c r="AU20" s="90"/>
+      <c r="AV20" s="90"/>
+      <c r="AW20" s="90"/>
+      <c r="AX20" s="90"/>
+      <c r="AY20" s="90"/>
+      <c r="AZ20" s="91"/>
     </row>
     <row r="21" spans="1:52">
       <c r="A21" s="9" t="str">
@@ -4798,56 +4802,56 @@
         <v/>
       </c>
       <c r="B21" s="10"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="83"/>
-      <c r="H21" s="84"/>
-      <c r="I21" s="84"/>
-      <c r="J21" s="84"/>
-      <c r="K21" s="85"/>
-      <c r="L21" s="86"/>
-      <c r="M21" s="87"/>
-      <c r="N21" s="87"/>
-      <c r="O21" s="87"/>
-      <c r="P21" s="88"/>
-      <c r="Q21" s="86"/>
-      <c r="R21" s="87"/>
-      <c r="S21" s="87"/>
-      <c r="T21" s="87"/>
-      <c r="U21" s="87"/>
-      <c r="V21" s="87"/>
-      <c r="W21" s="87"/>
-      <c r="X21" s="87"/>
-      <c r="Y21" s="87"/>
-      <c r="Z21" s="87"/>
-      <c r="AA21" s="87"/>
-      <c r="AB21" s="87"/>
-      <c r="AC21" s="87"/>
-      <c r="AD21" s="87"/>
-      <c r="AE21" s="87"/>
-      <c r="AF21" s="87"/>
-      <c r="AG21" s="87"/>
-      <c r="AH21" s="87"/>
-      <c r="AI21" s="87"/>
-      <c r="AJ21" s="87"/>
-      <c r="AK21" s="87"/>
-      <c r="AL21" s="88"/>
-      <c r="AM21" s="86"/>
-      <c r="AN21" s="87"/>
-      <c r="AO21" s="87"/>
-      <c r="AP21" s="87"/>
-      <c r="AQ21" s="87"/>
-      <c r="AR21" s="87"/>
-      <c r="AS21" s="87"/>
-      <c r="AT21" s="87"/>
-      <c r="AU21" s="87"/>
-      <c r="AV21" s="87"/>
-      <c r="AW21" s="87"/>
-      <c r="AX21" s="87"/>
-      <c r="AY21" s="87"/>
-      <c r="AZ21" s="88"/>
+      <c r="C21" s="83"/>
+      <c r="D21" s="84"/>
+      <c r="E21" s="84"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="86"/>
+      <c r="H21" s="87"/>
+      <c r="I21" s="87"/>
+      <c r="J21" s="87"/>
+      <c r="K21" s="88"/>
+      <c r="L21" s="89"/>
+      <c r="M21" s="90"/>
+      <c r="N21" s="90"/>
+      <c r="O21" s="90"/>
+      <c r="P21" s="91"/>
+      <c r="Q21" s="89"/>
+      <c r="R21" s="90"/>
+      <c r="S21" s="90"/>
+      <c r="T21" s="90"/>
+      <c r="U21" s="90"/>
+      <c r="V21" s="90"/>
+      <c r="W21" s="90"/>
+      <c r="X21" s="90"/>
+      <c r="Y21" s="90"/>
+      <c r="Z21" s="90"/>
+      <c r="AA21" s="90"/>
+      <c r="AB21" s="90"/>
+      <c r="AC21" s="90"/>
+      <c r="AD21" s="90"/>
+      <c r="AE21" s="90"/>
+      <c r="AF21" s="90"/>
+      <c r="AG21" s="90"/>
+      <c r="AH21" s="90"/>
+      <c r="AI21" s="90"/>
+      <c r="AJ21" s="90"/>
+      <c r="AK21" s="90"/>
+      <c r="AL21" s="91"/>
+      <c r="AM21" s="89"/>
+      <c r="AN21" s="90"/>
+      <c r="AO21" s="90"/>
+      <c r="AP21" s="90"/>
+      <c r="AQ21" s="90"/>
+      <c r="AR21" s="90"/>
+      <c r="AS21" s="90"/>
+      <c r="AT21" s="90"/>
+      <c r="AU21" s="90"/>
+      <c r="AV21" s="90"/>
+      <c r="AW21" s="90"/>
+      <c r="AX21" s="90"/>
+      <c r="AY21" s="90"/>
+      <c r="AZ21" s="91"/>
     </row>
     <row r="22" spans="1:52">
       <c r="A22" s="9" t="str">
@@ -4855,56 +4859,56 @@
         <v/>
       </c>
       <c r="B22" s="10"/>
-      <c r="C22" s="89"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="91"/>
-      <c r="G22" s="83"/>
-      <c r="H22" s="84"/>
-      <c r="I22" s="84"/>
-      <c r="J22" s="84"/>
-      <c r="K22" s="85"/>
-      <c r="L22" s="86"/>
-      <c r="M22" s="87"/>
-      <c r="N22" s="87"/>
-      <c r="O22" s="87"/>
-      <c r="P22" s="88"/>
-      <c r="Q22" s="86"/>
-      <c r="R22" s="87"/>
-      <c r="S22" s="87"/>
-      <c r="T22" s="87"/>
-      <c r="U22" s="87"/>
-      <c r="V22" s="87"/>
-      <c r="W22" s="87"/>
-      <c r="X22" s="87"/>
-      <c r="Y22" s="87"/>
-      <c r="Z22" s="87"/>
-      <c r="AA22" s="87"/>
-      <c r="AB22" s="87"/>
-      <c r="AC22" s="87"/>
-      <c r="AD22" s="87"/>
-      <c r="AE22" s="87"/>
-      <c r="AF22" s="87"/>
-      <c r="AG22" s="87"/>
-      <c r="AH22" s="87"/>
-      <c r="AI22" s="87"/>
-      <c r="AJ22" s="87"/>
-      <c r="AK22" s="87"/>
-      <c r="AL22" s="88"/>
-      <c r="AM22" s="86"/>
-      <c r="AN22" s="87"/>
-      <c r="AO22" s="87"/>
-      <c r="AP22" s="87"/>
-      <c r="AQ22" s="87"/>
-      <c r="AR22" s="87"/>
-      <c r="AS22" s="87"/>
-      <c r="AT22" s="87"/>
-      <c r="AU22" s="87"/>
-      <c r="AV22" s="87"/>
-      <c r="AW22" s="87"/>
-      <c r="AX22" s="87"/>
-      <c r="AY22" s="87"/>
-      <c r="AZ22" s="88"/>
+      <c r="C22" s="83"/>
+      <c r="D22" s="84"/>
+      <c r="E22" s="84"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="86"/>
+      <c r="H22" s="87"/>
+      <c r="I22" s="87"/>
+      <c r="J22" s="87"/>
+      <c r="K22" s="88"/>
+      <c r="L22" s="89"/>
+      <c r="M22" s="90"/>
+      <c r="N22" s="90"/>
+      <c r="O22" s="90"/>
+      <c r="P22" s="91"/>
+      <c r="Q22" s="89"/>
+      <c r="R22" s="90"/>
+      <c r="S22" s="90"/>
+      <c r="T22" s="90"/>
+      <c r="U22" s="90"/>
+      <c r="V22" s="90"/>
+      <c r="W22" s="90"/>
+      <c r="X22" s="90"/>
+      <c r="Y22" s="90"/>
+      <c r="Z22" s="90"/>
+      <c r="AA22" s="90"/>
+      <c r="AB22" s="90"/>
+      <c r="AC22" s="90"/>
+      <c r="AD22" s="90"/>
+      <c r="AE22" s="90"/>
+      <c r="AF22" s="90"/>
+      <c r="AG22" s="90"/>
+      <c r="AH22" s="90"/>
+      <c r="AI22" s="90"/>
+      <c r="AJ22" s="90"/>
+      <c r="AK22" s="90"/>
+      <c r="AL22" s="91"/>
+      <c r="AM22" s="89"/>
+      <c r="AN22" s="90"/>
+      <c r="AO22" s="90"/>
+      <c r="AP22" s="90"/>
+      <c r="AQ22" s="90"/>
+      <c r="AR22" s="90"/>
+      <c r="AS22" s="90"/>
+      <c r="AT22" s="90"/>
+      <c r="AU22" s="90"/>
+      <c r="AV22" s="90"/>
+      <c r="AW22" s="90"/>
+      <c r="AX22" s="90"/>
+      <c r="AY22" s="90"/>
+      <c r="AZ22" s="91"/>
     </row>
     <row r="23" spans="1:52">
       <c r="A23" s="9" t="str">
@@ -4912,56 +4916,56 @@
         <v/>
       </c>
       <c r="B23" s="10"/>
-      <c r="C23" s="89"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="91"/>
-      <c r="G23" s="83"/>
-      <c r="H23" s="84"/>
-      <c r="I23" s="84"/>
-      <c r="J23" s="84"/>
-      <c r="K23" s="85"/>
-      <c r="L23" s="86"/>
-      <c r="M23" s="87"/>
-      <c r="N23" s="87"/>
-      <c r="O23" s="87"/>
-      <c r="P23" s="88"/>
-      <c r="Q23" s="86"/>
-      <c r="R23" s="87"/>
-      <c r="S23" s="87"/>
-      <c r="T23" s="87"/>
-      <c r="U23" s="87"/>
-      <c r="V23" s="87"/>
-      <c r="W23" s="87"/>
-      <c r="X23" s="87"/>
-      <c r="Y23" s="87"/>
-      <c r="Z23" s="87"/>
-      <c r="AA23" s="87"/>
-      <c r="AB23" s="87"/>
-      <c r="AC23" s="87"/>
-      <c r="AD23" s="87"/>
-      <c r="AE23" s="87"/>
-      <c r="AF23" s="87"/>
-      <c r="AG23" s="87"/>
-      <c r="AH23" s="87"/>
-      <c r="AI23" s="87"/>
-      <c r="AJ23" s="87"/>
-      <c r="AK23" s="87"/>
-      <c r="AL23" s="88"/>
-      <c r="AM23" s="86"/>
-      <c r="AN23" s="87"/>
-      <c r="AO23" s="87"/>
-      <c r="AP23" s="87"/>
-      <c r="AQ23" s="87"/>
-      <c r="AR23" s="87"/>
-      <c r="AS23" s="87"/>
-      <c r="AT23" s="87"/>
-      <c r="AU23" s="87"/>
-      <c r="AV23" s="87"/>
-      <c r="AW23" s="87"/>
-      <c r="AX23" s="87"/>
-      <c r="AY23" s="87"/>
-      <c r="AZ23" s="88"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="85"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="87"/>
+      <c r="I23" s="87"/>
+      <c r="J23" s="87"/>
+      <c r="K23" s="88"/>
+      <c r="L23" s="89"/>
+      <c r="M23" s="90"/>
+      <c r="N23" s="90"/>
+      <c r="O23" s="90"/>
+      <c r="P23" s="91"/>
+      <c r="Q23" s="89"/>
+      <c r="R23" s="90"/>
+      <c r="S23" s="90"/>
+      <c r="T23" s="90"/>
+      <c r="U23" s="90"/>
+      <c r="V23" s="90"/>
+      <c r="W23" s="90"/>
+      <c r="X23" s="90"/>
+      <c r="Y23" s="90"/>
+      <c r="Z23" s="90"/>
+      <c r="AA23" s="90"/>
+      <c r="AB23" s="90"/>
+      <c r="AC23" s="90"/>
+      <c r="AD23" s="90"/>
+      <c r="AE23" s="90"/>
+      <c r="AF23" s="90"/>
+      <c r="AG23" s="90"/>
+      <c r="AH23" s="90"/>
+      <c r="AI23" s="90"/>
+      <c r="AJ23" s="90"/>
+      <c r="AK23" s="90"/>
+      <c r="AL23" s="91"/>
+      <c r="AM23" s="89"/>
+      <c r="AN23" s="90"/>
+      <c r="AO23" s="90"/>
+      <c r="AP23" s="90"/>
+      <c r="AQ23" s="90"/>
+      <c r="AR23" s="90"/>
+      <c r="AS23" s="90"/>
+      <c r="AT23" s="90"/>
+      <c r="AU23" s="90"/>
+      <c r="AV23" s="90"/>
+      <c r="AW23" s="90"/>
+      <c r="AX23" s="90"/>
+      <c r="AY23" s="90"/>
+      <c r="AZ23" s="91"/>
     </row>
     <row r="24" spans="1:52">
       <c r="A24" s="9" t="str">
@@ -4969,56 +4973,56 @@
         <v/>
       </c>
       <c r="B24" s="10"/>
-      <c r="C24" s="89"/>
-      <c r="D24" s="90"/>
-      <c r="E24" s="90"/>
-      <c r="F24" s="91"/>
-      <c r="G24" s="83"/>
-      <c r="H24" s="84"/>
-      <c r="I24" s="84"/>
-      <c r="J24" s="84"/>
-      <c r="K24" s="85"/>
-      <c r="L24" s="86"/>
-      <c r="M24" s="87"/>
-      <c r="N24" s="87"/>
-      <c r="O24" s="87"/>
-      <c r="P24" s="88"/>
-      <c r="Q24" s="86"/>
-      <c r="R24" s="87"/>
-      <c r="S24" s="87"/>
-      <c r="T24" s="87"/>
-      <c r="U24" s="87"/>
-      <c r="V24" s="87"/>
-      <c r="W24" s="87"/>
-      <c r="X24" s="87"/>
-      <c r="Y24" s="87"/>
-      <c r="Z24" s="87"/>
-      <c r="AA24" s="87"/>
-      <c r="AB24" s="87"/>
-      <c r="AC24" s="87"/>
-      <c r="AD24" s="87"/>
-      <c r="AE24" s="87"/>
-      <c r="AF24" s="87"/>
-      <c r="AG24" s="87"/>
-      <c r="AH24" s="87"/>
-      <c r="AI24" s="87"/>
-      <c r="AJ24" s="87"/>
-      <c r="AK24" s="87"/>
-      <c r="AL24" s="88"/>
-      <c r="AM24" s="86"/>
-      <c r="AN24" s="87"/>
-      <c r="AO24" s="87"/>
-      <c r="AP24" s="87"/>
-      <c r="AQ24" s="87"/>
-      <c r="AR24" s="87"/>
-      <c r="AS24" s="87"/>
-      <c r="AT24" s="87"/>
-      <c r="AU24" s="87"/>
-      <c r="AV24" s="87"/>
-      <c r="AW24" s="87"/>
-      <c r="AX24" s="87"/>
-      <c r="AY24" s="87"/>
-      <c r="AZ24" s="88"/>
+      <c r="C24" s="83"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="84"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="86"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="87"/>
+      <c r="K24" s="88"/>
+      <c r="L24" s="89"/>
+      <c r="M24" s="90"/>
+      <c r="N24" s="90"/>
+      <c r="O24" s="90"/>
+      <c r="P24" s="91"/>
+      <c r="Q24" s="89"/>
+      <c r="R24" s="90"/>
+      <c r="S24" s="90"/>
+      <c r="T24" s="90"/>
+      <c r="U24" s="90"/>
+      <c r="V24" s="90"/>
+      <c r="W24" s="90"/>
+      <c r="X24" s="90"/>
+      <c r="Y24" s="90"/>
+      <c r="Z24" s="90"/>
+      <c r="AA24" s="90"/>
+      <c r="AB24" s="90"/>
+      <c r="AC24" s="90"/>
+      <c r="AD24" s="90"/>
+      <c r="AE24" s="90"/>
+      <c r="AF24" s="90"/>
+      <c r="AG24" s="90"/>
+      <c r="AH24" s="90"/>
+      <c r="AI24" s="90"/>
+      <c r="AJ24" s="90"/>
+      <c r="AK24" s="90"/>
+      <c r="AL24" s="91"/>
+      <c r="AM24" s="89"/>
+      <c r="AN24" s="90"/>
+      <c r="AO24" s="90"/>
+      <c r="AP24" s="90"/>
+      <c r="AQ24" s="90"/>
+      <c r="AR24" s="90"/>
+      <c r="AS24" s="90"/>
+      <c r="AT24" s="90"/>
+      <c r="AU24" s="90"/>
+      <c r="AV24" s="90"/>
+      <c r="AW24" s="90"/>
+      <c r="AX24" s="90"/>
+      <c r="AY24" s="90"/>
+      <c r="AZ24" s="91"/>
     </row>
     <row r="25" spans="1:52">
       <c r="A25" s="9" t="str">
@@ -5026,56 +5030,56 @@
         <v/>
       </c>
       <c r="B25" s="10"/>
-      <c r="C25" s="89"/>
-      <c r="D25" s="90"/>
-      <c r="E25" s="90"/>
-      <c r="F25" s="91"/>
-      <c r="G25" s="83"/>
-      <c r="H25" s="84"/>
-      <c r="I25" s="84"/>
-      <c r="J25" s="84"/>
-      <c r="K25" s="85"/>
-      <c r="L25" s="86"/>
-      <c r="M25" s="87"/>
-      <c r="N25" s="87"/>
-      <c r="O25" s="87"/>
-      <c r="P25" s="88"/>
-      <c r="Q25" s="86"/>
-      <c r="R25" s="87"/>
-      <c r="S25" s="87"/>
-      <c r="T25" s="87"/>
-      <c r="U25" s="87"/>
-      <c r="V25" s="87"/>
-      <c r="W25" s="87"/>
-      <c r="X25" s="87"/>
-      <c r="Y25" s="87"/>
-      <c r="Z25" s="87"/>
-      <c r="AA25" s="87"/>
-      <c r="AB25" s="87"/>
-      <c r="AC25" s="87"/>
-      <c r="AD25" s="87"/>
-      <c r="AE25" s="87"/>
-      <c r="AF25" s="87"/>
-      <c r="AG25" s="87"/>
-      <c r="AH25" s="87"/>
-      <c r="AI25" s="87"/>
-      <c r="AJ25" s="87"/>
-      <c r="AK25" s="87"/>
-      <c r="AL25" s="88"/>
-      <c r="AM25" s="86"/>
-      <c r="AN25" s="87"/>
-      <c r="AO25" s="87"/>
-      <c r="AP25" s="87"/>
-      <c r="AQ25" s="87"/>
-      <c r="AR25" s="87"/>
-      <c r="AS25" s="87"/>
-      <c r="AT25" s="87"/>
-      <c r="AU25" s="87"/>
-      <c r="AV25" s="87"/>
-      <c r="AW25" s="87"/>
-      <c r="AX25" s="87"/>
-      <c r="AY25" s="87"/>
-      <c r="AZ25" s="88"/>
+      <c r="C25" s="83"/>
+      <c r="D25" s="84"/>
+      <c r="E25" s="84"/>
+      <c r="F25" s="85"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="87"/>
+      <c r="I25" s="87"/>
+      <c r="J25" s="87"/>
+      <c r="K25" s="88"/>
+      <c r="L25" s="89"/>
+      <c r="M25" s="90"/>
+      <c r="N25" s="90"/>
+      <c r="O25" s="90"/>
+      <c r="P25" s="91"/>
+      <c r="Q25" s="89"/>
+      <c r="R25" s="90"/>
+      <c r="S25" s="90"/>
+      <c r="T25" s="90"/>
+      <c r="U25" s="90"/>
+      <c r="V25" s="90"/>
+      <c r="W25" s="90"/>
+      <c r="X25" s="90"/>
+      <c r="Y25" s="90"/>
+      <c r="Z25" s="90"/>
+      <c r="AA25" s="90"/>
+      <c r="AB25" s="90"/>
+      <c r="AC25" s="90"/>
+      <c r="AD25" s="90"/>
+      <c r="AE25" s="90"/>
+      <c r="AF25" s="90"/>
+      <c r="AG25" s="90"/>
+      <c r="AH25" s="90"/>
+      <c r="AI25" s="90"/>
+      <c r="AJ25" s="90"/>
+      <c r="AK25" s="90"/>
+      <c r="AL25" s="91"/>
+      <c r="AM25" s="89"/>
+      <c r="AN25" s="90"/>
+      <c r="AO25" s="90"/>
+      <c r="AP25" s="90"/>
+      <c r="AQ25" s="90"/>
+      <c r="AR25" s="90"/>
+      <c r="AS25" s="90"/>
+      <c r="AT25" s="90"/>
+      <c r="AU25" s="90"/>
+      <c r="AV25" s="90"/>
+      <c r="AW25" s="90"/>
+      <c r="AX25" s="90"/>
+      <c r="AY25" s="90"/>
+      <c r="AZ25" s="91"/>
     </row>
     <row r="26" spans="1:52">
       <c r="A26" s="9" t="str">
@@ -5083,56 +5087,56 @@
         <v/>
       </c>
       <c r="B26" s="10"/>
-      <c r="C26" s="89"/>
-      <c r="D26" s="90"/>
-      <c r="E26" s="90"/>
-      <c r="F26" s="91"/>
-      <c r="G26" s="83"/>
-      <c r="H26" s="84"/>
-      <c r="I26" s="84"/>
-      <c r="J26" s="84"/>
-      <c r="K26" s="85"/>
-      <c r="L26" s="86"/>
-      <c r="M26" s="87"/>
-      <c r="N26" s="87"/>
-      <c r="O26" s="87"/>
-      <c r="P26" s="88"/>
-      <c r="Q26" s="86"/>
-      <c r="R26" s="87"/>
-      <c r="S26" s="87"/>
-      <c r="T26" s="87"/>
-      <c r="U26" s="87"/>
-      <c r="V26" s="87"/>
-      <c r="W26" s="87"/>
-      <c r="X26" s="87"/>
-      <c r="Y26" s="87"/>
-      <c r="Z26" s="87"/>
-      <c r="AA26" s="87"/>
-      <c r="AB26" s="87"/>
-      <c r="AC26" s="87"/>
-      <c r="AD26" s="87"/>
-      <c r="AE26" s="87"/>
-      <c r="AF26" s="87"/>
-      <c r="AG26" s="87"/>
-      <c r="AH26" s="87"/>
-      <c r="AI26" s="87"/>
-      <c r="AJ26" s="87"/>
-      <c r="AK26" s="87"/>
-      <c r="AL26" s="88"/>
-      <c r="AM26" s="86"/>
-      <c r="AN26" s="87"/>
-      <c r="AO26" s="87"/>
-      <c r="AP26" s="87"/>
-      <c r="AQ26" s="87"/>
-      <c r="AR26" s="87"/>
-      <c r="AS26" s="87"/>
-      <c r="AT26" s="87"/>
-      <c r="AU26" s="87"/>
-      <c r="AV26" s="87"/>
-      <c r="AW26" s="87"/>
-      <c r="AX26" s="87"/>
-      <c r="AY26" s="87"/>
-      <c r="AZ26" s="88"/>
+      <c r="C26" s="83"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="84"/>
+      <c r="F26" s="85"/>
+      <c r="G26" s="86"/>
+      <c r="H26" s="87"/>
+      <c r="I26" s="87"/>
+      <c r="J26" s="87"/>
+      <c r="K26" s="88"/>
+      <c r="L26" s="89"/>
+      <c r="M26" s="90"/>
+      <c r="N26" s="90"/>
+      <c r="O26" s="90"/>
+      <c r="P26" s="91"/>
+      <c r="Q26" s="89"/>
+      <c r="R26" s="90"/>
+      <c r="S26" s="90"/>
+      <c r="T26" s="90"/>
+      <c r="U26" s="90"/>
+      <c r="V26" s="90"/>
+      <c r="W26" s="90"/>
+      <c r="X26" s="90"/>
+      <c r="Y26" s="90"/>
+      <c r="Z26" s="90"/>
+      <c r="AA26" s="90"/>
+      <c r="AB26" s="90"/>
+      <c r="AC26" s="90"/>
+      <c r="AD26" s="90"/>
+      <c r="AE26" s="90"/>
+      <c r="AF26" s="90"/>
+      <c r="AG26" s="90"/>
+      <c r="AH26" s="90"/>
+      <c r="AI26" s="90"/>
+      <c r="AJ26" s="90"/>
+      <c r="AK26" s="90"/>
+      <c r="AL26" s="91"/>
+      <c r="AM26" s="89"/>
+      <c r="AN26" s="90"/>
+      <c r="AO26" s="90"/>
+      <c r="AP26" s="90"/>
+      <c r="AQ26" s="90"/>
+      <c r="AR26" s="90"/>
+      <c r="AS26" s="90"/>
+      <c r="AT26" s="90"/>
+      <c r="AU26" s="90"/>
+      <c r="AV26" s="90"/>
+      <c r="AW26" s="90"/>
+      <c r="AX26" s="90"/>
+      <c r="AY26" s="90"/>
+      <c r="AZ26" s="91"/>
     </row>
     <row r="27" spans="1:52">
       <c r="A27" s="9" t="str">
@@ -5140,56 +5144,56 @@
         <v/>
       </c>
       <c r="B27" s="10"/>
-      <c r="C27" s="89"/>
-      <c r="D27" s="90"/>
-      <c r="E27" s="90"/>
-      <c r="F27" s="91"/>
-      <c r="G27" s="83"/>
-      <c r="H27" s="84"/>
-      <c r="I27" s="84"/>
-      <c r="J27" s="84"/>
-      <c r="K27" s="85"/>
-      <c r="L27" s="86"/>
-      <c r="M27" s="87"/>
-      <c r="N27" s="87"/>
-      <c r="O27" s="87"/>
-      <c r="P27" s="88"/>
-      <c r="Q27" s="86"/>
-      <c r="R27" s="87"/>
-      <c r="S27" s="87"/>
-      <c r="T27" s="87"/>
-      <c r="U27" s="87"/>
-      <c r="V27" s="87"/>
-      <c r="W27" s="87"/>
-      <c r="X27" s="87"/>
-      <c r="Y27" s="87"/>
-      <c r="Z27" s="87"/>
-      <c r="AA27" s="87"/>
-      <c r="AB27" s="87"/>
-      <c r="AC27" s="87"/>
-      <c r="AD27" s="87"/>
-      <c r="AE27" s="87"/>
-      <c r="AF27" s="87"/>
-      <c r="AG27" s="87"/>
-      <c r="AH27" s="87"/>
-      <c r="AI27" s="87"/>
-      <c r="AJ27" s="87"/>
-      <c r="AK27" s="87"/>
-      <c r="AL27" s="88"/>
-      <c r="AM27" s="86"/>
-      <c r="AN27" s="87"/>
-      <c r="AO27" s="87"/>
-      <c r="AP27" s="87"/>
-      <c r="AQ27" s="87"/>
-      <c r="AR27" s="87"/>
-      <c r="AS27" s="87"/>
-      <c r="AT27" s="87"/>
-      <c r="AU27" s="87"/>
-      <c r="AV27" s="87"/>
-      <c r="AW27" s="87"/>
-      <c r="AX27" s="87"/>
-      <c r="AY27" s="87"/>
-      <c r="AZ27" s="88"/>
+      <c r="C27" s="83"/>
+      <c r="D27" s="84"/>
+      <c r="E27" s="84"/>
+      <c r="F27" s="85"/>
+      <c r="G27" s="86"/>
+      <c r="H27" s="87"/>
+      <c r="I27" s="87"/>
+      <c r="J27" s="87"/>
+      <c r="K27" s="88"/>
+      <c r="L27" s="89"/>
+      <c r="M27" s="90"/>
+      <c r="N27" s="90"/>
+      <c r="O27" s="90"/>
+      <c r="P27" s="91"/>
+      <c r="Q27" s="89"/>
+      <c r="R27" s="90"/>
+      <c r="S27" s="90"/>
+      <c r="T27" s="90"/>
+      <c r="U27" s="90"/>
+      <c r="V27" s="90"/>
+      <c r="W27" s="90"/>
+      <c r="X27" s="90"/>
+      <c r="Y27" s="90"/>
+      <c r="Z27" s="90"/>
+      <c r="AA27" s="90"/>
+      <c r="AB27" s="90"/>
+      <c r="AC27" s="90"/>
+      <c r="AD27" s="90"/>
+      <c r="AE27" s="90"/>
+      <c r="AF27" s="90"/>
+      <c r="AG27" s="90"/>
+      <c r="AH27" s="90"/>
+      <c r="AI27" s="90"/>
+      <c r="AJ27" s="90"/>
+      <c r="AK27" s="90"/>
+      <c r="AL27" s="91"/>
+      <c r="AM27" s="89"/>
+      <c r="AN27" s="90"/>
+      <c r="AO27" s="90"/>
+      <c r="AP27" s="90"/>
+      <c r="AQ27" s="90"/>
+      <c r="AR27" s="90"/>
+      <c r="AS27" s="90"/>
+      <c r="AT27" s="90"/>
+      <c r="AU27" s="90"/>
+      <c r="AV27" s="90"/>
+      <c r="AW27" s="90"/>
+      <c r="AX27" s="90"/>
+      <c r="AY27" s="90"/>
+      <c r="AZ27" s="91"/>
     </row>
     <row r="28" spans="1:52">
       <c r="A28" s="9" t="str">
@@ -5197,56 +5201,56 @@
         <v/>
       </c>
       <c r="B28" s="10"/>
-      <c r="C28" s="89"/>
-      <c r="D28" s="90"/>
-      <c r="E28" s="90"/>
-      <c r="F28" s="91"/>
-      <c r="G28" s="83"/>
-      <c r="H28" s="84"/>
-      <c r="I28" s="84"/>
-      <c r="J28" s="84"/>
-      <c r="K28" s="85"/>
-      <c r="L28" s="86"/>
-      <c r="M28" s="87"/>
-      <c r="N28" s="87"/>
-      <c r="O28" s="87"/>
-      <c r="P28" s="88"/>
-      <c r="Q28" s="86"/>
-      <c r="R28" s="87"/>
-      <c r="S28" s="87"/>
-      <c r="T28" s="87"/>
-      <c r="U28" s="87"/>
-      <c r="V28" s="87"/>
-      <c r="W28" s="87"/>
-      <c r="X28" s="87"/>
-      <c r="Y28" s="87"/>
-      <c r="Z28" s="87"/>
-      <c r="AA28" s="87"/>
-      <c r="AB28" s="87"/>
-      <c r="AC28" s="87"/>
-      <c r="AD28" s="87"/>
-      <c r="AE28" s="87"/>
-      <c r="AF28" s="87"/>
-      <c r="AG28" s="87"/>
-      <c r="AH28" s="87"/>
-      <c r="AI28" s="87"/>
-      <c r="AJ28" s="87"/>
-      <c r="AK28" s="87"/>
-      <c r="AL28" s="88"/>
-      <c r="AM28" s="86"/>
-      <c r="AN28" s="87"/>
-      <c r="AO28" s="87"/>
-      <c r="AP28" s="87"/>
-      <c r="AQ28" s="87"/>
-      <c r="AR28" s="87"/>
-      <c r="AS28" s="87"/>
-      <c r="AT28" s="87"/>
-      <c r="AU28" s="87"/>
-      <c r="AV28" s="87"/>
-      <c r="AW28" s="87"/>
-      <c r="AX28" s="87"/>
-      <c r="AY28" s="87"/>
-      <c r="AZ28" s="88"/>
+      <c r="C28" s="83"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="85"/>
+      <c r="G28" s="86"/>
+      <c r="H28" s="87"/>
+      <c r="I28" s="87"/>
+      <c r="J28" s="87"/>
+      <c r="K28" s="88"/>
+      <c r="L28" s="89"/>
+      <c r="M28" s="90"/>
+      <c r="N28" s="90"/>
+      <c r="O28" s="90"/>
+      <c r="P28" s="91"/>
+      <c r="Q28" s="89"/>
+      <c r="R28" s="90"/>
+      <c r="S28" s="90"/>
+      <c r="T28" s="90"/>
+      <c r="U28" s="90"/>
+      <c r="V28" s="90"/>
+      <c r="W28" s="90"/>
+      <c r="X28" s="90"/>
+      <c r="Y28" s="90"/>
+      <c r="Z28" s="90"/>
+      <c r="AA28" s="90"/>
+      <c r="AB28" s="90"/>
+      <c r="AC28" s="90"/>
+      <c r="AD28" s="90"/>
+      <c r="AE28" s="90"/>
+      <c r="AF28" s="90"/>
+      <c r="AG28" s="90"/>
+      <c r="AH28" s="90"/>
+      <c r="AI28" s="90"/>
+      <c r="AJ28" s="90"/>
+      <c r="AK28" s="90"/>
+      <c r="AL28" s="91"/>
+      <c r="AM28" s="89"/>
+      <c r="AN28" s="90"/>
+      <c r="AO28" s="90"/>
+      <c r="AP28" s="90"/>
+      <c r="AQ28" s="90"/>
+      <c r="AR28" s="90"/>
+      <c r="AS28" s="90"/>
+      <c r="AT28" s="90"/>
+      <c r="AU28" s="90"/>
+      <c r="AV28" s="90"/>
+      <c r="AW28" s="90"/>
+      <c r="AX28" s="90"/>
+      <c r="AY28" s="90"/>
+      <c r="AZ28" s="91"/>
     </row>
     <row r="29" spans="1:52">
       <c r="A29" s="9" t="str">
@@ -5254,56 +5258,56 @@
         <v/>
       </c>
       <c r="B29" s="10"/>
-      <c r="C29" s="89"/>
-      <c r="D29" s="90"/>
-      <c r="E29" s="90"/>
-      <c r="F29" s="91"/>
-      <c r="G29" s="83"/>
-      <c r="H29" s="84"/>
-      <c r="I29" s="84"/>
-      <c r="J29" s="84"/>
-      <c r="K29" s="85"/>
-      <c r="L29" s="86"/>
-      <c r="M29" s="87"/>
-      <c r="N29" s="87"/>
-      <c r="O29" s="87"/>
-      <c r="P29" s="88"/>
-      <c r="Q29" s="86"/>
-      <c r="R29" s="87"/>
-      <c r="S29" s="87"/>
-      <c r="T29" s="87"/>
-      <c r="U29" s="87"/>
-      <c r="V29" s="87"/>
-      <c r="W29" s="87"/>
-      <c r="X29" s="87"/>
-      <c r="Y29" s="87"/>
-      <c r="Z29" s="87"/>
-      <c r="AA29" s="87"/>
-      <c r="AB29" s="87"/>
-      <c r="AC29" s="87"/>
-      <c r="AD29" s="87"/>
-      <c r="AE29" s="87"/>
-      <c r="AF29" s="87"/>
-      <c r="AG29" s="87"/>
-      <c r="AH29" s="87"/>
-      <c r="AI29" s="87"/>
-      <c r="AJ29" s="87"/>
-      <c r="AK29" s="87"/>
-      <c r="AL29" s="88"/>
-      <c r="AM29" s="86"/>
-      <c r="AN29" s="87"/>
-      <c r="AO29" s="87"/>
-      <c r="AP29" s="87"/>
-      <c r="AQ29" s="87"/>
-      <c r="AR29" s="87"/>
-      <c r="AS29" s="87"/>
-      <c r="AT29" s="87"/>
-      <c r="AU29" s="87"/>
-      <c r="AV29" s="87"/>
-      <c r="AW29" s="87"/>
-      <c r="AX29" s="87"/>
-      <c r="AY29" s="87"/>
-      <c r="AZ29" s="88"/>
+      <c r="C29" s="83"/>
+      <c r="D29" s="84"/>
+      <c r="E29" s="84"/>
+      <c r="F29" s="85"/>
+      <c r="G29" s="86"/>
+      <c r="H29" s="87"/>
+      <c r="I29" s="87"/>
+      <c r="J29" s="87"/>
+      <c r="K29" s="88"/>
+      <c r="L29" s="89"/>
+      <c r="M29" s="90"/>
+      <c r="N29" s="90"/>
+      <c r="O29" s="90"/>
+      <c r="P29" s="91"/>
+      <c r="Q29" s="89"/>
+      <c r="R29" s="90"/>
+      <c r="S29" s="90"/>
+      <c r="T29" s="90"/>
+      <c r="U29" s="90"/>
+      <c r="V29" s="90"/>
+      <c r="W29" s="90"/>
+      <c r="X29" s="90"/>
+      <c r="Y29" s="90"/>
+      <c r="Z29" s="90"/>
+      <c r="AA29" s="90"/>
+      <c r="AB29" s="90"/>
+      <c r="AC29" s="90"/>
+      <c r="AD29" s="90"/>
+      <c r="AE29" s="90"/>
+      <c r="AF29" s="90"/>
+      <c r="AG29" s="90"/>
+      <c r="AH29" s="90"/>
+      <c r="AI29" s="90"/>
+      <c r="AJ29" s="90"/>
+      <c r="AK29" s="90"/>
+      <c r="AL29" s="91"/>
+      <c r="AM29" s="89"/>
+      <c r="AN29" s="90"/>
+      <c r="AO29" s="90"/>
+      <c r="AP29" s="90"/>
+      <c r="AQ29" s="90"/>
+      <c r="AR29" s="90"/>
+      <c r="AS29" s="90"/>
+      <c r="AT29" s="90"/>
+      <c r="AU29" s="90"/>
+      <c r="AV29" s="90"/>
+      <c r="AW29" s="90"/>
+      <c r="AX29" s="90"/>
+      <c r="AY29" s="90"/>
+      <c r="AZ29" s="91"/>
     </row>
     <row r="30" spans="1:52">
       <c r="A30" s="9" t="str">
@@ -5311,56 +5315,56 @@
         <v/>
       </c>
       <c r="B30" s="10"/>
-      <c r="C30" s="89"/>
-      <c r="D30" s="90"/>
-      <c r="E30" s="90"/>
-      <c r="F30" s="91"/>
-      <c r="G30" s="83"/>
-      <c r="H30" s="84"/>
-      <c r="I30" s="84"/>
-      <c r="J30" s="84"/>
-      <c r="K30" s="85"/>
-      <c r="L30" s="86"/>
-      <c r="M30" s="87"/>
-      <c r="N30" s="87"/>
-      <c r="O30" s="87"/>
-      <c r="P30" s="88"/>
-      <c r="Q30" s="86"/>
-      <c r="R30" s="87"/>
-      <c r="S30" s="87"/>
-      <c r="T30" s="87"/>
-      <c r="U30" s="87"/>
-      <c r="V30" s="87"/>
-      <c r="W30" s="87"/>
-      <c r="X30" s="87"/>
-      <c r="Y30" s="87"/>
-      <c r="Z30" s="87"/>
-      <c r="AA30" s="87"/>
-      <c r="AB30" s="87"/>
-      <c r="AC30" s="87"/>
-      <c r="AD30" s="87"/>
-      <c r="AE30" s="87"/>
-      <c r="AF30" s="87"/>
-      <c r="AG30" s="87"/>
-      <c r="AH30" s="87"/>
-      <c r="AI30" s="87"/>
-      <c r="AJ30" s="87"/>
-      <c r="AK30" s="87"/>
-      <c r="AL30" s="88"/>
-      <c r="AM30" s="86"/>
-      <c r="AN30" s="87"/>
-      <c r="AO30" s="87"/>
-      <c r="AP30" s="87"/>
-      <c r="AQ30" s="87"/>
-      <c r="AR30" s="87"/>
-      <c r="AS30" s="87"/>
-      <c r="AT30" s="87"/>
-      <c r="AU30" s="87"/>
-      <c r="AV30" s="87"/>
-      <c r="AW30" s="87"/>
-      <c r="AX30" s="87"/>
-      <c r="AY30" s="87"/>
-      <c r="AZ30" s="88"/>
+      <c r="C30" s="83"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="84"/>
+      <c r="F30" s="85"/>
+      <c r="G30" s="86"/>
+      <c r="H30" s="87"/>
+      <c r="I30" s="87"/>
+      <c r="J30" s="87"/>
+      <c r="K30" s="88"/>
+      <c r="L30" s="89"/>
+      <c r="M30" s="90"/>
+      <c r="N30" s="90"/>
+      <c r="O30" s="90"/>
+      <c r="P30" s="91"/>
+      <c r="Q30" s="89"/>
+      <c r="R30" s="90"/>
+      <c r="S30" s="90"/>
+      <c r="T30" s="90"/>
+      <c r="U30" s="90"/>
+      <c r="V30" s="90"/>
+      <c r="W30" s="90"/>
+      <c r="X30" s="90"/>
+      <c r="Y30" s="90"/>
+      <c r="Z30" s="90"/>
+      <c r="AA30" s="90"/>
+      <c r="AB30" s="90"/>
+      <c r="AC30" s="90"/>
+      <c r="AD30" s="90"/>
+      <c r="AE30" s="90"/>
+      <c r="AF30" s="90"/>
+      <c r="AG30" s="90"/>
+      <c r="AH30" s="90"/>
+      <c r="AI30" s="90"/>
+      <c r="AJ30" s="90"/>
+      <c r="AK30" s="90"/>
+      <c r="AL30" s="91"/>
+      <c r="AM30" s="89"/>
+      <c r="AN30" s="90"/>
+      <c r="AO30" s="90"/>
+      <c r="AP30" s="90"/>
+      <c r="AQ30" s="90"/>
+      <c r="AR30" s="90"/>
+      <c r="AS30" s="90"/>
+      <c r="AT30" s="90"/>
+      <c r="AU30" s="90"/>
+      <c r="AV30" s="90"/>
+      <c r="AW30" s="90"/>
+      <c r="AX30" s="90"/>
+      <c r="AY30" s="90"/>
+      <c r="AZ30" s="91"/>
     </row>
     <row r="31" spans="1:52">
       <c r="A31" s="9" t="str">
@@ -5368,56 +5372,56 @@
         <v/>
       </c>
       <c r="B31" s="10"/>
-      <c r="C31" s="89"/>
-      <c r="D31" s="90"/>
-      <c r="E31" s="90"/>
-      <c r="F31" s="91"/>
-      <c r="G31" s="83"/>
-      <c r="H31" s="84"/>
-      <c r="I31" s="84"/>
-      <c r="J31" s="84"/>
-      <c r="K31" s="85"/>
-      <c r="L31" s="86"/>
-      <c r="M31" s="87"/>
-      <c r="N31" s="87"/>
-      <c r="O31" s="87"/>
-      <c r="P31" s="88"/>
-      <c r="Q31" s="86"/>
-      <c r="R31" s="87"/>
-      <c r="S31" s="87"/>
-      <c r="T31" s="87"/>
-      <c r="U31" s="87"/>
-      <c r="V31" s="87"/>
-      <c r="W31" s="87"/>
-      <c r="X31" s="87"/>
-      <c r="Y31" s="87"/>
-      <c r="Z31" s="87"/>
-      <c r="AA31" s="87"/>
-      <c r="AB31" s="87"/>
-      <c r="AC31" s="87"/>
-      <c r="AD31" s="87"/>
-      <c r="AE31" s="87"/>
-      <c r="AF31" s="87"/>
-      <c r="AG31" s="87"/>
-      <c r="AH31" s="87"/>
-      <c r="AI31" s="87"/>
-      <c r="AJ31" s="87"/>
-      <c r="AK31" s="87"/>
-      <c r="AL31" s="88"/>
-      <c r="AM31" s="86"/>
-      <c r="AN31" s="87"/>
-      <c r="AO31" s="87"/>
-      <c r="AP31" s="87"/>
-      <c r="AQ31" s="87"/>
-      <c r="AR31" s="87"/>
-      <c r="AS31" s="87"/>
-      <c r="AT31" s="87"/>
-      <c r="AU31" s="87"/>
-      <c r="AV31" s="87"/>
-      <c r="AW31" s="87"/>
-      <c r="AX31" s="87"/>
-      <c r="AY31" s="87"/>
-      <c r="AZ31" s="88"/>
+      <c r="C31" s="83"/>
+      <c r="D31" s="84"/>
+      <c r="E31" s="84"/>
+      <c r="F31" s="85"/>
+      <c r="G31" s="86"/>
+      <c r="H31" s="87"/>
+      <c r="I31" s="87"/>
+      <c r="J31" s="87"/>
+      <c r="K31" s="88"/>
+      <c r="L31" s="89"/>
+      <c r="M31" s="90"/>
+      <c r="N31" s="90"/>
+      <c r="O31" s="90"/>
+      <c r="P31" s="91"/>
+      <c r="Q31" s="89"/>
+      <c r="R31" s="90"/>
+      <c r="S31" s="90"/>
+      <c r="T31" s="90"/>
+      <c r="U31" s="90"/>
+      <c r="V31" s="90"/>
+      <c r="W31" s="90"/>
+      <c r="X31" s="90"/>
+      <c r="Y31" s="90"/>
+      <c r="Z31" s="90"/>
+      <c r="AA31" s="90"/>
+      <c r="AB31" s="90"/>
+      <c r="AC31" s="90"/>
+      <c r="AD31" s="90"/>
+      <c r="AE31" s="90"/>
+      <c r="AF31" s="90"/>
+      <c r="AG31" s="90"/>
+      <c r="AH31" s="90"/>
+      <c r="AI31" s="90"/>
+      <c r="AJ31" s="90"/>
+      <c r="AK31" s="90"/>
+      <c r="AL31" s="91"/>
+      <c r="AM31" s="89"/>
+      <c r="AN31" s="90"/>
+      <c r="AO31" s="90"/>
+      <c r="AP31" s="90"/>
+      <c r="AQ31" s="90"/>
+      <c r="AR31" s="90"/>
+      <c r="AS31" s="90"/>
+      <c r="AT31" s="90"/>
+      <c r="AU31" s="90"/>
+      <c r="AV31" s="90"/>
+      <c r="AW31" s="90"/>
+      <c r="AX31" s="90"/>
+      <c r="AY31" s="90"/>
+      <c r="AZ31" s="91"/>
     </row>
     <row r="32" spans="1:52">
       <c r="A32" s="9" t="str">
@@ -5425,56 +5429,56 @@
         <v/>
       </c>
       <c r="B32" s="10"/>
-      <c r="C32" s="89"/>
-      <c r="D32" s="90"/>
-      <c r="E32" s="90"/>
-      <c r="F32" s="91"/>
-      <c r="G32" s="83"/>
-      <c r="H32" s="84"/>
-      <c r="I32" s="84"/>
-      <c r="J32" s="84"/>
-      <c r="K32" s="85"/>
-      <c r="L32" s="86"/>
-      <c r="M32" s="87"/>
-      <c r="N32" s="87"/>
-      <c r="O32" s="87"/>
-      <c r="P32" s="88"/>
-      <c r="Q32" s="86"/>
-      <c r="R32" s="87"/>
-      <c r="S32" s="87"/>
-      <c r="T32" s="87"/>
-      <c r="U32" s="87"/>
-      <c r="V32" s="87"/>
-      <c r="W32" s="87"/>
-      <c r="X32" s="87"/>
-      <c r="Y32" s="87"/>
-      <c r="Z32" s="87"/>
-      <c r="AA32" s="87"/>
-      <c r="AB32" s="87"/>
-      <c r="AC32" s="87"/>
-      <c r="AD32" s="87"/>
-      <c r="AE32" s="87"/>
-      <c r="AF32" s="87"/>
-      <c r="AG32" s="87"/>
-      <c r="AH32" s="87"/>
-      <c r="AI32" s="87"/>
-      <c r="AJ32" s="87"/>
-      <c r="AK32" s="87"/>
-      <c r="AL32" s="88"/>
-      <c r="AM32" s="86"/>
-      <c r="AN32" s="87"/>
-      <c r="AO32" s="87"/>
-      <c r="AP32" s="87"/>
-      <c r="AQ32" s="87"/>
-      <c r="AR32" s="87"/>
-      <c r="AS32" s="87"/>
-      <c r="AT32" s="87"/>
-      <c r="AU32" s="87"/>
-      <c r="AV32" s="87"/>
-      <c r="AW32" s="87"/>
-      <c r="AX32" s="87"/>
-      <c r="AY32" s="87"/>
-      <c r="AZ32" s="88"/>
+      <c r="C32" s="83"/>
+      <c r="D32" s="84"/>
+      <c r="E32" s="84"/>
+      <c r="F32" s="85"/>
+      <c r="G32" s="86"/>
+      <c r="H32" s="87"/>
+      <c r="I32" s="87"/>
+      <c r="J32" s="87"/>
+      <c r="K32" s="88"/>
+      <c r="L32" s="89"/>
+      <c r="M32" s="90"/>
+      <c r="N32" s="90"/>
+      <c r="O32" s="90"/>
+      <c r="P32" s="91"/>
+      <c r="Q32" s="89"/>
+      <c r="R32" s="90"/>
+      <c r="S32" s="90"/>
+      <c r="T32" s="90"/>
+      <c r="U32" s="90"/>
+      <c r="V32" s="90"/>
+      <c r="W32" s="90"/>
+      <c r="X32" s="90"/>
+      <c r="Y32" s="90"/>
+      <c r="Z32" s="90"/>
+      <c r="AA32" s="90"/>
+      <c r="AB32" s="90"/>
+      <c r="AC32" s="90"/>
+      <c r="AD32" s="90"/>
+      <c r="AE32" s="90"/>
+      <c r="AF32" s="90"/>
+      <c r="AG32" s="90"/>
+      <c r="AH32" s="90"/>
+      <c r="AI32" s="90"/>
+      <c r="AJ32" s="90"/>
+      <c r="AK32" s="90"/>
+      <c r="AL32" s="91"/>
+      <c r="AM32" s="89"/>
+      <c r="AN32" s="90"/>
+      <c r="AO32" s="90"/>
+      <c r="AP32" s="90"/>
+      <c r="AQ32" s="90"/>
+      <c r="AR32" s="90"/>
+      <c r="AS32" s="90"/>
+      <c r="AT32" s="90"/>
+      <c r="AU32" s="90"/>
+      <c r="AV32" s="90"/>
+      <c r="AW32" s="90"/>
+      <c r="AX32" s="90"/>
+      <c r="AY32" s="90"/>
+      <c r="AZ32" s="91"/>
     </row>
     <row r="33" spans="1:52">
       <c r="A33" s="9" t="str">
@@ -5482,56 +5486,56 @@
         <v/>
       </c>
       <c r="B33" s="10"/>
-      <c r="C33" s="89"/>
-      <c r="D33" s="90"/>
-      <c r="E33" s="90"/>
-      <c r="F33" s="91"/>
-      <c r="G33" s="83"/>
-      <c r="H33" s="84"/>
-      <c r="I33" s="84"/>
-      <c r="J33" s="84"/>
-      <c r="K33" s="85"/>
-      <c r="L33" s="86"/>
-      <c r="M33" s="87"/>
-      <c r="N33" s="87"/>
-      <c r="O33" s="87"/>
-      <c r="P33" s="88"/>
-      <c r="Q33" s="86"/>
-      <c r="R33" s="87"/>
-      <c r="S33" s="87"/>
-      <c r="T33" s="87"/>
-      <c r="U33" s="87"/>
-      <c r="V33" s="87"/>
-      <c r="W33" s="87"/>
-      <c r="X33" s="87"/>
-      <c r="Y33" s="87"/>
-      <c r="Z33" s="87"/>
-      <c r="AA33" s="87"/>
-      <c r="AB33" s="87"/>
-      <c r="AC33" s="87"/>
-      <c r="AD33" s="87"/>
-      <c r="AE33" s="87"/>
-      <c r="AF33" s="87"/>
-      <c r="AG33" s="87"/>
-      <c r="AH33" s="87"/>
-      <c r="AI33" s="87"/>
-      <c r="AJ33" s="87"/>
-      <c r="AK33" s="87"/>
-      <c r="AL33" s="88"/>
-      <c r="AM33" s="86"/>
-      <c r="AN33" s="87"/>
-      <c r="AO33" s="87"/>
-      <c r="AP33" s="87"/>
-      <c r="AQ33" s="87"/>
-      <c r="AR33" s="87"/>
-      <c r="AS33" s="87"/>
-      <c r="AT33" s="87"/>
-      <c r="AU33" s="87"/>
-      <c r="AV33" s="87"/>
-      <c r="AW33" s="87"/>
-      <c r="AX33" s="87"/>
-      <c r="AY33" s="87"/>
-      <c r="AZ33" s="88"/>
+      <c r="C33" s="83"/>
+      <c r="D33" s="84"/>
+      <c r="E33" s="84"/>
+      <c r="F33" s="85"/>
+      <c r="G33" s="86"/>
+      <c r="H33" s="87"/>
+      <c r="I33" s="87"/>
+      <c r="J33" s="87"/>
+      <c r="K33" s="88"/>
+      <c r="L33" s="89"/>
+      <c r="M33" s="90"/>
+      <c r="N33" s="90"/>
+      <c r="O33" s="90"/>
+      <c r="P33" s="91"/>
+      <c r="Q33" s="89"/>
+      <c r="R33" s="90"/>
+      <c r="S33" s="90"/>
+      <c r="T33" s="90"/>
+      <c r="U33" s="90"/>
+      <c r="V33" s="90"/>
+      <c r="W33" s="90"/>
+      <c r="X33" s="90"/>
+      <c r="Y33" s="90"/>
+      <c r="Z33" s="90"/>
+      <c r="AA33" s="90"/>
+      <c r="AB33" s="90"/>
+      <c r="AC33" s="90"/>
+      <c r="AD33" s="90"/>
+      <c r="AE33" s="90"/>
+      <c r="AF33" s="90"/>
+      <c r="AG33" s="90"/>
+      <c r="AH33" s="90"/>
+      <c r="AI33" s="90"/>
+      <c r="AJ33" s="90"/>
+      <c r="AK33" s="90"/>
+      <c r="AL33" s="91"/>
+      <c r="AM33" s="89"/>
+      <c r="AN33" s="90"/>
+      <c r="AO33" s="90"/>
+      <c r="AP33" s="90"/>
+      <c r="AQ33" s="90"/>
+      <c r="AR33" s="90"/>
+      <c r="AS33" s="90"/>
+      <c r="AT33" s="90"/>
+      <c r="AU33" s="90"/>
+      <c r="AV33" s="90"/>
+      <c r="AW33" s="90"/>
+      <c r="AX33" s="90"/>
+      <c r="AY33" s="90"/>
+      <c r="AZ33" s="91"/>
     </row>
     <row r="34" spans="1:52">
       <c r="A34" s="9" t="str">
@@ -5539,56 +5543,56 @@
         <v/>
       </c>
       <c r="B34" s="10"/>
-      <c r="C34" s="89"/>
-      <c r="D34" s="90"/>
-      <c r="E34" s="90"/>
-      <c r="F34" s="91"/>
-      <c r="G34" s="83"/>
-      <c r="H34" s="84"/>
-      <c r="I34" s="84"/>
-      <c r="J34" s="84"/>
-      <c r="K34" s="85"/>
-      <c r="L34" s="86"/>
-      <c r="M34" s="87"/>
-      <c r="N34" s="87"/>
-      <c r="O34" s="87"/>
-      <c r="P34" s="88"/>
-      <c r="Q34" s="86"/>
-      <c r="R34" s="87"/>
-      <c r="S34" s="87"/>
-      <c r="T34" s="87"/>
-      <c r="U34" s="87"/>
-      <c r="V34" s="87"/>
-      <c r="W34" s="87"/>
-      <c r="X34" s="87"/>
-      <c r="Y34" s="87"/>
-      <c r="Z34" s="87"/>
-      <c r="AA34" s="87"/>
-      <c r="AB34" s="87"/>
-      <c r="AC34" s="87"/>
-      <c r="AD34" s="87"/>
-      <c r="AE34" s="87"/>
-      <c r="AF34" s="87"/>
-      <c r="AG34" s="87"/>
-      <c r="AH34" s="87"/>
-      <c r="AI34" s="87"/>
-      <c r="AJ34" s="87"/>
-      <c r="AK34" s="87"/>
-      <c r="AL34" s="88"/>
-      <c r="AM34" s="86"/>
-      <c r="AN34" s="87"/>
-      <c r="AO34" s="87"/>
-      <c r="AP34" s="87"/>
-      <c r="AQ34" s="87"/>
-      <c r="AR34" s="87"/>
-      <c r="AS34" s="87"/>
-      <c r="AT34" s="87"/>
-      <c r="AU34" s="87"/>
-      <c r="AV34" s="87"/>
-      <c r="AW34" s="87"/>
-      <c r="AX34" s="87"/>
-      <c r="AY34" s="87"/>
-      <c r="AZ34" s="88"/>
+      <c r="C34" s="83"/>
+      <c r="D34" s="84"/>
+      <c r="E34" s="84"/>
+      <c r="F34" s="85"/>
+      <c r="G34" s="86"/>
+      <c r="H34" s="87"/>
+      <c r="I34" s="87"/>
+      <c r="J34" s="87"/>
+      <c r="K34" s="88"/>
+      <c r="L34" s="89"/>
+      <c r="M34" s="90"/>
+      <c r="N34" s="90"/>
+      <c r="O34" s="90"/>
+      <c r="P34" s="91"/>
+      <c r="Q34" s="89"/>
+      <c r="R34" s="90"/>
+      <c r="S34" s="90"/>
+      <c r="T34" s="90"/>
+      <c r="U34" s="90"/>
+      <c r="V34" s="90"/>
+      <c r="W34" s="90"/>
+      <c r="X34" s="90"/>
+      <c r="Y34" s="90"/>
+      <c r="Z34" s="90"/>
+      <c r="AA34" s="90"/>
+      <c r="AB34" s="90"/>
+      <c r="AC34" s="90"/>
+      <c r="AD34" s="90"/>
+      <c r="AE34" s="90"/>
+      <c r="AF34" s="90"/>
+      <c r="AG34" s="90"/>
+      <c r="AH34" s="90"/>
+      <c r="AI34" s="90"/>
+      <c r="AJ34" s="90"/>
+      <c r="AK34" s="90"/>
+      <c r="AL34" s="91"/>
+      <c r="AM34" s="89"/>
+      <c r="AN34" s="90"/>
+      <c r="AO34" s="90"/>
+      <c r="AP34" s="90"/>
+      <c r="AQ34" s="90"/>
+      <c r="AR34" s="90"/>
+      <c r="AS34" s="90"/>
+      <c r="AT34" s="90"/>
+      <c r="AU34" s="90"/>
+      <c r="AV34" s="90"/>
+      <c r="AW34" s="90"/>
+      <c r="AX34" s="90"/>
+      <c r="AY34" s="90"/>
+      <c r="AZ34" s="91"/>
     </row>
     <row r="35" spans="1:52">
       <c r="A35" s="9" t="str">
@@ -5596,59 +5600,189 @@
         <v/>
       </c>
       <c r="B35" s="10"/>
-      <c r="C35" s="89"/>
-      <c r="D35" s="90"/>
-      <c r="E35" s="90"/>
-      <c r="F35" s="91"/>
-      <c r="G35" s="83"/>
-      <c r="H35" s="84"/>
-      <c r="I35" s="84"/>
-      <c r="J35" s="84"/>
-      <c r="K35" s="85"/>
-      <c r="L35" s="86"/>
-      <c r="M35" s="87"/>
-      <c r="N35" s="87"/>
-      <c r="O35" s="87"/>
-      <c r="P35" s="88"/>
-      <c r="Q35" s="86"/>
-      <c r="R35" s="87"/>
-      <c r="S35" s="87"/>
-      <c r="T35" s="87"/>
-      <c r="U35" s="87"/>
-      <c r="V35" s="87"/>
-      <c r="W35" s="87"/>
-      <c r="X35" s="87"/>
-      <c r="Y35" s="87"/>
-      <c r="Z35" s="87"/>
-      <c r="AA35" s="87"/>
-      <c r="AB35" s="87"/>
-      <c r="AC35" s="87"/>
-      <c r="AD35" s="87"/>
-      <c r="AE35" s="87"/>
-      <c r="AF35" s="87"/>
-      <c r="AG35" s="87"/>
-      <c r="AH35" s="87"/>
-      <c r="AI35" s="87"/>
-      <c r="AJ35" s="87"/>
-      <c r="AK35" s="87"/>
-      <c r="AL35" s="88"/>
-      <c r="AM35" s="86"/>
-      <c r="AN35" s="87"/>
-      <c r="AO35" s="87"/>
-      <c r="AP35" s="87"/>
-      <c r="AQ35" s="87"/>
-      <c r="AR35" s="87"/>
-      <c r="AS35" s="87"/>
-      <c r="AT35" s="87"/>
-      <c r="AU35" s="87"/>
-      <c r="AV35" s="87"/>
-      <c r="AW35" s="87"/>
-      <c r="AX35" s="87"/>
-      <c r="AY35" s="87"/>
-      <c r="AZ35" s="88"/>
+      <c r="C35" s="83"/>
+      <c r="D35" s="84"/>
+      <c r="E35" s="84"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="86"/>
+      <c r="H35" s="87"/>
+      <c r="I35" s="87"/>
+      <c r="J35" s="87"/>
+      <c r="K35" s="88"/>
+      <c r="L35" s="89"/>
+      <c r="M35" s="90"/>
+      <c r="N35" s="90"/>
+      <c r="O35" s="90"/>
+      <c r="P35" s="91"/>
+      <c r="Q35" s="89"/>
+      <c r="R35" s="90"/>
+      <c r="S35" s="90"/>
+      <c r="T35" s="90"/>
+      <c r="U35" s="90"/>
+      <c r="V35" s="90"/>
+      <c r="W35" s="90"/>
+      <c r="X35" s="90"/>
+      <c r="Y35" s="90"/>
+      <c r="Z35" s="90"/>
+      <c r="AA35" s="90"/>
+      <c r="AB35" s="90"/>
+      <c r="AC35" s="90"/>
+      <c r="AD35" s="90"/>
+      <c r="AE35" s="90"/>
+      <c r="AF35" s="90"/>
+      <c r="AG35" s="90"/>
+      <c r="AH35" s="90"/>
+      <c r="AI35" s="90"/>
+      <c r="AJ35" s="90"/>
+      <c r="AK35" s="90"/>
+      <c r="AL35" s="91"/>
+      <c r="AM35" s="89"/>
+      <c r="AN35" s="90"/>
+      <c r="AO35" s="90"/>
+      <c r="AP35" s="90"/>
+      <c r="AQ35" s="90"/>
+      <c r="AR35" s="90"/>
+      <c r="AS35" s="90"/>
+      <c r="AT35" s="90"/>
+      <c r="AU35" s="90"/>
+      <c r="AV35" s="90"/>
+      <c r="AW35" s="90"/>
+      <c r="AX35" s="90"/>
+      <c r="AY35" s="90"/>
+      <c r="AZ35" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="140">
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="L8:P8"/>
+    <mergeCell ref="Q8:AL8"/>
+    <mergeCell ref="AM8:AZ8"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="L9:P9"/>
+    <mergeCell ref="Q9:AL9"/>
+    <mergeCell ref="AM9:AZ9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="Q10:AL10"/>
+    <mergeCell ref="AM10:AZ10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="L11:P11"/>
+    <mergeCell ref="Q11:AL11"/>
+    <mergeCell ref="AM11:AZ11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="L12:P12"/>
+    <mergeCell ref="Q12:AL12"/>
+    <mergeCell ref="AM12:AZ12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="L13:P13"/>
+    <mergeCell ref="Q13:AL13"/>
+    <mergeCell ref="AM13:AZ13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="L14:P14"/>
+    <mergeCell ref="Q14:AL14"/>
+    <mergeCell ref="AM14:AZ14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="L15:P15"/>
+    <mergeCell ref="Q15:AL15"/>
+    <mergeCell ref="AM15:AZ15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="L16:P16"/>
+    <mergeCell ref="Q16:AL16"/>
+    <mergeCell ref="AM16:AZ16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="L17:P17"/>
+    <mergeCell ref="Q17:AL17"/>
+    <mergeCell ref="AM17:AZ17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="L18:P18"/>
+    <mergeCell ref="Q18:AL18"/>
+    <mergeCell ref="AM18:AZ18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="L19:P19"/>
+    <mergeCell ref="Q19:AL19"/>
+    <mergeCell ref="AM19:AZ19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:K20"/>
+    <mergeCell ref="L20:P20"/>
+    <mergeCell ref="Q20:AL20"/>
+    <mergeCell ref="AM20:AZ20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G21:K21"/>
+    <mergeCell ref="L21:P21"/>
+    <mergeCell ref="Q21:AL21"/>
+    <mergeCell ref="AM21:AZ21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G22:K22"/>
+    <mergeCell ref="L22:P22"/>
+    <mergeCell ref="Q22:AL22"/>
+    <mergeCell ref="AM22:AZ22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="G23:K23"/>
+    <mergeCell ref="L23:P23"/>
+    <mergeCell ref="Q23:AL23"/>
+    <mergeCell ref="AM23:AZ23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:K24"/>
+    <mergeCell ref="L24:P24"/>
+    <mergeCell ref="Q24:AL24"/>
+    <mergeCell ref="AM24:AZ24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:K25"/>
+    <mergeCell ref="L25:P25"/>
+    <mergeCell ref="Q25:AL25"/>
+    <mergeCell ref="AM25:AZ25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="G26:K26"/>
+    <mergeCell ref="L26:P26"/>
+    <mergeCell ref="Q26:AL26"/>
+    <mergeCell ref="AM26:AZ26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="G27:K27"/>
+    <mergeCell ref="L27:P27"/>
+    <mergeCell ref="Q27:AL27"/>
+    <mergeCell ref="AM27:AZ27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="G28:K28"/>
+    <mergeCell ref="L28:P28"/>
+    <mergeCell ref="Q28:AL28"/>
+    <mergeCell ref="AM28:AZ28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="G29:K29"/>
+    <mergeCell ref="L29:P29"/>
+    <mergeCell ref="Q29:AL29"/>
+    <mergeCell ref="AM29:AZ29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="G30:K30"/>
+    <mergeCell ref="L30:P30"/>
+    <mergeCell ref="Q30:AL30"/>
+    <mergeCell ref="AM30:AZ30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="G31:K31"/>
+    <mergeCell ref="L31:P31"/>
+    <mergeCell ref="Q31:AL31"/>
+    <mergeCell ref="AM31:AZ31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="G32:K32"/>
+    <mergeCell ref="L32:P32"/>
+    <mergeCell ref="Q32:AL32"/>
+    <mergeCell ref="AM32:AZ32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="G33:K33"/>
+    <mergeCell ref="L33:P33"/>
+    <mergeCell ref="Q33:AL33"/>
+    <mergeCell ref="AM33:AZ33"/>
     <mergeCell ref="C34:F34"/>
     <mergeCell ref="G34:K34"/>
     <mergeCell ref="L34:P34"/>
@@ -5659,136 +5793,6 @@
     <mergeCell ref="L35:P35"/>
     <mergeCell ref="Q35:AL35"/>
     <mergeCell ref="AM35:AZ35"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="G32:K32"/>
-    <mergeCell ref="L32:P32"/>
-    <mergeCell ref="Q32:AL32"/>
-    <mergeCell ref="AM32:AZ32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="G33:K33"/>
-    <mergeCell ref="L33:P33"/>
-    <mergeCell ref="Q33:AL33"/>
-    <mergeCell ref="AM33:AZ33"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="G30:K30"/>
-    <mergeCell ref="L30:P30"/>
-    <mergeCell ref="Q30:AL30"/>
-    <mergeCell ref="AM30:AZ30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="G31:K31"/>
-    <mergeCell ref="L31:P31"/>
-    <mergeCell ref="Q31:AL31"/>
-    <mergeCell ref="AM31:AZ31"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="G28:K28"/>
-    <mergeCell ref="L28:P28"/>
-    <mergeCell ref="Q28:AL28"/>
-    <mergeCell ref="AM28:AZ28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="G29:K29"/>
-    <mergeCell ref="L29:P29"/>
-    <mergeCell ref="Q29:AL29"/>
-    <mergeCell ref="AM29:AZ29"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="G26:K26"/>
-    <mergeCell ref="L26:P26"/>
-    <mergeCell ref="Q26:AL26"/>
-    <mergeCell ref="AM26:AZ26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="G27:K27"/>
-    <mergeCell ref="L27:P27"/>
-    <mergeCell ref="Q27:AL27"/>
-    <mergeCell ref="AM27:AZ27"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="G24:K24"/>
-    <mergeCell ref="L24:P24"/>
-    <mergeCell ref="Q24:AL24"/>
-    <mergeCell ref="AM24:AZ24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G25:K25"/>
-    <mergeCell ref="L25:P25"/>
-    <mergeCell ref="Q25:AL25"/>
-    <mergeCell ref="AM25:AZ25"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="L22:P22"/>
-    <mergeCell ref="Q22:AL22"/>
-    <mergeCell ref="AM22:AZ22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="G23:K23"/>
-    <mergeCell ref="L23:P23"/>
-    <mergeCell ref="Q23:AL23"/>
-    <mergeCell ref="AM23:AZ23"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G20:K20"/>
-    <mergeCell ref="L20:P20"/>
-    <mergeCell ref="Q20:AL20"/>
-    <mergeCell ref="AM20:AZ20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G21:K21"/>
-    <mergeCell ref="L21:P21"/>
-    <mergeCell ref="Q21:AL21"/>
-    <mergeCell ref="AM21:AZ21"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="L18:P18"/>
-    <mergeCell ref="Q18:AL18"/>
-    <mergeCell ref="AM18:AZ18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G19:K19"/>
-    <mergeCell ref="L19:P19"/>
-    <mergeCell ref="Q19:AL19"/>
-    <mergeCell ref="AM19:AZ19"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="L16:P16"/>
-    <mergeCell ref="Q16:AL16"/>
-    <mergeCell ref="AM16:AZ16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="L17:P17"/>
-    <mergeCell ref="Q17:AL17"/>
-    <mergeCell ref="AM17:AZ17"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="L14:P14"/>
-    <mergeCell ref="Q14:AL14"/>
-    <mergeCell ref="AM14:AZ14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="L15:P15"/>
-    <mergeCell ref="Q15:AL15"/>
-    <mergeCell ref="AM15:AZ15"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="L12:P12"/>
-    <mergeCell ref="Q12:AL12"/>
-    <mergeCell ref="AM12:AZ12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="L13:P13"/>
-    <mergeCell ref="Q13:AL13"/>
-    <mergeCell ref="AM13:AZ13"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="Q10:AL10"/>
-    <mergeCell ref="AM10:AZ10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="L11:P11"/>
-    <mergeCell ref="Q11:AL11"/>
-    <mergeCell ref="AM11:AZ11"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="L8:P8"/>
-    <mergeCell ref="Q8:AL8"/>
-    <mergeCell ref="AM8:AZ8"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="L9:P9"/>
-    <mergeCell ref="Q9:AL9"/>
-    <mergeCell ref="AM9:AZ9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5802,9 +5806,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9307939-537D-9F44-B482-1E22BD0105F1}">
   <dimension ref="A1:BL94"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A11" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
-    </sheetView>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="16"/>
   <cols>
@@ -6130,7 +6132,7 @@
     </row>
     <row r="6" spans="1:60" customFormat="1">
       <c r="A6" s="39" t="s">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="B6" s="38"/>
       <c r="C6" s="38"/>
@@ -6194,7 +6196,7 @@
     </row>
     <row r="7" spans="1:60">
       <c r="A7" s="39" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B7" s="28"/>
       <c r="C7" s="28"/>
@@ -6643,7 +6645,7 @@
       <c r="F14" s="48"/>
       <c r="H14" s="48"/>
       <c r="I14" s="48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J14" s="48"/>
       <c r="K14" s="48"/>
@@ -6653,7 +6655,7 @@
       <c r="O14" s="48"/>
       <c r="P14" s="48"/>
       <c r="Q14" s="48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R14" s="48"/>
       <c r="S14" s="48"/>
@@ -6667,7 +6669,7 @@
       <c r="AA14" s="48"/>
       <c r="AB14" s="48"/>
       <c r="AD14" s="48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AE14" s="48"/>
       <c r="AF14" s="48"/>
@@ -6682,7 +6684,7 @@
       <c r="AO14" s="48"/>
       <c r="AP14" s="48"/>
       <c r="AQ14" s="48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AR14" s="48"/>
       <c r="AS14" s="48"/>
@@ -9213,7 +9215,7 @@
       <c r="S55" s="49"/>
       <c r="T55" s="50"/>
       <c r="U55" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="V55" s="31"/>
       <c r="W55" s="31"/>
@@ -9232,7 +9234,7 @@
       <c r="AH55" s="33"/>
       <c r="AI55" s="30"/>
       <c r="AJ55" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AK55" s="33"/>
       <c r="AL55" s="33"/>
@@ -9257,7 +9259,7 @@
       </c>
       <c r="C56" s="43"/>
       <c r="D56" s="41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E56" s="42"/>
       <c r="F56" s="42"/>
@@ -9271,7 +9273,7 @@
       <c r="N56" s="42"/>
       <c r="O56" s="43"/>
       <c r="P56" s="41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q56" s="42"/>
       <c r="R56" s="42"/>
@@ -9320,7 +9322,7 @@
       </c>
       <c r="C57" s="43"/>
       <c r="D57" s="41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E57" s="42"/>
       <c r="F57" s="42"/>
@@ -9341,7 +9343,7 @@
       <c r="S57" s="42"/>
       <c r="T57" s="43"/>
       <c r="U57" s="41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V57" s="42"/>
       <c r="W57" s="42"/>
@@ -9360,7 +9362,7 @@
       <c r="AH57" s="42"/>
       <c r="AI57" s="43"/>
       <c r="AJ57" s="41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AK57" s="42"/>
       <c r="AL57" s="42"/>
@@ -9383,7 +9385,7 @@
       </c>
       <c r="C58" s="43"/>
       <c r="D58" s="41" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E58" s="42"/>
       <c r="F58" s="42"/>
@@ -9397,14 +9399,14 @@
       <c r="N58" s="42"/>
       <c r="O58" s="43"/>
       <c r="P58" s="41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q58" s="42"/>
       <c r="R58" s="42"/>
       <c r="S58" s="42"/>
       <c r="T58" s="43"/>
       <c r="U58" s="41" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="V58" s="42"/>
       <c r="W58" s="42"/>
@@ -9446,7 +9448,7 @@
       </c>
       <c r="C59" s="43"/>
       <c r="D59" s="41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E59" s="42"/>
       <c r="F59" s="42"/>
@@ -9467,7 +9469,7 @@
       <c r="S59" s="42"/>
       <c r="T59" s="43"/>
       <c r="U59" s="41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V59" s="42"/>
       <c r="W59" s="42"/>
@@ -9509,7 +9511,7 @@
       </c>
       <c r="C60" s="43"/>
       <c r="D60" s="41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E60" s="42"/>
       <c r="F60" s="42"/>
@@ -9530,7 +9532,7 @@
       <c r="S60" s="42"/>
       <c r="T60" s="43"/>
       <c r="U60" s="41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V60" s="42"/>
       <c r="W60" s="42"/>
@@ -9549,7 +9551,7 @@
       <c r="AH60" s="42"/>
       <c r="AI60" s="43"/>
       <c r="AJ60" s="41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AK60" s="42"/>
       <c r="AL60" s="42"/>
@@ -9572,7 +9574,7 @@
       </c>
       <c r="C61" s="43"/>
       <c r="D61" s="41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E61" s="42"/>
       <c r="F61" s="42"/>
@@ -9586,14 +9588,14 @@
       <c r="N61" s="42"/>
       <c r="O61" s="43"/>
       <c r="P61" s="41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q61" s="42"/>
       <c r="R61" s="42"/>
       <c r="S61" s="42"/>
       <c r="T61" s="43"/>
       <c r="U61" s="41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V61" s="42"/>
       <c r="W61" s="42"/>
@@ -9635,7 +9637,7 @@
       </c>
       <c r="C62" s="43"/>
       <c r="D62" s="41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E62" s="42"/>
       <c r="F62" s="42"/>
@@ -9656,7 +9658,7 @@
       <c r="S62" s="42"/>
       <c r="T62" s="43"/>
       <c r="U62" s="41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V62" s="42"/>
       <c r="W62" s="42"/>
@@ -9675,7 +9677,7 @@
       <c r="AH62" s="42"/>
       <c r="AI62" s="43"/>
       <c r="AJ62" s="41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AK62" s="42"/>
       <c r="AL62" s="42"/>
@@ -9698,7 +9700,7 @@
       </c>
       <c r="C63" s="43"/>
       <c r="D63" s="41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E63" s="42"/>
       <c r="F63" s="42"/>
@@ -9712,14 +9714,14 @@
       <c r="N63" s="42"/>
       <c r="O63" s="43"/>
       <c r="P63" s="41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q63" s="42"/>
       <c r="R63" s="42"/>
       <c r="S63" s="42"/>
       <c r="T63" s="43"/>
       <c r="U63" s="41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V63" s="42"/>
       <c r="W63" s="42"/>
@@ -9775,14 +9777,14 @@
       <c r="N64" s="42"/>
       <c r="O64" s="43"/>
       <c r="P64" s="41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q64" s="42"/>
       <c r="R64" s="42"/>
       <c r="S64" s="42"/>
       <c r="T64" s="43"/>
       <c r="U64" s="41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V64" s="42"/>
       <c r="W64" s="42"/>
@@ -9824,7 +9826,7 @@
       </c>
       <c r="C65" s="43"/>
       <c r="D65" s="41" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E65" s="42"/>
       <c r="F65" s="42"/>
@@ -9838,14 +9840,14 @@
       <c r="N65" s="42"/>
       <c r="O65" s="43"/>
       <c r="P65" s="41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q65" s="42"/>
       <c r="R65" s="42"/>
       <c r="S65" s="42"/>
       <c r="T65" s="43"/>
       <c r="U65" s="41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V65" s="42"/>
       <c r="W65" s="42"/>
@@ -10087,7 +10089,7 @@
       </c>
       <c r="C69" s="43"/>
       <c r="D69" s="41" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E69" s="42"/>
       <c r="F69" s="42"/>
@@ -10106,7 +10108,7 @@
       <c r="Q69" s="42"/>
       <c r="R69" s="43"/>
       <c r="S69" s="41" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="T69" s="42"/>
       <c r="U69" s="42"/>
@@ -10160,7 +10162,7 @@
       </c>
       <c r="C70" s="43"/>
       <c r="D70" s="41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E70" s="42"/>
       <c r="F70" s="42"/>
@@ -10179,7 +10181,7 @@
       <c r="Q70" s="42"/>
       <c r="R70" s="43"/>
       <c r="S70" s="41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="T70" s="42"/>
       <c r="U70" s="42"/>
@@ -10233,7 +10235,7 @@
       </c>
       <c r="C71" s="43"/>
       <c r="D71" s="41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E71" s="42"/>
       <c r="F71" s="42"/>
@@ -10252,7 +10254,7 @@
       <c r="Q71" s="42"/>
       <c r="R71" s="43"/>
       <c r="S71" s="41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="T71" s="42"/>
       <c r="U71" s="42"/>
@@ -10379,7 +10381,7 @@
       </c>
       <c r="C73" s="43"/>
       <c r="D73" s="41" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E73" s="42"/>
       <c r="F73" s="42"/>
@@ -10398,7 +10400,7 @@
       <c r="Q73" s="42"/>
       <c r="R73" s="43"/>
       <c r="S73" s="41" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="T73" s="42"/>
       <c r="U73" s="42"/>
@@ -10513,7 +10515,7 @@
     <row r="75" spans="1:64">
       <c r="A75" s="39"/>
       <c r="B75" s="38" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C75" s="28"/>
       <c r="D75" s="28"/>
@@ -10581,7 +10583,7 @@
       </c>
       <c r="C76" s="30"/>
       <c r="D76" s="95" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E76" s="96"/>
       <c r="F76" s="97"/>
@@ -10595,7 +10597,7 @@
       <c r="L76" s="49"/>
       <c r="M76" s="49"/>
       <c r="N76" s="45" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O76" s="49"/>
       <c r="P76" s="49"/>
@@ -10611,7 +10613,7 @@
       <c r="X76" s="49"/>
       <c r="Y76" s="49"/>
       <c r="Z76" s="45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AA76" s="49"/>
       <c r="AB76" s="49"/>
@@ -10654,7 +10656,7 @@
       <c r="E77" s="42"/>
       <c r="F77" s="42"/>
       <c r="G77" s="41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H77" s="42"/>
       <c r="I77" s="42"/>
@@ -10663,7 +10665,7 @@
       <c r="L77" s="42"/>
       <c r="M77" s="42"/>
       <c r="N77" s="41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O77" s="42"/>
       <c r="P77" s="42"/>
@@ -10679,7 +10681,7 @@
       <c r="X77" s="42"/>
       <c r="Y77" s="42"/>
       <c r="Z77" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AA77" s="42"/>
       <c r="AB77" s="42"/>
@@ -10726,14 +10728,14 @@
       <c r="L78" s="42"/>
       <c r="M78" s="42"/>
       <c r="N78" s="41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O78" s="42"/>
       <c r="P78" s="42"/>
       <c r="Q78" s="42"/>
       <c r="R78" s="43"/>
       <c r="S78" s="52" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T78" s="42"/>
       <c r="U78" s="42"/>
@@ -10742,7 +10744,7 @@
       <c r="X78" s="42"/>
       <c r="Y78" s="42"/>
       <c r="Z78" s="41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA78" s="42"/>
       <c r="AB78" s="42"/>
@@ -10789,14 +10791,14 @@
       <c r="L79" s="42"/>
       <c r="M79" s="42"/>
       <c r="N79" s="41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O79" s="42"/>
       <c r="P79" s="42"/>
       <c r="Q79" s="42"/>
       <c r="R79" s="43"/>
       <c r="S79" s="52" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T79" s="42"/>
       <c r="U79" s="42"/>
@@ -10805,7 +10807,7 @@
       <c r="X79" s="42"/>
       <c r="Y79" s="42"/>
       <c r="Z79" s="41" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AA79" s="42"/>
       <c r="AB79" s="42"/>
@@ -10852,14 +10854,14 @@
       <c r="L80" s="42"/>
       <c r="M80" s="42"/>
       <c r="N80" s="41" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O80" s="42"/>
       <c r="P80" s="42"/>
       <c r="Q80" s="42"/>
       <c r="R80" s="43"/>
       <c r="S80" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T80" s="42"/>
       <c r="U80" s="42"/>
@@ -10868,7 +10870,7 @@
       <c r="X80" s="42"/>
       <c r="Y80" s="42"/>
       <c r="Z80" s="41" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AA80" s="42"/>
       <c r="AB80" s="42"/>
@@ -10915,7 +10917,7 @@
       <c r="L81" s="42"/>
       <c r="M81" s="42"/>
       <c r="N81" s="41" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O81" s="42"/>
       <c r="P81" s="42"/>
@@ -10931,7 +10933,7 @@
       <c r="X81" s="42"/>
       <c r="Y81" s="42"/>
       <c r="Z81" s="41" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AA81" s="42"/>
       <c r="AB81" s="42"/>
@@ -10973,7 +10975,7 @@
       <c r="E82" s="42"/>
       <c r="F82" s="42"/>
       <c r="G82" s="41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H82" s="42"/>
       <c r="I82" s="42"/>
@@ -10982,7 +10984,7 @@
       <c r="L82" s="42"/>
       <c r="M82" s="42"/>
       <c r="N82" s="41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O82" s="42"/>
       <c r="P82" s="42"/>
@@ -10998,7 +11000,7 @@
       <c r="X82" s="42"/>
       <c r="Y82" s="42"/>
       <c r="Z82" s="41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA82" s="42"/>
       <c r="AB82" s="42"/>
@@ -11045,14 +11047,14 @@
       <c r="L83" s="42"/>
       <c r="M83" s="42"/>
       <c r="N83" s="41" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O83" s="42"/>
       <c r="P83" s="42"/>
       <c r="Q83" s="42"/>
       <c r="R83" s="43"/>
       <c r="S83" s="52" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T83" s="42"/>
       <c r="U83" s="42"/>
@@ -11061,7 +11063,7 @@
       <c r="X83" s="42"/>
       <c r="Y83" s="42"/>
       <c r="Z83" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AA83" s="42"/>
       <c r="AB83" s="42"/>
@@ -11103,7 +11105,7 @@
       <c r="E84" s="42"/>
       <c r="F84" s="42"/>
       <c r="G84" s="41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H84" s="42"/>
       <c r="I84" s="42"/>
@@ -11112,7 +11114,7 @@
       <c r="L84" s="42"/>
       <c r="M84" s="42"/>
       <c r="N84" s="41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O84" s="42"/>
       <c r="P84" s="42"/>
@@ -11128,7 +11130,7 @@
       <c r="X84" s="42"/>
       <c r="Y84" s="42"/>
       <c r="Z84" s="41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AA84" s="42"/>
       <c r="AB84" s="42"/>
@@ -11175,14 +11177,14 @@
       <c r="L85" s="42"/>
       <c r="M85" s="42"/>
       <c r="N85" s="41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O85" s="42"/>
       <c r="P85" s="42"/>
       <c r="Q85" s="42"/>
       <c r="R85" s="43"/>
       <c r="S85" s="52" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T85" s="42"/>
       <c r="U85" s="42"/>
@@ -11191,7 +11193,7 @@
       <c r="X85" s="42"/>
       <c r="Y85" s="42"/>
       <c r="Z85" s="41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AA85" s="42"/>
       <c r="AB85" s="42"/>
@@ -11238,14 +11240,14 @@
       <c r="L86" s="42"/>
       <c r="M86" s="42"/>
       <c r="N86" s="41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O86" s="42"/>
       <c r="P86" s="42"/>
       <c r="Q86" s="42"/>
       <c r="R86" s="43"/>
       <c r="S86" s="52" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T86" s="42"/>
       <c r="U86" s="42"/>
@@ -11254,7 +11256,7 @@
       <c r="X86" s="42"/>
       <c r="Y86" s="42"/>
       <c r="Z86" s="41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA86" s="42"/>
       <c r="AB86" s="42"/>
@@ -11301,14 +11303,14 @@
       <c r="L87" s="42"/>
       <c r="M87" s="42"/>
       <c r="N87" s="41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O87" s="42"/>
       <c r="P87" s="42"/>
       <c r="Q87" s="42"/>
       <c r="R87" s="43"/>
       <c r="S87" s="52" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T87" s="42"/>
       <c r="U87" s="42"/>
@@ -11317,7 +11319,7 @@
       <c r="X87" s="42"/>
       <c r="Y87" s="42"/>
       <c r="Z87" s="41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AA87" s="42"/>
       <c r="AB87" s="42"/>
@@ -11364,14 +11366,14 @@
       <c r="L88" s="42"/>
       <c r="M88" s="42"/>
       <c r="N88" s="41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O88" s="42"/>
       <c r="P88" s="42"/>
       <c r="Q88" s="42"/>
       <c r="R88" s="43"/>
       <c r="S88" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T88" s="42"/>
       <c r="U88" s="42"/>
@@ -11380,7 +11382,7 @@
       <c r="X88" s="42"/>
       <c r="Y88" s="42"/>
       <c r="Z88" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AA88" s="42"/>
       <c r="AB88" s="42"/>
@@ -11422,7 +11424,7 @@
       <c r="E89" s="42"/>
       <c r="F89" s="42"/>
       <c r="G89" s="41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H89" s="42"/>
       <c r="I89" s="42"/>
@@ -11431,7 +11433,7 @@
       <c r="L89" s="42"/>
       <c r="M89" s="42"/>
       <c r="N89" s="41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O89" s="42"/>
       <c r="P89" s="42"/>
@@ -11447,7 +11449,7 @@
       <c r="X89" s="42"/>
       <c r="Y89" s="42"/>
       <c r="Z89" s="41" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AA89" s="42"/>
       <c r="AB89" s="42"/>
@@ -11494,14 +11496,14 @@
       <c r="L90" s="42"/>
       <c r="M90" s="42"/>
       <c r="N90" s="41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O90" s="42"/>
       <c r="P90" s="42"/>
       <c r="Q90" s="42"/>
       <c r="R90" s="43"/>
       <c r="S90" s="52" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T90" s="42"/>
       <c r="U90" s="42"/>
@@ -11510,7 +11512,7 @@
       <c r="X90" s="42"/>
       <c r="Y90" s="42"/>
       <c r="Z90" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AA90" s="42"/>
       <c r="AB90" s="42"/>
@@ -11557,14 +11559,14 @@
       <c r="L91" s="42"/>
       <c r="M91" s="42"/>
       <c r="N91" s="41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O91" s="42"/>
       <c r="P91" s="42"/>
       <c r="Q91" s="42"/>
       <c r="R91" s="43"/>
       <c r="S91" s="52" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T91" s="42"/>
       <c r="U91" s="42"/>
@@ -11573,7 +11575,7 @@
       <c r="X91" s="42"/>
       <c r="Y91" s="42"/>
       <c r="Z91" s="41" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AA91" s="42"/>
       <c r="AB91" s="42"/>
@@ -11620,14 +11622,14 @@
       <c r="L92" s="42"/>
       <c r="M92" s="42"/>
       <c r="N92" s="41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O92" s="42"/>
       <c r="P92" s="42"/>
       <c r="Q92" s="42"/>
       <c r="R92" s="43"/>
       <c r="S92" s="52" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T92" s="42"/>
       <c r="U92" s="42"/>
@@ -11636,7 +11638,7 @@
       <c r="X92" s="42"/>
       <c r="Y92" s="42"/>
       <c r="Z92" s="41" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AA92" s="42"/>
       <c r="AB92" s="42"/>
@@ -11683,14 +11685,14 @@
       <c r="L93" s="42"/>
       <c r="M93" s="42"/>
       <c r="N93" s="41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O93" s="42"/>
       <c r="P93" s="42"/>
       <c r="Q93" s="42"/>
       <c r="R93" s="43"/>
       <c r="S93" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T93" s="42"/>
       <c r="U93" s="42"/>
@@ -11699,7 +11701,7 @@
       <c r="X93" s="42"/>
       <c r="Y93" s="42"/>
       <c r="Z93" s="41" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AA93" s="42"/>
       <c r="AB93" s="42"/>
@@ -11736,12 +11738,12 @@
       </c>
       <c r="C94" s="43"/>
       <c r="D94" s="41" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E94" s="42"/>
       <c r="F94" s="42"/>
       <c r="G94" s="41" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H94" s="42"/>
       <c r="I94" s="42"/>
@@ -11750,7 +11752,7 @@
       <c r="L94" s="42"/>
       <c r="M94" s="42"/>
       <c r="N94" s="41" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O94" s="42"/>
       <c r="P94" s="42"/>
@@ -11766,7 +11768,7 @@
       <c r="X94" s="42"/>
       <c r="Y94" s="42"/>
       <c r="Z94" s="41" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AA94" s="42"/>
       <c r="AB94" s="42"/>
@@ -11833,13 +11835,13 @@
   <sheetData>
     <row r="2" spans="2:4" ht="18">
       <c r="B2" s="57" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="57" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="D2" s="57" t="s">
         <v>106</v>
-      </c>
-      <c r="D2" s="57" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="18">
@@ -11847,10 +11849,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="58" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="58" t="s">
         <v>108</v>
-      </c>
-      <c r="D3" s="58" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="18">
@@ -11858,10 +11860,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="58" t="s">
         <v>110</v>
-      </c>
-      <c r="D4" s="58" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="18">
@@ -11869,10 +11871,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="58" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="58" t="s">
         <v>112</v>
-      </c>
-      <c r="D5" s="58" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="18">
@@ -11880,10 +11882,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="58" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" s="58" t="s">
         <v>114</v>
-      </c>
-      <c r="D6" s="58" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="18">
@@ -11891,10 +11893,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="58" t="s">
         <v>116</v>
-      </c>
-      <c r="D7" s="58" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="18">
@@ -11902,10 +11904,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" s="58" t="s">
         <v>118</v>
-      </c>
-      <c r="D8" s="58" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="18">
@@ -11913,10 +11915,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" s="58" t="s">
         <v>120</v>
-      </c>
-      <c r="D9" s="58" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="18">
@@ -11924,10 +11926,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10" s="58" t="s">
         <v>122</v>
-      </c>
-      <c r="D10" s="58" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="18">
@@ -11935,10 +11937,10 @@
         <v>9</v>
       </c>
       <c r="C11" s="58" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" s="58" t="s">
         <v>124</v>
-      </c>
-      <c r="D11" s="58" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="18">
@@ -11946,10 +11948,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="58" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" s="58" t="s">
         <v>126</v>
-      </c>
-      <c r="D12" s="58" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="18">
@@ -11957,10 +11959,10 @@
         <v>11</v>
       </c>
       <c r="C13" s="58" t="s">
+        <v>127</v>
+      </c>
+      <c r="D13" s="58" t="s">
         <v>128</v>
-      </c>
-      <c r="D13" s="58" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="18">
@@ -11968,10 +11970,10 @@
         <v>12</v>
       </c>
       <c r="C14" s="58" t="s">
+        <v>129</v>
+      </c>
+      <c r="D14" s="58" t="s">
         <v>130</v>
-      </c>
-      <c r="D14" s="58" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="18">
@@ -11979,10 +11981,10 @@
         <v>13</v>
       </c>
       <c r="C15" s="58" t="s">
+        <v>131</v>
+      </c>
+      <c r="D15" s="58" t="s">
         <v>132</v>
-      </c>
-      <c r="D15" s="58" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="18">
@@ -11990,10 +11992,10 @@
         <v>14</v>
       </c>
       <c r="C16" s="58" t="s">
+        <v>133</v>
+      </c>
+      <c r="D16" s="58" t="s">
         <v>134</v>
-      </c>
-      <c r="D16" s="58" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="18">
@@ -12001,10 +12003,10 @@
         <v>15</v>
       </c>
       <c r="C17" s="58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D17" s="58" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
